--- a/pre_cri/data/base_real_ajustada.xlsx
+++ b/pre_cri/data/base_real_ajustada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="677" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C015C22-A22A-4608-8798-C0A49B666F52}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A90869F-27CF-412F-A216-26DD26028763}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="345" windowWidth="29010" windowHeight="14940" tabRatio="763" firstSheet="2" activeTab="3" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="2" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="informacoes_preliminares" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="671">
   <si>
     <t>INFORMAÇÕES PARA ARQUIVO NO REGISTRO DE IMÓVEIS</t>
   </si>
@@ -2092,13 +2092,16 @@
   </si>
   <si>
     <t>14.  CUSTO UNITÁRIO DA OBRA EM CÁLCULO [CUSTO TOTAL/ÁREA EQUIVALENTE(13)/(4.6)] (R$):</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000_);\(#,##0.000000\)"/>
@@ -2112,6 +2115,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.00000000_);\(#,##0.00000000\)"/>
     <numFmt numFmtId="175" formatCode="0.0000%"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -3577,7 +3581,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="466">
+  <cellXfs count="467">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4285,7 +4289,6 @@
     <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="61" xfId="7" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4428,6 +4431,36 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="26" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="61" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4452,32 +4485,41 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4485,49 +4527,10 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5381,22 +5384,22 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="352" t="s">
         <v>600</v>
       </c>
-      <c r="B12" s="353" t="s">
+      <c r="B12" s="352" t="s">
         <v>601</v>
       </c>
-      <c r="C12" s="353" t="s">
+      <c r="C12" s="352" t="s">
         <v>602</v>
       </c>
-      <c r="D12" s="353" t="s">
+      <c r="D12" s="352" t="s">
         <v>603</v>
       </c>
-      <c r="E12" s="353" t="s">
+      <c r="E12" s="352" t="s">
         <v>604</v>
       </c>
-      <c r="F12" s="353" t="s">
+      <c r="F12" s="352" t="s">
         <v>554</v>
       </c>
     </row>
@@ -5817,14 +5820,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D588FE0-1285-44F2-BF94-103261262ED6}">
-  <sheetPr syncVertical="1" syncRef="A29" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
     <tabColor theme="6" tint="0.39997558519241921"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -5924,11 +5927,11 @@
       <c r="F5" s="146"/>
       <c r="G5" s="127"/>
       <c r="H5" s="127"/>
-      <c r="I5" s="460"/>
-      <c r="J5" s="461"/>
-      <c r="K5" s="461"/>
-      <c r="L5" s="461"/>
-      <c r="M5" s="462"/>
+      <c r="I5" s="461"/>
+      <c r="J5" s="462"/>
+      <c r="K5" s="462"/>
+      <c r="L5" s="462"/>
+      <c r="M5" s="463"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="147" t="s">
@@ -5999,13 +6002,13 @@
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="158"/>
       <c r="C9" s="159"/>
-      <c r="D9" s="463" t="s">
+      <c r="D9" s="464" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="464"/>
-      <c r="F9" s="464"/>
-      <c r="G9" s="464"/>
-      <c r="H9" s="465"/>
+      <c r="E9" s="465"/>
+      <c r="F9" s="465"/>
+      <c r="G9" s="465"/>
+      <c r="H9" s="466"/>
       <c r="I9" s="268" t="s">
         <v>465</v>
       </c>
@@ -6136,40 +6139,40 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="354" t="s">
+      <c r="A13" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B13" s="354" t="s">
+      <c r="B13" s="353" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="181">
+      <c r="C13" s="403">
         <v>11</v>
       </c>
-      <c r="D13" s="355">
+      <c r="D13" s="354">
         <v>10.799999999999999</v>
       </c>
-      <c r="E13" s="355">
-        <v>0</v>
-      </c>
-      <c r="F13" s="355">
+      <c r="E13" s="354">
+        <v>0</v>
+      </c>
+      <c r="F13" s="354">
         <v>16.444731000000001</v>
       </c>
-      <c r="G13" s="355">
+      <c r="G13" s="354">
         <v>27.244731000000002</v>
       </c>
-      <c r="H13" s="355">
+      <c r="H13" s="354">
         <v>3.0692781599567839E-3</v>
       </c>
-      <c r="I13" s="359">
-        <v>0</v>
-      </c>
-      <c r="J13" s="356">
+      <c r="I13" s="358">
+        <v>0</v>
+      </c>
+      <c r="J13" s="355">
         <v>27.244731000000002</v>
       </c>
-      <c r="K13" s="355">
+      <c r="K13" s="354">
         <v>2.8845999999999999E-4</v>
       </c>
-      <c r="L13" s="355">
+      <c r="L13" s="354">
         <v>0.93206</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -6177,40 +6180,40 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="354" t="s">
+      <c r="A14" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="354" t="s">
+      <c r="B14" s="353" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="181">
+      <c r="C14" s="403">
         <v>4</v>
       </c>
-      <c r="D14" s="355">
+      <c r="D14" s="354">
         <v>11.25</v>
       </c>
-      <c r="E14" s="355">
-        <v>0</v>
-      </c>
-      <c r="F14" s="355">
+      <c r="E14" s="354">
+        <v>0</v>
+      </c>
+      <c r="F14" s="354">
         <v>17.129929000000001</v>
       </c>
-      <c r="G14" s="355">
+      <c r="G14" s="354">
         <v>28.379929000000001</v>
       </c>
-      <c r="H14" s="355">
+      <c r="H14" s="354">
         <v>3.1971736168058462E-3</v>
       </c>
-      <c r="I14" s="359">
-        <v>0</v>
-      </c>
-      <c r="J14" s="356">
+      <c r="I14" s="358">
+        <v>0</v>
+      </c>
+      <c r="J14" s="355">
         <v>28.379929000000001</v>
       </c>
-      <c r="K14" s="355">
+      <c r="K14" s="354">
         <v>3.0048E-4</v>
       </c>
-      <c r="L14" s="355">
+      <c r="L14" s="354">
         <v>0.97089899999999996</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -6218,257 +6221,257 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B15" s="354" t="s">
+      <c r="B15" s="353" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="181">
+      <c r="C15" s="403">
         <v>67</v>
       </c>
-      <c r="D15" s="355">
+      <c r="D15" s="354">
         <v>12</v>
       </c>
-      <c r="E15" s="355">
-        <v>0</v>
-      </c>
-      <c r="F15" s="355">
+      <c r="E15" s="354">
+        <v>0</v>
+      </c>
+      <c r="F15" s="354">
         <v>18.271922</v>
       </c>
-      <c r="G15" s="355">
+      <c r="G15" s="354">
         <v>30.271922</v>
       </c>
-      <c r="H15" s="355">
+      <c r="H15" s="354">
         <v>3.4102972441508311E-3</v>
       </c>
-      <c r="I15" s="359">
-        <v>0</v>
-      </c>
-      <c r="J15" s="356">
+      <c r="I15" s="358">
+        <v>0</v>
+      </c>
+      <c r="J15" s="355">
         <v>30.271922</v>
       </c>
-      <c r="K15" s="355">
+      <c r="K15" s="354">
         <v>3.2050999999999998E-4</v>
       </c>
-      <c r="L15" s="355">
+      <c r="L15" s="354">
         <v>1.0356190000000001</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="N15" s="357"/>
+      <c r="N15" s="356"/>
       <c r="O15" s="269"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="354" t="s">
+      <c r="A16" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B16" s="354" t="s">
+      <c r="B16" s="353" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="181">
+      <c r="C16" s="403">
         <v>70</v>
       </c>
-      <c r="D16" s="355">
+      <c r="D16" s="354">
         <v>12.5</v>
       </c>
-      <c r="E16" s="355">
-        <v>0</v>
-      </c>
-      <c r="F16" s="355">
+      <c r="E16" s="354">
+        <v>0</v>
+      </c>
+      <c r="F16" s="354">
         <v>19.033245999999998</v>
       </c>
-      <c r="G16" s="355">
+      <c r="G16" s="354">
         <v>31.533245999999998</v>
       </c>
-      <c r="H16" s="355">
+      <c r="H16" s="354">
         <v>3.5523441949773691E-3</v>
       </c>
-      <c r="I16" s="359">
-        <v>0</v>
-      </c>
-      <c r="J16" s="356">
+      <c r="I16" s="358">
+        <v>0</v>
+      </c>
+      <c r="J16" s="355">
         <v>31.533245999999998</v>
       </c>
-      <c r="K16" s="355">
+      <c r="K16" s="354">
         <v>3.3386000000000001E-4</v>
       </c>
-      <c r="L16" s="355">
+      <c r="L16" s="354">
         <v>1.0787549999999999</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="N16" s="357"/>
+      <c r="N16" s="356"/>
       <c r="O16" s="269"/>
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="354" t="s">
+      <c r="A17" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B17" s="354" t="s">
+      <c r="B17" s="353" t="s">
         <v>314</v>
       </c>
-      <c r="C17" s="181">
+      <c r="C17" s="403">
         <v>6</v>
       </c>
-      <c r="D17" s="355">
+      <c r="D17" s="354">
         <v>21.599999999999998</v>
       </c>
-      <c r="E17" s="355">
-        <v>0</v>
-      </c>
-      <c r="F17" s="355">
+      <c r="E17" s="354">
+        <v>0</v>
+      </c>
+      <c r="F17" s="354">
         <v>32.889448999999999</v>
       </c>
-      <c r="G17" s="355">
+      <c r="G17" s="354">
         <v>54.489448999999993</v>
       </c>
-      <c r="H17" s="355">
+      <c r="H17" s="354">
         <v>6.138449917703211E-3</v>
       </c>
-      <c r="I17" s="359">
-        <v>0</v>
-      </c>
-      <c r="J17" s="356">
+      <c r="I17" s="358">
+        <v>0</v>
+      </c>
+      <c r="J17" s="355">
         <v>54.489448999999993</v>
       </c>
-      <c r="K17" s="355">
+      <c r="K17" s="354">
         <v>5.7691000000000003E-4</v>
       </c>
-      <c r="L17" s="355">
+      <c r="L17" s="354">
         <v>1.8640890000000001</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="N17" s="357"/>
+      <c r="N17" s="356"/>
       <c r="O17" s="269"/>
     </row>
     <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="354" t="s">
+      <c r="A18" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B18" s="354" t="s">
+      <c r="B18" s="353" t="s">
         <v>315</v>
       </c>
-      <c r="C18" s="181">
+      <c r="C18" s="403">
         <v>19</v>
       </c>
-      <c r="D18" s="355">
+      <c r="D18" s="354">
         <v>22.5</v>
       </c>
-      <c r="E18" s="355">
-        <v>0</v>
-      </c>
-      <c r="F18" s="355">
+      <c r="E18" s="354">
+        <v>0</v>
+      </c>
+      <c r="F18" s="354">
         <v>34.259846000000003</v>
       </c>
-      <c r="G18" s="355">
+      <c r="G18" s="354">
         <v>56.759846000000003</v>
       </c>
-      <c r="H18" s="355">
+      <c r="H18" s="354">
         <v>6.3942408314013365E-3</v>
       </c>
-      <c r="I18" s="359">
-        <v>0</v>
-      </c>
-      <c r="J18" s="356">
+      <c r="I18" s="358">
+        <v>0</v>
+      </c>
+      <c r="J18" s="355">
         <v>56.759846000000003</v>
       </c>
-      <c r="K18" s="355">
+      <c r="K18" s="354">
         <v>6.0095000000000005E-4</v>
       </c>
-      <c r="L18" s="355">
+      <c r="L18" s="354">
         <v>1.9417650000000002</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="N18" s="357"/>
+      <c r="N18" s="356"/>
       <c r="O18" s="269"/>
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="354" t="s">
+      <c r="A19" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B19" s="354" t="s">
+      <c r="B19" s="353" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="403">
         <v>12</v>
       </c>
-      <c r="D19" s="355">
+      <c r="D19" s="354">
         <v>25</v>
       </c>
-      <c r="E19" s="355">
-        <v>0</v>
-      </c>
-      <c r="F19" s="355">
+      <c r="E19" s="354">
+        <v>0</v>
+      </c>
+      <c r="F19" s="354">
         <v>38.066481000000003</v>
       </c>
-      <c r="G19" s="355">
+      <c r="G19" s="354">
         <v>63.066481000000003</v>
       </c>
-      <c r="H19" s="355">
+      <c r="H19" s="354">
         <v>7.1045819877443806E-3</v>
       </c>
-      <c r="I19" s="359">
-        <v>0</v>
-      </c>
-      <c r="J19" s="356">
+      <c r="I19" s="358">
+        <v>0</v>
+      </c>
+      <c r="J19" s="355">
         <v>63.066481000000003</v>
       </c>
-      <c r="K19" s="355">
+      <c r="K19" s="354">
         <v>6.6770999999999996E-4</v>
       </c>
-      <c r="L19" s="355">
+      <c r="L19" s="354">
         <v>2.1574769999999996</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="N19" s="357"/>
+      <c r="N19" s="356"/>
       <c r="O19" s="269"/>
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="354" t="s">
+      <c r="A20" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B20" s="354" t="s">
+      <c r="B20" s="353" t="s">
         <v>317</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="403">
         <v>1</v>
       </c>
-      <c r="D20" s="355">
+      <c r="D20" s="354">
         <v>10.799999999999999</v>
       </c>
-      <c r="E20" s="355">
+      <c r="E20" s="354">
         <v>6.0709999999999997</v>
       </c>
-      <c r="F20" s="355">
+      <c r="F20" s="354">
         <v>34.932854999999996</v>
       </c>
-      <c r="G20" s="355">
+      <c r="G20" s="354">
         <v>51.803854999999999</v>
       </c>
-      <c r="H20" s="355">
+      <c r="H20" s="354">
         <v>6.5197954396225442E-3</v>
       </c>
-      <c r="I20" s="359">
-        <v>0</v>
-      </c>
-      <c r="J20" s="356">
+      <c r="I20" s="358">
+        <v>0</v>
+      </c>
+      <c r="J20" s="355">
         <v>51.803854999999999</v>
       </c>
-      <c r="K20" s="355">
+      <c r="K20" s="354">
         <v>6.127499999999999E-4</v>
       </c>
-      <c r="L20" s="355">
+      <c r="L20" s="354">
         <v>1.9798929999999999</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -6476,212 +6479,212 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="354" t="s">
+      <c r="A21" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="354" t="s">
+      <c r="B21" s="353" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="181">
+      <c r="C21" s="403">
         <v>2</v>
       </c>
-      <c r="D21" s="355">
+      <c r="D21" s="354">
         <v>21.599999999999998</v>
       </c>
-      <c r="E21" s="355">
+      <c r="E21" s="354">
         <v>11.111000000000001</v>
       </c>
-      <c r="F21" s="355">
+      <c r="F21" s="354">
         <v>66.725990999999993</v>
       </c>
-      <c r="G21" s="355">
+      <c r="G21" s="354">
         <v>99.436990999999992</v>
       </c>
-      <c r="H21" s="355">
+      <c r="H21" s="354">
         <v>1.2453633906809328E-2</v>
       </c>
-      <c r="I21" s="359">
-        <v>0</v>
-      </c>
-      <c r="J21" s="356">
+      <c r="I21" s="358">
+        <v>0</v>
+      </c>
+      <c r="J21" s="355">
         <v>99.436990999999992</v>
       </c>
-      <c r="K21" s="355">
+      <c r="K21" s="354">
         <v>1.1704300000000001E-3</v>
       </c>
-      <c r="L21" s="355">
+      <c r="L21" s="354">
         <v>3.7818459999999998</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="N21" s="357"/>
+      <c r="N21" s="356"/>
       <c r="O21" s="269"/>
     </row>
     <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="354" t="s">
+      <c r="A22" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B22" s="354" t="s">
+      <c r="B22" s="353" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="181">
+      <c r="C22" s="403">
         <v>2</v>
       </c>
-      <c r="D22" s="355">
+      <c r="D22" s="354">
         <v>21.599999999999998</v>
       </c>
-      <c r="E22" s="355">
+      <c r="E22" s="354">
         <v>11.184799999999999</v>
       </c>
-      <c r="F22" s="355">
+      <c r="F22" s="354">
         <v>66.950732000000002</v>
       </c>
-      <c r="G22" s="355">
+      <c r="G22" s="354">
         <v>99.735532000000006</v>
       </c>
-      <c r="H22" s="355">
+      <c r="H22" s="354">
         <v>1.2495556377689969E-2</v>
       </c>
-      <c r="I22" s="359">
-        <v>0</v>
-      </c>
-      <c r="J22" s="356">
+      <c r="I22" s="358">
+        <v>0</v>
+      </c>
+      <c r="J22" s="355">
         <v>99.735532000000006</v>
       </c>
-      <c r="K22" s="355">
+      <c r="K22" s="354">
         <v>1.1743700000000001E-3</v>
       </c>
-      <c r="L22" s="355">
+      <c r="L22" s="354">
         <v>3.7945769999999999</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="N22" s="357"/>
+      <c r="N22" s="356"/>
       <c r="O22" s="269"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="354" t="s">
+      <c r="A23" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="354" t="s">
+      <c r="B23" s="353" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="181">
+      <c r="C23" s="403">
         <v>2</v>
       </c>
-      <c r="D23" s="355">
+      <c r="D23" s="354">
         <v>21.599999999999994</v>
       </c>
-      <c r="E23" s="355">
+      <c r="E23" s="354">
         <v>11.241925</v>
       </c>
-      <c r="F23" s="355">
+      <c r="F23" s="354">
         <v>67.124706999999987</v>
       </c>
-      <c r="G23" s="355">
+      <c r="G23" s="354">
         <v>99.966631999999976</v>
       </c>
-      <c r="H23" s="355">
+      <c r="H23" s="354">
         <v>1.2528115454059196E-2</v>
       </c>
-      <c r="I23" s="359">
-        <v>0</v>
-      </c>
-      <c r="J23" s="356">
+      <c r="I23" s="358">
+        <v>0</v>
+      </c>
+      <c r="J23" s="355">
         <v>99.966631999999976</v>
       </c>
-      <c r="K23" s="355">
+      <c r="K23" s="354">
         <v>1.1774299999999999E-3</v>
       </c>
-      <c r="L23" s="355">
+      <c r="L23" s="354">
         <v>3.804465</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="N23" s="357"/>
+      <c r="N23" s="356"/>
       <c r="O23" s="269"/>
     </row>
     <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="354" t="s">
+      <c r="A24" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B24" s="354" t="s">
+      <c r="B24" s="353" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="181">
+      <c r="C24" s="403">
         <v>2</v>
       </c>
-      <c r="D24" s="355">
+      <c r="D24" s="354">
         <v>22.5</v>
       </c>
-      <c r="E24" s="355">
+      <c r="E24" s="354">
         <v>11.258599999999999</v>
       </c>
-      <c r="F24" s="355">
+      <c r="F24" s="354">
         <v>68.545882000000006</v>
       </c>
-      <c r="G24" s="355">
+      <c r="G24" s="354">
         <v>102.30448200000001</v>
       </c>
-      <c r="H24" s="355">
+      <c r="H24" s="354">
         <v>1.279337616447909E-2</v>
       </c>
-      <c r="I24" s="359">
-        <v>0</v>
-      </c>
-      <c r="J24" s="356">
+      <c r="I24" s="358">
+        <v>0</v>
+      </c>
+      <c r="J24" s="355">
         <v>102.30448200000001</v>
       </c>
-      <c r="K24" s="355">
+      <c r="K24" s="354">
         <v>1.20236E-3</v>
       </c>
-      <c r="L24" s="355">
+      <c r="L24" s="354">
         <v>3.8850180000000001</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="N24" s="357"/>
+      <c r="N24" s="356"/>
       <c r="O24" s="269"/>
     </row>
     <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="354" t="s">
+      <c r="A25" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B25" s="354" t="s">
+      <c r="B25" s="353" t="s">
         <v>322</v>
       </c>
-      <c r="C25" s="181">
+      <c r="C25" s="403">
         <v>1</v>
       </c>
-      <c r="D25" s="355">
+      <c r="D25" s="354">
         <v>21.6</v>
       </c>
-      <c r="E25" s="355">
+      <c r="E25" s="354">
         <v>11.295999999999999</v>
       </c>
-      <c r="F25" s="355">
+      <c r="F25" s="354">
         <v>67.289383999999998</v>
       </c>
-      <c r="G25" s="355">
+      <c r="G25" s="354">
         <v>100.185384</v>
       </c>
-      <c r="H25" s="355">
+      <c r="H25" s="354">
         <v>1.2558865692852358E-2</v>
       </c>
-      <c r="I25" s="359">
-        <v>0</v>
-      </c>
-      <c r="J25" s="356">
+      <c r="I25" s="358">
+        <v>0</v>
+      </c>
+      <c r="J25" s="355">
         <v>100.185384</v>
       </c>
-      <c r="K25" s="355">
+      <c r="K25" s="354">
         <v>1.1803199999999999E-3</v>
       </c>
-      <c r="L25" s="355">
+      <c r="L25" s="354">
         <v>3.8138030000000001</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -6690,218 +6693,218 @@
       <c r="O25" s="269"/>
     </row>
     <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="354" t="s">
+      <c r="A26" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B26" s="354" t="s">
+      <c r="B26" s="353" t="s">
         <v>323</v>
       </c>
-      <c r="C26" s="181">
+      <c r="C26" s="403">
         <v>2</v>
       </c>
-      <c r="D26" s="355">
+      <c r="D26" s="354">
         <v>12</v>
       </c>
-      <c r="E26" s="355">
+      <c r="E26" s="354">
         <v>19.698675000000001</v>
       </c>
-      <c r="F26" s="355">
+      <c r="F26" s="354">
         <v>78.260683999999998</v>
       </c>
-      <c r="G26" s="355">
+      <c r="G26" s="354">
         <v>109.95935900000001</v>
       </c>
-      <c r="H26" s="355">
+      <c r="H26" s="354">
         <v>1.4606576231171996E-2</v>
       </c>
-      <c r="I26" s="359">
-        <v>0</v>
-      </c>
-      <c r="J26" s="356">
+      <c r="I26" s="358">
+        <v>0</v>
+      </c>
+      <c r="J26" s="355">
         <v>109.95935900000001</v>
       </c>
-      <c r="K26" s="355">
+      <c r="K26" s="354">
         <v>1.3727699999999999E-3</v>
       </c>
-      <c r="L26" s="355">
+      <c r="L26" s="354">
         <v>4.4356400000000002</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="N26" s="357"/>
+      <c r="N26" s="356"/>
       <c r="O26" s="269"/>
     </row>
     <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="354" t="s">
+      <c r="A27" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B27" s="354" t="s">
+      <c r="B27" s="353" t="s">
         <v>324</v>
       </c>
-      <c r="C27" s="181">
+      <c r="C27" s="403">
         <v>2</v>
       </c>
-      <c r="D27" s="355">
+      <c r="D27" s="354">
         <v>11.999999999999998</v>
       </c>
-      <c r="E27" s="355">
+      <c r="E27" s="354">
         <v>8.6581250000000001</v>
       </c>
-      <c r="F27" s="355">
+      <c r="F27" s="354">
         <v>44.638682000000003</v>
       </c>
-      <c r="G27" s="355">
+      <c r="G27" s="354">
         <v>65.296807000000001</v>
       </c>
-      <c r="H27" s="355">
+      <c r="H27" s="354">
         <v>8.3313994731600959E-3</v>
       </c>
-      <c r="I27" s="359">
-        <v>0</v>
-      </c>
-      <c r="J27" s="356">
+      <c r="I27" s="358">
+        <v>0</v>
+      </c>
+      <c r="J27" s="355">
         <v>65.296807000000001</v>
       </c>
-      <c r="K27" s="355">
+      <c r="K27" s="354">
         <v>7.8301E-4</v>
       </c>
-      <c r="L27" s="355">
+      <c r="L27" s="354">
         <v>2.5300310000000001</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="N27" s="357"/>
+      <c r="N27" s="356"/>
       <c r="O27" s="269"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="354" t="s">
+      <c r="A28" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B28" s="354" t="s">
+      <c r="B28" s="353" t="s">
         <v>325</v>
       </c>
-      <c r="C28" s="181">
+      <c r="C28" s="403">
         <v>2</v>
       </c>
-      <c r="D28" s="355">
+      <c r="D28" s="354">
         <v>12</v>
       </c>
-      <c r="E28" s="355">
+      <c r="E28" s="354">
         <v>19.5059</v>
       </c>
-      <c r="F28" s="355">
+      <c r="F28" s="354">
         <v>77.67362</v>
       </c>
-      <c r="G28" s="355">
+      <c r="G28" s="354">
         <v>109.17952</v>
       </c>
-      <c r="H28" s="355">
+      <c r="H28" s="354">
         <v>1.4496981954504331E-2</v>
       </c>
-      <c r="I28" s="359">
-        <v>0</v>
-      </c>
-      <c r="J28" s="356">
+      <c r="I28" s="358">
+        <v>0</v>
+      </c>
+      <c r="J28" s="355">
         <v>109.17952</v>
       </c>
-      <c r="K28" s="355">
+      <c r="K28" s="354">
         <v>1.36247E-3</v>
       </c>
-      <c r="L28" s="355">
+      <c r="L28" s="354">
         <v>4.4023589999999997</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="N28" s="357"/>
+      <c r="N28" s="356"/>
       <c r="O28" s="269"/>
     </row>
     <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="354" t="s">
+      <c r="A29" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B29" s="354" t="s">
+      <c r="B29" s="353" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="181">
+      <c r="C29" s="403">
         <v>2</v>
       </c>
-      <c r="D29" s="355">
+      <c r="D29" s="354">
         <v>22.499999999999996</v>
       </c>
-      <c r="E29" s="355">
+      <c r="E29" s="354">
         <v>11.1069</v>
       </c>
-      <c r="F29" s="355">
+      <c r="F29" s="354">
         <v>68.083910999999986</v>
       </c>
-      <c r="G29" s="355">
+      <c r="G29" s="354">
         <v>101.69081099999998</v>
       </c>
-      <c r="H29" s="355">
+      <c r="H29" s="354">
         <v>1.2707190374089955E-2</v>
       </c>
-      <c r="I29" s="359">
-        <v>0</v>
-      </c>
-      <c r="J29" s="356">
+      <c r="I29" s="358">
+        <v>0</v>
+      </c>
+      <c r="J29" s="355">
         <v>101.69081099999998</v>
       </c>
-      <c r="K29" s="355">
+      <c r="K29" s="354">
         <v>1.1942599999999999E-3</v>
       </c>
-      <c r="L29" s="355">
+      <c r="L29" s="354">
         <v>3.8588450000000001</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="N29" s="357"/>
+      <c r="N29" s="356"/>
       <c r="O29" s="269"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="354" t="s">
+      <c r="A30" s="353" t="s">
         <v>561</v>
       </c>
-      <c r="B30" s="354" t="s">
+      <c r="B30" s="353" t="s">
         <v>358</v>
       </c>
-      <c r="C30" s="181">
+      <c r="C30" s="403">
         <v>1</v>
       </c>
-      <c r="D30" s="355">
+      <c r="D30" s="354">
         <v>22.5</v>
       </c>
-      <c r="E30" s="355">
+      <c r="E30" s="354">
         <v>11.295999999999999</v>
       </c>
-      <c r="F30" s="355">
+      <c r="F30" s="354">
         <v>68.659780000000012</v>
       </c>
-      <c r="G30" s="355">
+      <c r="G30" s="354">
         <v>102.45578</v>
       </c>
-      <c r="H30" s="355">
+      <c r="H30" s="354">
         <v>1.2814656606550482E-2</v>
       </c>
-      <c r="I30" s="359">
-        <v>0</v>
-      </c>
-      <c r="J30" s="356">
+      <c r="I30" s="358">
+        <v>0</v>
+      </c>
+      <c r="J30" s="355">
         <v>102.45578</v>
       </c>
-      <c r="K30" s="355">
+      <c r="K30" s="354">
         <v>1.20436E-3</v>
       </c>
-      <c r="L30" s="355">
+      <c r="L30" s="354">
         <v>3.8914800000000001</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="N30" s="357"/>
+      <c r="N30" s="356"/>
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
@@ -6910,34 +6913,34 @@
       <c r="B31" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="C31" s="181">
+      <c r="C31" s="403">
         <v>1</v>
       </c>
-      <c r="D31" s="358">
+      <c r="D31" s="357">
         <v>423.53999999999996</v>
       </c>
-      <c r="E31" s="355">
-        <v>0</v>
-      </c>
-      <c r="F31" s="355">
+      <c r="E31" s="354">
+        <v>0</v>
+      </c>
+      <c r="F31" s="354">
         <v>10.814574</v>
       </c>
-      <c r="G31" s="355">
+      <c r="G31" s="354">
         <v>434.35457399999996</v>
       </c>
-      <c r="H31" s="355">
+      <c r="H31" s="354">
         <v>0.20797338257325021</v>
       </c>
-      <c r="I31" s="359">
-        <v>0</v>
-      </c>
-      <c r="J31" s="356">
+      <c r="I31" s="358">
+        <v>0</v>
+      </c>
+      <c r="J31" s="355">
         <v>434.35457399999996</v>
       </c>
-      <c r="K31" s="355">
+      <c r="K31" s="354">
         <v>8.9541900000000008E-3</v>
       </c>
-      <c r="L31" s="355">
+      <c r="L31" s="354">
         <v>28.932421000000001</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -6951,34 +6954,34 @@
       <c r="B32" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="C32" s="181">
+      <c r="C32" s="403">
         <v>1</v>
       </c>
-      <c r="D32" s="358">
+      <c r="D32" s="357">
         <v>348.76</v>
       </c>
-      <c r="E32" s="355">
-        <v>0</v>
-      </c>
-      <c r="F32" s="355">
+      <c r="E32" s="354">
+        <v>0</v>
+      </c>
+      <c r="F32" s="354">
         <v>8.9051670000000005</v>
       </c>
-      <c r="G32" s="355">
+      <c r="G32" s="354">
         <v>357.665167</v>
       </c>
-      <c r="H32" s="355">
+      <c r="H32" s="354">
         <v>0.17125387590147373</v>
       </c>
-      <c r="I32" s="359">
-        <v>0</v>
-      </c>
-      <c r="J32" s="356">
+      <c r="I32" s="358">
+        <v>0</v>
+      </c>
+      <c r="J32" s="355">
         <v>357.665167</v>
       </c>
-      <c r="K32" s="355">
+      <c r="K32" s="354">
         <v>7.3732499999999996E-3</v>
       </c>
-      <c r="L32" s="355">
+      <c r="L32" s="354">
         <v>23.824149999999999</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -6992,34 +6995,34 @@
       <c r="B33" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="C33" s="181">
+      <c r="C33" s="403">
         <v>1</v>
       </c>
-      <c r="D33" s="358">
+      <c r="D33" s="357">
         <v>67.260000000000005</v>
       </c>
-      <c r="E33" s="355">
-        <v>0</v>
-      </c>
-      <c r="F33" s="355">
+      <c r="E33" s="354">
+        <v>0</v>
+      </c>
+      <c r="F33" s="354">
         <v>1.7173959999999999</v>
       </c>
-      <c r="G33" s="355">
+      <c r="G33" s="354">
         <v>68.977395999999999</v>
       </c>
-      <c r="H33" s="355">
+      <c r="H33" s="354">
         <v>3.3026977435575845E-2</v>
       </c>
-      <c r="I33" s="359">
-        <v>0</v>
-      </c>
-      <c r="J33" s="356">
+      <c r="I33" s="358">
+        <v>0</v>
+      </c>
+      <c r="J33" s="355">
         <v>68.977395999999999</v>
       </c>
-      <c r="K33" s="355">
+      <c r="K33" s="354">
         <v>1.4219600000000001E-3</v>
       </c>
-      <c r="L33" s="355">
+      <c r="L33" s="354">
         <v>4.5945799999999997</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -7033,34 +7036,34 @@
       <c r="B34" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="C34" s="181">
+      <c r="C34" s="403">
         <v>1</v>
       </c>
-      <c r="D34" s="358">
+      <c r="D34" s="357">
         <v>27.09</v>
       </c>
-      <c r="E34" s="355">
-        <v>0</v>
-      </c>
-      <c r="F34" s="355">
+      <c r="E34" s="354">
+        <v>0</v>
+      </c>
+      <c r="F34" s="354">
         <v>0.69171199999999999</v>
       </c>
-      <c r="G34" s="355">
+      <c r="G34" s="354">
         <v>27.781711999999999</v>
       </c>
-      <c r="H34" s="355">
+      <c r="H34" s="354">
         <v>1.3302209989664264E-2</v>
       </c>
-      <c r="I34" s="359">
-        <v>0</v>
-      </c>
-      <c r="J34" s="356">
+      <c r="I34" s="358">
+        <v>0</v>
+      </c>
+      <c r="J34" s="355">
         <v>27.781711999999999</v>
       </c>
-      <c r="K34" s="355">
+      <c r="K34" s="354">
         <v>5.7271999999999998E-4</v>
       </c>
-      <c r="L34" s="355">
+      <c r="L34" s="354">
         <v>1.8505499999999999</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -7074,34 +7077,34 @@
       <c r="B35" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="C35" s="181">
+      <c r="C35" s="403">
         <v>1</v>
       </c>
-      <c r="D35" s="358">
+      <c r="D35" s="357">
         <v>38.18</v>
       </c>
-      <c r="E35" s="355">
-        <v>0</v>
-      </c>
-      <c r="F35" s="355">
+      <c r="E35" s="354">
+        <v>0</v>
+      </c>
+      <c r="F35" s="354">
         <v>0.974885</v>
       </c>
-      <c r="G35" s="355">
+      <c r="G35" s="354">
         <v>39.154885</v>
       </c>
-      <c r="H35" s="355">
+      <c r="H35" s="354">
         <v>1.8747866076716722E-2</v>
       </c>
-      <c r="I35" s="359">
-        <v>0</v>
-      </c>
-      <c r="J35" s="356">
+      <c r="I35" s="358">
+        <v>0</v>
+      </c>
+      <c r="J35" s="355">
         <v>39.154885</v>
       </c>
-      <c r="K35" s="355">
+      <c r="K35" s="354">
         <v>8.0718000000000001E-4</v>
       </c>
-      <c r="L35" s="355">
+      <c r="L35" s="354">
         <v>2.6081279999999998</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -7115,40 +7118,40 @@
       <c r="B36" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="C36" s="181">
+      <c r="C36" s="403">
         <v>1</v>
       </c>
-      <c r="D36" s="358">
+      <c r="D36" s="357">
         <v>28.73</v>
       </c>
-      <c r="E36" s="355">
-        <v>0</v>
-      </c>
-      <c r="F36" s="355">
+      <c r="E36" s="354">
+        <v>0</v>
+      </c>
+      <c r="F36" s="354">
         <v>0.73358599999999996</v>
       </c>
-      <c r="G36" s="355">
+      <c r="G36" s="354">
         <v>29.463585999999999</v>
       </c>
-      <c r="H36" s="355">
+      <c r="H36" s="354">
         <v>1.4107468441161784E-2</v>
       </c>
-      <c r="I36" s="359">
-        <v>0</v>
-      </c>
-      <c r="J36" s="356">
+      <c r="I36" s="358">
+        <v>0</v>
+      </c>
+      <c r="J36" s="355">
         <v>29.463585999999999</v>
       </c>
-      <c r="K36" s="355">
+      <c r="K36" s="354">
         <v>6.0738999999999997E-4</v>
       </c>
-      <c r="L36" s="355">
+      <c r="L36" s="354">
         <v>1.962574</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="N36" s="360"/>
+      <c r="N36" s="359"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
@@ -7157,34 +7160,34 @@
       <c r="B37" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="C37" s="181">
+      <c r="C37" s="403">
         <v>1</v>
       </c>
-      <c r="D37" s="358">
+      <c r="D37" s="357">
         <v>523.80999999999995</v>
       </c>
-      <c r="E37" s="355">
-        <v>0</v>
-      </c>
-      <c r="F37" s="355">
+      <c r="E37" s="354">
+        <v>0</v>
+      </c>
+      <c r="F37" s="354">
         <v>13.374847000000001</v>
       </c>
-      <c r="G37" s="355">
+      <c r="G37" s="354">
         <v>537.18484699999999</v>
       </c>
-      <c r="H37" s="355">
+      <c r="H37" s="354">
         <v>0.257209583202685</v>
       </c>
-      <c r="I37" s="359">
-        <v>0</v>
-      </c>
-      <c r="J37" s="356">
+      <c r="I37" s="358">
+        <v>0</v>
+      </c>
+      <c r="J37" s="355">
         <v>537.18484699999999</v>
       </c>
-      <c r="K37" s="355">
+      <c r="K37" s="354">
         <v>1.107403E-2</v>
       </c>
-      <c r="L37" s="355">
+      <c r="L37" s="354">
         <v>35.781962999999998</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -7198,34 +7201,34 @@
       <c r="B38" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="C38" s="181">
+      <c r="C38" s="403">
         <v>1</v>
       </c>
-      <c r="D38" s="358">
+      <c r="D38" s="357">
         <v>579.14</v>
       </c>
-      <c r="E38" s="355">
-        <v>0</v>
-      </c>
-      <c r="F38" s="355">
+      <c r="E38" s="354">
+        <v>0</v>
+      </c>
+      <c r="F38" s="354">
         <v>14.787632</v>
       </c>
-      <c r="G38" s="355">
+      <c r="G38" s="354">
         <v>593.92763200000002</v>
       </c>
-      <c r="H38" s="355">
+      <c r="H38" s="354">
         <v>0.28437863637947253</v>
       </c>
-      <c r="I38" s="359">
-        <v>0</v>
-      </c>
-      <c r="J38" s="356">
+      <c r="I38" s="358">
+        <v>0</v>
+      </c>
+      <c r="J38" s="355">
         <v>593.92763200000002</v>
       </c>
-      <c r="K38" s="355">
+      <c r="K38" s="354">
         <v>1.2243779999999999E-2</v>
       </c>
-      <c r="L38" s="355">
+      <c r="L38" s="354">
         <v>39.561611999999997</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -7236,1219 +7239,1219 @@
       <c r="A39" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B39" s="354" t="s">
+      <c r="B39" s="353" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="181">
+      <c r="C39" s="403">
         <v>22</v>
       </c>
-      <c r="D39" s="355">
+      <c r="D39" s="354">
         <v>28.6</v>
       </c>
-      <c r="E39" s="355">
-        <v>0</v>
-      </c>
-      <c r="F39" s="355">
+      <c r="E39" s="354">
+        <v>0</v>
+      </c>
+      <c r="F39" s="354">
         <v>14.106770000000001</v>
       </c>
-      <c r="G39" s="355">
+      <c r="G39" s="354">
         <v>42.706770000000006</v>
       </c>
-      <c r="H39" s="355">
+      <c r="H39" s="354">
         <v>9.6729580911448425E-4</v>
       </c>
-      <c r="I39" s="355">
+      <c r="I39" s="354">
         <v>1.265358</v>
       </c>
-      <c r="J39" s="356">
+      <c r="J39" s="355">
         <v>43.972128000000005</v>
       </c>
-      <c r="K39" s="355">
+      <c r="K39" s="354">
         <v>8.3474000000000005E-4</v>
       </c>
-      <c r="L39" s="355">
+      <c r="L39" s="354">
         <v>2.6971780000000001</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="N39" s="360"/>
+      <c r="N39" s="359"/>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B40" s="354" t="s">
+      <c r="B40" s="353" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="181">
+      <c r="C40" s="403">
         <v>116</v>
       </c>
-      <c r="D40" s="355">
+      <c r="D40" s="354">
         <v>25.68</v>
       </c>
-      <c r="E40" s="355">
-        <v>0</v>
-      </c>
-      <c r="F40" s="355">
+      <c r="E40" s="354">
+        <v>0</v>
+      </c>
+      <c r="F40" s="354">
         <v>12.593784000000001</v>
       </c>
-      <c r="G40" s="355">
+      <c r="G40" s="354">
         <v>38.273783999999999</v>
       </c>
-      <c r="H40" s="355">
+      <c r="H40" s="354">
         <v>8.6354854195342832E-4</v>
       </c>
-      <c r="I40" s="355">
+      <c r="I40" s="354">
         <v>1.129642</v>
       </c>
-      <c r="J40" s="356">
+      <c r="J40" s="355">
         <v>39.403425999999996</v>
       </c>
-      <c r="K40" s="355">
+      <c r="K40" s="354">
         <v>7.4520999999999995E-4</v>
       </c>
-      <c r="L40" s="355">
+      <c r="L40" s="354">
         <v>2.4078930000000001</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="N40" s="360"/>
+      <c r="N40" s="359"/>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B41" s="354" t="s">
+      <c r="B41" s="353" t="s">
         <v>297</v>
       </c>
-      <c r="C41" s="181">
+      <c r="C41" s="403">
         <v>124</v>
       </c>
-      <c r="D41" s="355">
+      <c r="D41" s="354">
         <v>25.45</v>
       </c>
-      <c r="E41" s="355">
-        <v>0</v>
-      </c>
-      <c r="F41" s="355">
+      <c r="E41" s="354">
+        <v>0</v>
+      </c>
+      <c r="F41" s="354">
         <v>12.504268</v>
       </c>
-      <c r="G41" s="355">
+      <c r="G41" s="354">
         <v>37.954267999999999</v>
       </c>
-      <c r="H41" s="355">
+      <c r="H41" s="354">
         <v>8.5740690768610348E-4</v>
       </c>
-      <c r="I41" s="355">
+      <c r="I41" s="354">
         <v>1.1216079999999999</v>
       </c>
-      <c r="J41" s="356">
+      <c r="J41" s="355">
         <v>39.075876000000001</v>
       </c>
-      <c r="K41" s="355">
+      <c r="K41" s="354">
         <v>7.3990999999999998E-4</v>
       </c>
-      <c r="L41" s="355">
+      <c r="L41" s="354">
         <v>2.390768</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="N41" s="360"/>
+      <c r="N41" s="359"/>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B42" s="354" t="s">
+      <c r="B42" s="353" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="181">
+      <c r="C42" s="403">
         <v>60</v>
       </c>
-      <c r="D42" s="355">
+      <c r="D42" s="354">
         <v>25.21</v>
       </c>
-      <c r="E42" s="355">
-        <v>0</v>
-      </c>
-      <c r="F42" s="355">
+      <c r="E42" s="354">
+        <v>0</v>
+      </c>
+      <c r="F42" s="354">
         <v>12.353849</v>
       </c>
-      <c r="G42" s="355">
+      <c r="G42" s="354">
         <v>37.563849000000005</v>
       </c>
-      <c r="H42" s="355">
+      <c r="H42" s="354">
         <v>8.4709359731267116E-4</v>
       </c>
-      <c r="I42" s="355">
+      <c r="I42" s="354">
         <v>1.108117</v>
       </c>
-      <c r="J42" s="356">
+      <c r="J42" s="355">
         <v>38.671966000000005</v>
       </c>
-      <c r="K42" s="355">
+      <c r="K42" s="354">
         <v>7.3101000000000004E-4</v>
       </c>
-      <c r="L42" s="355">
+      <c r="L42" s="354">
         <v>2.3620100000000002</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N42" s="360"/>
+      <c r="N42" s="359"/>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B43" s="354" t="s">
+      <c r="B43" s="353" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="181">
+      <c r="C43" s="403">
         <v>22</v>
       </c>
-      <c r="D43" s="355">
+      <c r="D43" s="354">
         <v>28.71</v>
       </c>
-      <c r="E43" s="355">
-        <v>0</v>
-      </c>
-      <c r="F43" s="355">
+      <c r="E43" s="354">
+        <v>0</v>
+      </c>
+      <c r="F43" s="354">
         <v>14.149068</v>
       </c>
-      <c r="G43" s="355">
+      <c r="G43" s="354">
         <v>42.859068000000001</v>
       </c>
-      <c r="H43" s="355">
+      <c r="H43" s="354">
         <v>9.7019280641039206E-4</v>
       </c>
-      <c r="I43" s="355">
+      <c r="I43" s="354">
         <v>1.2691479999999999</v>
       </c>
-      <c r="J43" s="356">
+      <c r="J43" s="355">
         <v>44.128216000000002</v>
       </c>
-      <c r="K43" s="355">
+      <c r="K43" s="354">
         <v>8.3723999999999995E-4</v>
       </c>
-      <c r="L43" s="355">
+      <c r="L43" s="354">
         <v>2.7052559999999999</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="N43" s="360"/>
+      <c r="N43" s="359"/>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B44" s="354" t="s">
+      <c r="B44" s="353" t="s">
         <v>334</v>
       </c>
-      <c r="C44" s="181">
+      <c r="C44" s="403">
         <v>8</v>
       </c>
-      <c r="D44" s="355">
+      <c r="D44" s="354">
         <v>28.36</v>
       </c>
-      <c r="E44" s="355">
-        <v>0</v>
-      </c>
-      <c r="F44" s="355">
+      <c r="E44" s="354">
+        <v>0</v>
+      </c>
+      <c r="F44" s="354">
         <v>14.012017999999999</v>
       </c>
-      <c r="G44" s="355">
+      <c r="G44" s="354">
         <v>42.372017999999997</v>
       </c>
-      <c r="H44" s="355">
+      <c r="H44" s="354">
         <v>9.6079494718246674E-4</v>
       </c>
-      <c r="I44" s="355">
+      <c r="I44" s="354">
         <v>1.2568539999999999</v>
       </c>
-      <c r="J44" s="356">
+      <c r="J44" s="355">
         <v>43.628871999999994</v>
       </c>
-      <c r="K44" s="355">
+      <c r="K44" s="354">
         <v>8.2912999999999997E-4</v>
       </c>
-      <c r="L44" s="355">
+      <c r="L44" s="354">
         <v>2.679052</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N44" s="360"/>
+      <c r="N44" s="359"/>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B45" s="354" t="s">
+      <c r="B45" s="353" t="s">
         <v>346</v>
       </c>
-      <c r="C45" s="181">
+      <c r="C45" s="403">
         <v>8</v>
       </c>
-      <c r="D45" s="355">
+      <c r="D45" s="354">
         <v>28.48</v>
       </c>
-      <c r="E45" s="355">
-        <v>0</v>
-      </c>
-      <c r="F45" s="355">
+      <c r="E45" s="354">
+        <v>0</v>
+      </c>
+      <c r="F45" s="354">
         <v>14.059553000000001</v>
       </c>
-      <c r="G45" s="355">
+      <c r="G45" s="354">
         <v>42.539552999999998</v>
       </c>
-      <c r="H45" s="355">
+      <c r="H45" s="354">
         <v>9.6405117214306722E-4</v>
       </c>
-      <c r="I45" s="355">
+      <c r="I45" s="354">
         <v>1.2611140000000001</v>
       </c>
-      <c r="J45" s="356">
+      <c r="J45" s="355">
         <v>43.800666999999997</v>
       </c>
-      <c r="K45" s="355">
+      <c r="K45" s="354">
         <v>8.3193999999999998E-4</v>
       </c>
-      <c r="L45" s="355">
+      <c r="L45" s="354">
         <v>2.6881309999999998</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N45" s="360"/>
+      <c r="N45" s="359"/>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B46" s="354" t="s">
+      <c r="B46" s="353" t="s">
         <v>347</v>
       </c>
-      <c r="C46" s="181">
+      <c r="C46" s="403">
         <v>60</v>
       </c>
-      <c r="D46" s="355">
+      <c r="D46" s="354">
         <v>28.93</v>
       </c>
-      <c r="E46" s="355">
-        <v>0</v>
-      </c>
-      <c r="F46" s="355">
+      <c r="E46" s="354">
+        <v>0</v>
+      </c>
+      <c r="F46" s="354">
         <v>14.372864999999999</v>
       </c>
-      <c r="G46" s="355">
+      <c r="G46" s="354">
         <v>43.302864999999997</v>
       </c>
-      <c r="H46" s="355">
+      <c r="H46" s="354">
         <v>9.8553530408952076E-4</v>
       </c>
-      <c r="I46" s="355">
+      <c r="I46" s="354">
         <v>1.2892189999999999</v>
       </c>
-      <c r="J46" s="356">
+      <c r="J46" s="355">
         <v>44.592084</v>
       </c>
-      <c r="K46" s="355">
+      <c r="K46" s="354">
         <v>8.5048000000000003E-4</v>
       </c>
-      <c r="L46" s="355">
+      <c r="L46" s="354">
         <v>2.7480370000000001</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="N46" s="360"/>
+      <c r="N46" s="359"/>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B47" s="354" t="s">
+      <c r="B47" s="353" t="s">
         <v>348</v>
       </c>
-      <c r="C47" s="181">
+      <c r="C47" s="403">
         <v>28</v>
       </c>
-      <c r="D47" s="358">
+      <c r="D47" s="357">
         <v>25.56</v>
       </c>
-      <c r="E47" s="355">
-        <v>0</v>
-      </c>
-      <c r="F47" s="355">
+      <c r="E47" s="354">
+        <v>0</v>
+      </c>
+      <c r="F47" s="354">
         <v>12.633137999999999</v>
       </c>
-      <c r="G47" s="355">
+      <c r="G47" s="354">
         <v>38.193137999999998</v>
       </c>
-      <c r="H47" s="355">
+      <c r="H47" s="354">
         <v>8.6624854343321457E-4</v>
       </c>
-      <c r="I47" s="355">
+      <c r="I47" s="354">
         <v>1.1331739999999999</v>
       </c>
-      <c r="J47" s="356">
+      <c r="J47" s="355">
         <v>39.326311999999994</v>
       </c>
-      <c r="K47" s="355">
+      <c r="K47" s="354">
         <v>7.4753999999999999E-4</v>
       </c>
-      <c r="L47" s="355">
+      <c r="L47" s="354">
         <v>2.4154209999999998</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="N47" s="360"/>
+      <c r="N47" s="359"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B48" s="354" t="s">
+      <c r="B48" s="353" t="s">
         <v>349</v>
       </c>
-      <c r="C48" s="181">
+      <c r="C48" s="403">
         <v>10</v>
       </c>
-      <c r="D48" s="355">
+      <c r="D48" s="354">
         <v>24.730000000000004</v>
       </c>
-      <c r="E48" s="355">
-        <v>0</v>
-      </c>
-      <c r="F48" s="355">
+      <c r="E48" s="354">
+        <v>0</v>
+      </c>
+      <c r="F48" s="354">
         <v>12.231809</v>
       </c>
-      <c r="G48" s="355">
+      <c r="G48" s="354">
         <v>36.961809000000002</v>
       </c>
-      <c r="H48" s="355">
+      <c r="H48" s="354">
         <v>8.3872706912208896E-4</v>
       </c>
-      <c r="I48" s="355">
+      <c r="I48" s="354">
         <v>1.097172</v>
       </c>
-      <c r="J48" s="356">
+      <c r="J48" s="355">
         <v>38.058981000000003</v>
       </c>
-      <c r="K48" s="355">
+      <c r="K48" s="354">
         <v>7.2378999999999998E-4</v>
       </c>
-      <c r="L48" s="355">
+      <c r="L48" s="354">
         <v>2.3386809999999998</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="N48" s="360"/>
+      <c r="N48" s="359"/>
     </row>
     <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B49" s="354" t="s">
+      <c r="B49" s="353" t="s">
         <v>350</v>
       </c>
-      <c r="C49" s="181">
+      <c r="C49" s="403">
         <v>28</v>
       </c>
-      <c r="D49" s="355">
+      <c r="D49" s="354">
         <v>24.28</v>
       </c>
-      <c r="E49" s="355">
-        <v>0</v>
-      </c>
-      <c r="F49" s="355">
+      <c r="E49" s="354">
+        <v>0</v>
+      </c>
+      <c r="F49" s="354">
         <v>12.020097999999999</v>
       </c>
-      <c r="G49" s="355">
+      <c r="G49" s="354">
         <v>36.300097999999998</v>
       </c>
-      <c r="H49" s="355">
+      <c r="H49" s="354">
         <v>8.2420731867499826E-4</v>
       </c>
-      <c r="I49" s="355">
+      <c r="I49" s="354">
         <v>1.078179</v>
       </c>
-      <c r="J49" s="356">
+      <c r="J49" s="355">
         <v>37.378276999999997</v>
       </c>
-      <c r="K49" s="355">
+      <c r="K49" s="354">
         <v>7.1126000000000002E-4</v>
       </c>
-      <c r="L49" s="355">
+      <c r="L49" s="354">
         <v>2.2981950000000002</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="N49" s="360"/>
+      <c r="N49" s="359"/>
     </row>
     <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B50" s="354" t="s">
+      <c r="B50" s="353" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="181">
+      <c r="C50" s="403">
         <v>16</v>
       </c>
-      <c r="D50" s="355">
+      <c r="D50" s="354">
         <v>37.880000000000003</v>
       </c>
-      <c r="E50" s="355">
-        <v>0</v>
-      </c>
-      <c r="F50" s="355">
+      <c r="E50" s="354">
+        <v>0</v>
+      </c>
+      <c r="F50" s="354">
         <v>18.537103000000002</v>
       </c>
-      <c r="G50" s="355">
+      <c r="G50" s="354">
         <v>56.417103000000004</v>
       </c>
-      <c r="H50" s="355">
+      <c r="H50" s="354">
         <v>1.2710749455633931E-3</v>
       </c>
-      <c r="I50" s="355">
+      <c r="I50" s="354">
         <v>1.662744</v>
       </c>
-      <c r="J50" s="356">
+      <c r="J50" s="355">
         <v>58.079847000000001</v>
       </c>
-      <c r="K50" s="355">
+      <c r="K50" s="354">
         <v>1.0968900000000001E-3</v>
       </c>
-      <c r="L50" s="355">
+      <c r="L50" s="354">
         <v>3.5442269999999998</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="N50" s="360"/>
+      <c r="N50" s="359"/>
     </row>
     <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B51" s="354" t="s">
+      <c r="B51" s="353" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="181">
+      <c r="C51" s="403">
         <v>16</v>
       </c>
-      <c r="D51" s="355">
+      <c r="D51" s="354">
         <v>37.14</v>
       </c>
-      <c r="E51" s="355">
-        <v>0</v>
-      </c>
-      <c r="F51" s="355">
+      <c r="E51" s="354">
+        <v>0</v>
+      </c>
+      <c r="F51" s="354">
         <v>18.201509999999999</v>
       </c>
-      <c r="G51" s="355">
+      <c r="G51" s="354">
         <v>55.34151</v>
       </c>
-      <c r="H51" s="355">
+      <c r="H51" s="354">
         <v>1.2480611990447002E-3</v>
       </c>
-      <c r="I51" s="355">
+      <c r="I51" s="354">
         <v>1.632639</v>
       </c>
-      <c r="J51" s="356">
+      <c r="J51" s="355">
         <v>56.974148999999997</v>
       </c>
-      <c r="K51" s="355">
+      <c r="K51" s="354">
         <v>1.0770300000000001E-3</v>
       </c>
-      <c r="L51" s="355">
+      <c r="L51" s="354">
         <v>3.4800559999999998</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="N51" s="360"/>
+      <c r="N51" s="359"/>
     </row>
     <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B52" s="354" t="s">
+      <c r="B52" s="353" t="s">
         <v>353</v>
       </c>
-      <c r="C52" s="181">
+      <c r="C52" s="403">
         <v>28</v>
       </c>
-      <c r="D52" s="355">
+      <c r="D52" s="354">
         <v>25.370000000000005</v>
       </c>
-      <c r="E52" s="355">
-        <v>0</v>
-      </c>
-      <c r="F52" s="355">
+      <c r="E52" s="354">
+        <v>0</v>
+      </c>
+      <c r="F52" s="354">
         <v>12.559660000000001</v>
       </c>
-      <c r="G52" s="355">
+      <c r="G52" s="354">
         <v>37.929660000000005</v>
       </c>
-      <c r="H52" s="355">
+      <c r="H52" s="354">
         <v>8.6120776813833474E-4</v>
       </c>
-      <c r="I52" s="355">
+      <c r="I52" s="354">
         <v>1.1265799999999999</v>
       </c>
-      <c r="J52" s="356">
+      <c r="J52" s="355">
         <v>39.056240000000003</v>
       </c>
-      <c r="K52" s="355">
+      <c r="K52" s="354">
         <v>7.4319000000000002E-4</v>
       </c>
-      <c r="L52" s="355">
+      <c r="L52" s="354">
         <v>2.4013659999999999</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N52" s="360"/>
+      <c r="N52" s="359"/>
     </row>
     <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B53" s="354" t="s">
+      <c r="B53" s="353" t="s">
         <v>354</v>
       </c>
-      <c r="C53" s="181">
+      <c r="C53" s="403">
         <v>20</v>
       </c>
-      <c r="D53" s="355">
+      <c r="D53" s="354">
         <v>37.65</v>
       </c>
-      <c r="E53" s="355">
-        <v>0</v>
-      </c>
-      <c r="F53" s="355">
+      <c r="E53" s="354">
+        <v>0</v>
+      </c>
+      <c r="F53" s="354">
         <v>18.446486</v>
       </c>
-      <c r="G53" s="355">
+      <c r="G53" s="354">
         <v>56.096485999999999</v>
       </c>
-      <c r="H53" s="355">
+      <c r="H53" s="354">
         <v>1.2648637833609663E-3</v>
       </c>
-      <c r="I53" s="355">
+      <c r="I53" s="354">
         <v>1.6546190000000001</v>
       </c>
-      <c r="J53" s="356">
+      <c r="J53" s="355">
         <v>57.751104999999995</v>
       </c>
-      <c r="K53" s="355">
+      <c r="K53" s="354">
         <v>1.0915300000000001E-3</v>
       </c>
-      <c r="L53" s="355">
+      <c r="L53" s="354">
         <v>3.5269080000000002</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="N53" s="360"/>
+      <c r="N53" s="359"/>
     </row>
     <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B54" s="354" t="s">
+      <c r="B54" s="353" t="s">
         <v>357</v>
       </c>
-      <c r="C54" s="181">
+      <c r="C54" s="403">
         <v>20</v>
       </c>
-      <c r="D54" s="355">
+      <c r="D54" s="354">
         <v>37.409999999999997</v>
       </c>
-      <c r="E54" s="355">
-        <v>0</v>
-      </c>
-      <c r="F54" s="355">
+      <c r="E54" s="354">
+        <v>0</v>
+      </c>
+      <c r="F54" s="354">
         <v>18.313448000000001</v>
       </c>
-      <c r="G54" s="355">
+      <c r="G54" s="354">
         <v>55.723447999999998</v>
       </c>
-      <c r="H54" s="355">
+      <c r="H54" s="354">
         <v>1.2557440358734479E-3</v>
       </c>
-      <c r="I54" s="355">
+      <c r="I54" s="354">
         <v>1.6426890000000001</v>
       </c>
-      <c r="J54" s="356">
+      <c r="J54" s="355">
         <v>57.366136999999995</v>
       </c>
-      <c r="K54" s="355">
+      <c r="K54" s="354">
         <v>1.08366E-3</v>
       </c>
-      <c r="L54" s="355">
+      <c r="L54" s="354">
         <v>3.5014789999999998</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="N54" s="360"/>
+      <c r="N54" s="359"/>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B55" s="354" t="s">
+      <c r="B55" s="353" t="s">
         <v>355</v>
       </c>
-      <c r="C55" s="181">
+      <c r="C55" s="403">
         <v>28</v>
       </c>
-      <c r="D55" s="355">
+      <c r="D55" s="354">
         <v>24.450000000000003</v>
       </c>
-      <c r="E55" s="355">
-        <v>0</v>
-      </c>
-      <c r="F55" s="355">
+      <c r="E55" s="354">
+        <v>0</v>
+      </c>
+      <c r="F55" s="354">
         <v>12.085179999999999</v>
       </c>
-      <c r="G55" s="355">
+      <c r="G55" s="354">
         <v>36.535180000000004</v>
       </c>
-      <c r="H55" s="355">
+      <c r="H55" s="354">
         <v>8.2866869451069653E-4</v>
       </c>
-      <c r="I55" s="355">
+      <c r="I55" s="354">
         <v>1.084015</v>
       </c>
-      <c r="J55" s="356">
+      <c r="J55" s="355">
         <v>37.619195000000005</v>
       </c>
-      <c r="K55" s="355">
+      <c r="K55" s="354">
         <v>7.1511000000000003E-4</v>
       </c>
-      <c r="L55" s="355">
+      <c r="L55" s="354">
         <v>2.310635</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="N55" s="360"/>
+      <c r="N55" s="359"/>
     </row>
     <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B56" s="354" t="s">
+      <c r="B56" s="353" t="s">
         <v>356</v>
       </c>
-      <c r="C56" s="181">
+      <c r="C56" s="403">
         <v>15</v>
       </c>
-      <c r="D56" s="355">
+      <c r="D56" s="354">
         <v>54.21</v>
       </c>
-      <c r="E56" s="355">
-        <v>0</v>
-      </c>
-      <c r="F56" s="355">
+      <c r="E56" s="354">
+        <v>0</v>
+      </c>
+      <c r="F56" s="354">
         <v>27.118888999999999</v>
       </c>
-      <c r="G56" s="355">
+      <c r="G56" s="354">
         <v>81.328889000000004</v>
       </c>
-      <c r="H56" s="355">
+      <c r="H56" s="354">
         <v>1.8595246242974013E-3</v>
       </c>
-      <c r="I56" s="355">
+      <c r="I56" s="354">
         <v>2.4325200000000002</v>
       </c>
-      <c r="J56" s="356">
+      <c r="J56" s="355">
         <v>83.761409</v>
       </c>
-      <c r="K56" s="355">
+      <c r="K56" s="354">
         <v>1.6046999999999999E-3</v>
       </c>
-      <c r="L56" s="355">
+      <c r="L56" s="354">
         <v>5.1850420000000002</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="N56" s="360"/>
+      <c r="N56" s="359"/>
     </row>
     <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B57" s="354" t="s">
+      <c r="B57" s="353" t="s">
         <v>335</v>
       </c>
-      <c r="C57" s="181">
+      <c r="C57" s="403">
         <v>60</v>
       </c>
-      <c r="D57" s="355">
+      <c r="D57" s="354">
         <v>49.25</v>
       </c>
-      <c r="E57" s="355">
-        <v>0</v>
-      </c>
-      <c r="F57" s="355">
+      <c r="E57" s="354">
+        <v>0</v>
+      </c>
+      <c r="F57" s="354">
         <v>24.557055999999999</v>
       </c>
-      <c r="G57" s="355">
+      <c r="G57" s="354">
         <v>73.807056000000003</v>
       </c>
-      <c r="H57" s="355">
+      <c r="H57" s="354">
         <v>1.6838622962627263E-3</v>
       </c>
-      <c r="I57" s="355">
+      <c r="I57" s="354">
         <v>2.202728</v>
       </c>
-      <c r="J57" s="356">
+      <c r="J57" s="355">
         <v>76.009783999999996</v>
       </c>
-      <c r="K57" s="355">
+      <c r="K57" s="354">
         <v>1.4531100000000001E-3</v>
       </c>
-      <c r="L57" s="355">
+      <c r="L57" s="354">
         <v>4.6952309999999997</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="N57" s="360"/>
+      <c r="N57" s="359"/>
     </row>
     <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B58" s="354" t="s">
+      <c r="B58" s="353" t="s">
         <v>336</v>
       </c>
-      <c r="C58" s="181">
+      <c r="C58" s="403">
         <v>30</v>
       </c>
-      <c r="D58" s="355">
+      <c r="D58" s="354">
         <v>48.65</v>
       </c>
-      <c r="E58" s="355">
-        <v>0</v>
-      </c>
-      <c r="F58" s="355">
+      <c r="E58" s="354">
+        <v>0</v>
+      </c>
+      <c r="F58" s="354">
         <v>24.252870999999999</v>
       </c>
-      <c r="G58" s="355">
+      <c r="G58" s="354">
         <v>72.902871000000005</v>
       </c>
-      <c r="H58" s="355">
+      <c r="H58" s="354">
         <v>1.663003915732189E-3</v>
       </c>
-      <c r="I58" s="355">
+      <c r="I58" s="354">
         <v>2.1754419999999999</v>
       </c>
-      <c r="J58" s="356">
+      <c r="J58" s="355">
         <v>75.078313000000009</v>
       </c>
-      <c r="K58" s="355">
+      <c r="K58" s="354">
         <v>1.4351100000000001E-3</v>
       </c>
-      <c r="L58" s="355">
+      <c r="L58" s="354">
         <v>4.6370699999999996</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="N58" s="360"/>
+      <c r="N58" s="359"/>
     </row>
     <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B59" s="354" t="s">
+      <c r="B59" s="353" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="181">
+      <c r="C59" s="403">
         <v>32</v>
       </c>
-      <c r="D59" s="355">
+      <c r="D59" s="354">
         <v>28.990000000000002</v>
       </c>
-      <c r="E59" s="355">
-        <v>0</v>
-      </c>
-      <c r="F59" s="355">
+      <c r="E59" s="354">
+        <v>0</v>
+      </c>
+      <c r="F59" s="354">
         <v>14.404283999999999</v>
       </c>
-      <c r="G59" s="355">
+      <c r="G59" s="354">
         <v>43.394283999999999</v>
       </c>
-      <c r="H59" s="355">
+      <c r="H59" s="354">
         <v>9.8769067007767634E-4</v>
       </c>
-      <c r="I59" s="355">
+      <c r="I59" s="354">
         <v>1.292038</v>
       </c>
-      <c r="J59" s="356">
+      <c r="J59" s="355">
         <v>44.686321999999997</v>
       </c>
-      <c r="K59" s="355">
+      <c r="K59" s="354">
         <v>8.5234000000000004E-4</v>
       </c>
-      <c r="L59" s="355">
+      <c r="L59" s="354">
         <v>2.7540469999999999</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="N59" s="360"/>
+      <c r="N59" s="359"/>
     </row>
     <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B60" s="354" t="s">
+      <c r="B60" s="353" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="181">
+      <c r="C60" s="403">
         <v>30</v>
       </c>
-      <c r="D60" s="355">
+      <c r="D60" s="354">
         <v>48.83</v>
       </c>
-      <c r="E60" s="355">
-        <v>0</v>
-      </c>
-      <c r="F60" s="355">
+      <c r="E60" s="354">
+        <v>0</v>
+      </c>
+      <c r="F60" s="354">
         <v>24.324382</v>
       </c>
-      <c r="G60" s="355">
+      <c r="G60" s="354">
         <v>73.154381999999998</v>
       </c>
-      <c r="H60" s="355">
+      <c r="H60" s="354">
         <v>1.6679056351568654E-3</v>
       </c>
-      <c r="I60" s="355">
+      <c r="I60" s="354">
         <v>2.181854</v>
       </c>
-      <c r="J60" s="356">
+      <c r="J60" s="355">
         <v>75.336236</v>
       </c>
-      <c r="K60" s="355">
+      <c r="K60" s="354">
         <v>1.4393400000000001E-3</v>
       </c>
-      <c r="L60" s="355">
+      <c r="L60" s="354">
         <v>4.6507379999999996</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="N60" s="360"/>
+      <c r="N60" s="359"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B61" s="354" t="s">
+      <c r="B61" s="353" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="181">
+      <c r="C61" s="403">
         <v>15</v>
       </c>
-      <c r="D61" s="355">
+      <c r="D61" s="354">
         <v>54.04</v>
       </c>
-      <c r="E61" s="355">
-        <v>0</v>
-      </c>
-      <c r="F61" s="355">
+      <c r="E61" s="354">
+        <v>0</v>
+      </c>
+      <c r="F61" s="354">
         <v>27.052615999999997</v>
       </c>
-      <c r="G61" s="355">
+      <c r="G61" s="354">
         <v>81.092615999999992</v>
       </c>
-      <c r="H61" s="355">
+      <c r="H61" s="354">
         <v>1.8549821325374177E-3</v>
       </c>
-      <c r="I61" s="355">
+      <c r="I61" s="354">
         <v>2.4265759999999998</v>
       </c>
-      <c r="J61" s="356">
+      <c r="J61" s="355">
         <v>83.51919199999999</v>
       </c>
-      <c r="K61" s="355">
+      <c r="K61" s="354">
         <v>1.60078E-3</v>
       </c>
-      <c r="L61" s="355">
+      <c r="L61" s="354">
         <v>5.1723759999999999</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="N61" s="360"/>
+      <c r="N61" s="359"/>
     </row>
     <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B62" s="354" t="s">
+      <c r="B62" s="353" t="s">
         <v>340</v>
       </c>
-      <c r="C62" s="181">
+      <c r="C62" s="403">
         <v>15</v>
       </c>
-      <c r="D62" s="355">
+      <c r="D62" s="354">
         <v>54.31</v>
       </c>
-      <c r="E62" s="355">
-        <v>0</v>
-      </c>
-      <c r="F62" s="355">
+      <c r="E62" s="354">
+        <v>0</v>
+      </c>
+      <c r="F62" s="354">
         <v>27.159291</v>
       </c>
-      <c r="G62" s="355">
+      <c r="G62" s="354">
         <v>81.469290999999998</v>
       </c>
-      <c r="H62" s="355">
+      <c r="H62" s="354">
         <v>1.8622941537122894E-3</v>
       </c>
-      <c r="I62" s="355">
+      <c r="I62" s="354">
         <v>2.4361410000000001</v>
       </c>
-      <c r="J62" s="356">
+      <c r="J62" s="355">
         <v>83.905432000000005</v>
       </c>
-      <c r="K62" s="355">
+      <c r="K62" s="354">
         <v>1.60709E-3</v>
       </c>
-      <c r="L62" s="355">
+      <c r="L62" s="354">
         <v>5.1927649999999996</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="N62" s="360"/>
+      <c r="N62" s="359"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B63" s="354" t="s">
+      <c r="B63" s="353" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="181">
+      <c r="C63" s="403">
         <v>15</v>
       </c>
-      <c r="D63" s="355">
+      <c r="D63" s="354">
         <v>54.13</v>
       </c>
-      <c r="E63" s="355">
-        <v>0</v>
-      </c>
-      <c r="F63" s="355">
+      <c r="E63" s="354">
+        <v>0</v>
+      </c>
+      <c r="F63" s="354">
         <v>27.087781</v>
       </c>
-      <c r="G63" s="355">
+      <c r="G63" s="354">
         <v>81.217781000000002</v>
       </c>
-      <c r="H63" s="355">
+      <c r="H63" s="354">
         <v>1.8573924342876131E-3</v>
       </c>
-      <c r="I63" s="355">
+      <c r="I63" s="354">
         <v>2.429729</v>
       </c>
-      <c r="J63" s="356">
+      <c r="J63" s="355">
         <v>83.647509999999997</v>
       </c>
-      <c r="K63" s="355">
+      <c r="K63" s="354">
         <v>1.60286E-3</v>
       </c>
-      <c r="L63" s="355">
+      <c r="L63" s="354">
         <v>5.1790969999999996</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="N63" s="360"/>
+      <c r="N63" s="359"/>
     </row>
     <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B64" s="354" t="s">
+      <c r="B64" s="353" t="s">
         <v>342</v>
       </c>
-      <c r="C64" s="181">
+      <c r="C64" s="403">
         <v>14</v>
       </c>
-      <c r="D64" s="355">
+      <c r="D64" s="354">
         <v>54.99</v>
       </c>
-      <c r="E64" s="355">
-        <v>0</v>
-      </c>
-      <c r="F64" s="355">
+      <c r="E64" s="354">
+        <v>0</v>
+      </c>
+      <c r="F64" s="354">
         <v>27.592900999999998</v>
       </c>
-      <c r="G64" s="355">
+      <c r="G64" s="354">
         <v>82.582900999999993</v>
       </c>
-      <c r="H64" s="355">
+      <c r="H64" s="354">
         <v>1.8920289339574888E-3</v>
       </c>
-      <c r="I64" s="355">
+      <c r="I64" s="354">
         <v>2.4750390000000002</v>
       </c>
-      <c r="J64" s="356">
+      <c r="J64" s="355">
         <v>85.057939999999988</v>
       </c>
-      <c r="K64" s="355">
+      <c r="K64" s="354">
         <v>1.6327500000000001E-3</v>
       </c>
-      <c r="L64" s="355">
+      <c r="L64" s="354">
         <v>5.2756759999999998</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="N64" s="360"/>
+      <c r="N64" s="359"/>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B65" s="354" t="s">
+      <c r="B65" s="353" t="s">
         <v>343</v>
       </c>
-      <c r="C65" s="181">
+      <c r="C65" s="403">
         <v>14</v>
       </c>
-      <c r="D65" s="355">
+      <c r="D65" s="354">
         <v>37.97</v>
       </c>
-      <c r="E65" s="355">
-        <v>0</v>
-      </c>
-      <c r="F65" s="355">
+      <c r="E65" s="354">
+        <v>0</v>
+      </c>
+      <c r="F65" s="354">
         <v>18.584416999999998</v>
       </c>
-      <c r="G65" s="355">
+      <c r="G65" s="354">
         <v>56.554417000000001</v>
       </c>
-      <c r="H65" s="355">
+      <c r="H65" s="354">
         <v>1.2743195825348098E-3</v>
       </c>
-      <c r="I65" s="355">
+      <c r="I65" s="354">
         <v>1.6669879999999999</v>
       </c>
-      <c r="J65" s="356">
+      <c r="J65" s="355">
         <v>58.221405000000004</v>
       </c>
-      <c r="K65" s="355">
+      <c r="K65" s="354">
         <v>1.09969E-3</v>
       </c>
-      <c r="L65" s="355">
+      <c r="L65" s="354">
         <v>3.553274</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="N65" s="360"/>
+      <c r="N65" s="359"/>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B66" s="354" t="s">
+      <c r="B66" s="353" t="s">
         <v>344</v>
       </c>
-      <c r="C66" s="181">
+      <c r="C66" s="403">
         <v>14</v>
       </c>
-      <c r="D66" s="355">
+      <c r="D66" s="354">
         <v>37.14</v>
       </c>
-      <c r="E66" s="355">
-        <v>0</v>
-      </c>
-      <c r="F66" s="355">
+      <c r="E66" s="354">
+        <v>0</v>
+      </c>
+      <c r="F66" s="354">
         <v>18.205193999999999</v>
       </c>
-      <c r="G66" s="355">
+      <c r="G66" s="354">
         <v>55.345193999999999</v>
       </c>
-      <c r="H66" s="355">
+      <c r="H66" s="354">
         <v>1.24831613480674E-3</v>
       </c>
-      <c r="I66" s="355">
+      <c r="I66" s="354">
         <v>1.6329720000000001</v>
       </c>
-      <c r="J66" s="356">
+      <c r="J66" s="355">
         <v>56.978166000000002</v>
       </c>
-      <c r="K66" s="355">
+      <c r="K66" s="354">
         <v>1.0772500000000001E-3</v>
       </c>
-      <c r="L66" s="355">
+      <c r="L66" s="354">
         <v>3.4807670000000002</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N66" s="360"/>
+      <c r="N66" s="359"/>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="B67" s="354" t="s">
+      <c r="B67" s="353" t="s">
         <v>345</v>
       </c>
-      <c r="C67" s="181">
+      <c r="C67" s="403">
         <v>14</v>
       </c>
-      <c r="D67" s="355">
+      <c r="D67" s="354">
         <v>53.710000000000008</v>
       </c>
-      <c r="E67" s="355">
-        <v>0</v>
-      </c>
-      <c r="F67" s="355">
+      <c r="E67" s="354">
+        <v>0</v>
+      </c>
+      <c r="F67" s="354">
         <v>26.970073999999997</v>
       </c>
-      <c r="G67" s="355">
+      <c r="G67" s="354">
         <v>80.680074000000005</v>
       </c>
-      <c r="H67" s="355">
+      <c r="H67" s="354">
         <v>1.8493156058266218E-3</v>
       </c>
-      <c r="I67" s="355">
+      <c r="I67" s="354">
         <v>2.4191639999999999</v>
       </c>
-      <c r="J67" s="356">
+      <c r="J67" s="355">
         <v>83.099238</v>
       </c>
-      <c r="K67" s="355">
+      <c r="K67" s="354">
         <v>1.59589E-3</v>
       </c>
-      <c r="L67" s="355">
+      <c r="L67" s="354">
         <v>5.1565760000000003</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="N67" s="360"/>
+      <c r="N67" s="359"/>
     </row>
     <row r="68" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="181"/>
@@ -8839,29 +8842,29 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="416" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="403"/>
-      <c r="C6" s="403"/>
-      <c r="D6" s="403"/>
-      <c r="E6" s="403"/>
-      <c r="F6" s="403"/>
-      <c r="G6" s="403"/>
-      <c r="H6" s="403"/>
-      <c r="I6" s="403"/>
-      <c r="J6" s="403"/>
-      <c r="K6" s="406"/>
-      <c r="L6" s="402" t="s">
+      <c r="B6" s="414"/>
+      <c r="C6" s="414"/>
+      <c r="D6" s="414"/>
+      <c r="E6" s="414"/>
+      <c r="F6" s="414"/>
+      <c r="G6" s="414"/>
+      <c r="H6" s="414"/>
+      <c r="I6" s="414"/>
+      <c r="J6" s="414"/>
+      <c r="K6" s="417"/>
+      <c r="L6" s="413" t="s">
         <v>241</v>
       </c>
-      <c r="M6" s="403"/>
-      <c r="N6" s="403"/>
-      <c r="O6" s="403"/>
-      <c r="P6" s="403"/>
-      <c r="Q6" s="403"/>
-      <c r="R6" s="403"/>
-      <c r="S6" s="404"/>
+      <c r="M6" s="414"/>
+      <c r="N6" s="414"/>
+      <c r="O6" s="414"/>
+      <c r="P6" s="414"/>
+      <c r="Q6" s="414"/>
+      <c r="R6" s="414"/>
+      <c r="S6" s="415"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
@@ -8946,18 +8949,18 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
-      <c r="B10" s="407" t="s">
+      <c r="B10" s="418" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="408"/>
-      <c r="D10" s="408"/>
-      <c r="E10" s="408"/>
-      <c r="F10" s="408"/>
-      <c r="G10" s="408"/>
-      <c r="H10" s="408"/>
-      <c r="I10" s="408"/>
-      <c r="J10" s="408"/>
-      <c r="K10" s="409"/>
+      <c r="C10" s="419"/>
+      <c r="D10" s="419"/>
+      <c r="E10" s="419"/>
+      <c r="F10" s="419"/>
+      <c r="G10" s="419"/>
+      <c r="H10" s="419"/>
+      <c r="I10" s="419"/>
+      <c r="J10" s="419"/>
+      <c r="K10" s="420"/>
       <c r="L10" s="48" t="s">
         <v>114</v>
       </c>
@@ -8967,7 +8970,7 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="52"/>
-      <c r="S10" s="414" t="s">
+      <c r="S10" s="408" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8975,20 +8978,20 @@
       <c r="A11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="407" t="s">
+      <c r="B11" s="418" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="408"/>
-      <c r="D11" s="408"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="409"/>
-      <c r="G11" s="407" t="s">
+      <c r="C11" s="419"/>
+      <c r="D11" s="419"/>
+      <c r="E11" s="419"/>
+      <c r="F11" s="420"/>
+      <c r="G11" s="418" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-      <c r="J11" s="408"/>
-      <c r="K11" s="409"/>
+      <c r="H11" s="419"/>
+      <c r="I11" s="419"/>
+      <c r="J11" s="419"/>
+      <c r="K11" s="420"/>
       <c r="L11" s="49" t="s">
         <v>7</v>
       </c>
@@ -8996,11 +8999,11 @@
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="50"/>
-      <c r="Q11" s="410" t="s">
+      <c r="Q11" s="404" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="411"/>
-      <c r="S11" s="415"/>
+      <c r="R11" s="405"/>
+      <c r="S11" s="409"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
@@ -9009,72 +9012,72 @@
       <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="412" t="s">
+      <c r="C12" s="406" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="413"/>
+      <c r="D12" s="407"/>
       <c r="E12" s="48"/>
       <c r="F12" s="50"/>
       <c r="G12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="412" t="s">
+      <c r="H12" s="406" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="413"/>
+      <c r="I12" s="407"/>
       <c r="J12" s="44"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="412" t="s">
+      <c r="M12" s="406" t="s">
         <v>231</v>
       </c>
-      <c r="N12" s="413"/>
+      <c r="N12" s="407"/>
       <c r="O12" s="44"/>
       <c r="P12" s="52"/>
-      <c r="Q12" s="410" t="s">
+      <c r="Q12" s="404" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="411"/>
-      <c r="S12" s="415"/>
+      <c r="R12" s="405"/>
+      <c r="S12" s="409"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="410" t="s">
+      <c r="C13" s="404" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="411"/>
+      <c r="D13" s="405"/>
       <c r="E13" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="410" t="s">
+      <c r="H13" s="404" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="411"/>
-      <c r="J13" s="410" t="s">
+      <c r="I13" s="405"/>
+      <c r="J13" s="404" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="411"/>
+      <c r="K13" s="405"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="410" t="s">
+      <c r="M13" s="404" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="411"/>
-      <c r="O13" s="410" t="s">
+      <c r="N13" s="405"/>
+      <c r="O13" s="404" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="411"/>
-      <c r="Q13" s="410" t="s">
+      <c r="P13" s="405"/>
+      <c r="Q13" s="404" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="411"/>
-      <c r="S13" s="415"/>
+      <c r="R13" s="405"/>
+      <c r="S13" s="409"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
@@ -9083,33 +9086,33 @@
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="417" t="s">
+      <c r="C14" s="411" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="418"/>
+      <c r="D14" s="412"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
       <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="417" t="s">
+      <c r="H14" s="411" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="418"/>
+      <c r="I14" s="412"/>
       <c r="J14" s="1"/>
       <c r="K14" s="27"/>
       <c r="L14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="417" t="s">
+      <c r="M14" s="411" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="418"/>
+      <c r="N14" s="412"/>
       <c r="O14" s="1"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="94"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="415"/>
+      <c r="S14" s="409"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
@@ -9160,7 +9163,7 @@
       <c r="R15" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="S15" s="415"/>
+      <c r="S15" s="409"/>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
@@ -9191,7 +9194,7 @@
       <c r="R16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="S16" s="415"/>
+      <c r="S16" s="409"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
@@ -9228,7 +9231,7 @@
       <c r="R17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="415"/>
+      <c r="S17" s="409"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
@@ -9285,7 +9288,7 @@
       <c r="R18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="416"/>
+      <c r="S18" s="410"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
@@ -11198,6 +11201,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -11213,11 +11221,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -11229,14 +11232,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0C9F13-FDCD-4905-AA10-B4A1C501689A}">
-  <sheetPr syncVertical="1" syncRef="A5" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A12" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -11247,7 +11250,7 @@
     <col min="4" max="4" width="20.19921875" style="191" customWidth="1"/>
     <col min="5" max="5" width="21.19921875" style="191" customWidth="1"/>
     <col min="6" max="6" width="21.3984375" style="191" customWidth="1"/>
-    <col min="7" max="7" width="22.3984375" style="191" customWidth="1"/>
+    <col min="7" max="7" width="29.19921875" style="191" customWidth="1"/>
     <col min="8" max="8" width="22" style="191" customWidth="1"/>
     <col min="9" max="9" width="20.19921875" style="191" customWidth="1"/>
     <col min="10" max="10" width="19.796875" style="191" customWidth="1"/>
@@ -11398,31 +11401,31 @@
       <c r="V5" s="206"/>
     </row>
     <row r="6" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="431" t="s">
+      <c r="B6" s="424" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="429"/>
-      <c r="D6" s="429"/>
-      <c r="E6" s="429"/>
-      <c r="F6" s="429"/>
-      <c r="G6" s="429"/>
-      <c r="H6" s="429"/>
-      <c r="I6" s="429"/>
-      <c r="J6" s="429"/>
-      <c r="K6" s="429"/>
-      <c r="L6" s="429"/>
-      <c r="M6" s="432"/>
-      <c r="N6" s="428" t="s">
+      <c r="C6" s="422"/>
+      <c r="D6" s="422"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="422"/>
+      <c r="G6" s="422"/>
+      <c r="H6" s="422"/>
+      <c r="I6" s="422"/>
+      <c r="J6" s="422"/>
+      <c r="K6" s="422"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="425"/>
+      <c r="N6" s="421" t="s">
         <v>241</v>
       </c>
-      <c r="O6" s="429"/>
-      <c r="P6" s="429"/>
-      <c r="Q6" s="429"/>
-      <c r="R6" s="429"/>
-      <c r="S6" s="429"/>
-      <c r="T6" s="429"/>
-      <c r="U6" s="429"/>
-      <c r="V6" s="430"/>
+      <c r="O6" s="422"/>
+      <c r="P6" s="422"/>
+      <c r="Q6" s="422"/>
+      <c r="R6" s="422"/>
+      <c r="S6" s="422"/>
+      <c r="T6" s="422"/>
+      <c r="U6" s="422"/>
+      <c r="V6" s="423"/>
     </row>
     <row r="7" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="207" t="s">
@@ -11511,19 +11514,19 @@
       <c r="B10" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="433" t="s">
+      <c r="C10" s="426" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="434"/>
-      <c r="E10" s="434"/>
-      <c r="F10" s="434"/>
-      <c r="G10" s="434"/>
-      <c r="H10" s="434"/>
-      <c r="I10" s="434"/>
-      <c r="J10" s="434"/>
-      <c r="K10" s="434"/>
-      <c r="L10" s="434"/>
-      <c r="M10" s="434"/>
+      <c r="D10" s="427"/>
+      <c r="E10" s="427"/>
+      <c r="F10" s="427"/>
+      <c r="G10" s="427"/>
+      <c r="H10" s="427"/>
+      <c r="I10" s="427"/>
+      <c r="J10" s="427"/>
+      <c r="K10" s="427"/>
+      <c r="L10" s="427"/>
+      <c r="M10" s="427"/>
       <c r="N10" s="220" t="s">
         <v>259</v>
       </c>
@@ -11536,7 +11539,7 @@
       <c r="S10" s="223"/>
       <c r="T10" s="224"/>
       <c r="U10" s="225"/>
-      <c r="V10" s="425" t="s">
+      <c r="V10" s="431" t="s">
         <v>261</v>
       </c>
     </row>
@@ -11544,13 +11547,13 @@
       <c r="B11" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="433" t="s">
+      <c r="C11" s="426" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="434"/>
-      <c r="E11" s="434"/>
-      <c r="F11" s="434"/>
-      <c r="G11" s="435"/>
+      <c r="D11" s="427"/>
+      <c r="E11" s="427"/>
+      <c r="F11" s="427"/>
+      <c r="G11" s="428"/>
       <c r="H11" s="222" t="s">
         <v>7</v>
       </c>
@@ -11571,11 +11574,11 @@
       <c r="Q11" s="222"/>
       <c r="R11" s="222"/>
       <c r="S11" s="223"/>
-      <c r="T11" s="421" t="s">
+      <c r="T11" s="429" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="422"/>
-      <c r="V11" s="426"/>
+      <c r="U11" s="430"/>
+      <c r="V11" s="432"/>
     </row>
     <row r="12" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="226" t="s">
@@ -11584,19 +11587,19 @@
       <c r="C12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="419" t="s">
+      <c r="D12" s="433" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="420"/>
+      <c r="E12" s="434"/>
       <c r="F12" s="224"/>
       <c r="G12" s="225"/>
       <c r="H12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="419" t="s">
+      <c r="I12" s="433" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="420"/>
+      <c r="J12" s="434"/>
       <c r="K12" s="224"/>
       <c r="L12" s="225"/>
       <c r="M12" s="230" t="s">
@@ -11608,40 +11611,40 @@
       <c r="O12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="419" t="s">
+      <c r="P12" s="433" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="420"/>
+      <c r="Q12" s="434"/>
       <c r="R12" s="232"/>
       <c r="S12" s="225"/>
-      <c r="T12" s="421" t="s">
+      <c r="T12" s="429" t="s">
         <v>109</v>
       </c>
-      <c r="U12" s="422"/>
-      <c r="V12" s="426"/>
+      <c r="U12" s="430"/>
+      <c r="V12" s="432"/>
     </row>
     <row r="13" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="226" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="229"/>
-      <c r="D13" s="421" t="s">
+      <c r="D13" s="429" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="422"/>
-      <c r="F13" s="421" t="s">
+      <c r="E13" s="430"/>
+      <c r="F13" s="429" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="422"/>
+      <c r="G13" s="430"/>
       <c r="H13" s="229"/>
-      <c r="I13" s="421" t="s">
+      <c r="I13" s="429" t="s">
         <v>232</v>
       </c>
-      <c r="J13" s="422"/>
-      <c r="K13" s="421" t="s">
+      <c r="J13" s="430"/>
+      <c r="K13" s="429" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="422"/>
+      <c r="L13" s="430"/>
       <c r="M13" s="230" t="s">
         <v>256</v>
       </c>
@@ -11649,19 +11652,19 @@
         <v>260</v>
       </c>
       <c r="O13" s="233"/>
-      <c r="P13" s="421" t="s">
+      <c r="P13" s="429" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="422"/>
-      <c r="R13" s="421" t="s">
+      <c r="Q13" s="430"/>
+      <c r="R13" s="429" t="s">
         <v>103</v>
       </c>
-      <c r="S13" s="422"/>
-      <c r="T13" s="421" t="s">
+      <c r="S13" s="430"/>
+      <c r="T13" s="429" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="422"/>
-      <c r="V13" s="426"/>
+      <c r="U13" s="430"/>
+      <c r="V13" s="432"/>
     </row>
     <row r="14" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="226" t="s">
@@ -11670,19 +11673,19 @@
       <c r="C14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="423" t="s">
+      <c r="D14" s="435" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="424"/>
+      <c r="E14" s="436"/>
       <c r="F14" s="234"/>
       <c r="G14" s="235"/>
       <c r="H14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="423" t="s">
+      <c r="I14" s="435" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="424"/>
+      <c r="J14" s="436"/>
       <c r="K14" s="234"/>
       <c r="L14" s="235"/>
       <c r="M14" s="230" t="s">
@@ -11692,15 +11695,15 @@
       <c r="O14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="423" t="s">
+      <c r="P14" s="435" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="424"/>
+      <c r="Q14" s="436"/>
       <c r="R14" s="209"/>
       <c r="S14" s="236"/>
       <c r="T14" s="237"/>
       <c r="U14" s="236"/>
-      <c r="V14" s="426"/>
+      <c r="V14" s="432"/>
     </row>
     <row r="15" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="226" t="s">
@@ -11757,7 +11760,7 @@
       <c r="U15" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="426"/>
+      <c r="V15" s="432"/>
     </row>
     <row r="16" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="226" t="s">
@@ -11792,7 +11795,7 @@
       <c r="U16" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="V16" s="426"/>
+      <c r="V16" s="432"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="226"/>
@@ -11841,7 +11844,7 @@
       <c r="U17" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="V17" s="426"/>
+      <c r="V17" s="432"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="239" t="s">
@@ -11904,7 +11907,9 @@
       <c r="U18" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="427"/>
+      <c r="V18" s="47" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="19" spans="1:22" s="241" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
@@ -12491,7 +12496,7 @@
         <v>28.983850499999999</v>
       </c>
       <c r="N27" s="256">
-        <v>6.127499999999999E-4</v>
+        <v>6.1275000000000001E-4</v>
       </c>
       <c r="O27" s="293">
         <v>0</v>
@@ -15720,7 +15725,7 @@
       <c r="D75" s="232"/>
       <c r="E75" s="232"/>
       <c r="F75" s="232"/>
-      <c r="G75" s="232"/>
+      <c r="G75" s="401"/>
       <c r="H75" s="232"/>
       <c r="I75" s="232"/>
       <c r="J75" s="232"/>
@@ -15739,15 +15744,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="N6:V6"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="C10:M10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V10:V17"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="V10:V18"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="P12:Q12"/>
@@ -15755,10 +15764,6 @@
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -15770,14 +15775,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE84EDC-BFC7-4DA7-B6EB-5AF1BC423ECF}">
-  <sheetPr syncVertical="1" syncRef="A55" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -15894,13 +15899,13 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="400" t="s">
+      <c r="A15" s="399" t="s">
         <v>658</v>
       </c>
-      <c r="B15" s="401" t="s">
+      <c r="B15" s="400" t="s">
         <v>659</v>
       </c>
-      <c r="C15" s="400" t="s">
+      <c r="C15" s="399" t="s">
         <v>604</v>
       </c>
     </row>
@@ -16430,21 +16435,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E0EC1E-EC62-4F13-8E29-A1CCC9C84E4C}">
-  <sheetPr syncVertical="1" syncRef="B1" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="B11" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:N69"/>
+    <sheetView showGridLines="0" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="22.59765625" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="4" max="4" width="46.59765625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="25.59765625" customWidth="1"/>
@@ -16554,24 +16559,24 @@
       <c r="O5" s="102"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="438" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="408"/>
-      <c r="D6" s="408"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="409"/>
-      <c r="H6" s="407" t="s">
+      <c r="C6" s="419"/>
+      <c r="D6" s="419"/>
+      <c r="E6" s="419"/>
+      <c r="F6" s="419"/>
+      <c r="G6" s="420"/>
+      <c r="H6" s="418" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="408"/>
-      <c r="M6" s="408"/>
-      <c r="N6" s="408"/>
-      <c r="O6" s="436"/>
+      <c r="I6" s="419"/>
+      <c r="J6" s="419"/>
+      <c r="K6" s="419"/>
+      <c r="L6" s="419"/>
+      <c r="M6" s="419"/>
+      <c r="N6" s="419"/>
+      <c r="O6" s="437"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -16646,25 +16651,25 @@
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
-      <c r="C10" s="407" t="s">
+      <c r="C10" s="418" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="408"/>
-      <c r="E10" s="438"/>
-      <c r="F10" s="439" t="s">
+      <c r="D10" s="419"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="440" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="440"/>
-      <c r="H10" s="440"/>
-      <c r="I10" s="440"/>
-      <c r="J10" s="440"/>
-      <c r="K10" s="440"/>
-      <c r="L10" s="441"/>
-      <c r="M10" s="408" t="s">
+      <c r="G10" s="441"/>
+      <c r="H10" s="441"/>
+      <c r="I10" s="441"/>
+      <c r="J10" s="441"/>
+      <c r="K10" s="441"/>
+      <c r="L10" s="442"/>
+      <c r="M10" s="419" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="408"/>
-      <c r="O10" s="436"/>
+      <c r="N10" s="419"/>
+      <c r="O10" s="437"/>
     </row>
     <row r="11" spans="1:15" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
@@ -16851,7 +16856,7 @@
       <c r="C15" s="283">
         <v>13.818411500000002</v>
       </c>
-      <c r="D15" s="329">
+      <c r="D15" s="402">
         <v>42583.27</v>
       </c>
       <c r="E15" s="254">
@@ -16898,7 +16903,7 @@
       <c r="C16" s="283">
         <v>14.394178999999999</v>
       </c>
-      <c r="D16" s="329">
+      <c r="D16" s="402">
         <v>44357.7</v>
       </c>
       <c r="E16" s="254">
@@ -16945,7 +16950,7 @@
       <c r="C17" s="283">
         <v>15.35379</v>
       </c>
-      <c r="D17" s="329">
+      <c r="D17" s="402">
         <v>47314.58</v>
       </c>
       <c r="E17" s="254">
@@ -16992,7 +16997,7 @@
       <c r="C18" s="283">
         <v>15.993528</v>
       </c>
-      <c r="D18" s="329">
+      <c r="D18" s="402">
         <v>49285.35</v>
       </c>
       <c r="E18" s="254">
@@ -17039,7 +17044,7 @@
       <c r="C19" s="283">
         <v>27.636816</v>
       </c>
-      <c r="D19" s="329">
+      <c r="D19" s="402">
         <v>85165.07</v>
       </c>
       <c r="E19" s="254">
@@ -17086,7 +17091,7 @@
       <c r="C20" s="283">
         <v>28.788352</v>
       </c>
-      <c r="D20" s="329">
+      <c r="D20" s="402">
         <v>88713.91</v>
       </c>
       <c r="E20" s="254">
@@ -17133,7 +17138,7 @@
       <c r="C21" s="283">
         <v>31.987050500000002</v>
       </c>
-      <c r="D21" s="329">
+      <c r="D21" s="402">
         <v>98569.22</v>
       </c>
       <c r="E21" s="254">
@@ -17180,11 +17185,11 @@
       <c r="C22" s="283">
         <v>29.35388</v>
       </c>
-      <c r="D22" s="329">
+      <c r="D22" s="402">
         <v>90455.86</v>
       </c>
       <c r="E22" s="254">
-        <v>6.127499999999999E-4</v>
+        <v>6.1275000000000001E-4</v>
       </c>
       <c r="F22" s="115">
         <v>0</v>
@@ -17227,7 +17232,7 @@
       <c r="C23" s="283">
         <v>56.069470000000003</v>
       </c>
-      <c r="D23" s="329">
+      <c r="D23" s="402">
         <v>172782.15</v>
       </c>
       <c r="E23" s="254">
@@ -17274,7 +17279,7 @@
       <c r="C24" s="283">
         <v>56.258319500000006</v>
       </c>
-      <c r="D24" s="329">
+      <c r="D24" s="402">
         <v>173363.78</v>
       </c>
       <c r="E24" s="254">
@@ -17321,7 +17326,7 @@
       <c r="C25" s="283">
         <v>56.404505999999991</v>
       </c>
-      <c r="D25" s="329">
+      <c r="D25" s="402">
         <v>173815.50999999998</v>
       </c>
       <c r="E25" s="254">
@@ -17368,7 +17373,7 @@
       <c r="C26" s="283">
         <v>57.598711000000009</v>
       </c>
-      <c r="D26" s="329">
+      <c r="D26" s="402">
         <v>177495.74</v>
       </c>
       <c r="E26" s="254">
@@ -17415,7 +17420,7 @@
       <c r="C27" s="283">
         <v>56.542882999999996</v>
       </c>
-      <c r="D27" s="329">
+      <c r="D27" s="402">
         <v>174242.13999999998</v>
       </c>
       <c r="E27" s="254">
@@ -17462,7 +17467,7 @@
       <c r="C28" s="283">
         <v>65.762001999999995</v>
       </c>
-      <c r="D28" s="329">
+      <c r="D28" s="402">
         <v>202652.16</v>
       </c>
       <c r="E28" s="254">
@@ -17509,7 +17514,7 @@
       <c r="C29" s="283">
         <v>37.509625999999997</v>
       </c>
-      <c r="D29" s="329">
+      <c r="D29" s="402">
         <v>115590.13</v>
       </c>
       <c r="E29" s="254">
@@ -17556,7 +17561,7 @@
       <c r="C30" s="283">
         <v>65.268696500000004</v>
       </c>
-      <c r="D30" s="329">
+      <c r="D30" s="402">
         <v>201131.64</v>
       </c>
       <c r="E30" s="254">
@@ -17603,7 +17608,7 @@
       <c r="C31" s="283">
         <v>57.210517999999993</v>
       </c>
-      <c r="D31" s="329">
+      <c r="D31" s="402">
         <v>176300.01</v>
       </c>
       <c r="E31" s="254">
@@ -17650,7 +17655,7 @@
       <c r="C32" s="283">
         <v>57.694418000000006</v>
       </c>
-      <c r="D32" s="329">
+      <c r="D32" s="402">
         <v>177791</v>
       </c>
       <c r="E32" s="254">
@@ -17697,7 +17702,7 @@
       <c r="C33" s="300">
         <v>428.94728699999996</v>
       </c>
-      <c r="D33" s="329">
+      <c r="D33" s="402">
         <v>1321842.6299999999</v>
       </c>
       <c r="E33" s="255">
@@ -17744,7 +17749,7 @@
       <c r="C34" s="300">
         <v>353.21258349999999</v>
       </c>
-      <c r="D34" s="329">
+      <c r="D34" s="402">
         <v>1088459.8400000001</v>
       </c>
       <c r="E34" s="255">
@@ -17791,7 +17796,7 @@
       <c r="C35" s="283">
         <v>68.118698000000009</v>
       </c>
-      <c r="D35" s="329">
+      <c r="D35" s="402">
         <v>209913.72</v>
       </c>
       <c r="E35" s="254">
@@ -17838,7 +17843,7 @@
       <c r="C36" s="283">
         <v>27.435856000000001</v>
       </c>
-      <c r="D36" s="329">
+      <c r="D36" s="402">
         <v>84546.53</v>
       </c>
       <c r="E36" s="254">
@@ -17885,7 +17890,7 @@
       <c r="C37" s="283">
         <v>38.6674425</v>
       </c>
-      <c r="D37" s="329">
+      <c r="D37" s="402">
         <v>119158.17</v>
       </c>
       <c r="E37" s="254">
@@ -17932,7 +17937,7 @@
       <c r="C38" s="283">
         <v>29.096793000000002</v>
       </c>
-      <c r="D38" s="329">
+      <c r="D38" s="402">
         <v>89664.61</v>
       </c>
       <c r="E38" s="254">
@@ -17979,7 +17984,7 @@
       <c r="C39" s="283">
         <v>530.49742349999997</v>
       </c>
-      <c r="D39" s="329">
+      <c r="D39" s="402">
         <v>1634779.36</v>
       </c>
       <c r="E39" s="254">
@@ -18026,7 +18031,7 @@
       <c r="C40" s="283">
         <v>586.533816</v>
       </c>
-      <c r="D40" s="329">
+      <c r="D40" s="402">
         <v>1807461.13</v>
       </c>
       <c r="E40" s="254">
@@ -18073,7 +18078,7 @@
       <c r="C41" s="283">
         <v>39.987708500000004</v>
       </c>
-      <c r="D41" s="329">
+      <c r="D41" s="402">
         <v>123226.66</v>
       </c>
       <c r="E41" s="254">
@@ -18120,7 +18125,7 @@
       <c r="C42" s="283">
         <v>35.698933000000004</v>
       </c>
-      <c r="D42" s="329">
+      <c r="D42" s="402">
         <v>110009.99</v>
       </c>
       <c r="E42" s="254">
@@ -18167,7 +18172,7 @@
       <c r="C43" s="283">
         <v>35.445196499999994</v>
       </c>
-      <c r="D43" s="329">
+      <c r="D43" s="402">
         <v>109227.59</v>
       </c>
       <c r="E43" s="254">
@@ -18214,7 +18219,7 @@
       <c r="C44" s="283">
         <v>35.018810500000001</v>
       </c>
-      <c r="D44" s="329">
+      <c r="D44" s="402">
         <v>107913.75</v>
       </c>
       <c r="E44" s="254">
@@ -18261,7 +18266,7 @@
       <c r="C45" s="283">
         <v>40.10761625</v>
       </c>
-      <c r="D45" s="329">
+      <c r="D45" s="402">
         <v>123595.72</v>
       </c>
       <c r="E45" s="254">
@@ -18308,7 +18313,7 @@
       <c r="C46" s="283">
         <v>39.719128499999997</v>
       </c>
-      <c r="D46" s="329">
+      <c r="D46" s="402">
         <v>122398.5</v>
       </c>
       <c r="E46" s="254">
@@ -18355,7 +18360,7 @@
       <c r="C47" s="283">
         <v>39.853880250000003</v>
       </c>
-      <c r="D47" s="329">
+      <c r="D47" s="402">
         <v>122813.32</v>
       </c>
       <c r="E47" s="254">
@@ -18402,7 +18407,7 @@
       <c r="C48" s="283">
         <v>40.7420075</v>
       </c>
-      <c r="D48" s="329">
+      <c r="D48" s="402">
         <v>125550.24</v>
       </c>
       <c r="E48" s="254">
@@ -18449,7 +18454,7 @@
       <c r="C49" s="283">
         <v>35.810484500000001</v>
       </c>
-      <c r="D49" s="329">
+      <c r="D49" s="402">
         <v>110353.95</v>
       </c>
       <c r="E49" s="254">
@@ -18496,7 +18501,7 @@
       <c r="C50" s="283">
         <v>34.672862000000009</v>
       </c>
-      <c r="D50" s="329">
+      <c r="D50" s="402">
         <v>106847.91</v>
       </c>
       <c r="E50" s="254">
@@ -18543,7 +18548,7 @@
       <c r="C51" s="283">
         <v>34.072747000000007</v>
       </c>
-      <c r="D51" s="329">
+      <c r="D51" s="402">
         <v>104998.2</v>
       </c>
       <c r="E51" s="254">
@@ -18590,7 +18595,7 @@
       <c r="C52" s="283">
         <v>52.546158750000004</v>
       </c>
-      <c r="D52" s="329">
+      <c r="D52" s="402">
         <v>161925.98000000001</v>
       </c>
       <c r="E52" s="254">
@@ -18637,7 +18642,7 @@
       <c r="C53" s="283">
         <v>51.594872000000009</v>
       </c>
-      <c r="D53" s="329">
+      <c r="D53" s="402">
         <v>158994.19</v>
       </c>
       <c r="E53" s="254">
@@ -18684,7 +18689,7 @@
       <c r="C54" s="283">
         <v>35.602207</v>
       </c>
-      <c r="D54" s="329">
+      <c r="D54" s="402">
         <v>109711.79</v>
       </c>
       <c r="E54" s="254">
@@ -18731,7 +18736,7 @@
       <c r="C55" s="283">
         <v>52.289281500000001</v>
       </c>
-      <c r="D55" s="329">
+      <c r="D55" s="402">
         <v>161134.72</v>
       </c>
       <c r="E55" s="254">
@@ -18778,7 +18783,7 @@
       <c r="C56" s="283">
         <v>51.912159499999994</v>
       </c>
-      <c r="D56" s="329">
+      <c r="D56" s="402">
         <v>159972.93</v>
       </c>
       <c r="E56" s="254">
@@ -18825,7 +18830,7 @@
       <c r="C57" s="283">
         <v>34.257235000000001</v>
       </c>
-      <c r="D57" s="329">
+      <c r="D57" s="402">
         <v>105566.54</v>
       </c>
       <c r="E57" s="254">
@@ -18872,7 +18877,7 @@
       <c r="C58" s="283">
         <v>76.872484500000013</v>
       </c>
-      <c r="D58" s="329">
+      <c r="D58" s="402">
         <v>236890.31</v>
       </c>
       <c r="E58" s="254">
@@ -18919,7 +18924,7 @@
       <c r="C59" s="283">
         <v>69.610590500000001</v>
       </c>
-      <c r="D59" s="329">
+      <c r="D59" s="402">
         <v>214512.17</v>
       </c>
       <c r="E59" s="254">
@@ -18966,7 +18971,7 @@
       <c r="C60" s="283">
         <v>68.748337000000006</v>
       </c>
-      <c r="D60" s="329">
+      <c r="D60" s="402">
         <v>211854.96</v>
       </c>
       <c r="E60" s="254">
@@ -19013,7 +19018,7 @@
       <c r="C61" s="283">
         <v>40.831069499999998</v>
       </c>
-      <c r="D61" s="329">
+      <c r="D61" s="402">
         <v>125824.82</v>
       </c>
       <c r="E61" s="254">
@@ -19060,7 +19065,7 @@
       <c r="C62" s="283">
         <v>68.95104649999999</v>
       </c>
-      <c r="D62" s="329">
+      <c r="D62" s="402">
         <v>212479.41</v>
       </c>
       <c r="E62" s="254">
@@ -19107,7 +19112,7 @@
       <c r="C63" s="283">
         <v>76.684619999999995</v>
       </c>
-      <c r="D63" s="329">
+      <c r="D63" s="402">
         <v>236311.63</v>
       </c>
       <c r="E63" s="254">
@@ -19154,7 +19159,7 @@
       <c r="C64" s="283">
         <v>76.987012750000005</v>
       </c>
-      <c r="D64" s="329">
+      <c r="D64" s="402">
         <v>237243.13</v>
       </c>
       <c r="E64" s="254">
@@ -19201,7 +19206,7 @@
       <c r="C65" s="283">
         <v>76.784303750000007</v>
       </c>
-      <c r="D65" s="329">
+      <c r="D65" s="402">
         <v>236618.69</v>
       </c>
       <c r="E65" s="254">
@@ -19248,7 +19253,7 @@
       <c r="C66" s="283">
         <v>78.216138000000001</v>
       </c>
-      <c r="D66" s="329">
+      <c r="D66" s="402">
         <v>241031.13</v>
       </c>
       <c r="E66" s="254">
@@ -19295,7 +19300,7 @@
       <c r="C67" s="283">
         <v>52.68027275</v>
       </c>
-      <c r="D67" s="329">
+      <c r="D67" s="402">
         <v>162339.32</v>
       </c>
       <c r="E67" s="254">
@@ -19342,7 +19347,7 @@
       <c r="C68" s="283">
         <v>51.605309750000004</v>
       </c>
-      <c r="D68" s="329">
+      <c r="D68" s="402">
         <v>159026.67000000001</v>
       </c>
       <c r="E68" s="254">
@@ -19389,7 +19394,7 @@
       <c r="C69" s="283">
         <v>76.450660499999998</v>
       </c>
-      <c r="D69" s="329">
+      <c r="D69" s="402">
         <v>235589.76000000001</v>
       </c>
       <c r="E69" s="254">
@@ -19540,14 +19545,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA0CAC-6348-4D29-9468-BDA4F8927589}">
-  <sheetPr syncVertical="1" syncRef="A27" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A3" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A40"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -19650,21 +19655,21 @@
       <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="438" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="408"/>
-      <c r="D6" s="408"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="409"/>
-      <c r="G6" s="408" t="s">
+      <c r="C6" s="419"/>
+      <c r="D6" s="419"/>
+      <c r="E6" s="419"/>
+      <c r="F6" s="420"/>
+      <c r="G6" s="419" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="408"/>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="436"/>
+      <c r="H6" s="419"/>
+      <c r="I6" s="419"/>
+      <c r="J6" s="419"/>
+      <c r="K6" s="419"/>
+      <c r="L6" s="437"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -19730,22 +19735,22 @@
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
-      <c r="C10" s="454" t="s">
+      <c r="C10" s="455" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="455"/>
-      <c r="E10" s="455"/>
-      <c r="F10" s="455"/>
-      <c r="G10" s="456"/>
+      <c r="D10" s="456"/>
+      <c r="E10" s="456"/>
+      <c r="F10" s="456"/>
+      <c r="G10" s="457"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="457" t="s">
+      <c r="I10" s="458" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="445" t="s">
+      <c r="J10" s="446" t="s">
         <v>274</v>
       </c>
-      <c r="K10" s="446"/>
-      <c r="L10" s="447"/>
+      <c r="K10" s="447"/>
+      <c r="L10" s="448"/>
     </row>
     <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
@@ -19769,10 +19774,10 @@
       <c r="H11" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="458"/>
-      <c r="J11" s="448"/>
-      <c r="K11" s="449"/>
-      <c r="L11" s="450"/>
+      <c r="I11" s="459"/>
+      <c r="J11" s="449"/>
+      <c r="K11" s="450"/>
+      <c r="L11" s="451"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="88" t="s">
@@ -19796,25 +19801,25 @@
       <c r="H12" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="459"/>
-      <c r="J12" s="451"/>
-      <c r="K12" s="452"/>
-      <c r="L12" s="453"/>
+      <c r="I12" s="460"/>
+      <c r="J12" s="452"/>
+      <c r="K12" s="453"/>
+      <c r="L12" s="454"/>
     </row>
     <row r="13" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="442" t="s">
+      <c r="B13" s="443" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="443"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="443"/>
-      <c r="F13" s="443"/>
-      <c r="G13" s="443"/>
-      <c r="H13" s="443"/>
-      <c r="I13" s="443"/>
-      <c r="J13" s="443"/>
-      <c r="K13" s="443"/>
-      <c r="L13" s="444"/>
+      <c r="C13" s="444"/>
+      <c r="D13" s="444"/>
+      <c r="E13" s="444"/>
+      <c r="F13" s="444"/>
+      <c r="G13" s="444"/>
+      <c r="H13" s="444"/>
+      <c r="I13" s="444"/>
+      <c r="J13" s="444"/>
+      <c r="K13" s="444"/>
+      <c r="L13" s="445"/>
     </row>
     <row r="14" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="324" t="s">
@@ -20622,65 +20627,65 @@
       <c r="A39" s="114" t="s">
         <v>562</v>
       </c>
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="379" t="s">
         <v>331</v>
       </c>
-      <c r="C39" s="381">
+      <c r="C39" s="380">
         <v>523.80999999999995</v>
       </c>
-      <c r="D39" s="382">
-        <v>0</v>
-      </c>
-      <c r="E39" s="383">
+      <c r="D39" s="381">
+        <v>0</v>
+      </c>
+      <c r="E39" s="382">
         <v>523.80999999999995</v>
       </c>
-      <c r="F39" s="384">
+      <c r="F39" s="383">
         <v>13.374847000000001</v>
       </c>
-      <c r="G39" s="381">
+      <c r="G39" s="380">
         <v>537.18484699999999</v>
       </c>
-      <c r="H39" s="385">
+      <c r="H39" s="384">
         <v>1.107403E-2</v>
       </c>
-      <c r="I39" s="386">
+      <c r="I39" s="385">
         <v>1</v>
       </c>
-      <c r="J39" s="387"/>
-      <c r="K39" s="388"/>
-      <c r="L39" s="389"/>
+      <c r="J39" s="386"/>
+      <c r="K39" s="387"/>
+      <c r="L39" s="388"/>
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114" t="s">
         <v>562</v>
       </c>
-      <c r="B40" s="390" t="s">
+      <c r="B40" s="389" t="s">
         <v>460</v>
       </c>
-      <c r="C40" s="391">
+      <c r="C40" s="390">
         <v>579.14</v>
       </c>
-      <c r="D40" s="392">
-        <v>0</v>
-      </c>
-      <c r="E40" s="393">
+      <c r="D40" s="391">
+        <v>0</v>
+      </c>
+      <c r="E40" s="392">
         <v>579.14</v>
       </c>
-      <c r="F40" s="394">
+      <c r="F40" s="393">
         <v>14.787632</v>
       </c>
-      <c r="G40" s="391">
+      <c r="G40" s="390">
         <v>593.92763200000002</v>
       </c>
-      <c r="H40" s="395">
+      <c r="H40" s="394">
         <v>1.2243779999999999E-2</v>
       </c>
-      <c r="I40" s="396">
+      <c r="I40" s="395">
         <v>1</v>
       </c>
-      <c r="J40" s="397"/>
-      <c r="K40" s="398"/>
-      <c r="L40" s="399"/>
+      <c r="J40" s="396"/>
+      <c r="K40" s="397"/>
+      <c r="L40" s="398"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="114" t="s">
@@ -21719,7 +21724,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.796875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="64.3984375" style="370" customWidth="1"/>
+    <col min="1" max="8" width="64.3984375" style="369" customWidth="1"/>
     <col min="9" max="9" width="26.3984375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="25.796875" customWidth="1"/>
@@ -21728,17 +21733,17 @@
     <col min="14" max="254" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="334" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="373" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="H1" s="372"/>
+    <row r="1" spans="1:27" s="333" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="372" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -21759,17 +21764,17 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="374" t="s">
+    <row r="2" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="373" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="375"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -21790,21 +21795,21 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="361" t="s">
+    <row r="3" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="360" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="336" t="s">
+      <c r="B3" s="345"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="335" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="335"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="338" t="s">
+      <c r="E3" s="334"/>
+      <c r="F3" s="336"/>
+      <c r="G3" s="337" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="362" t="s">
+      <c r="H3" s="361" t="s">
         <v>86</v>
       </c>
       <c r="I3"/>
@@ -21827,17 +21832,17 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="363"/>
-      <c r="B4" s="347"/>
-      <c r="C4" s="332"/>
-      <c r="D4" s="339"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="340" t="s">
+    <row r="4" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="362"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="338"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="339" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="364"/>
+      <c r="H4" s="363"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
@@ -21858,21 +21863,21 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="365" t="s">
+    <row r="5" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="364" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="348" t="s">
+      <c r="B5" s="347" t="s">
         <v>511</v>
       </c>
-      <c r="C5" s="341" t="s">
+      <c r="C5" s="340" t="s">
         <v>518</v>
       </c>
-      <c r="D5" s="341"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="348"/>
+      <c r="D5" s="340"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="347"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
@@ -21893,18 +21898,18 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="376" t="s">
+    <row r="6" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="375" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="346"/>
-      <c r="C6" s="377" t="s">
+      <c r="B6" s="345"/>
+      <c r="C6" s="376" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
+      <c r="D6" s="377"/>
+      <c r="E6" s="377"/>
+      <c r="F6" s="377"/>
+      <c r="G6" s="377"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
@@ -21925,22 +21930,22 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="366" t="s">
+    <row r="7" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="349" t="s">
+      <c r="B7" s="348" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="367" t="s">
+      <c r="C7" s="366" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="331" t="s">
+      <c r="D7" s="330" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -21961,18 +21966,18 @@
       <c r="Z7"/>
       <c r="AA7"/>
     </row>
-    <row r="8" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="366" t="s">
+    <row r="8" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="365" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="349"/>
-      <c r="C8" s="367" t="s">
+      <c r="B8" s="348"/>
+      <c r="C8" s="366" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="330"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
+      <c r="D8" s="329"/>
+      <c r="E8" s="329"/>
+      <c r="F8" s="329"/>
+      <c r="G8" s="329"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -21993,20 +21998,20 @@
       <c r="Z8"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="368" t="s">
+    <row r="9" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="367" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="350">
+      <c r="B9" s="349">
         <v>45569</v>
       </c>
-      <c r="C9" s="369" t="s">
+      <c r="C9" s="368" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="344">
+      <c r="D9" s="343">
         <v>45569</v>
       </c>
-      <c r="E9" s="332"/>
+      <c r="E9" s="331"/>
       <c r="F9" s="108" t="s">
         <v>123</v>
       </c>
@@ -22033,7 +22038,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
     </row>
-    <row r="10" spans="1:27" s="334" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="322"/>
       <c r="B10" s="322"/>
       <c r="C10" s="322"/>
@@ -22089,28 +22094,28 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="371" t="s">
+      <c r="A12" s="370" t="s">
         <v>631</v>
       </c>
-      <c r="B12" s="371" t="s">
+      <c r="B12" s="370" t="s">
         <v>632</v>
       </c>
-      <c r="C12" s="371" t="s">
+      <c r="C12" s="370" t="s">
         <v>633</v>
       </c>
-      <c r="D12" s="371" t="s">
+      <c r="D12" s="370" t="s">
         <v>634</v>
       </c>
-      <c r="E12" s="371" t="s">
+      <c r="E12" s="370" t="s">
         <v>635</v>
       </c>
-      <c r="F12" s="371" t="s">
+      <c r="F12" s="370" t="s">
         <v>636</v>
       </c>
-      <c r="G12" s="371" t="s">
+      <c r="G12" s="370" t="s">
         <v>637</v>
       </c>
-      <c r="H12" s="371" t="s">
+      <c r="H12" s="370" t="s">
         <v>638</v>
       </c>
     </row>
@@ -22422,61 +22427,61 @@
       <c r="H40" s="320"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="345"/>
+      <c r="A41" s="344"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="345"/>
+      <c r="A42" s="344"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="345"/>
+      <c r="A43" s="344"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="345"/>
+      <c r="A44" s="344"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="345"/>
+      <c r="A45" s="344"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="345"/>
+      <c r="A46" s="344"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="345"/>
+      <c r="A47" s="344"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="345"/>
+      <c r="A48" s="344"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="345"/>
+      <c r="A49" s="344"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="345"/>
+      <c r="A50" s="344"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="345"/>
+      <c r="A51" s="344"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="345"/>
+      <c r="A52" s="344"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="345"/>
+      <c r="A53" s="344"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="345"/>
+      <c r="A54" s="344"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="345"/>
+      <c r="A55" s="344"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="345"/>
+      <c r="A56" s="344"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="345"/>
+      <c r="A57" s="344"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="345"/>
+      <c r="A58" s="344"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="345"/>
+      <c r="A59" s="344"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -22518,134 +22523,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="379" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="D1" s="379"/>
+      <c r="A1" s="378" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="378" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="379" t="s">
+      <c r="A3" s="378" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="379"/>
-      <c r="C3" s="379"/>
-      <c r="D3" s="379" t="s">
+      <c r="B3" s="378"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="379"/>
-      <c r="B4" s="379"/>
-      <c r="C4" s="379"/>
-      <c r="D4" s="379" t="s">
+      <c r="A4" s="378"/>
+      <c r="B4" s="378"/>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="379" t="s">
+      <c r="A5" s="378" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="379" t="s">
+      <c r="B5" s="378" t="s">
         <v>511</v>
       </c>
-      <c r="C5" s="379" t="s">
+      <c r="C5" s="378" t="s">
         <v>518</v>
       </c>
-      <c r="D5" s="379"/>
+      <c r="D5" s="378"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="379" t="s">
+      <c r="A6" s="378" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="379"/>
-      <c r="C6" s="379" t="s">
+      <c r="B6" s="378"/>
+      <c r="C6" s="378" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="379"/>
+      <c r="D6" s="378"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="379" t="s">
+      <c r="A7" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="379" t="s">
+      <c r="B7" s="378" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="379" t="s">
+      <c r="C7" s="378" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="379" t="s">
+      <c r="D7" s="378" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="379"/>
-      <c r="B8" s="379"/>
-      <c r="C8" s="379" t="s">
+      <c r="A8" s="378"/>
+      <c r="B8" s="378"/>
+      <c r="C8" s="378" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="379" t="s">
+      <c r="D8" s="378" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="379" t="s">
+      <c r="A9" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="379"/>
-      <c r="C9" s="379" t="s">
+      <c r="B9" s="378"/>
+      <c r="C9" s="378" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="379"/>
+      <c r="D9" s="378"/>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="379" t="s">
+      <c r="A10" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="379">
+      <c r="B10" s="378">
         <v>45569</v>
       </c>
-      <c r="C10" s="379" t="s">
+      <c r="C10" s="378" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="379">
+      <c r="D10" s="378">
         <v>45569</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="379" t="s">
+      <c r="A11" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="379" t="s">
+      <c r="B11" s="378" t="s">
         <v>271</v>
       </c>
-      <c r="C11" s="379" t="s">
+      <c r="C11" s="378" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="379" t="s">
+      <c r="D11" s="378" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="351" t="s">
+      <c r="A12" s="350" t="s">
         <v>596</v>
       </c>
-      <c r="B12" s="351" t="s">
+      <c r="B12" s="350" t="s">
         <v>597</v>
       </c>
-      <c r="C12" s="351" t="s">
+      <c r="C12" s="350" t="s">
         <v>598</v>
       </c>
-      <c r="D12" s="351" t="s">
+      <c r="D12" s="350" t="s">
         <v>599</v>
       </c>
     </row>
@@ -22809,7 +22814,7 @@
         <v>391</v>
       </c>
       <c r="C26" s="319"/>
-      <c r="D26" s="352"/>
+      <c r="D26" s="351"/>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="319" t="s">
@@ -22819,7 +22824,7 @@
         <v>392</v>
       </c>
       <c r="C27" s="319"/>
-      <c r="D27" s="352"/>
+      <c r="D27" s="351"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="319" t="s">
@@ -22831,7 +22836,7 @@
       <c r="C28" s="319" t="s">
         <v>395</v>
       </c>
-      <c r="D28" s="352"/>
+      <c r="D28" s="351"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="319" t="s">
@@ -22843,7 +22848,7 @@
       <c r="C29" s="319" t="s">
         <v>397</v>
       </c>
-      <c r="D29" s="352"/>
+      <c r="D29" s="351"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="319"/>
@@ -23032,22 +23037,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="353" t="s">
+      <c r="A12" s="352" t="s">
         <v>600</v>
       </c>
-      <c r="B12" s="353" t="s">
+      <c r="B12" s="352" t="s">
         <v>601</v>
       </c>
-      <c r="C12" s="353" t="s">
+      <c r="C12" s="352" t="s">
         <v>602</v>
       </c>
-      <c r="D12" s="353" t="s">
+      <c r="D12" s="352" t="s">
         <v>603</v>
       </c>
-      <c r="E12" s="353" t="s">
+      <c r="E12" s="352" t="s">
         <v>604</v>
       </c>
-      <c r="F12" s="353" t="s">
+      <c r="F12" s="352" t="s">
         <v>554</v>
       </c>
     </row>

--- a/pre_cri/data/base_real_ajustada.xlsx
+++ b/pre_cri/data/base_real_ajustada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="808" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A90869F-27CF-412F-A216-26DD26028763}"/>
+  <xr:revisionPtr revIDLastSave="883" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65F40A6-636B-49BA-8475-D141ECA2E603}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="2" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="674">
   <si>
     <t>INFORMAÇÕES PARA ARQUIVO NO REGISTRO DE IMÓVEIS</t>
   </si>
@@ -968,15 +968,6 @@
     <t>CAIXA D'ÁGUA</t>
   </si>
   <si>
-    <t>APARTAMENTO TIPO 1</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 2</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">01 (um) </t>
   </si>
   <si>
@@ -1079,15 +1070,6 @@
     <t>LOJA 07</t>
   </si>
   <si>
-    <t>APARTAMENTO TIPO 4</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 5</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 6</t>
-  </si>
-  <si>
     <t>APARTAMENTO TIPO 19</t>
   </si>
   <si>
@@ -1121,21 +1103,6 @@
     <t>APARTAMENTO TIPO 29</t>
   </si>
   <si>
-    <t>APARTAMENTO TIPO 7</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 8</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 9</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 10</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 11</t>
-  </si>
-  <si>
     <t>APARTAMENTO TIPO 12</t>
   </si>
   <si>
@@ -1475,36 +1442,12 @@
     <t>Vaga/dep 67</t>
   </si>
   <si>
-    <t>Apartamentos 301, 319, 401, 419, 501, 519, 619, 719, 819, 919, 1019, 1101, 1119, 1201, 1219, 1301, 1319, 1401, 1419, 1519, 1619 e 1719</t>
-  </si>
-  <si>
     <t xml:space="preserve">ÁREA </t>
   </si>
   <si>
-    <t>Apartamentos 302, 303, 315, 316, 321, 322, 334, 335, 402, 403, 415, 416, 421, 422, 434, 435, 502, 503, 515, 516, 521, 522, 534, 535, 603, 615, 616, 622, 634, 635, 703, 715, 716, 722, 734, 735, 803, 815, 816, 822, 834, 835, 903, 915, 916, 922, 934, 935, 1003, 1015, 1016, 1022, 1034, 1035, 1102, 1103, 1117, 1118, 1121, 1122, 1136, 1137, 1202, 1203, 1217, 1218, 1221, 1222, 1236, 1237, 1302, 1303, 1317, 1318, 1321, 1322, 1336, 1337, 1402, 1403, 1417, 1418, 1421, 1422, 1436, 1437, 1503, 1504, 1505, 1517, 1518, 1522, 1523, 1524, 1536, 1537, 1603, 1604, 1605, 1617, 1618, 1622, 1623, 1624, 1636, 1637,  1703, 1704, 1705, 1717, 1718, 1722, 1723, 1724, 1736 e 1737</t>
-  </si>
-  <si>
-    <t>Apartamentos 304, 305, 317, 318, 323, 324, 336, 337, 404, 405, 417, 418, 423, 424, 436, 437, 504, 505, 517, 518, 523, 524, 536, 537, 602, 604, 605, 617, 618, 621, 623, 624, 636, 637, 702, 704, 705, 717, 718, 721, 723, 724, 736, 737, 802, 804, 805, 817, 818, 821, 823, 824, 836, 837, 902, 904, 905, 917, 918, 921, 923, 924, 936, 937, 1002, 1004, 1005, 1017, 1018, 1021, 1023, 1024, 1036, 1037, 1104, 1105, 1115, 1116, 1123, 1124, 1134, 1135, 1204, 1205, 1215, 1216, 1223, 1224, 1234, 1235, 1304, 1305, 1315, 1316, 1323, 1324, 1334, 1335, 1404, 1405, 1415, 1416, 1423, 1424, 1434, 1435, 1502, 1515, 1516, 1521, 1534, 1535, 1602, 1615, 1616, 1621, 1634, 1635, 1702, 1715, 1716, 1721, 1734 e 1735</t>
-  </si>
-  <si>
-    <t>Apartamentos 306, 314, 325, 333, 406, 414, 425, 433, 506, 514, 525, 533, 606, 614, 625, 633, 706, 714, 725, 733, 806, 814, 825, 833, 906, 914, 925, 933, 1006, 1014, 1025, 1033, 1106, 1114, 1125, 1133, 1206, 1214, 1225, 1233, 1306, 1314, 1325, 1333, 1406, 1414, 1425, 1433, 1506, 1514, 1525, 1533, 1606, 1614, 1625, 1633, 1706, 1714, 1725 e 1733</t>
-  </si>
-  <si>
-    <t>Apartamentos 620, 720, 820, 920, 1020, 1520, 1620 e 1720</t>
-  </si>
-  <si>
-    <t>Apartamentos 310, 329, 410, 429, 510, 529, 1510, 1529, 1610 e 1629</t>
-  </si>
-  <si>
-    <t>Apartamentos 311, 312, 330, 331, 411, 412, 430, 431, 511, 512, 530, 531, 612, 631, 712, 731, 812, 831, 2112, 2131, 2212, 2231, 2312, 2331, 2412, 2431, 2512 e 2531</t>
-  </si>
-  <si>
     <t>Apartamentos 609, 628, 709, 728, 809, 828, 2109, 2128, 2209, 2228, 2309, 2328, 2409, 2428, 2509 e 2528</t>
   </si>
   <si>
-    <t>Apartamentos 908, 927, 1008, 1027, 1108, 1127, 1208, 1227, 1308, 1327, 1408, 1427, 1508, 1509, 1527, 1528, 1608, 1609, 1627, 1628, 1708, 1727, 1808, 1827, 1908, 1927,  2008 e 2027</t>
-  </si>
-  <si>
     <t>Apartamentos 909, 928, 1009, 1028, 1109, 1128, 1209, 1228, 1309, 1328, 1409, 1428, 1709, 1728, 1809, 1828, 1909, 1928, 2009 e 2028</t>
   </si>
   <si>
@@ -1517,9 +1460,6 @@
     <t>Apartamentos 1803, 1816, 1822, 1835, 1903, 1916, 1922, 1935, 2003, 2016, 2022, 2035, 2103, 2116, 2122, 2135, 2203, 2216, 2222, 2235, 2303, 2316, 2322, 2335, 2403, 2416, 2422, 2435, 2503, 2516, 2522, 2535, 2603, 2616, 2622, 2635, 2703, 2716, 2722, 2735, 2803, 2816, 2822, 2835, 2903, 2916, 2922, 2935, 3003, 3016, 3022, 3035, 3103, 3116, 3122, 3135, 3203, 3216, 3222 e 3235</t>
   </si>
   <si>
-    <t>Apartamentos 1807, 1813, 1826, 1832, 1907, 1913, 1926, 1932, 2007, 2013, 2026, 2032, 2107, 2113, 2126, 2132, 2207, 2213, 2226, 2232, 2307, 2313, 2326, 2332, 2407, 2413, 2426, 2432, 2507, 2513, 2526 e 2532</t>
-  </si>
-  <si>
     <t>Apartamentos 1814, 1833, 1914, 1933, 2014, 2033, 2114, 2133, 2214, 2233, 2314, 2333, 2414, 2433, 2506, 2514,  2525, 2533, 2606, 2614,  2625, 2633, 2706, 2714,  2725, 2733, 2806, 2814,  2825 e 2833</t>
   </si>
   <si>
@@ -1541,12 +1481,6 @@
     <t xml:space="preserve">Apartamentos 2611, 2630, 2711, 2730, 2811, 2830, 2911, 2930, 3011, 3030, 3111, 3130, 3211 e 3230 </t>
   </si>
   <si>
-    <t>Apartamentos 601, 701, 801, 901, 1001, 1501, 1601 e 1701</t>
-  </si>
-  <si>
-    <t>Apartamentos 307, 313, 326, 332, 407, 413, 426, 432, 507, 513, 526, 532, 607, 613, 626, 632, 707, 713, 726, 732, 807, 813, 826, 832, 907, 913, 926, 932, 1007, 1013, 1026, 1032, 1107, 1113, 1126, 1132, 1207, 1213, 1226, 1232, 1307, 1313, 1326, 1332, 1407, 1413, 1426, 1432, 1507, 1513, 1526, 1532, 1607, 1613, 1626, 1632, 1707, 1713, 1726 e 1732</t>
-  </si>
-  <si>
     <t>Apartamentos 611, 630, 711, 730, 811, 830, 2111, 2130, 2211, 2230, 2311, 2330, 2411, 2430, 2511 e 2530</t>
   </si>
   <si>
@@ -1601,16 +1535,7 @@
     <t xml:space="preserve">Hall/circulação pavimento tipo </t>
   </si>
   <si>
-    <t xml:space="preserve">Apartamentos 320, 338, 420, 438, 520, 538, 638, 738, 838, 938, 1038, 1120, 1138, 1220, 1238, 1320, 1338, 1420, 1438, 1538, 1638 e 1738 </t>
-  </si>
-  <si>
     <t>Apartamentos 1806, 1825, 1906, 1925, 2006, 2025, 2106, 2125, 2206, 2225, 2306, 2325, 2406, 2425, 2906, 2914, 2925, 2933, 3006, 3014, 3025, 3033, 3106, 3114, 3125, 3133, 3206, 3214, 3225 e 3233</t>
-  </si>
-  <si>
-    <t>Apartamentos 308, 309, 327, 328, 408, 409, 427, 428, 508, 509, 527, 528, 608, 627, 708, 727, 808, 827, 2108, 2127, 2208, 2227, 2308, 2327, 2408, 2427, 2508 e 2527</t>
-  </si>
-  <si>
-    <t>Apartamentos 912, 931, 1012, 1031, 1112, 1131, 1212, 1231, 1312, 1331, 1412, 1431, 1511, 1512, 1530, 1531, 1611, 1612, 1630, 1631, 1712, 1731, 1812, 1831, 1912, 1931, 2012 e 2031</t>
   </si>
   <si>
     <t>Alameda Doutor Carlos de Carvalho nº 256 / Rua Visconde de Nacar nº 1035 / Rua Cruz Machado nº 555</t>
@@ -2022,15 +1947,6 @@
     <t>Outros pavimentos: Mezanino: 10 (dez) elevadores (sem parada), 02 (duas) escadas de emergência (sem acesso), 03 (três) espaços técnicos e mezaninos das lojas nº 01, 02, 07 e 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Outros pavimentos: 3º, 4º, 5º, 15º e 16º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 38 (trinta e oito) apartamentos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros pavimentos: 6º ao 14º e 17º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 36 (trinta e seis) apartamentos </t>
-  </si>
-  <si>
-    <t>Outros pavimentos: 18º ao 25º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 24 (vinte e quatro) apartamentos</t>
-  </si>
-  <si>
     <t>Outros pavimentos: 26º ao 32º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 20 (vinte) apartamentos</t>
   </si>
   <si>
@@ -2095,6 +2011,99 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 1</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 2</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 3</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 4</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 5</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 6</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 7</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 8</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 9</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 10</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 11</t>
+  </si>
+  <si>
+    <t>Kitinetes 1807, 1813, 1826, 1832, 1907, 1913, 1926, 1932, 2007, 2013, 2026, 2032, 2107, 2113, 2126, 2132, 2207, 2213, 2226, 2232, 2307, 2313, 2326, 2332, 2407, 2413, 2426, 2432, 2507, 2513, 2526 e 2532</t>
+  </si>
+  <si>
+    <t>Kitinetes 912, 931, 1012, 1031, 1112, 1131, 1212, 1231, 1312, 1331, 1412, 1431, 1511, 1512, 1530, 1531, 1611, 1612, 1630, 1631, 1712, 1731, 1812, 1831, 1912, 1931, 2012 e 2031</t>
+  </si>
+  <si>
+    <t>Kitinetes  908, 927, 1008, 1027, 1108, 1127, 1208, 1227, 1308, 1327, 1408, 1427, 1508, 1509, 1527, 1528, 1608, 1609, 1627, 1628, 1708, 1727, 1808, 1827, 1908, 1927,  2008 e 2027</t>
+  </si>
+  <si>
+    <t>Kitinetes 301, 319, 401, 419, 501, 519, 619, 719, 819, 919, 1019, 1101, 1119, 1201, 1219, 1301, 1319, 1401, 1419, 1519, 1619 e 1719</t>
+  </si>
+  <si>
+    <t>Kitinetes 302, 303, 315, 316, 321, 322, 334, 335, 402, 403, 415, 416, 421, 422, 434, 435, 502, 503, 515, 516, 521, 522, 534, 535, 603, 615, 616, 622, 634, 635, 703, 715, 716, 722, 734, 735, 803, 815, 816, 822, 834, 835, 903, 915, 916, 922, 934, 935, 1003, 1015, 1016, 1022, 1034, 1035, 1102, 1103, 1117, 1118, 1121, 1122, 1136, 1137, 1202, 1203, 1217, 1218, 1221, 1222, 1236, 1237, 1302, 1303, 1317, 1318, 1321, 1322, 1336, 1337, 1402, 1403, 1417, 1418, 1421, 1422, 1436, 1437, 1503, 1504, 1505, 1517, 1518, 1522, 1523, 1524, 1536, 1537, 1603, 1604, 1605, 1617, 1618, 1622, 1623, 1624, 1636, 1637,  1703, 1704, 1705, 1717, 1718, 1722, 1723, 1724, 1736 e 1737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitinetes  320, 338, 420, 438, 520, 538, 638, 738, 838, 938, 1038, 1120, 1138, 1220, 1238, 1320, 1338, 1420, 1438, 1538, 1638 e 1738 </t>
+  </si>
+  <si>
+    <t>Kitinetes 304, 305, 317, 318, 323, 324, 336, 337, 404, 405, 417, 418, 423, 424, 436, 437, 504, 505, 517, 518, 523, 524, 536, 537, 602, 604, 605, 617, 618, 621, 623, 624, 636, 637, 702, 704, 705, 717, 718, 721, 723, 724, 736, 737, 802, 804, 805, 817, 818, 821, 823, 824, 836, 837, 902, 904, 905, 917, 918, 921, 923, 924, 936, 937, 1002, 1004, 1005, 1017, 1018, 1021, 1023, 1024, 1036, 1037, 1104, 1105, 1115, 1116, 1123, 1124, 1134, 1135, 1204, 1205, 1215, 1216, 1223, 1224, 1234, 1235, 1304, 1305, 1315, 1316, 1323, 1324, 1334, 1335, 1404, 1405, 1415, 1416, 1423, 1424, 1434, 1435, 1502, 1515, 1516, 1521, 1534, 1535, 1602, 1615, 1616, 1621, 1634, 1635, 1702, 1715, 1716, 1721, 1734 e 1735</t>
+  </si>
+  <si>
+    <t>Kitinetes  306, 314, 325, 333, 406, 414, 425, 433, 506, 514, 525, 533, 606, 614, 625, 633, 706, 714, 725, 733, 806, 814, 825, 833, 906, 914, 925, 933, 1006, 1014, 1025, 1033, 1106, 1114, 1125, 1133, 1206, 1214, 1225, 1233, 1306, 1314, 1325, 1333, 1406, 1414, 1425, 1433, 1506, 1514, 1525, 1533, 1606, 1614, 1625, 1633, 1706, 1714, 1725 e 1733</t>
+  </si>
+  <si>
+    <t>Kitinetes  601, 701, 801, 901, 1001, 1501, 1601 e 1701</t>
+  </si>
+  <si>
+    <t>Kitinetes  620, 720, 820, 920, 1020, 1520, 1620 e 1720</t>
+  </si>
+  <si>
+    <t>Kitinetes 307, 313, 326, 332, 407, 413, 426, 432, 507, 513, 526, 532, 607, 613, 626, 632, 707, 713, 726, 732, 807, 813, 826, 832, 907, 913, 926, 932, 1007, 1013, 1026, 1032, 1107, 1113, 1126, 1132, 1207, 1213, 1226, 1232, 1307, 1313, 1326, 1332, 1407, 1413, 1426, 1432, 1507, 1513, 1526, 1532, 1607, 1613, 1626, 1632, 1707, 1713, 1726 e 1732</t>
+  </si>
+  <si>
+    <t>Kitinetes  308, 309, 327, 328, 408, 409, 427, 428, 508, 509, 527, 528, 608, 627, 708, 727, 808, 827, 2108, 2127, 2208, 2227, 2308, 2327, 2408, 2427, 2508 e 2527</t>
+  </si>
+  <si>
+    <t>Kitinetes 310, 329, 410, 429, 510, 529, 1510, 1529, 1610 e 1629</t>
+  </si>
+  <si>
+    <t>Kitinetes  311, 312, 330, 331, 411, 412, 430, 431, 511, 512, 530, 531, 612, 631, 712, 731, 812, 831, 2112, 2131, 2212, 2231, 2312, 2331, 2412, 2431, 2512 e 2531</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 3º, 4º, 5º, 15º e 16º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 38 (trinta e oito) kitinetes</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 6º ao 14º e 17º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações, 32 (trinta e duas) kitinetes e 04 (quatro) apartamentos</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 18º ao 25º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações, 08 (oito) kitinetes e 16 (dezesseis) apartamentos</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 14</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 17</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 21</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2279,7 @@
       <name val="Courier"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2289,6 +2298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="103">
     <border>
@@ -3581,7 +3596,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="467">
+  <cellXfs count="473">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4434,6 +4449,30 @@
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="61" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4461,28 +4500,22 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4509,30 +4542,12 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4623,6 +4638,20 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4962,7 +4991,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="320" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4970,7 +4999,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="320" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -4978,7 +5007,7 @@
         <v>204</v>
       </c>
       <c r="B3" s="320" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.15">
@@ -4986,7 +5015,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="320" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5015,7 +5044,7 @@
         <v>210</v>
       </c>
       <c r="B8" s="320" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -5023,7 +5052,7 @@
         <v>211</v>
       </c>
       <c r="B9" s="320" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -5036,7 +5065,7 @@
         <v>213</v>
       </c>
       <c r="B11" s="320" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.15">
@@ -5044,7 +5073,7 @@
         <v>214</v>
       </c>
       <c r="B12" s="320" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -5057,7 +5086,7 @@
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="320" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="B14" s="320" t="s">
         <v>287</v>
@@ -5111,7 +5140,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="321" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5124,7 +5153,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="320" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="B22" s="320">
         <v>3231.16</v>
@@ -5153,7 +5182,7 @@
     </row>
     <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A26" s="320" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5179,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="320" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5207,10 +5236,10 @@
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A37" s="320" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="B37" s="320" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5295,12 +5324,12 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5319,7 +5348,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -5385,40 +5414,40 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B12" s="352" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="C12" s="352" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D12" s="352" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="E12" s="352" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="F12" s="352" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="319" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B13" s="319" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C13" s="319" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D13" s="319" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -5430,20 +5459,20 @@
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B14" s="319" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C14" s="319" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D14" s="319" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5455,20 +5484,20 @@
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D15" s="319" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -5480,20 +5509,20 @@
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C16" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D16" s="319" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -5505,20 +5534,20 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B17" s="319" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" s="319" t="s">
         <v>408</v>
       </c>
-      <c r="C17" s="319" t="s">
-        <v>419</v>
-      </c>
       <c r="D17" s="319" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -5530,20 +5559,20 @@
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D18" s="319" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -5555,20 +5584,20 @@
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C19" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D19" s="319" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -5580,18 +5609,18 @@
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D20" s="319"/>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5603,20 +5632,20 @@
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B21" s="319" t="s">
+        <v>397</v>
+      </c>
+      <c r="C21" s="319" t="s">
         <v>408</v>
       </c>
-      <c r="C21" s="319" t="s">
-        <v>419</v>
-      </c>
       <c r="D21" s="319" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="E21" s="319"/>
       <c r="F21" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -5628,16 +5657,16 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B22" s="319" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="C22" s="319"/>
       <c r="D22" s="319"/>
       <c r="E22" s="319"/>
       <c r="F22" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -5649,36 +5678,36 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="B23" s="319" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="C23" s="319" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D23" s="319"/>
       <c r="E23" s="319"/>
       <c r="F23" s="5" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="B24" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C24" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D24" s="319" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E24" s="319"/>
       <c r="F24" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -5690,20 +5719,20 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="319" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B25" s="319" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="C25" s="319" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D25" s="319" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="E25" s="319"/>
       <c r="F25" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -5820,14 +5849,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D588FE0-1285-44F2-BF94-103261262ED6}">
-  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A30" transitionEvaluation="1">
     <tabColor theme="6" tint="0.39997558519241921"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -5894,7 +5923,7 @@
       <c r="K3" s="138"/>
       <c r="L3" s="139"/>
       <c r="M3" s="247" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5902,7 +5931,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
@@ -5911,7 +5940,7 @@
       <c r="H4" s="141"/>
       <c r="I4" s="141"/>
       <c r="J4" s="141" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="K4" s="141"/>
       <c r="L4" s="142"/>
@@ -5938,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D6" s="149"/>
       <c r="E6" s="149"/>
@@ -6010,7 +6039,7 @@
       <c r="G9" s="465"/>
       <c r="H9" s="466"/>
       <c r="I9" s="268" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="J9" s="160" t="s">
         <v>98</v>
@@ -6036,7 +6065,7 @@
         <v>98</v>
       </c>
       <c r="E10" s="259" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F10" s="166" t="s">
         <v>98</v>
@@ -6070,7 +6099,7 @@
         <v>115</v>
       </c>
       <c r="E11" s="260" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F11" s="175" t="s">
         <v>116</v>
@@ -6099,51 +6128,51 @@
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="324" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B12" s="324" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="C12" s="324" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="D12" s="324" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="E12" s="324" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F12" s="324" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="G12" s="324" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="H12" s="324" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="I12" s="324" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="J12" s="324" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="K12" s="324" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="L12" s="324" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="M12" s="324" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B13" s="353" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C13" s="403">
         <v>11</v>
@@ -6176,15 +6205,15 @@
         <v>0.93206</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B14" s="353" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C14" s="403">
         <v>4</v>
@@ -6217,15 +6246,15 @@
         <v>0.97089899999999996</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B15" s="353" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" s="403">
         <v>67</v>
@@ -6258,17 +6287,17 @@
         <v>1.0356190000000001</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="N15" s="356"/>
       <c r="O15" s="269"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B16" s="353" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C16" s="403">
         <v>70</v>
@@ -6301,7 +6330,7 @@
         <v>1.0787549999999999</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="N16" s="356"/>
       <c r="O16" s="269"/>
@@ -6309,10 +6338,10 @@
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B17" s="353" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C17" s="403">
         <v>6</v>
@@ -6345,17 +6374,17 @@
         <v>1.8640890000000001</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="N17" s="356"/>
       <c r="O17" s="269"/>
     </row>
     <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B18" s="353" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C18" s="403">
         <v>19</v>
@@ -6388,7 +6417,7 @@
         <v>1.9417650000000002</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="N18" s="356"/>
       <c r="O18" s="269"/>
@@ -6396,10 +6425,10 @@
     </row>
     <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B19" s="353" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" s="403">
         <v>12</v>
@@ -6432,17 +6461,17 @@
         <v>2.1574769999999996</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="N19" s="356"/>
       <c r="O19" s="269"/>
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B20" s="353" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C20" s="403">
         <v>1</v>
@@ -6475,15 +6504,15 @@
         <v>1.9798929999999999</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B21" s="353" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C21" s="403">
         <v>2</v>
@@ -6516,17 +6545,17 @@
         <v>3.7818459999999998</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="N21" s="356"/>
       <c r="O21" s="269"/>
     </row>
     <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B22" s="353" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C22" s="403">
         <v>2</v>
@@ -6559,17 +6588,17 @@
         <v>3.7945769999999999</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="N22" s="356"/>
       <c r="O22" s="269"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B23" s="353" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C23" s="403">
         <v>2</v>
@@ -6602,17 +6631,17 @@
         <v>3.804465</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="N23" s="356"/>
       <c r="O23" s="269"/>
     </row>
     <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B24" s="353" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C24" s="403">
         <v>2</v>
@@ -6645,17 +6674,17 @@
         <v>3.8850180000000001</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="N24" s="356"/>
       <c r="O24" s="269"/>
     </row>
     <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B25" s="353" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C25" s="403">
         <v>1</v>
@@ -6688,16 +6717,16 @@
         <v>3.8138030000000001</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="O25" s="269"/>
     </row>
     <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B26" s="353" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C26" s="403">
         <v>2</v>
@@ -6730,17 +6759,17 @@
         <v>4.4356400000000002</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="N26" s="356"/>
       <c r="O26" s="269"/>
     </row>
     <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B27" s="353" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C27" s="403">
         <v>2</v>
@@ -6773,17 +6802,17 @@
         <v>2.5300310000000001</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="N27" s="356"/>
       <c r="O27" s="269"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B28" s="353" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C28" s="403">
         <v>2</v>
@@ -6816,17 +6845,17 @@
         <v>4.4023589999999997</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="N28" s="356"/>
       <c r="O28" s="269"/>
     </row>
     <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B29" s="353" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C29" s="403">
         <v>2</v>
@@ -6859,17 +6888,17 @@
         <v>3.8588450000000001</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="N29" s="356"/>
       <c r="O29" s="269"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="353" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B30" s="353" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C30" s="403">
         <v>1</v>
@@ -6902,16 +6931,16 @@
         <v>3.8914800000000001</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="N30" s="356"/>
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="C31" s="403">
         <v>1</v>
@@ -6944,15 +6973,15 @@
         <v>28.932421000000001</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="C32" s="403">
         <v>1</v>
@@ -6985,15 +7014,15 @@
         <v>23.824149999999999</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="C33" s="403">
         <v>1</v>
@@ -7026,15 +7055,15 @@
         <v>4.5945799999999997</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="C34" s="403">
         <v>1</v>
@@ -7067,15 +7096,15 @@
         <v>1.8505499999999999</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="C35" s="403">
         <v>1</v>
@@ -7108,15 +7137,15 @@
         <v>2.6081279999999998</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="C36" s="403">
         <v>1</v>
@@ -7149,16 +7178,16 @@
         <v>1.962574</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="N36" s="359"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="C37" s="403">
         <v>1</v>
@@ -7191,15 +7220,15 @@
         <v>35.781962999999998</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="C38" s="403">
         <v>1</v>
@@ -7232,15 +7261,15 @@
         <v>39.561611999999997</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B39" s="353" t="s">
-        <v>295</v>
+        <v>538</v>
+      </c>
+      <c r="B39" s="467" t="s">
+        <v>643</v>
       </c>
       <c r="C39" s="403">
         <v>22</v>
@@ -7272,17 +7301,17 @@
       <c r="L39" s="354">
         <v>2.6971780000000001</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>464</v>
+      <c r="M39" s="468" t="s">
+        <v>657</v>
       </c>
       <c r="N39" s="359"/>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B40" s="353" t="s">
-        <v>296</v>
+        <v>538</v>
+      </c>
+      <c r="B40" s="467" t="s">
+        <v>644</v>
       </c>
       <c r="C40" s="403">
         <v>116</v>
@@ -7314,17 +7343,17 @@
       <c r="L40" s="354">
         <v>2.4078930000000001</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>466</v>
+      <c r="M40" s="468" t="s">
+        <v>658</v>
       </c>
       <c r="N40" s="359"/>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B41" s="353" t="s">
-        <v>297</v>
+        <v>538</v>
+      </c>
+      <c r="B41" s="467" t="s">
+        <v>645</v>
       </c>
       <c r="C41" s="403">
         <v>124</v>
@@ -7356,17 +7385,17 @@
       <c r="L41" s="354">
         <v>2.390768</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>467</v>
+      <c r="M41" s="468" t="s">
+        <v>660</v>
       </c>
       <c r="N41" s="359"/>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B42" s="353" t="s">
-        <v>332</v>
+        <v>538</v>
+      </c>
+      <c r="B42" s="467" t="s">
+        <v>646</v>
       </c>
       <c r="C42" s="403">
         <v>60</v>
@@ -7398,17 +7427,17 @@
       <c r="L42" s="354">
         <v>2.3620100000000002</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>468</v>
+      <c r="M42" s="468" t="s">
+        <v>661</v>
       </c>
       <c r="N42" s="359"/>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B43" s="353" t="s">
-        <v>333</v>
+        <v>538</v>
+      </c>
+      <c r="B43" s="467" t="s">
+        <v>647</v>
       </c>
       <c r="C43" s="403">
         <v>22</v>
@@ -7440,17 +7469,17 @@
       <c r="L43" s="354">
         <v>2.7052559999999999</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>506</v>
+      <c r="M43" s="468" t="s">
+        <v>659</v>
       </c>
       <c r="N43" s="359"/>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B44" s="353" t="s">
-        <v>334</v>
+        <v>538</v>
+      </c>
+      <c r="B44" s="467" t="s">
+        <v>648</v>
       </c>
       <c r="C44" s="403">
         <v>8</v>
@@ -7482,17 +7511,17 @@
       <c r="L44" s="354">
         <v>2.679052</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>486</v>
+      <c r="M44" s="468" t="s">
+        <v>662</v>
       </c>
       <c r="N44" s="359"/>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B45" s="353" t="s">
-        <v>346</v>
+        <v>538</v>
+      </c>
+      <c r="B45" s="467" t="s">
+        <v>649</v>
       </c>
       <c r="C45" s="403">
         <v>8</v>
@@ -7524,17 +7553,17 @@
       <c r="L45" s="354">
         <v>2.6881309999999998</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>469</v>
+      <c r="M45" s="468" t="s">
+        <v>663</v>
       </c>
       <c r="N45" s="359"/>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B46" s="353" t="s">
-        <v>347</v>
+        <v>538</v>
+      </c>
+      <c r="B46" s="467" t="s">
+        <v>650</v>
       </c>
       <c r="C46" s="403">
         <v>60</v>
@@ -7566,17 +7595,17 @@
       <c r="L46" s="354">
         <v>2.7480370000000001</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>487</v>
+      <c r="M46" s="468" t="s">
+        <v>664</v>
       </c>
       <c r="N46" s="359"/>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B47" s="353" t="s">
-        <v>348</v>
+        <v>538</v>
+      </c>
+      <c r="B47" s="467" t="s">
+        <v>651</v>
       </c>
       <c r="C47" s="403">
         <v>28</v>
@@ -7608,17 +7637,17 @@
       <c r="L47" s="354">
         <v>2.4154209999999998</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>508</v>
+      <c r="M47" s="468" t="s">
+        <v>665</v>
       </c>
       <c r="N47" s="359"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B48" s="353" t="s">
-        <v>349</v>
+        <v>538</v>
+      </c>
+      <c r="B48" s="467" t="s">
+        <v>652</v>
       </c>
       <c r="C48" s="403">
         <v>10</v>
@@ -7650,17 +7679,17 @@
       <c r="L48" s="354">
         <v>2.3386809999999998</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>470</v>
+      <c r="M48" s="468" t="s">
+        <v>666</v>
       </c>
       <c r="N48" s="359"/>
     </row>
     <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B49" s="353" t="s">
-        <v>350</v>
+        <v>538</v>
+      </c>
+      <c r="B49" s="467" t="s">
+        <v>653</v>
       </c>
       <c r="C49" s="403">
         <v>28</v>
@@ -7692,17 +7721,17 @@
       <c r="L49" s="354">
         <v>2.2981950000000002</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>471</v>
+      <c r="M49" s="468" t="s">
+        <v>667</v>
       </c>
       <c r="N49" s="359"/>
     </row>
     <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B50" s="353" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C50" s="403">
         <v>16</v>
@@ -7735,16 +7764,16 @@
         <v>3.5442269999999998</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="N50" s="359"/>
     </row>
     <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B51" s="353" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C51" s="403">
         <v>16</v>
@@ -7777,16 +7806,16 @@
         <v>3.4800559999999998</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="N51" s="359"/>
     </row>
     <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B52" s="353" t="s">
-        <v>353</v>
+        <v>538</v>
+      </c>
+      <c r="B52" s="467" t="s">
+        <v>342</v>
       </c>
       <c r="C52" s="403">
         <v>28</v>
@@ -7818,17 +7847,17 @@
       <c r="L52" s="354">
         <v>2.4013659999999999</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>473</v>
+      <c r="M52" s="468" t="s">
+        <v>656</v>
       </c>
       <c r="N52" s="359"/>
     </row>
     <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B53" s="353" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C53" s="403">
         <v>20</v>
@@ -7861,16 +7890,16 @@
         <v>3.5269080000000002</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="N53" s="359"/>
     </row>
     <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B54" s="353" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C54" s="403">
         <v>20</v>
@@ -7903,16 +7932,16 @@
         <v>3.5014789999999998</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="N54" s="359"/>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B55" s="353" t="s">
-        <v>355</v>
+        <v>538</v>
+      </c>
+      <c r="B55" s="467" t="s">
+        <v>344</v>
       </c>
       <c r="C55" s="403">
         <v>28</v>
@@ -7944,17 +7973,17 @@
       <c r="L55" s="354">
         <v>2.310635</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>509</v>
+      <c r="M55" s="468" t="s">
+        <v>655</v>
       </c>
       <c r="N55" s="359"/>
     </row>
     <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B56" s="353" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C56" s="403">
         <v>15</v>
@@ -7987,16 +8016,16 @@
         <v>5.1850420000000002</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="N56" s="359"/>
     </row>
     <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B57" s="353" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C57" s="403">
         <v>60</v>
@@ -8029,16 +8058,16 @@
         <v>4.6952309999999997</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="N57" s="359"/>
     </row>
     <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B58" s="353" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C58" s="403">
         <v>30</v>
@@ -8071,16 +8100,16 @@
         <v>4.6370699999999996</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="N58" s="359"/>
     </row>
     <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="B59" s="353" t="s">
-        <v>337</v>
+        <v>538</v>
+      </c>
+      <c r="B59" s="467" t="s">
+        <v>331</v>
       </c>
       <c r="C59" s="403">
         <v>32</v>
@@ -8112,17 +8141,17 @@
       <c r="L59" s="354">
         <v>2.7540469999999999</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>478</v>
+      <c r="M59" s="468" t="s">
+        <v>654</v>
       </c>
       <c r="N59" s="359"/>
     </row>
     <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B60" s="353" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C60" s="403">
         <v>30</v>
@@ -8155,16 +8184,16 @@
         <v>4.6507379999999996</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="N60" s="359"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B61" s="353" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C61" s="403">
         <v>15</v>
@@ -8197,16 +8226,16 @@
         <v>5.1723759999999999</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="N61" s="359"/>
     </row>
     <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B62" s="353" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C62" s="403">
         <v>15</v>
@@ -8239,16 +8268,16 @@
         <v>5.1927649999999996</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="N62" s="359"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B63" s="353" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C63" s="403">
         <v>15</v>
@@ -8281,16 +8310,16 @@
         <v>5.1790969999999996</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="N63" s="359"/>
     </row>
     <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B64" s="353" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C64" s="403">
         <v>14</v>
@@ -8323,16 +8352,16 @@
         <v>5.2756759999999998</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="N64" s="359"/>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B65" s="353" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C65" s="403">
         <v>14</v>
@@ -8365,16 +8394,16 @@
         <v>3.553274</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="N65" s="359"/>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B66" s="353" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C66" s="403">
         <v>14</v>
@@ -8407,16 +8436,16 @@
         <v>3.4807670000000002</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="N66" s="359"/>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B67" s="353" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C67" s="403">
         <v>14</v>
@@ -8449,7 +8478,7 @@
         <v>5.1565760000000003</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="N67" s="359"/>
     </row>
@@ -8811,7 +8840,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="97"/>
       <c r="S4" s="106" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8819,7 +8848,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -8829,7 +8858,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -8842,36 +8871,36 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="416" t="s">
+      <c r="A6" s="407" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="414"/>
-      <c r="C6" s="414"/>
-      <c r="D6" s="414"/>
-      <c r="E6" s="414"/>
-      <c r="F6" s="414"/>
-      <c r="G6" s="414"/>
-      <c r="H6" s="414"/>
-      <c r="I6" s="414"/>
-      <c r="J6" s="414"/>
-      <c r="K6" s="417"/>
-      <c r="L6" s="413" t="s">
+      <c r="B6" s="405"/>
+      <c r="C6" s="405"/>
+      <c r="D6" s="405"/>
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="405"/>
+      <c r="I6" s="405"/>
+      <c r="J6" s="405"/>
+      <c r="K6" s="408"/>
+      <c r="L6" s="404" t="s">
         <v>241</v>
       </c>
-      <c r="M6" s="414"/>
-      <c r="N6" s="414"/>
-      <c r="O6" s="414"/>
-      <c r="P6" s="414"/>
-      <c r="Q6" s="414"/>
-      <c r="R6" s="414"/>
-      <c r="S6" s="415"/>
+      <c r="M6" s="405"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="405"/>
+      <c r="P6" s="405"/>
+      <c r="Q6" s="405"/>
+      <c r="R6" s="405"/>
+      <c r="S6" s="406"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8949,18 +8978,18 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
-      <c r="B10" s="418" t="s">
+      <c r="B10" s="409" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="419"/>
-      <c r="D10" s="419"/>
-      <c r="E10" s="419"/>
-      <c r="F10" s="419"/>
-      <c r="G10" s="419"/>
-      <c r="H10" s="419"/>
-      <c r="I10" s="419"/>
-      <c r="J10" s="419"/>
-      <c r="K10" s="420"/>
+      <c r="C10" s="410"/>
+      <c r="D10" s="410"/>
+      <c r="E10" s="410"/>
+      <c r="F10" s="410"/>
+      <c r="G10" s="410"/>
+      <c r="H10" s="410"/>
+      <c r="I10" s="410"/>
+      <c r="J10" s="410"/>
+      <c r="K10" s="411"/>
       <c r="L10" s="48" t="s">
         <v>114</v>
       </c>
@@ -8970,7 +8999,7 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="52"/>
-      <c r="S10" s="408" t="s">
+      <c r="S10" s="416" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8978,20 +9007,20 @@
       <c r="A11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="418" t="s">
+      <c r="B11" s="409" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="419"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="420"/>
-      <c r="G11" s="418" t="s">
+      <c r="C11" s="410"/>
+      <c r="D11" s="410"/>
+      <c r="E11" s="410"/>
+      <c r="F11" s="411"/>
+      <c r="G11" s="409" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="419"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="419"/>
-      <c r="K11" s="420"/>
+      <c r="H11" s="410"/>
+      <c r="I11" s="410"/>
+      <c r="J11" s="410"/>
+      <c r="K11" s="411"/>
       <c r="L11" s="49" t="s">
         <v>7</v>
       </c>
@@ -8999,11 +9028,11 @@
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="50"/>
-      <c r="Q11" s="404" t="s">
+      <c r="Q11" s="412" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="405"/>
-      <c r="S11" s="409"/>
+      <c r="R11" s="413"/>
+      <c r="S11" s="417"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
@@ -9012,72 +9041,72 @@
       <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="406" t="s">
+      <c r="C12" s="414" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="407"/>
+      <c r="D12" s="415"/>
       <c r="E12" s="48"/>
       <c r="F12" s="50"/>
       <c r="G12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="406" t="s">
+      <c r="H12" s="414" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="407"/>
+      <c r="I12" s="415"/>
       <c r="J12" s="44"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="406" t="s">
+      <c r="M12" s="414" t="s">
         <v>231</v>
       </c>
-      <c r="N12" s="407"/>
+      <c r="N12" s="415"/>
       <c r="O12" s="44"/>
       <c r="P12" s="52"/>
-      <c r="Q12" s="404" t="s">
+      <c r="Q12" s="412" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="405"/>
-      <c r="S12" s="409"/>
+      <c r="R12" s="413"/>
+      <c r="S12" s="417"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="404" t="s">
+      <c r="C13" s="412" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="405"/>
+      <c r="D13" s="413"/>
       <c r="E13" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="404" t="s">
+      <c r="H13" s="412" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="405"/>
-      <c r="J13" s="404" t="s">
+      <c r="I13" s="413"/>
+      <c r="J13" s="412" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="405"/>
+      <c r="K13" s="413"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="404" t="s">
+      <c r="M13" s="412" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="405"/>
-      <c r="O13" s="404" t="s">
+      <c r="N13" s="413"/>
+      <c r="O13" s="412" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="405"/>
-      <c r="Q13" s="404" t="s">
+      <c r="P13" s="413"/>
+      <c r="Q13" s="412" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="405"/>
-      <c r="S13" s="409"/>
+      <c r="R13" s="413"/>
+      <c r="S13" s="417"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
@@ -9086,33 +9115,33 @@
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="411" t="s">
+      <c r="C14" s="419" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="412"/>
+      <c r="D14" s="420"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
       <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="411" t="s">
+      <c r="H14" s="419" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="412"/>
+      <c r="I14" s="420"/>
       <c r="J14" s="1"/>
       <c r="K14" s="27"/>
       <c r="L14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="411" t="s">
+      <c r="M14" s="419" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="412"/>
+      <c r="N14" s="420"/>
       <c r="O14" s="1"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="94"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="409"/>
+      <c r="S14" s="417"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
@@ -9163,7 +9192,7 @@
       <c r="R15" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="S15" s="409"/>
+      <c r="S15" s="417"/>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
@@ -9194,7 +9223,7 @@
       <c r="R16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="S16" s="409"/>
+      <c r="S16" s="417"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
@@ -9231,7 +9260,7 @@
       <c r="R17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="409"/>
+      <c r="S17" s="417"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
@@ -9288,70 +9317,70 @@
       <c r="R18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="410"/>
+      <c r="S18" s="418"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="B19" s="324" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="C19" s="324" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="D19" s="324" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E19" s="324" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="F19" s="324" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="G19" s="324" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="H19" s="324" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="I19" s="324" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="J19" s="324" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="K19" s="324" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="L19" s="324" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="M19" s="324" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="N19" s="324" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="O19" s="324" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="P19" s="324" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="324" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="R19" s="324" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="S19" s="324" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="281" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B20" s="283">
         <v>115.061925</v>
@@ -9410,7 +9439,7 @@
     </row>
     <row r="21" spans="1:19" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="281" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B21" s="283">
         <v>115.061925</v>
@@ -9469,7 +9498,7 @@
     </row>
     <row r="22" spans="1:19" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="281" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B22" s="283">
         <v>6.0709999999999997</v>
@@ -9587,7 +9616,7 @@
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="281" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B24" s="283">
         <v>676.51</v>
@@ -9646,7 +9675,7 @@
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="281" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B25" s="283">
         <v>0</v>
@@ -9705,7 +9734,7 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="281" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B26" s="283">
         <v>755.03784999999993</v>
@@ -9764,7 +9793,7 @@
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="281" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B27" s="283">
         <v>755.03784999999993</v>
@@ -9823,7 +9852,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="281" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B28" s="283">
         <v>750.11590000000001</v>
@@ -9882,7 +9911,7 @@
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="281" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B29" s="283">
         <v>750.11590000000001</v>
@@ -9941,7 +9970,7 @@
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="281" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B30" s="283">
         <v>750.19324999999992</v>
@@ -10000,7 +10029,7 @@
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="281" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B31" s="283">
         <v>750.19324999999992</v>
@@ -10059,7 +10088,7 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="281" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B32" s="283">
         <v>750.17824999999993</v>
@@ -10118,7 +10147,7 @@
     </row>
     <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="281" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B33" s="283">
         <v>750.17824999999993</v>
@@ -10177,7 +10206,7 @@
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="281" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B34" s="283">
         <v>750.17824999999993</v>
@@ -10236,7 +10265,7 @@
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="281" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B35" s="283">
         <v>755.01144999999997</v>
@@ -10295,7 +10324,7 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="281" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B36" s="283">
         <v>755.01144999999997</v>
@@ -10354,7 +10383,7 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="281" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B37" s="283">
         <v>750.16825000000006</v>
@@ -10413,7 +10442,7 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="281" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B38" s="283">
         <v>775.73824999999999</v>
@@ -10472,7 +10501,7 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B39" s="283">
         <v>775.73824999999999</v>
@@ -10531,7 +10560,7 @@
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="281" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B40" s="283">
         <v>775.66090000000008</v>
@@ -10590,7 +10619,7 @@
     </row>
     <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="281" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B41" s="283">
         <v>775.66090000000008</v>
@@ -10649,7 +10678,7 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="281" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B42" s="283">
         <v>775.67090000000007</v>
@@ -10708,7 +10737,7 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="281" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B43" s="283">
         <v>787.45285000000001</v>
@@ -10767,7 +10796,7 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="281" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B44" s="283">
         <v>787.43285000000003</v>
@@ -10826,7 +10855,7 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="281" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B45" s="283">
         <v>787.43285000000003</v>
@@ -10885,7 +10914,7 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="281" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B46" s="283">
         <v>787.43285000000003</v>
@@ -10944,7 +10973,7 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="281" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B47" s="283">
         <v>0</v>
@@ -11003,7 +11032,7 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="281" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B48" s="283">
         <v>0</v>
@@ -11062,7 +11091,7 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="281" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B49" s="283">
         <v>0</v>
@@ -11201,11 +11230,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -11221,6 +11245,11 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -11232,14 +11261,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0C9F13-FDCD-4905-AA10-B4A1C501689A}">
-  <sheetPr syncVertical="1" syncRef="A12" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A47" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -11368,7 +11397,7 @@
       <c r="T4" s="201"/>
       <c r="U4" s="202"/>
       <c r="V4" s="106" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11376,7 +11405,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="204" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="205"/>
@@ -11387,7 +11416,7 @@
       <c r="J5" s="205"/>
       <c r="K5" s="205"/>
       <c r="L5" s="205" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="M5" s="205"/>
       <c r="N5" s="205"/>
@@ -11401,38 +11430,38 @@
       <c r="V5" s="206"/>
     </row>
     <row r="6" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="424" t="s">
+      <c r="B6" s="430" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="422"/>
-      <c r="D6" s="422"/>
-      <c r="E6" s="422"/>
-      <c r="F6" s="422"/>
-      <c r="G6" s="422"/>
-      <c r="H6" s="422"/>
-      <c r="I6" s="422"/>
-      <c r="J6" s="422"/>
-      <c r="K6" s="422"/>
-      <c r="L6" s="422"/>
-      <c r="M6" s="425"/>
-      <c r="N6" s="421" t="s">
+      <c r="C6" s="428"/>
+      <c r="D6" s="428"/>
+      <c r="E6" s="428"/>
+      <c r="F6" s="428"/>
+      <c r="G6" s="428"/>
+      <c r="H6" s="428"/>
+      <c r="I6" s="428"/>
+      <c r="J6" s="428"/>
+      <c r="K6" s="428"/>
+      <c r="L6" s="428"/>
+      <c r="M6" s="431"/>
+      <c r="N6" s="427" t="s">
         <v>241</v>
       </c>
-      <c r="O6" s="422"/>
-      <c r="P6" s="422"/>
-      <c r="Q6" s="422"/>
-      <c r="R6" s="422"/>
-      <c r="S6" s="422"/>
-      <c r="T6" s="422"/>
-      <c r="U6" s="422"/>
-      <c r="V6" s="423"/>
+      <c r="O6" s="428"/>
+      <c r="P6" s="428"/>
+      <c r="Q6" s="428"/>
+      <c r="R6" s="428"/>
+      <c r="S6" s="428"/>
+      <c r="T6" s="428"/>
+      <c r="U6" s="428"/>
+      <c r="V6" s="429"/>
     </row>
     <row r="7" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="207" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="208" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="209"/>
@@ -11514,19 +11543,19 @@
       <c r="B10" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="426" t="s">
+      <c r="C10" s="432" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="427"/>
-      <c r="E10" s="427"/>
-      <c r="F10" s="427"/>
-      <c r="G10" s="427"/>
-      <c r="H10" s="427"/>
-      <c r="I10" s="427"/>
-      <c r="J10" s="427"/>
-      <c r="K10" s="427"/>
-      <c r="L10" s="427"/>
-      <c r="M10" s="427"/>
+      <c r="D10" s="433"/>
+      <c r="E10" s="433"/>
+      <c r="F10" s="433"/>
+      <c r="G10" s="433"/>
+      <c r="H10" s="433"/>
+      <c r="I10" s="433"/>
+      <c r="J10" s="433"/>
+      <c r="K10" s="433"/>
+      <c r="L10" s="433"/>
+      <c r="M10" s="433"/>
       <c r="N10" s="220" t="s">
         <v>259</v>
       </c>
@@ -11539,7 +11568,7 @@
       <c r="S10" s="223"/>
       <c r="T10" s="224"/>
       <c r="U10" s="225"/>
-      <c r="V10" s="431" t="s">
+      <c r="V10" s="435" t="s">
         <v>261</v>
       </c>
     </row>
@@ -11547,13 +11576,13 @@
       <c r="B11" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="426" t="s">
+      <c r="C11" s="432" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="427"/>
-      <c r="E11" s="427"/>
-      <c r="F11" s="427"/>
-      <c r="G11" s="428"/>
+      <c r="D11" s="433"/>
+      <c r="E11" s="433"/>
+      <c r="F11" s="433"/>
+      <c r="G11" s="434"/>
       <c r="H11" s="222" t="s">
         <v>7</v>
       </c>
@@ -11574,11 +11603,11 @@
       <c r="Q11" s="222"/>
       <c r="R11" s="222"/>
       <c r="S11" s="223"/>
-      <c r="T11" s="429" t="s">
+      <c r="T11" s="421" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="430"/>
-      <c r="V11" s="432"/>
+      <c r="U11" s="422"/>
+      <c r="V11" s="436"/>
     </row>
     <row r="12" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="226" t="s">
@@ -11587,19 +11616,19 @@
       <c r="C12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="433" t="s">
+      <c r="D12" s="425" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="434"/>
+      <c r="E12" s="426"/>
       <c r="F12" s="224"/>
       <c r="G12" s="225"/>
       <c r="H12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="433" t="s">
+      <c r="I12" s="425" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="434"/>
+      <c r="J12" s="426"/>
       <c r="K12" s="224"/>
       <c r="L12" s="225"/>
       <c r="M12" s="230" t="s">
@@ -11611,40 +11640,40 @@
       <c r="O12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="433" t="s">
+      <c r="P12" s="425" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="434"/>
+      <c r="Q12" s="426"/>
       <c r="R12" s="232"/>
       <c r="S12" s="225"/>
-      <c r="T12" s="429" t="s">
+      <c r="T12" s="421" t="s">
         <v>109</v>
       </c>
-      <c r="U12" s="430"/>
-      <c r="V12" s="432"/>
+      <c r="U12" s="422"/>
+      <c r="V12" s="436"/>
     </row>
     <row r="13" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="226" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="229"/>
-      <c r="D13" s="429" t="s">
+      <c r="D13" s="421" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="430"/>
-      <c r="F13" s="429" t="s">
+      <c r="E13" s="422"/>
+      <c r="F13" s="421" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="430"/>
+      <c r="G13" s="422"/>
       <c r="H13" s="229"/>
-      <c r="I13" s="429" t="s">
+      <c r="I13" s="421" t="s">
         <v>232</v>
       </c>
-      <c r="J13" s="430"/>
-      <c r="K13" s="429" t="s">
+      <c r="J13" s="422"/>
+      <c r="K13" s="421" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="430"/>
+      <c r="L13" s="422"/>
       <c r="M13" s="230" t="s">
         <v>256</v>
       </c>
@@ -11652,19 +11681,19 @@
         <v>260</v>
       </c>
       <c r="O13" s="233"/>
-      <c r="P13" s="429" t="s">
+      <c r="P13" s="421" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="430"/>
-      <c r="R13" s="429" t="s">
+      <c r="Q13" s="422"/>
+      <c r="R13" s="421" t="s">
         <v>103</v>
       </c>
-      <c r="S13" s="430"/>
-      <c r="T13" s="429" t="s">
+      <c r="S13" s="422"/>
+      <c r="T13" s="421" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="430"/>
-      <c r="V13" s="432"/>
+      <c r="U13" s="422"/>
+      <c r="V13" s="436"/>
     </row>
     <row r="14" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="226" t="s">
@@ -11673,19 +11702,19 @@
       <c r="C14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="435" t="s">
+      <c r="D14" s="423" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="436"/>
+      <c r="E14" s="424"/>
       <c r="F14" s="234"/>
       <c r="G14" s="235"/>
       <c r="H14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="435" t="s">
+      <c r="I14" s="423" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="436"/>
+      <c r="J14" s="424"/>
       <c r="K14" s="234"/>
       <c r="L14" s="235"/>
       <c r="M14" s="230" t="s">
@@ -11695,15 +11724,15 @@
       <c r="O14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="435" t="s">
+      <c r="P14" s="423" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="436"/>
+      <c r="Q14" s="424"/>
       <c r="R14" s="209"/>
       <c r="S14" s="236"/>
       <c r="T14" s="237"/>
       <c r="U14" s="236"/>
-      <c r="V14" s="432"/>
+      <c r="V14" s="436"/>
     </row>
     <row r="15" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="226" t="s">
@@ -11760,7 +11789,7 @@
       <c r="U15" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="432"/>
+      <c r="V15" s="436"/>
     </row>
     <row r="16" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="226" t="s">
@@ -11795,7 +11824,7 @@
       <c r="U16" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="V16" s="432"/>
+      <c r="V16" s="436"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="226"/>
@@ -11844,7 +11873,7 @@
       <c r="U17" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="V17" s="432"/>
+      <c r="V17" s="436"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="239" t="s">
@@ -11908,83 +11937,83 @@
         <v>68</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="241" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B19" s="324" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="C19" s="324" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D19" s="324" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E19" s="324" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="F19" s="324" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="G19" s="324" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="H19" s="324" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="I19" s="324" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="J19" s="324" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="K19" s="324" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="L19" s="324" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="M19" s="324" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="N19" s="324" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="O19" s="324" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="P19" s="324" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="Q19" s="324" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="R19" s="324" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="S19" s="324" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="T19" s="324" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="U19" s="324" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="V19" s="324" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B20" s="244" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C20" s="290">
         <v>0</v>
@@ -12049,10 +12078,10 @@
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B21" s="244" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C21" s="293">
         <v>0</v>
@@ -12117,10 +12146,10 @@
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B22" s="244" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C22" s="293">
         <v>0</v>
@@ -12185,10 +12214,10 @@
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B23" s="244" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C23" s="293">
         <v>0</v>
@@ -12253,10 +12282,10 @@
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B24" s="244" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C24" s="293">
         <v>0</v>
@@ -12321,10 +12350,10 @@
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B25" s="244" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C25" s="293">
         <v>0</v>
@@ -12389,10 +12418,10 @@
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B26" s="244" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="293">
         <v>0</v>
@@ -12457,10 +12486,10 @@
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B27" s="244" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" s="293">
         <v>6.0709999999999997</v>
@@ -12525,10 +12554,10 @@
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B28" s="244" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="293">
         <v>11.111000000000001</v>
@@ -12593,10 +12622,10 @@
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B29" s="244" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" s="293">
         <v>11.184799999999999</v>
@@ -12661,10 +12690,10 @@
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B30" s="244" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="293">
         <v>11.241925</v>
@@ -12729,10 +12758,10 @@
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B31" s="244" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C31" s="293">
         <v>11.258599999999999</v>
@@ -12797,10 +12826,10 @@
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B32" s="244" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C32" s="293">
         <v>11.295999999999999</v>
@@ -12865,10 +12894,10 @@
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B33" s="244" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C33" s="293">
         <v>19.698675000000001</v>
@@ -12933,10 +12962,10 @@
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B34" s="244" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C34" s="293">
         <v>8.6581250000000001</v>
@@ -13001,10 +13030,10 @@
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B35" s="244" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="293">
         <v>19.5059</v>
@@ -13069,10 +13098,10 @@
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B36" s="244" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C36" s="293">
         <v>11.1069</v>
@@ -13137,10 +13166,10 @@
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B37" s="244" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C37" s="293">
         <v>11.295999999999999</v>
@@ -13205,10 +13234,10 @@
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B38" s="244" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C38" s="293">
         <v>423.53999999999996</v>
@@ -13273,10 +13302,10 @@
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B39" s="244" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C39" s="293">
         <v>348.76</v>
@@ -13341,10 +13370,10 @@
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B40" s="244" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C40" s="293">
         <v>67.260000000000005</v>
@@ -13409,10 +13438,10 @@
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B41" s="244" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C41" s="293">
         <v>27.09</v>
@@ -13477,10 +13506,10 @@
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B42" s="244" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C42" s="297">
         <v>38.18</v>
@@ -13545,10 +13574,10 @@
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B43" s="244" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C43" s="297">
         <v>28.73</v>
@@ -13613,10 +13642,10 @@
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B44" s="244" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C44" s="293">
         <v>523.80999999999995</v>
@@ -13681,10 +13710,10 @@
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B45" s="244" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C45" s="293">
         <v>579.14</v>
@@ -13749,10 +13778,10 @@
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>563</v>
-      </c>
-      <c r="B46" s="276" t="s">
-        <v>295</v>
+        <v>538</v>
+      </c>
+      <c r="B46" s="472" t="s">
+        <v>643</v>
       </c>
       <c r="C46" s="293">
         <v>21.956650000000003</v>
@@ -13817,10 +13846,10 @@
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>563</v>
-      </c>
-      <c r="B47" s="276" t="s">
-        <v>296</v>
+        <v>538</v>
+      </c>
+      <c r="B47" s="472" t="s">
+        <v>644</v>
       </c>
       <c r="C47" s="293">
         <v>19.159500000000001</v>
@@ -13885,10 +13914,10 @@
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>563</v>
-      </c>
-      <c r="B48" s="276" t="s">
-        <v>297</v>
+        <v>538</v>
+      </c>
+      <c r="B48" s="472" t="s">
+        <v>645</v>
       </c>
       <c r="C48" s="293">
         <v>19.165749999999999</v>
@@ -13953,10 +13982,10 @@
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>563</v>
-      </c>
-      <c r="B49" s="276" t="s">
-        <v>332</v>
+        <v>538</v>
+      </c>
+      <c r="B49" s="472" t="s">
+        <v>646</v>
       </c>
       <c r="C49" s="293">
         <v>18.736750000000001</v>
@@ -14021,10 +14050,10 @@
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>563</v>
-      </c>
-      <c r="B50" s="276" t="s">
-        <v>333</v>
+        <v>538</v>
+      </c>
+      <c r="B50" s="472" t="s">
+        <v>647</v>
       </c>
       <c r="C50" s="293">
         <v>21.949775000000002</v>
@@ -14089,10 +14118,10 @@
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>563</v>
-      </c>
-      <c r="B51" s="276" t="s">
-        <v>334</v>
+        <v>538</v>
+      </c>
+      <c r="B51" s="472" t="s">
+        <v>648</v>
       </c>
       <c r="C51" s="293">
         <v>21.9529</v>
@@ -14157,10 +14186,10 @@
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>563</v>
-      </c>
-      <c r="B52" s="276" t="s">
-        <v>346</v>
+        <v>538</v>
+      </c>
+      <c r="B52" s="472" t="s">
+        <v>649</v>
       </c>
       <c r="C52" s="293">
         <v>21.956025</v>
@@ -14225,10 +14254,10 @@
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>563</v>
-      </c>
-      <c r="B53" s="276" t="s">
-        <v>347</v>
+        <v>538</v>
+      </c>
+      <c r="B53" s="472" t="s">
+        <v>650</v>
       </c>
       <c r="C53" s="293">
         <v>22.999299999999998</v>
@@ -14293,10 +14322,10 @@
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>563</v>
-      </c>
-      <c r="B54" s="276" t="s">
-        <v>348</v>
+        <v>538</v>
+      </c>
+      <c r="B54" s="472" t="s">
+        <v>651</v>
       </c>
       <c r="C54" s="293">
         <v>19.8201</v>
@@ -14361,10 +14390,10 @@
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>563</v>
-      </c>
-      <c r="B55" s="276" t="s">
-        <v>349</v>
+        <v>538</v>
+      </c>
+      <c r="B55" s="472" t="s">
+        <v>652</v>
       </c>
       <c r="C55" s="293">
         <v>19.244500000000002</v>
@@ -14429,10 +14458,10 @@
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>563</v>
-      </c>
-      <c r="B56" s="276" t="s">
-        <v>350</v>
+        <v>538</v>
+      </c>
+      <c r="B56" s="472" t="s">
+        <v>653</v>
       </c>
       <c r="C56" s="293">
         <v>18.977350000000001</v>
@@ -14497,10 +14526,10 @@
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B57" s="276" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C57" s="293">
         <v>27.958475</v>
@@ -14565,10 +14594,10 @@
     </row>
     <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B58" s="276" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C58" s="293">
         <v>27.615000000000002</v>
@@ -14633,10 +14662,10 @@
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>563</v>
-      </c>
-      <c r="B59" s="276" t="s">
-        <v>353</v>
+        <v>538</v>
+      </c>
+      <c r="B59" s="472" t="s">
+        <v>671</v>
       </c>
       <c r="C59" s="293">
         <v>19.828850000000003</v>
@@ -14701,10 +14730,10 @@
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B60" s="276" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C60" s="293">
         <v>27.956249999999997</v>
@@ -14769,10 +14798,10 @@
     </row>
     <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B61" s="276" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C61" s="293">
         <v>27.659999999999997</v>
@@ -14837,10 +14866,10 @@
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>563</v>
-      </c>
-      <c r="B62" s="276" t="s">
-        <v>355</v>
+        <v>538</v>
+      </c>
+      <c r="B62" s="472" t="s">
+        <v>672</v>
       </c>
       <c r="C62" s="293">
         <v>18.964500000000001</v>
@@ -14905,10 +14934,10 @@
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B63" s="276" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C63" s="293">
         <v>44.521700000000003</v>
@@ -14973,10 +15002,10 @@
     </row>
     <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B64" s="276" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C64" s="293">
         <v>39.832750000000004</v>
@@ -15041,10 +15070,10 @@
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B65" s="276" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C65" s="293">
         <v>39.309199999999997</v>
@@ -15109,10 +15138,10 @@
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>563</v>
-      </c>
-      <c r="B66" s="276" t="s">
-        <v>337</v>
+        <v>538</v>
+      </c>
+      <c r="B66" s="472" t="s">
+        <v>673</v>
       </c>
       <c r="C66" s="293">
         <v>23.0593</v>
@@ -15177,10 +15206,10 @@
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B67" s="276" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C67" s="293">
         <v>39.315449999999998</v>
@@ -15245,10 +15274,10 @@
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B68" s="276" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C68" s="293">
         <v>44.525449999999999</v>
@@ -15313,10 +15342,10 @@
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B69" s="276" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C69" s="293">
         <v>44.530325000000005</v>
@@ -15381,10 +15410,10 @@
     </row>
     <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B70" s="276" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C70" s="293">
         <v>44.524075000000003</v>
@@ -15449,10 +15478,10 @@
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B71" s="276" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C71" s="293">
         <v>45.802500000000002</v>
@@ -15517,10 +15546,10 @@
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B72" s="276" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C72" s="293">
         <v>28.049875</v>
@@ -15585,10 +15614,10 @@
     </row>
     <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B73" s="276" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C73" s="293">
         <v>27.643125000000001</v>
@@ -15653,10 +15682,10 @@
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B74" s="276" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C74" s="293">
         <v>44.885000000000005</v>
@@ -15744,6 +15773,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="D14:E14"/>
@@ -15760,10 +15793,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -15809,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="319" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15817,7 +15846,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="319" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15827,7 +15856,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="319" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15835,7 +15864,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="319" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15848,7 +15877,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="319" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15900,13 +15929,13 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="399" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="B15" s="400" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="C15" s="399" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15934,7 +15963,7 @@
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="B20" s="319" t="s">
         <v>74</v>
@@ -15942,7 +15971,7 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="B21" s="319">
         <v>16</v>
@@ -15950,7 +15979,7 @@
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="B22" s="319">
         <v>8371.4</v>
@@ -16010,7 +16039,7 @@
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="319" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="B31" s="325">
         <v>45536</v>
@@ -16019,7 +16048,7 @@
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="319" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="B32" s="319">
         <v>2340.48</v>
@@ -16028,7 +16057,7 @@
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="319" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16104,7 +16133,7 @@
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="319" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="B41" s="319">
         <v>112119827.45695201</v>
@@ -16118,7 +16147,7 @@
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="319" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16167,7 +16196,7 @@
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="319" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16260,7 +16289,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="319" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16328,7 +16357,7 @@
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="319" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="B72" s="319">
         <v>119786894.45695201</v>
@@ -16376,7 +16405,7 @@
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="319" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="B78" s="319">
         <v>383470.5</v>
@@ -16384,7 +16413,7 @@
     </row>
     <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="319" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="B79" s="319">
         <v>123019002.95695201</v>
@@ -16408,7 +16437,7 @@
     </row>
     <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="319" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="B82" s="319">
         <v>147622803.54834241</v>
@@ -16416,7 +16445,7 @@
     </row>
     <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="319" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
       <c r="B83" s="319">
         <v>3081.5978501347681</v>
@@ -16435,14 +16464,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E0EC1E-EC62-4F13-8E29-A1CCC9C84E4C}">
-  <sheetPr syncVertical="1" syncRef="B11" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="B47" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" topLeftCell="B47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -16533,7 +16562,7 @@
       <c r="M4" s="58"/>
       <c r="N4" s="101"/>
       <c r="O4" s="106" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16541,7 +16570,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
@@ -16549,7 +16578,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
@@ -16562,20 +16591,20 @@
       <c r="B6" s="438" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="419"/>
-      <c r="D6" s="419"/>
-      <c r="E6" s="419"/>
-      <c r="F6" s="419"/>
-      <c r="G6" s="420"/>
-      <c r="H6" s="418" t="s">
+      <c r="C6" s="410"/>
+      <c r="D6" s="410"/>
+      <c r="E6" s="410"/>
+      <c r="F6" s="410"/>
+      <c r="G6" s="411"/>
+      <c r="H6" s="409" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="419"/>
-      <c r="J6" s="419"/>
-      <c r="K6" s="419"/>
-      <c r="L6" s="419"/>
-      <c r="M6" s="419"/>
-      <c r="N6" s="419"/>
+      <c r="I6" s="410"/>
+      <c r="J6" s="410"/>
+      <c r="K6" s="410"/>
+      <c r="L6" s="410"/>
+      <c r="M6" s="410"/>
+      <c r="N6" s="410"/>
       <c r="O6" s="437"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16583,7 +16612,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -16651,10 +16680,10 @@
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
-      <c r="C10" s="418" t="s">
+      <c r="C10" s="409" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="419"/>
+      <c r="D10" s="410"/>
       <c r="E10" s="439"/>
       <c r="F10" s="440" t="s">
         <v>175</v>
@@ -16665,10 +16694,10 @@
       <c r="J10" s="441"/>
       <c r="K10" s="441"/>
       <c r="L10" s="442"/>
-      <c r="M10" s="419" t="s">
+      <c r="M10" s="410" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="419"/>
+      <c r="N10" s="410"/>
       <c r="O10" s="437"/>
     </row>
     <row r="11" spans="1:15" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -16700,10 +16729,10 @@
         <v>174</v>
       </c>
       <c r="K11" s="78" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="L11" s="79" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="M11" s="80" t="s">
         <v>177</v>
@@ -16801,57 +16830,57 @@
     </row>
     <row r="14" spans="1:15" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="328" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="B14" s="328" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="C14" s="328" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D14" s="328" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="E14" s="328" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="F14" s="328" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="G14" s="328" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="H14" s="328" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="I14" s="328" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="J14" s="328" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="K14" s="328" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="L14" s="328" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="M14" s="328" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="N14" s="328" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="O14" s="328" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C15" s="283">
         <v>13.818411500000002</v>
@@ -16895,10 +16924,10 @@
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C16" s="283">
         <v>14.394178999999999</v>
@@ -16942,10 +16971,10 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C17" s="283">
         <v>15.35379</v>
@@ -16989,10 +17018,10 @@
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C18" s="283">
         <v>15.993528</v>
@@ -17036,10 +17065,10 @@
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C19" s="283">
         <v>27.636816</v>
@@ -17083,10 +17112,10 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B20" s="114" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C20" s="283">
         <v>28.788352</v>
@@ -17130,10 +17159,10 @@
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C21" s="283">
         <v>31.987050500000002</v>
@@ -17177,10 +17206,10 @@
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C22" s="283">
         <v>29.35388</v>
@@ -17224,10 +17253,10 @@
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C23" s="283">
         <v>56.069470000000003</v>
@@ -17271,10 +17300,10 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B24" s="114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C24" s="283">
         <v>56.258319500000006</v>
@@ -17318,10 +17347,10 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C25" s="283">
         <v>56.404505999999991</v>
@@ -17365,10 +17394,10 @@
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B26" s="114" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C26" s="283">
         <v>57.598711000000009</v>
@@ -17412,10 +17441,10 @@
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C27" s="283">
         <v>56.542882999999996</v>
@@ -17459,10 +17488,10 @@
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B28" s="114" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C28" s="283">
         <v>65.762001999999995</v>
@@ -17506,10 +17535,10 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C29" s="283">
         <v>37.509625999999997</v>
@@ -17553,10 +17582,10 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C30" s="283">
         <v>65.268696500000004</v>
@@ -17600,10 +17629,10 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C31" s="283">
         <v>57.210517999999993</v>
@@ -17647,10 +17676,10 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C32" s="283">
         <v>57.694418000000006</v>
@@ -17694,10 +17723,10 @@
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B33" s="122" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C33" s="300">
         <v>428.94728699999996</v>
@@ -17741,10 +17770,10 @@
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B34" s="122" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" s="300">
         <v>353.21258349999999</v>
@@ -17788,10 +17817,10 @@
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C35" s="283">
         <v>68.118698000000009</v>
@@ -17835,10 +17864,10 @@
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B36" s="114" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C36" s="283">
         <v>27.435856000000001</v>
@@ -17882,10 +17911,10 @@
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B37" s="114" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="283">
         <v>38.6674425</v>
@@ -17929,10 +17958,10 @@
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C38" s="283">
         <v>29.096793000000002</v>
@@ -17976,10 +18005,10 @@
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B39" s="114" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C39" s="283">
         <v>530.49742349999997</v>
@@ -18023,10 +18052,10 @@
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C40" s="283">
         <v>586.533816</v>
@@ -18070,10 +18099,10 @@
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>563</v>
-      </c>
-      <c r="B41" s="114" t="s">
-        <v>295</v>
+        <v>538</v>
+      </c>
+      <c r="B41" s="471" t="s">
+        <v>643</v>
       </c>
       <c r="C41" s="283">
         <v>39.987708500000004</v>
@@ -18117,10 +18146,10 @@
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>563</v>
-      </c>
-      <c r="B42" s="114" t="s">
-        <v>296</v>
+        <v>538</v>
+      </c>
+      <c r="B42" s="471" t="s">
+        <v>644</v>
       </c>
       <c r="C42" s="283">
         <v>35.698933000000004</v>
@@ -18164,10 +18193,10 @@
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>563</v>
-      </c>
-      <c r="B43" s="114" t="s">
-        <v>297</v>
+        <v>538</v>
+      </c>
+      <c r="B43" s="471" t="s">
+        <v>645</v>
       </c>
       <c r="C43" s="283">
         <v>35.445196499999994</v>
@@ -18211,10 +18240,10 @@
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>563</v>
-      </c>
-      <c r="B44" s="114" t="s">
-        <v>332</v>
+        <v>538</v>
+      </c>
+      <c r="B44" s="471" t="s">
+        <v>646</v>
       </c>
       <c r="C44" s="283">
         <v>35.018810500000001</v>
@@ -18258,10 +18287,10 @@
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>563</v>
-      </c>
-      <c r="B45" s="114" t="s">
-        <v>333</v>
+        <v>538</v>
+      </c>
+      <c r="B45" s="471" t="s">
+        <v>647</v>
       </c>
       <c r="C45" s="283">
         <v>40.10761625</v>
@@ -18305,10 +18334,10 @@
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>563</v>
-      </c>
-      <c r="B46" s="114" t="s">
-        <v>334</v>
+        <v>538</v>
+      </c>
+      <c r="B46" s="471" t="s">
+        <v>648</v>
       </c>
       <c r="C46" s="283">
         <v>39.719128499999997</v>
@@ -18352,10 +18381,10 @@
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>563</v>
-      </c>
-      <c r="B47" s="114" t="s">
-        <v>346</v>
+        <v>538</v>
+      </c>
+      <c r="B47" s="471" t="s">
+        <v>649</v>
       </c>
       <c r="C47" s="283">
         <v>39.853880250000003</v>
@@ -18399,10 +18428,10 @@
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>563</v>
-      </c>
-      <c r="B48" s="114" t="s">
-        <v>347</v>
+        <v>538</v>
+      </c>
+      <c r="B48" s="471" t="s">
+        <v>650</v>
       </c>
       <c r="C48" s="283">
         <v>40.7420075</v>
@@ -18446,10 +18475,10 @@
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>563</v>
-      </c>
-      <c r="B49" s="114" t="s">
-        <v>348</v>
+        <v>538</v>
+      </c>
+      <c r="B49" s="471" t="s">
+        <v>651</v>
       </c>
       <c r="C49" s="283">
         <v>35.810484500000001</v>
@@ -18493,10 +18522,10 @@
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>563</v>
-      </c>
-      <c r="B50" s="114" t="s">
-        <v>349</v>
+        <v>538</v>
+      </c>
+      <c r="B50" s="471" t="s">
+        <v>652</v>
       </c>
       <c r="C50" s="283">
         <v>34.672862000000009</v>
@@ -18540,10 +18569,10 @@
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>563</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>350</v>
+        <v>538</v>
+      </c>
+      <c r="B51" s="471" t="s">
+        <v>653</v>
       </c>
       <c r="C51" s="283">
         <v>34.072747000000007</v>
@@ -18587,10 +18616,10 @@
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C52" s="283">
         <v>52.546158750000004</v>
@@ -18634,10 +18663,10 @@
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C53" s="283">
         <v>51.594872000000009</v>
@@ -18681,10 +18710,10 @@
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>563</v>
-      </c>
-      <c r="B54" s="114" t="s">
-        <v>353</v>
+        <v>538</v>
+      </c>
+      <c r="B54" s="471" t="s">
+        <v>671</v>
       </c>
       <c r="C54" s="283">
         <v>35.602207</v>
@@ -18728,10 +18757,10 @@
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C55" s="283">
         <v>52.289281500000001</v>
@@ -18775,10 +18804,10 @@
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C56" s="283">
         <v>51.912159499999994</v>
@@ -18822,10 +18851,10 @@
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>563</v>
-      </c>
-      <c r="B57" s="114" t="s">
-        <v>355</v>
+        <v>538</v>
+      </c>
+      <c r="B57" s="471" t="s">
+        <v>672</v>
       </c>
       <c r="C57" s="283">
         <v>34.257235000000001</v>
@@ -18869,10 +18898,10 @@
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C58" s="283">
         <v>76.872484500000013</v>
@@ -18916,10 +18945,10 @@
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C59" s="283">
         <v>69.610590500000001</v>
@@ -18963,10 +18992,10 @@
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B60" s="114" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C60" s="283">
         <v>68.748337000000006</v>
@@ -19010,10 +19039,10 @@
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>563</v>
-      </c>
-      <c r="B61" s="114" t="s">
-        <v>337</v>
+        <v>538</v>
+      </c>
+      <c r="B61" s="471" t="s">
+        <v>673</v>
       </c>
       <c r="C61" s="283">
         <v>40.831069499999998</v>
@@ -19057,10 +19086,10 @@
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B62" s="114" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C62" s="283">
         <v>68.95104649999999</v>
@@ -19104,10 +19133,10 @@
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C63" s="283">
         <v>76.684619999999995</v>
@@ -19151,10 +19180,10 @@
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B64" s="114" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C64" s="283">
         <v>76.987012750000005</v>
@@ -19198,10 +19227,10 @@
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C65" s="283">
         <v>76.784303750000007</v>
@@ -19245,10 +19274,10 @@
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C66" s="283">
         <v>78.216138000000001</v>
@@ -19292,10 +19321,10 @@
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B67" s="114" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C67" s="283">
         <v>52.68027275</v>
@@ -19339,10 +19368,10 @@
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B68" s="114" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C68" s="283">
         <v>51.605309750000004</v>
@@ -19386,10 +19415,10 @@
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C69" s="283">
         <v>76.450660499999998</v>
@@ -19545,14 +19574,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA0CAC-6348-4D29-9468-BDA4F8927589}">
-  <sheetPr syncVertical="1" syncRef="A3" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A22" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -19617,7 +19646,7 @@
       <c r="J3" s="105"/>
       <c r="K3" s="99"/>
       <c r="L3" s="246" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19632,7 +19661,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="101"/>
       <c r="L4" s="106" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19640,14 +19669,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -19658,17 +19687,17 @@
       <c r="B6" s="438" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="419"/>
-      <c r="D6" s="419"/>
-      <c r="E6" s="419"/>
-      <c r="F6" s="420"/>
-      <c r="G6" s="419" t="s">
+      <c r="C6" s="410"/>
+      <c r="D6" s="410"/>
+      <c r="E6" s="410"/>
+      <c r="F6" s="411"/>
+      <c r="G6" s="410" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="419"/>
-      <c r="I6" s="419"/>
-      <c r="J6" s="419"/>
-      <c r="K6" s="419"/>
+      <c r="H6" s="410"/>
+      <c r="I6" s="410"/>
+      <c r="J6" s="410"/>
+      <c r="K6" s="410"/>
       <c r="L6" s="437"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19676,7 +19705,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -19808,7 +19837,7 @@
     </row>
     <row r="13" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="443" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C13" s="444"/>
       <c r="D13" s="444"/>
@@ -19823,44 +19852,44 @@
     </row>
     <row r="14" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="324" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="B14" s="324" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="324" t="s">
         <v>555</v>
       </c>
-      <c r="C14" s="324" t="s">
-        <v>580</v>
-      </c>
       <c r="D14" s="324" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="E14" s="324" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F14" s="324" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="G14" s="324" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="H14" s="324" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="I14" s="324" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="J14" s="324" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="K14" s="326"/>
       <c r="L14" s="327"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C15" s="283">
         <v>10.799999999999999</v>
@@ -19889,10 +19918,10 @@
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C16" s="283">
         <v>11.25</v>
@@ -19921,10 +19950,10 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C17" s="283">
         <v>12</v>
@@ -19953,10 +19982,10 @@
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C18" s="283">
         <v>12.5</v>
@@ -19985,10 +20014,10 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C19" s="283">
         <v>21.599999999999998</v>
@@ -20017,10 +20046,10 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B20" s="114" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C20" s="283">
         <v>22.5</v>
@@ -20049,10 +20078,10 @@
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C21" s="283">
         <v>25</v>
@@ -20081,10 +20110,10 @@
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C22" s="283">
         <v>10.799999999999999</v>
@@ -20113,10 +20142,10 @@
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C23" s="283">
         <v>21.599999999999998</v>
@@ -20145,10 +20174,10 @@
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B24" s="114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C24" s="283">
         <v>21.599999999999998</v>
@@ -20177,10 +20206,10 @@
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C25" s="283">
         <v>21.599999999999994</v>
@@ -20209,10 +20238,10 @@
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B26" s="114" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C26" s="283">
         <v>22.5</v>
@@ -20241,10 +20270,10 @@
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C27" s="283">
         <v>21.6</v>
@@ -20273,10 +20302,10 @@
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B28" s="114" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C28" s="283">
         <v>12</v>
@@ -20305,10 +20334,10 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C29" s="283">
         <v>11.999999999999998</v>
@@ -20337,10 +20366,10 @@
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C30" s="283">
         <v>12</v>
@@ -20369,10 +20398,10 @@
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C31" s="283">
         <v>22.499999999999996</v>
@@ -20401,10 +20430,10 @@
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="114" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C32" s="288">
         <v>22.5</v>
@@ -20433,10 +20462,10 @@
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B33" s="270" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C33" s="313">
         <v>423.53999999999996</v>
@@ -20465,10 +20494,10 @@
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B34" s="114" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" s="283">
         <v>348.76</v>
@@ -20497,10 +20526,10 @@
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C35" s="283">
         <v>67.260000000000005</v>
@@ -20529,10 +20558,10 @@
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B36" s="114" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C36" s="283">
         <v>27.09</v>
@@ -20561,10 +20590,10 @@
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B37" s="114" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="283">
         <v>38.18</v>
@@ -20593,10 +20622,10 @@
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C38" s="283">
         <v>28.73</v>
@@ -20625,10 +20654,10 @@
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B39" s="379" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C39" s="380">
         <v>523.80999999999995</v>
@@ -20657,10 +20686,10 @@
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="B40" s="389" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C40" s="390">
         <v>579.14</v>
@@ -20689,10 +20718,10 @@
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B41" s="122" t="s">
-        <v>295</v>
+        <v>538</v>
+      </c>
+      <c r="B41" s="470" t="s">
+        <v>643</v>
       </c>
       <c r="C41" s="300">
         <v>28.6</v>
@@ -20721,10 +20750,10 @@
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B42" s="122" t="s">
-        <v>296</v>
+        <v>538</v>
+      </c>
+      <c r="B42" s="470" t="s">
+        <v>644</v>
       </c>
       <c r="C42" s="300">
         <v>25.68</v>
@@ -20753,10 +20782,10 @@
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B43" s="122" t="s">
-        <v>297</v>
+        <v>538</v>
+      </c>
+      <c r="B43" s="470" t="s">
+        <v>645</v>
       </c>
       <c r="C43" s="300">
         <v>25.45</v>
@@ -20785,10 +20814,10 @@
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B44" s="122" t="s">
-        <v>332</v>
+        <v>538</v>
+      </c>
+      <c r="B44" s="470" t="s">
+        <v>646</v>
       </c>
       <c r="C44" s="300">
         <v>25.21</v>
@@ -20817,10 +20846,10 @@
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B45" s="122" t="s">
-        <v>333</v>
+        <v>538</v>
+      </c>
+      <c r="B45" s="470" t="s">
+        <v>647</v>
       </c>
       <c r="C45" s="300">
         <v>28.71</v>
@@ -20849,10 +20878,10 @@
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B46" s="122" t="s">
-        <v>334</v>
+        <v>538</v>
+      </c>
+      <c r="B46" s="470" t="s">
+        <v>648</v>
       </c>
       <c r="C46" s="300">
         <v>28.36</v>
@@ -20881,10 +20910,10 @@
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B47" s="122" t="s">
-        <v>346</v>
+        <v>538</v>
+      </c>
+      <c r="B47" s="470" t="s">
+        <v>649</v>
       </c>
       <c r="C47" s="300">
         <v>28.48</v>
@@ -20913,10 +20942,10 @@
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B48" s="122" t="s">
-        <v>347</v>
+        <v>538</v>
+      </c>
+      <c r="B48" s="470" t="s">
+        <v>650</v>
       </c>
       <c r="C48" s="300">
         <v>28.93</v>
@@ -20945,10 +20974,10 @@
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B49" s="122" t="s">
-        <v>348</v>
+        <v>538</v>
+      </c>
+      <c r="B49" s="470" t="s">
+        <v>651</v>
       </c>
       <c r="C49" s="300">
         <v>25.56</v>
@@ -20977,10 +21006,10 @@
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B50" s="122" t="s">
-        <v>349</v>
+        <v>538</v>
+      </c>
+      <c r="B50" s="470" t="s">
+        <v>652</v>
       </c>
       <c r="C50" s="300">
         <v>24.730000000000004</v>
@@ -21009,10 +21038,10 @@
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B51" s="114" t="s">
-        <v>350</v>
+        <v>538</v>
+      </c>
+      <c r="B51" s="471" t="s">
+        <v>653</v>
       </c>
       <c r="C51" s="300">
         <v>24.28</v>
@@ -21041,10 +21070,10 @@
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="C52" s="300">
         <v>37.880000000000003</v>
@@ -21073,10 +21102,10 @@
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C53" s="300">
         <v>37.14</v>
@@ -21105,10 +21134,10 @@
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B54" s="114" t="s">
-        <v>353</v>
+        <v>538</v>
+      </c>
+      <c r="B54" s="471" t="s">
+        <v>671</v>
       </c>
       <c r="C54" s="300">
         <v>25.370000000000005</v>
@@ -21137,10 +21166,10 @@
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C55" s="300">
         <v>37.65</v>
@@ -21169,10 +21198,10 @@
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C56" s="300">
         <v>37.409999999999997</v>
@@ -21201,10 +21230,10 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B57" s="114" t="s">
-        <v>355</v>
+        <v>538</v>
+      </c>
+      <c r="B57" s="471" t="s">
+        <v>672</v>
       </c>
       <c r="C57" s="300">
         <v>24.450000000000003</v>
@@ -21233,10 +21262,10 @@
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C58" s="300">
         <v>54.21</v>
@@ -21265,10 +21294,10 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C59" s="300">
         <v>49.25</v>
@@ -21297,10 +21326,10 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B60" s="114" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C60" s="300">
         <v>48.65</v>
@@ -21329,10 +21358,10 @@
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="114" t="s">
-        <v>563</v>
-      </c>
-      <c r="B61" s="114" t="s">
-        <v>337</v>
+        <v>538</v>
+      </c>
+      <c r="B61" s="471" t="s">
+        <v>673</v>
       </c>
       <c r="C61" s="300">
         <v>28.990000000000002</v>
@@ -21361,10 +21390,10 @@
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B62" s="114" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C62" s="300">
         <v>48.83</v>
@@ -21393,10 +21422,10 @@
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C63" s="300">
         <v>54.04</v>
@@ -21425,10 +21454,10 @@
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B64" s="114" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C64" s="300">
         <v>54.31</v>
@@ -21457,10 +21486,10 @@
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C65" s="300">
         <v>54.13</v>
@@ -21489,10 +21518,10 @@
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C66" s="300">
         <v>54.99</v>
@@ -21521,10 +21550,10 @@
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B67" s="114" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C67" s="300">
         <v>37.97</v>
@@ -21553,10 +21582,10 @@
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B68" s="114" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C68" s="300">
         <v>37.14</v>
@@ -21585,10 +21614,10 @@
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="114" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C69" s="300">
         <v>53.710000000000008</v>
@@ -21712,19 +21741,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C9C16D-1FC7-45E0-9D2B-A6A3C9E6DA49}">
-  <sheetPr syncVertical="1" syncRef="E1" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="D20" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.796875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="64.3984375" style="369" customWidth="1"/>
+    <col min="1" max="3" width="64.3984375" style="369" customWidth="1"/>
+    <col min="4" max="4" width="189.19921875" style="369" customWidth="1"/>
+    <col min="5" max="8" width="64.3984375" style="369" customWidth="1"/>
     <col min="9" max="9" width="26.3984375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="25.796875" customWidth="1"/>
@@ -21807,7 +21838,7 @@
       <c r="E3" s="334"/>
       <c r="F3" s="336"/>
       <c r="G3" s="337" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H3" s="361" t="s">
         <v>86</v>
@@ -21840,7 +21871,7 @@
       <c r="E4" s="331"/>
       <c r="F4" s="332"/>
       <c r="G4" s="339" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="H4" s="363"/>
       <c r="I4"/>
@@ -21868,10 +21899,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="347" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C5" s="340" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D5" s="340"/>
       <c r="E5" s="341"/>
@@ -21935,7 +21966,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="348" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C7" s="366" t="s">
         <v>2</v>
@@ -22087,36 +22118,36 @@
         <v>270</v>
       </c>
       <c r="G11" s="320" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="H11" s="320" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="370" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="B12" s="370" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="C12" s="370" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="D12" s="370" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="E12" s="370" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="F12" s="370" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="G12" s="370" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="H12" s="370" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="408" x14ac:dyDescent="0.15">
@@ -22124,57 +22155,57 @@
         <v>286</v>
       </c>
       <c r="B13" s="320" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="C13" s="320" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="D13" s="320" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="E13" s="320" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="F13" s="320" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="G13" s="320" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H13" s="320" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="156" x14ac:dyDescent="0.15">
       <c r="C14" s="320" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="D14" s="320" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="E14" s="320" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="F14" s="320"/>
       <c r="G14" s="320"/>
       <c r="H14" s="320" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="C15" s="320" t="s">
-        <v>592</v>
-      </c>
-      <c r="D15" s="320" t="s">
-        <v>595</v>
+      <c r="C15" s="469" t="s">
+        <v>567</v>
+      </c>
+      <c r="D15" s="469" t="s">
+        <v>570</v>
       </c>
       <c r="E15" s="320" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="F15" s="320"/>
       <c r="G15" s="320"/>
       <c r="H15" s="320" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="288" x14ac:dyDescent="0.15">
@@ -22182,7 +22213,7 @@
       <c r="C16" s="320"/>
       <c r="D16" s="320"/>
       <c r="E16" s="320" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="F16" s="320"/>
       <c r="G16" s="320"/>
@@ -22193,7 +22224,7 @@
       <c r="C17" s="320"/>
       <c r="D17" s="320"/>
       <c r="E17" s="320" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="F17" s="320"/>
       <c r="G17" s="320"/>
@@ -22204,7 +22235,7 @@
       <c r="C18" s="320"/>
       <c r="D18" s="320"/>
       <c r="E18" s="320" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="F18" s="320"/>
       <c r="G18" s="320"/>
@@ -22215,7 +22246,7 @@
       <c r="C19" s="320"/>
       <c r="D19" s="320"/>
       <c r="E19" s="320" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="F19" s="320"/>
       <c r="G19" s="320"/>
@@ -22226,7 +22257,7 @@
       <c r="C20" s="320"/>
       <c r="D20" s="320"/>
       <c r="E20" s="320" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="F20" s="320"/>
       <c r="G20" s="320"/>
@@ -22237,7 +22268,7 @@
       <c r="C21" s="320"/>
       <c r="D21" s="320"/>
       <c r="E21" s="320" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="F21" s="320"/>
       <c r="G21" s="320"/>
@@ -22248,7 +22279,7 @@
       <c r="C22" s="320"/>
       <c r="D22" s="320"/>
       <c r="E22" s="320" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="F22" s="320"/>
       <c r="G22" s="320"/>
@@ -22258,8 +22289,8 @@
       <c r="A23" s="320"/>
       <c r="C23" s="320"/>
       <c r="D23" s="320"/>
-      <c r="E23" s="320" t="s">
-        <v>646</v>
+      <c r="E23" s="469" t="s">
+        <v>668</v>
       </c>
       <c r="F23" s="320"/>
       <c r="G23" s="320"/>
@@ -22269,8 +22300,8 @@
       <c r="A24" s="320"/>
       <c r="C24" s="320"/>
       <c r="D24" s="320"/>
-      <c r="E24" s="320" t="s">
-        <v>647</v>
+      <c r="E24" s="469" t="s">
+        <v>669</v>
       </c>
       <c r="F24" s="320"/>
       <c r="G24" s="320"/>
@@ -22280,8 +22311,8 @@
       <c r="A25" s="320"/>
       <c r="C25" s="320"/>
       <c r="D25" s="320"/>
-      <c r="E25" s="320" t="s">
-        <v>648</v>
+      <c r="E25" s="469" t="s">
+        <v>670</v>
       </c>
       <c r="F25" s="320"/>
       <c r="G25" s="320"/>
@@ -22292,7 +22323,7 @@
       <c r="C26" s="320"/>
       <c r="D26" s="320"/>
       <c r="E26" s="320" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="F26" s="320"/>
       <c r="G26" s="320"/>
@@ -22545,7 +22576,7 @@
       <c r="B3" s="378"/>
       <c r="C3" s="378"/>
       <c r="D3" s="378" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22553,7 +22584,7 @@
       <c r="B4" s="378"/>
       <c r="C4" s="378"/>
       <c r="D4" s="378" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22561,10 +22592,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="378" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C5" s="378" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D5" s="378"/>
     </row>
@@ -22583,7 +22614,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="378" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C7" s="378" t="s">
         <v>2</v>
@@ -22642,16 +22673,16 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="350" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="B12" s="350" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="C12" s="350" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="D12" s="350" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22661,135 +22692,135 @@
       <c r="B13" s="319"/>
       <c r="C13" s="319"/>
       <c r="D13" s="319" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B14" s="319" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C14" s="319"/>
       <c r="D14" s="319"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D15" s="319"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C16" s="319"/>
       <c r="D16" s="319"/>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C17" s="319"/>
       <c r="D17" s="319"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D18" s="319"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C19" s="319"/>
       <c r="D19" s="319"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D20" s="319"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B21" s="319" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C21" s="319"/>
       <c r="D21" s="319"/>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B22" s="319" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C22" s="319" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D22" s="319" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B23" s="319" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C23" s="319" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D23" s="319" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B24" s="319" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C24" s="319" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D24" s="319" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22797,13 +22828,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="319" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C25" s="319" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="D25" s="319" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22811,7 +22842,7 @@
         <v>290</v>
       </c>
       <c r="B26" s="319" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C26" s="319"/>
       <c r="D26" s="351"/>
@@ -22821,20 +22852,20 @@
         <v>120</v>
       </c>
       <c r="B27" s="319" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C27" s="319"/>
       <c r="D27" s="351"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="319" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B28" s="319" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C28" s="319" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D28" s="351"/>
     </row>
@@ -22843,10 +22874,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="319" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C29" s="319" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D29" s="351"/>
     </row>
@@ -22938,7 +22969,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22948,11 +22979,11 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -22972,7 +23003,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -23038,112 +23069,112 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B12" s="352" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="C12" s="352" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D12" s="352" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="E12" s="352" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="F12" s="352" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="319" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B13" s="319" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C13" s="319" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D13" s="319" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B14" s="319" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C14" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D14" s="319" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D15" s="319" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C16" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D16" s="319" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C17" s="319" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D17" s="319" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23151,53 +23182,53 @@
         <v>291</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D18" s="319" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C19" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D19" s="319" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="D20" s="319" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/pre_cri/data/base_real_ajustada.xlsx
+++ b/pre_cri/data/base_real_ajustada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="883" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65F40A6-636B-49BA-8475-D141ECA2E603}"/>
+  <xr:revisionPtr revIDLastSave="886" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EADA1E-5C69-4A21-88CA-C4B9B09FF819}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="2" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="10" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="informacoes_preliminares" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="671">
   <si>
     <t>INFORMAÇÕES PARA ARQUIVO NO REGISTRO DE IMÓVEIS</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>APARTAMENTO TIPO 20</t>
   </si>
   <si>
-    <t>APARTAMENTO TIPO 21</t>
-  </si>
-  <si>
     <t>APARTAMENTO TIPO 22</t>
   </si>
   <si>
@@ -1109,13 +1106,7 @@
     <t>APARTAMENTO TIPO 13</t>
   </si>
   <si>
-    <t>APARTAMENTO TIPO 14</t>
-  </si>
-  <si>
     <t>APARTAMENTO TIPO 15</t>
-  </si>
-  <si>
-    <t>APARTAMENTO TIPO 17</t>
   </si>
   <si>
     <t>APARTAMENTO TIPO 18</t>
@@ -3596,7 +3587,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="473">
+  <cellXfs count="474">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4449,195 +4440,6 @@
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="61" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify" textRotation="180"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4652,6 +4454,198 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4991,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="320" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4999,7 +4993,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="320" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5007,7 +5001,7 @@
         <v>204</v>
       </c>
       <c r="B3" s="320" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.15">
@@ -5015,7 +5009,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="320" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5044,7 +5038,7 @@
         <v>210</v>
       </c>
       <c r="B8" s="320" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -5052,7 +5046,7 @@
         <v>211</v>
       </c>
       <c r="B9" s="320" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -5065,7 +5059,7 @@
         <v>213</v>
       </c>
       <c r="B11" s="320" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.15">
@@ -5073,7 +5067,7 @@
         <v>214</v>
       </c>
       <c r="B12" s="320" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -5086,7 +5080,7 @@
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="320" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B14" s="320" t="s">
         <v>287</v>
@@ -5153,7 +5147,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="320" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B22" s="320">
         <v>3231.16</v>
@@ -5182,7 +5176,7 @@
     </row>
     <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A26" s="320" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5208,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="320" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5236,10 +5230,10 @@
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A37" s="320" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B37" s="320" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5324,12 +5318,12 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5348,7 +5342,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -5414,40 +5408,40 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" s="352" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>574</v>
+      </c>
+      <c r="D12" s="352" t="s">
         <v>575</v>
       </c>
-      <c r="B12" s="352" t="s">
+      <c r="E12" s="352" t="s">
         <v>576</v>
       </c>
-      <c r="C12" s="352" t="s">
-        <v>577</v>
-      </c>
-      <c r="D12" s="352" t="s">
-        <v>578</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>579</v>
-      </c>
       <c r="F12" s="352" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="319" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B13" s="319" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C13" s="319" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D13" s="319" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -5459,20 +5453,20 @@
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B14" s="319" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C14" s="319" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D14" s="319" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5484,20 +5478,20 @@
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D15" s="319" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -5509,20 +5503,20 @@
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C16" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D16" s="319" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -5534,20 +5528,20 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C17" s="319" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D17" s="319" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -5559,20 +5553,20 @@
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D18" s="319" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -5584,20 +5578,20 @@
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C19" s="319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D19" s="319" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -5609,18 +5603,18 @@
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D20" s="319"/>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5635,17 +5629,17 @@
         <v>302</v>
       </c>
       <c r="B21" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C21" s="319" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D21" s="319" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E21" s="319"/>
       <c r="F21" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -5657,16 +5651,16 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B22" s="319" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C22" s="319"/>
       <c r="D22" s="319"/>
       <c r="E22" s="319"/>
       <c r="F22" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -5678,36 +5672,36 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B23" s="319" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C23" s="319" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D23" s="319"/>
       <c r="E23" s="319"/>
       <c r="F23" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B24" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C24" s="319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D24" s="319" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E24" s="319"/>
       <c r="F24" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -5719,20 +5713,20 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="319" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B25" s="319" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C25" s="319" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D25" s="319" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E25" s="319"/>
       <c r="F25" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -5849,14 +5843,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D588FE0-1285-44F2-BF94-103261262ED6}">
-  <sheetPr syncVertical="1" syncRef="A30" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A27" transitionEvaluation="1">
     <tabColor theme="6" tint="0.39997558519241921"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -5923,7 +5917,7 @@
       <c r="K3" s="138"/>
       <c r="L3" s="139"/>
       <c r="M3" s="247" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5931,7 +5925,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
@@ -5940,7 +5934,7 @@
       <c r="H4" s="141"/>
       <c r="I4" s="141"/>
       <c r="J4" s="141" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K4" s="141"/>
       <c r="L4" s="142"/>
@@ -5956,18 +5950,18 @@
       <c r="F5" s="146"/>
       <c r="G5" s="127"/>
       <c r="H5" s="127"/>
-      <c r="I5" s="461"/>
-      <c r="J5" s="462"/>
-      <c r="K5" s="462"/>
-      <c r="L5" s="462"/>
-      <c r="M5" s="463"/>
+      <c r="I5" s="467"/>
+      <c r="J5" s="468"/>
+      <c r="K5" s="468"/>
+      <c r="L5" s="468"/>
+      <c r="M5" s="469"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="147" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D6" s="149"/>
       <c r="E6" s="149"/>
@@ -6031,15 +6025,15 @@
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="158"/>
       <c r="C9" s="159"/>
-      <c r="D9" s="464" t="s">
+      <c r="D9" s="470" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="465"/>
-      <c r="F9" s="465"/>
-      <c r="G9" s="465"/>
-      <c r="H9" s="466"/>
+      <c r="E9" s="471"/>
+      <c r="F9" s="471"/>
+      <c r="G9" s="471"/>
+      <c r="H9" s="472"/>
       <c r="I9" s="268" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J9" s="160" t="s">
         <v>98</v>
@@ -6128,48 +6122,48 @@
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="324" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="324" t="s">
+        <v>527</v>
+      </c>
+      <c r="C12" s="324" t="s">
+        <v>525</v>
+      </c>
+      <c r="D12" s="324" t="s">
+        <v>577</v>
+      </c>
+      <c r="E12" s="324" t="s">
+        <v>578</v>
+      </c>
+      <c r="F12" s="324" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" s="324" t="s">
+        <v>580</v>
+      </c>
+      <c r="H12" s="324" t="s">
+        <v>581</v>
+      </c>
+      <c r="I12" s="324" t="s">
+        <v>582</v>
+      </c>
+      <c r="J12" s="324" t="s">
+        <v>583</v>
+      </c>
+      <c r="K12" s="324" t="s">
         <v>529</v>
       </c>
-      <c r="B12" s="324" t="s">
-        <v>530</v>
-      </c>
-      <c r="C12" s="324" t="s">
-        <v>528</v>
-      </c>
-      <c r="D12" s="324" t="s">
-        <v>580</v>
-      </c>
-      <c r="E12" s="324" t="s">
-        <v>581</v>
-      </c>
-      <c r="F12" s="324" t="s">
-        <v>582</v>
-      </c>
-      <c r="G12" s="324" t="s">
-        <v>583</v>
-      </c>
-      <c r="H12" s="324" t="s">
+      <c r="L12" s="324" t="s">
         <v>584</v>
       </c>
-      <c r="I12" s="324" t="s">
+      <c r="M12" s="324" t="s">
         <v>585</v>
-      </c>
-      <c r="J12" s="324" t="s">
-        <v>586</v>
-      </c>
-      <c r="K12" s="324" t="s">
-        <v>532</v>
-      </c>
-      <c r="L12" s="324" t="s">
-        <v>587</v>
-      </c>
-      <c r="M12" s="324" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B13" s="353" t="s">
         <v>307</v>
@@ -6205,12 +6199,12 @@
         <v>0.93206</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B14" s="353" t="s">
         <v>308</v>
@@ -6246,12 +6240,12 @@
         <v>0.97089899999999996</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B15" s="353" t="s">
         <v>309</v>
@@ -6287,14 +6281,14 @@
         <v>1.0356190000000001</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N15" s="356"/>
       <c r="O15" s="269"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B16" s="353" t="s">
         <v>310</v>
@@ -6330,7 +6324,7 @@
         <v>1.0787549999999999</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N16" s="356"/>
       <c r="O16" s="269"/>
@@ -6338,7 +6332,7 @@
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B17" s="353" t="s">
         <v>311</v>
@@ -6374,14 +6368,14 @@
         <v>1.8640890000000001</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N17" s="356"/>
       <c r="O17" s="269"/>
     </row>
     <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B18" s="353" t="s">
         <v>312</v>
@@ -6417,7 +6411,7 @@
         <v>1.9417650000000002</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N18" s="356"/>
       <c r="O18" s="269"/>
@@ -6425,7 +6419,7 @@
     </row>
     <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B19" s="353" t="s">
         <v>313</v>
@@ -6461,14 +6455,14 @@
         <v>2.1574769999999996</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N19" s="356"/>
       <c r="O19" s="269"/>
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B20" s="353" t="s">
         <v>314</v>
@@ -6504,12 +6498,12 @@
         <v>1.9798929999999999</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B21" s="353" t="s">
         <v>315</v>
@@ -6545,14 +6539,14 @@
         <v>3.7818459999999998</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N21" s="356"/>
       <c r="O21" s="269"/>
     </row>
     <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B22" s="353" t="s">
         <v>316</v>
@@ -6588,14 +6582,14 @@
         <v>3.7945769999999999</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N22" s="356"/>
       <c r="O22" s="269"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B23" s="353" t="s">
         <v>317</v>
@@ -6631,14 +6625,14 @@
         <v>3.804465</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N23" s="356"/>
       <c r="O23" s="269"/>
     </row>
     <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B24" s="353" t="s">
         <v>318</v>
@@ -6674,14 +6668,14 @@
         <v>3.8850180000000001</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N24" s="356"/>
       <c r="O24" s="269"/>
     </row>
     <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B25" s="353" t="s">
         <v>319</v>
@@ -6717,13 +6711,13 @@
         <v>3.8138030000000001</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="O25" s="269"/>
     </row>
     <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B26" s="353" t="s">
         <v>320</v>
@@ -6759,14 +6753,14 @@
         <v>4.4356400000000002</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N26" s="356"/>
       <c r="O26" s="269"/>
     </row>
     <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B27" s="353" t="s">
         <v>321</v>
@@ -6802,14 +6796,14 @@
         <v>2.5300310000000001</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N27" s="356"/>
       <c r="O27" s="269"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B28" s="353" t="s">
         <v>322</v>
@@ -6845,14 +6839,14 @@
         <v>4.4023589999999997</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="N28" s="356"/>
       <c r="O28" s="269"/>
     </row>
     <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B29" s="353" t="s">
         <v>323</v>
@@ -6888,17 +6882,17 @@
         <v>3.8588450000000001</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N29" s="356"/>
       <c r="O29" s="269"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="353" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B30" s="353" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C30" s="403">
         <v>1</v>
@@ -6931,16 +6925,16 @@
         <v>3.8914800000000001</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N30" s="356"/>
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C31" s="403">
         <v>1</v>
@@ -6973,15 +6967,15 @@
         <v>28.932421000000001</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C32" s="403">
         <v>1</v>
@@ -7014,15 +7008,15 @@
         <v>23.824149999999999</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C33" s="403">
         <v>1</v>
@@ -7055,15 +7049,15 @@
         <v>4.5945799999999997</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C34" s="403">
         <v>1</v>
@@ -7096,15 +7090,15 @@
         <v>1.8505499999999999</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C35" s="403">
         <v>1</v>
@@ -7137,15 +7131,15 @@
         <v>2.6081279999999998</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C36" s="403">
         <v>1</v>
@@ -7178,16 +7172,16 @@
         <v>1.962574</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="N36" s="359"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C37" s="403">
         <v>1</v>
@@ -7220,15 +7214,15 @@
         <v>35.781962999999998</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C38" s="403">
         <v>1</v>
@@ -7261,15 +7255,15 @@
         <v>39.561611999999997</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B39" s="467" t="s">
-        <v>643</v>
+        <v>535</v>
+      </c>
+      <c r="B39" s="404" t="s">
+        <v>640</v>
       </c>
       <c r="C39" s="403">
         <v>22</v>
@@ -7301,17 +7295,17 @@
       <c r="L39" s="354">
         <v>2.6971780000000001</v>
       </c>
-      <c r="M39" s="468" t="s">
-        <v>657</v>
+      <c r="M39" s="405" t="s">
+        <v>654</v>
       </c>
       <c r="N39" s="359"/>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B40" s="467" t="s">
-        <v>644</v>
+        <v>535</v>
+      </c>
+      <c r="B40" s="404" t="s">
+        <v>641</v>
       </c>
       <c r="C40" s="403">
         <v>116</v>
@@ -7343,17 +7337,17 @@
       <c r="L40" s="354">
         <v>2.4078930000000001</v>
       </c>
-      <c r="M40" s="468" t="s">
-        <v>658</v>
+      <c r="M40" s="405" t="s">
+        <v>655</v>
       </c>
       <c r="N40" s="359"/>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B41" s="467" t="s">
-        <v>645</v>
+        <v>535</v>
+      </c>
+      <c r="B41" s="404" t="s">
+        <v>642</v>
       </c>
       <c r="C41" s="403">
         <v>124</v>
@@ -7385,17 +7379,17 @@
       <c r="L41" s="354">
         <v>2.390768</v>
       </c>
-      <c r="M41" s="468" t="s">
-        <v>660</v>
+      <c r="M41" s="405" t="s">
+        <v>657</v>
       </c>
       <c r="N41" s="359"/>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B42" s="467" t="s">
-        <v>646</v>
+        <v>535</v>
+      </c>
+      <c r="B42" s="404" t="s">
+        <v>643</v>
       </c>
       <c r="C42" s="403">
         <v>60</v>
@@ -7427,17 +7421,17 @@
       <c r="L42" s="354">
         <v>2.3620100000000002</v>
       </c>
-      <c r="M42" s="468" t="s">
-        <v>661</v>
+      <c r="M42" s="405" t="s">
+        <v>658</v>
       </c>
       <c r="N42" s="359"/>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B43" s="467" t="s">
-        <v>647</v>
+        <v>535</v>
+      </c>
+      <c r="B43" s="404" t="s">
+        <v>644</v>
       </c>
       <c r="C43" s="403">
         <v>22</v>
@@ -7469,17 +7463,17 @@
       <c r="L43" s="354">
         <v>2.7052559999999999</v>
       </c>
-      <c r="M43" s="468" t="s">
-        <v>659</v>
+      <c r="M43" s="405" t="s">
+        <v>656</v>
       </c>
       <c r="N43" s="359"/>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B44" s="467" t="s">
-        <v>648</v>
+        <v>535</v>
+      </c>
+      <c r="B44" s="404" t="s">
+        <v>645</v>
       </c>
       <c r="C44" s="403">
         <v>8</v>
@@ -7511,17 +7505,17 @@
       <c r="L44" s="354">
         <v>2.679052</v>
       </c>
-      <c r="M44" s="468" t="s">
-        <v>662</v>
+      <c r="M44" s="405" t="s">
+        <v>659</v>
       </c>
       <c r="N44" s="359"/>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B45" s="467" t="s">
-        <v>649</v>
+        <v>535</v>
+      </c>
+      <c r="B45" s="404" t="s">
+        <v>646</v>
       </c>
       <c r="C45" s="403">
         <v>8</v>
@@ -7553,17 +7547,17 @@
       <c r="L45" s="354">
         <v>2.6881309999999998</v>
       </c>
-      <c r="M45" s="468" t="s">
-        <v>663</v>
+      <c r="M45" s="405" t="s">
+        <v>660</v>
       </c>
       <c r="N45" s="359"/>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B46" s="467" t="s">
-        <v>650</v>
+        <v>535</v>
+      </c>
+      <c r="B46" s="404" t="s">
+        <v>647</v>
       </c>
       <c r="C46" s="403">
         <v>60</v>
@@ -7595,17 +7589,17 @@
       <c r="L46" s="354">
         <v>2.7480370000000001</v>
       </c>
-      <c r="M46" s="468" t="s">
-        <v>664</v>
+      <c r="M46" s="405" t="s">
+        <v>661</v>
       </c>
       <c r="N46" s="359"/>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B47" s="467" t="s">
-        <v>651</v>
+        <v>535</v>
+      </c>
+      <c r="B47" s="404" t="s">
+        <v>648</v>
       </c>
       <c r="C47" s="403">
         <v>28</v>
@@ -7637,17 +7631,17 @@
       <c r="L47" s="354">
         <v>2.4154209999999998</v>
       </c>
-      <c r="M47" s="468" t="s">
-        <v>665</v>
+      <c r="M47" s="405" t="s">
+        <v>662</v>
       </c>
       <c r="N47" s="359"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B48" s="467" t="s">
-        <v>652</v>
+        <v>535</v>
+      </c>
+      <c r="B48" s="404" t="s">
+        <v>649</v>
       </c>
       <c r="C48" s="403">
         <v>10</v>
@@ -7679,17 +7673,17 @@
       <c r="L48" s="354">
         <v>2.3386809999999998</v>
       </c>
-      <c r="M48" s="468" t="s">
-        <v>666</v>
+      <c r="M48" s="405" t="s">
+        <v>663</v>
       </c>
       <c r="N48" s="359"/>
     </row>
     <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="467" t="s">
-        <v>653</v>
+        <v>535</v>
+      </c>
+      <c r="B49" s="404" t="s">
+        <v>650</v>
       </c>
       <c r="C49" s="403">
         <v>28</v>
@@ -7721,17 +7715,17 @@
       <c r="L49" s="354">
         <v>2.2981950000000002</v>
       </c>
-      <c r="M49" s="468" t="s">
-        <v>667</v>
+      <c r="M49" s="405" t="s">
+        <v>664</v>
       </c>
       <c r="N49" s="359"/>
     </row>
     <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B50" s="353" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C50" s="403">
         <v>16</v>
@@ -7764,16 +7758,16 @@
         <v>3.5442269999999998</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N50" s="359"/>
     </row>
     <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B51" s="353" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="403">
         <v>16</v>
@@ -7806,16 +7800,16 @@
         <v>3.4800559999999998</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N51" s="359"/>
     </row>
     <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B52" s="467" t="s">
-        <v>342</v>
+        <v>535</v>
+      </c>
+      <c r="B52" s="473" t="s">
+        <v>668</v>
       </c>
       <c r="C52" s="403">
         <v>28</v>
@@ -7847,17 +7841,17 @@
       <c r="L52" s="354">
         <v>2.4013659999999999</v>
       </c>
-      <c r="M52" s="468" t="s">
-        <v>656</v>
+      <c r="M52" s="405" t="s">
+        <v>653</v>
       </c>
       <c r="N52" s="359"/>
     </row>
     <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B53" s="353" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C53" s="403">
         <v>20</v>
@@ -7890,16 +7884,16 @@
         <v>3.5269080000000002</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="N53" s="359"/>
     </row>
     <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B54" s="353" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C54" s="403">
         <v>20</v>
@@ -7932,16 +7926,16 @@
         <v>3.5014789999999998</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N54" s="359"/>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B55" s="467" t="s">
-        <v>344</v>
+        <v>535</v>
+      </c>
+      <c r="B55" s="473" t="s">
+        <v>669</v>
       </c>
       <c r="C55" s="403">
         <v>28</v>
@@ -7973,17 +7967,17 @@
       <c r="L55" s="354">
         <v>2.310635</v>
       </c>
-      <c r="M55" s="468" t="s">
-        <v>655</v>
+      <c r="M55" s="405" t="s">
+        <v>652</v>
       </c>
       <c r="N55" s="359"/>
     </row>
     <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B56" s="353" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C56" s="403">
         <v>15</v>
@@ -8016,13 +8010,13 @@
         <v>5.1850420000000002</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N56" s="359"/>
     </row>
     <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B57" s="353" t="s">
         <v>329</v>
@@ -8058,13 +8052,13 @@
         <v>4.6952309999999997</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="N57" s="359"/>
     </row>
     <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B58" s="353" t="s">
         <v>330</v>
@@ -8100,16 +8094,16 @@
         <v>4.6370699999999996</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N58" s="359"/>
     </row>
     <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B59" s="467" t="s">
-        <v>331</v>
+        <v>535</v>
+      </c>
+      <c r="B59" s="473" t="s">
+        <v>670</v>
       </c>
       <c r="C59" s="403">
         <v>32</v>
@@ -8141,17 +8135,17 @@
       <c r="L59" s="354">
         <v>2.7540469999999999</v>
       </c>
-      <c r="M59" s="468" t="s">
-        <v>654</v>
+      <c r="M59" s="405" t="s">
+        <v>651</v>
       </c>
       <c r="N59" s="359"/>
     </row>
     <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B60" s="353" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" s="403">
         <v>30</v>
@@ -8184,16 +8178,16 @@
         <v>4.6507379999999996</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N60" s="359"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B61" s="353" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C61" s="403">
         <v>15</v>
@@ -8226,16 +8220,16 @@
         <v>5.1723759999999999</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="N61" s="359"/>
     </row>
     <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B62" s="353" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C62" s="403">
         <v>15</v>
@@ -8268,16 +8262,16 @@
         <v>5.1927649999999996</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N62" s="359"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B63" s="353" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C63" s="403">
         <v>15</v>
@@ -8310,16 +8304,16 @@
         <v>5.1790969999999996</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N63" s="359"/>
     </row>
     <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B64" s="353" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C64" s="403">
         <v>14</v>
@@ -8352,16 +8346,16 @@
         <v>5.2756759999999998</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="N64" s="359"/>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B65" s="353" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C65" s="403">
         <v>14</v>
@@ -8394,16 +8388,16 @@
         <v>3.553274</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N65" s="359"/>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B66" s="353" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C66" s="403">
         <v>14</v>
@@ -8436,16 +8430,16 @@
         <v>3.4807670000000002</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N66" s="359"/>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B67" s="353" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C67" s="403">
         <v>14</v>
@@ -8478,7 +8472,7 @@
         <v>5.1565760000000003</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="N67" s="359"/>
     </row>
@@ -8718,13 +8712,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F6B619-CF03-4ECA-B592-6E874BC60C2E}">
-  <sheetPr syncVertical="1" syncRef="A4" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A22" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -8840,7 +8834,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="97"/>
       <c r="S4" s="106" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8848,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -8858,7 +8852,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -8871,36 +8865,36 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="407" t="s">
+      <c r="A6" s="422" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="405"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="405"/>
-      <c r="J6" s="405"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="404" t="s">
+      <c r="B6" s="420"/>
+      <c r="C6" s="420"/>
+      <c r="D6" s="420"/>
+      <c r="E6" s="420"/>
+      <c r="F6" s="420"/>
+      <c r="G6" s="420"/>
+      <c r="H6" s="420"/>
+      <c r="I6" s="420"/>
+      <c r="J6" s="420"/>
+      <c r="K6" s="423"/>
+      <c r="L6" s="419" t="s">
         <v>241</v>
       </c>
-      <c r="M6" s="405"/>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="405"/>
-      <c r="R6" s="405"/>
-      <c r="S6" s="406"/>
+      <c r="M6" s="420"/>
+      <c r="N6" s="420"/>
+      <c r="O6" s="420"/>
+      <c r="P6" s="420"/>
+      <c r="Q6" s="420"/>
+      <c r="R6" s="420"/>
+      <c r="S6" s="421"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8978,18 +8972,18 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
-      <c r="B10" s="409" t="s">
+      <c r="B10" s="424" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="410"/>
-      <c r="D10" s="410"/>
-      <c r="E10" s="410"/>
-      <c r="F10" s="410"/>
-      <c r="G10" s="410"/>
-      <c r="H10" s="410"/>
-      <c r="I10" s="410"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="411"/>
+      <c r="C10" s="425"/>
+      <c r="D10" s="425"/>
+      <c r="E10" s="425"/>
+      <c r="F10" s="425"/>
+      <c r="G10" s="425"/>
+      <c r="H10" s="425"/>
+      <c r="I10" s="425"/>
+      <c r="J10" s="425"/>
+      <c r="K10" s="426"/>
       <c r="L10" s="48" t="s">
         <v>114</v>
       </c>
@@ -8999,7 +8993,7 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="52"/>
-      <c r="S10" s="416" t="s">
+      <c r="S10" s="414" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9007,20 +9001,20 @@
       <c r="A11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="409" t="s">
+      <c r="B11" s="424" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="410"/>
-      <c r="D11" s="410"/>
-      <c r="E11" s="410"/>
-      <c r="F11" s="411"/>
-      <c r="G11" s="409" t="s">
+      <c r="C11" s="425"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="426"/>
+      <c r="G11" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="410"/>
-      <c r="I11" s="410"/>
-      <c r="J11" s="410"/>
-      <c r="K11" s="411"/>
+      <c r="H11" s="425"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="426"/>
       <c r="L11" s="49" t="s">
         <v>7</v>
       </c>
@@ -9028,11 +9022,11 @@
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="50"/>
-      <c r="Q11" s="412" t="s">
+      <c r="Q11" s="410" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="413"/>
-      <c r="S11" s="417"/>
+      <c r="R11" s="411"/>
+      <c r="S11" s="415"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
@@ -9041,72 +9035,72 @@
       <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="414" t="s">
+      <c r="C12" s="412" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="415"/>
+      <c r="D12" s="413"/>
       <c r="E12" s="48"/>
       <c r="F12" s="50"/>
       <c r="G12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="414" t="s">
+      <c r="H12" s="412" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="415"/>
+      <c r="I12" s="413"/>
       <c r="J12" s="44"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="414" t="s">
+      <c r="M12" s="412" t="s">
         <v>231</v>
       </c>
-      <c r="N12" s="415"/>
+      <c r="N12" s="413"/>
       <c r="O12" s="44"/>
       <c r="P12" s="52"/>
-      <c r="Q12" s="412" t="s">
+      <c r="Q12" s="410" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="413"/>
-      <c r="S12" s="417"/>
+      <c r="R12" s="411"/>
+      <c r="S12" s="415"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="412" t="s">
+      <c r="C13" s="410" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="413"/>
+      <c r="D13" s="411"/>
       <c r="E13" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="412" t="s">
+      <c r="H13" s="410" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="413"/>
-      <c r="J13" s="412" t="s">
+      <c r="I13" s="411"/>
+      <c r="J13" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="413"/>
+      <c r="K13" s="411"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="412" t="s">
+      <c r="M13" s="410" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="413"/>
-      <c r="O13" s="412" t="s">
+      <c r="N13" s="411"/>
+      <c r="O13" s="410" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="413"/>
-      <c r="Q13" s="412" t="s">
+      <c r="P13" s="411"/>
+      <c r="Q13" s="410" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="413"/>
-      <c r="S13" s="417"/>
+      <c r="R13" s="411"/>
+      <c r="S13" s="415"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
@@ -9115,33 +9109,33 @@
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="419" t="s">
+      <c r="C14" s="417" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="420"/>
+      <c r="D14" s="418"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
       <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="419" t="s">
+      <c r="H14" s="417" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="420"/>
+      <c r="I14" s="418"/>
       <c r="J14" s="1"/>
       <c r="K14" s="27"/>
       <c r="L14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="419" t="s">
+      <c r="M14" s="417" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="420"/>
+      <c r="N14" s="418"/>
       <c r="O14" s="1"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="94"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="417"/>
+      <c r="S14" s="415"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
@@ -9192,7 +9186,7 @@
       <c r="R15" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="S15" s="417"/>
+      <c r="S15" s="415"/>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
@@ -9223,7 +9217,7 @@
       <c r="R16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="S16" s="417"/>
+      <c r="S16" s="415"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
@@ -9260,7 +9254,7 @@
       <c r="R17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="417"/>
+      <c r="S17" s="415"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
@@ -9317,70 +9311,70 @@
       <c r="R18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="418"/>
+      <c r="S18" s="416"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" s="324" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="324" t="s">
+        <v>509</v>
+      </c>
+      <c r="D19" s="324" t="s">
         <v>510</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="E19" s="324" t="s">
         <v>511</v>
       </c>
-      <c r="C19" s="324" t="s">
+      <c r="F19" s="324" t="s">
         <v>512</v>
       </c>
-      <c r="D19" s="324" t="s">
+      <c r="G19" s="324" t="s">
         <v>513</v>
       </c>
-      <c r="E19" s="324" t="s">
+      <c r="H19" s="324" t="s">
         <v>514</v>
       </c>
-      <c r="F19" s="324" t="s">
+      <c r="I19" s="324" t="s">
         <v>515</v>
       </c>
-      <c r="G19" s="324" t="s">
+      <c r="J19" s="324" t="s">
         <v>516</v>
       </c>
-      <c r="H19" s="324" t="s">
+      <c r="K19" s="324" t="s">
         <v>517</v>
       </c>
-      <c r="I19" s="324" t="s">
+      <c r="L19" s="324" t="s">
         <v>518</v>
       </c>
-      <c r="J19" s="324" t="s">
+      <c r="M19" s="324" t="s">
         <v>519</v>
       </c>
-      <c r="K19" s="324" t="s">
+      <c r="N19" s="324" t="s">
         <v>520</v>
       </c>
-      <c r="L19" s="324" t="s">
+      <c r="O19" s="324" t="s">
         <v>521</v>
       </c>
-      <c r="M19" s="324" t="s">
+      <c r="P19" s="324" t="s">
         <v>522</v>
       </c>
-      <c r="N19" s="324" t="s">
+      <c r="Q19" s="324" t="s">
         <v>523</v>
       </c>
-      <c r="O19" s="324" t="s">
+      <c r="R19" s="324" t="s">
         <v>524</v>
       </c>
-      <c r="P19" s="324" t="s">
+      <c r="S19" s="324" t="s">
         <v>525</v>
-      </c>
-      <c r="Q19" s="324" t="s">
-        <v>526</v>
-      </c>
-      <c r="R19" s="324" t="s">
-        <v>527</v>
-      </c>
-      <c r="S19" s="324" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="281" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B20" s="283">
         <v>115.061925</v>
@@ -9439,7 +9433,7 @@
     </row>
     <row r="21" spans="1:19" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="281" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B21" s="283">
         <v>115.061925</v>
@@ -9498,7 +9492,7 @@
     </row>
     <row r="22" spans="1:19" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="281" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B22" s="283">
         <v>6.0709999999999997</v>
@@ -9734,7 +9728,7 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="281" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B26" s="283">
         <v>755.03784999999993</v>
@@ -9793,7 +9787,7 @@
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="281" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B27" s="283">
         <v>755.03784999999993</v>
@@ -9852,7 +9846,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="281" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B28" s="283">
         <v>750.11590000000001</v>
@@ -9911,7 +9905,7 @@
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="281" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B29" s="283">
         <v>750.11590000000001</v>
@@ -9970,7 +9964,7 @@
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="281" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B30" s="283">
         <v>750.19324999999992</v>
@@ -10029,7 +10023,7 @@
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="281" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B31" s="283">
         <v>750.19324999999992</v>
@@ -10088,7 +10082,7 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="281" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B32" s="283">
         <v>750.17824999999993</v>
@@ -10147,7 +10141,7 @@
     </row>
     <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="281" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B33" s="283">
         <v>750.17824999999993</v>
@@ -10206,7 +10200,7 @@
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="281" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B34" s="283">
         <v>750.17824999999993</v>
@@ -10265,7 +10259,7 @@
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="281" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B35" s="283">
         <v>755.01144999999997</v>
@@ -10324,7 +10318,7 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="281" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B36" s="283">
         <v>755.01144999999997</v>
@@ -10383,7 +10377,7 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="281" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B37" s="283">
         <v>750.16825000000006</v>
@@ -10442,7 +10436,7 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="281" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B38" s="283">
         <v>775.73824999999999</v>
@@ -10501,7 +10495,7 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B39" s="283">
         <v>775.73824999999999</v>
@@ -10560,7 +10554,7 @@
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="281" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B40" s="283">
         <v>775.66090000000008</v>
@@ -10619,7 +10613,7 @@
     </row>
     <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="281" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B41" s="283">
         <v>775.66090000000008</v>
@@ -10678,7 +10672,7 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="281" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B42" s="283">
         <v>775.67090000000007</v>
@@ -10737,7 +10731,7 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="281" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B43" s="283">
         <v>787.45285000000001</v>
@@ -10796,7 +10790,7 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="281" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B44" s="283">
         <v>787.43285000000003</v>
@@ -10855,7 +10849,7 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="281" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B45" s="283">
         <v>787.43285000000003</v>
@@ -10914,7 +10908,7 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="281" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B46" s="283">
         <v>787.43285000000003</v>
@@ -10973,7 +10967,7 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="281" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B47" s="283">
         <v>0</v>
@@ -11032,7 +11026,7 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="281" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B48" s="283">
         <v>0</v>
@@ -11091,7 +11085,7 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="281" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B49" s="283">
         <v>0</v>
@@ -11230,6 +11224,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -11245,11 +11244,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -11267,8 +11261,8 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView showGridLines="0" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -11397,7 +11391,7 @@
       <c r="T4" s="201"/>
       <c r="U4" s="202"/>
       <c r="V4" s="106" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11405,7 +11399,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="204" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="205"/>
@@ -11416,7 +11410,7 @@
       <c r="J5" s="205"/>
       <c r="K5" s="205"/>
       <c r="L5" s="205" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M5" s="205"/>
       <c r="N5" s="205"/>
@@ -11430,38 +11424,38 @@
       <c r="V5" s="206"/>
     </row>
     <row r="6" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="430" t="s">
+      <c r="B6" s="436" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="428"/>
-      <c r="D6" s="428"/>
-      <c r="E6" s="428"/>
-      <c r="F6" s="428"/>
-      <c r="G6" s="428"/>
-      <c r="H6" s="428"/>
-      <c r="I6" s="428"/>
-      <c r="J6" s="428"/>
-      <c r="K6" s="428"/>
-      <c r="L6" s="428"/>
-      <c r="M6" s="431"/>
-      <c r="N6" s="427" t="s">
+      <c r="C6" s="434"/>
+      <c r="D6" s="434"/>
+      <c r="E6" s="434"/>
+      <c r="F6" s="434"/>
+      <c r="G6" s="434"/>
+      <c r="H6" s="434"/>
+      <c r="I6" s="434"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
+      <c r="L6" s="434"/>
+      <c r="M6" s="437"/>
+      <c r="N6" s="433" t="s">
         <v>241</v>
       </c>
-      <c r="O6" s="428"/>
-      <c r="P6" s="428"/>
-      <c r="Q6" s="428"/>
-      <c r="R6" s="428"/>
-      <c r="S6" s="428"/>
-      <c r="T6" s="428"/>
-      <c r="U6" s="428"/>
-      <c r="V6" s="429"/>
+      <c r="O6" s="434"/>
+      <c r="P6" s="434"/>
+      <c r="Q6" s="434"/>
+      <c r="R6" s="434"/>
+      <c r="S6" s="434"/>
+      <c r="T6" s="434"/>
+      <c r="U6" s="434"/>
+      <c r="V6" s="435"/>
     </row>
     <row r="7" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="207" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="208" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="209"/>
@@ -11543,19 +11537,19 @@
       <c r="B10" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="432" t="s">
+      <c r="C10" s="438" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="433"/>
-      <c r="E10" s="433"/>
-      <c r="F10" s="433"/>
-      <c r="G10" s="433"/>
-      <c r="H10" s="433"/>
-      <c r="I10" s="433"/>
-      <c r="J10" s="433"/>
-      <c r="K10" s="433"/>
-      <c r="L10" s="433"/>
-      <c r="M10" s="433"/>
+      <c r="D10" s="439"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="439"/>
+      <c r="G10" s="439"/>
+      <c r="H10" s="439"/>
+      <c r="I10" s="439"/>
+      <c r="J10" s="439"/>
+      <c r="K10" s="439"/>
+      <c r="L10" s="439"/>
+      <c r="M10" s="439"/>
       <c r="N10" s="220" t="s">
         <v>259</v>
       </c>
@@ -11568,7 +11562,7 @@
       <c r="S10" s="223"/>
       <c r="T10" s="224"/>
       <c r="U10" s="225"/>
-      <c r="V10" s="435" t="s">
+      <c r="V10" s="441" t="s">
         <v>261</v>
       </c>
     </row>
@@ -11576,13 +11570,13 @@
       <c r="B11" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="432" t="s">
+      <c r="C11" s="438" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="433"/>
-      <c r="E11" s="433"/>
-      <c r="F11" s="433"/>
-      <c r="G11" s="434"/>
+      <c r="D11" s="439"/>
+      <c r="E11" s="439"/>
+      <c r="F11" s="439"/>
+      <c r="G11" s="440"/>
       <c r="H11" s="222" t="s">
         <v>7</v>
       </c>
@@ -11603,11 +11597,11 @@
       <c r="Q11" s="222"/>
       <c r="R11" s="222"/>
       <c r="S11" s="223"/>
-      <c r="T11" s="421" t="s">
+      <c r="T11" s="427" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="422"/>
-      <c r="V11" s="436"/>
+      <c r="U11" s="428"/>
+      <c r="V11" s="442"/>
     </row>
     <row r="12" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="226" t="s">
@@ -11616,19 +11610,19 @@
       <c r="C12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="425" t="s">
+      <c r="D12" s="431" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="426"/>
+      <c r="E12" s="432"/>
       <c r="F12" s="224"/>
       <c r="G12" s="225"/>
       <c r="H12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="425" t="s">
+      <c r="I12" s="431" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="426"/>
+      <c r="J12" s="432"/>
       <c r="K12" s="224"/>
       <c r="L12" s="225"/>
       <c r="M12" s="230" t="s">
@@ -11640,40 +11634,40 @@
       <c r="O12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="425" t="s">
+      <c r="P12" s="431" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="426"/>
+      <c r="Q12" s="432"/>
       <c r="R12" s="232"/>
       <c r="S12" s="225"/>
-      <c r="T12" s="421" t="s">
+      <c r="T12" s="427" t="s">
         <v>109</v>
       </c>
-      <c r="U12" s="422"/>
-      <c r="V12" s="436"/>
+      <c r="U12" s="428"/>
+      <c r="V12" s="442"/>
     </row>
     <row r="13" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="226" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="229"/>
-      <c r="D13" s="421" t="s">
+      <c r="D13" s="427" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="422"/>
-      <c r="F13" s="421" t="s">
+      <c r="E13" s="428"/>
+      <c r="F13" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="422"/>
+      <c r="G13" s="428"/>
       <c r="H13" s="229"/>
-      <c r="I13" s="421" t="s">
+      <c r="I13" s="427" t="s">
         <v>232</v>
       </c>
-      <c r="J13" s="422"/>
-      <c r="K13" s="421" t="s">
+      <c r="J13" s="428"/>
+      <c r="K13" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="422"/>
+      <c r="L13" s="428"/>
       <c r="M13" s="230" t="s">
         <v>256</v>
       </c>
@@ -11681,19 +11675,19 @@
         <v>260</v>
       </c>
       <c r="O13" s="233"/>
-      <c r="P13" s="421" t="s">
+      <c r="P13" s="427" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="422"/>
-      <c r="R13" s="421" t="s">
+      <c r="Q13" s="428"/>
+      <c r="R13" s="427" t="s">
         <v>103</v>
       </c>
-      <c r="S13" s="422"/>
-      <c r="T13" s="421" t="s">
+      <c r="S13" s="428"/>
+      <c r="T13" s="427" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="422"/>
-      <c r="V13" s="436"/>
+      <c r="U13" s="428"/>
+      <c r="V13" s="442"/>
     </row>
     <row r="14" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="226" t="s">
@@ -11702,19 +11696,19 @@
       <c r="C14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="423" t="s">
+      <c r="D14" s="429" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="424"/>
+      <c r="E14" s="430"/>
       <c r="F14" s="234"/>
       <c r="G14" s="235"/>
       <c r="H14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="423" t="s">
+      <c r="I14" s="429" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="424"/>
+      <c r="J14" s="430"/>
       <c r="K14" s="234"/>
       <c r="L14" s="235"/>
       <c r="M14" s="230" t="s">
@@ -11724,15 +11718,15 @@
       <c r="O14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="423" t="s">
+      <c r="P14" s="429" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="424"/>
+      <c r="Q14" s="430"/>
       <c r="R14" s="209"/>
       <c r="S14" s="236"/>
       <c r="T14" s="237"/>
       <c r="U14" s="236"/>
-      <c r="V14" s="436"/>
+      <c r="V14" s="442"/>
     </row>
     <row r="15" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="226" t="s">
@@ -11789,7 +11783,7 @@
       <c r="U15" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="436"/>
+      <c r="V15" s="442"/>
     </row>
     <row r="16" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="226" t="s">
@@ -11824,7 +11818,7 @@
       <c r="U16" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="V16" s="436"/>
+      <c r="V16" s="442"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="226"/>
@@ -11873,7 +11867,7 @@
       <c r="U17" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="V17" s="436"/>
+      <c r="V17" s="442"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="239" t="s">
@@ -11937,80 +11931,80 @@
         <v>68</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="241" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
+        <v>526</v>
+      </c>
+      <c r="B19" s="324" t="s">
+        <v>527</v>
+      </c>
+      <c r="C19" s="324" t="s">
+        <v>508</v>
+      </c>
+      <c r="D19" s="324" t="s">
+        <v>509</v>
+      </c>
+      <c r="E19" s="324" t="s">
+        <v>510</v>
+      </c>
+      <c r="F19" s="324" t="s">
+        <v>511</v>
+      </c>
+      <c r="G19" s="324" t="s">
+        <v>512</v>
+      </c>
+      <c r="H19" s="324" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" s="324" t="s">
+        <v>514</v>
+      </c>
+      <c r="J19" s="324" t="s">
+        <v>515</v>
+      </c>
+      <c r="K19" s="324" t="s">
+        <v>516</v>
+      </c>
+      <c r="L19" s="324" t="s">
+        <v>517</v>
+      </c>
+      <c r="M19" s="324" t="s">
+        <v>528</v>
+      </c>
+      <c r="N19" s="324" t="s">
         <v>529</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="O19" s="324" t="s">
+        <v>518</v>
+      </c>
+      <c r="P19" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q19" s="324" t="s">
+        <v>520</v>
+      </c>
+      <c r="R19" s="324" t="s">
+        <v>521</v>
+      </c>
+      <c r="S19" s="324" t="s">
+        <v>522</v>
+      </c>
+      <c r="T19" s="324" t="s">
         <v>530</v>
       </c>
-      <c r="C19" s="324" t="s">
-        <v>511</v>
-      </c>
-      <c r="D19" s="324" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="324" t="s">
-        <v>513</v>
-      </c>
-      <c r="F19" s="324" t="s">
-        <v>514</v>
-      </c>
-      <c r="G19" s="324" t="s">
-        <v>515</v>
-      </c>
-      <c r="H19" s="324" t="s">
-        <v>516</v>
-      </c>
-      <c r="I19" s="324" t="s">
-        <v>517</v>
-      </c>
-      <c r="J19" s="324" t="s">
-        <v>518</v>
-      </c>
-      <c r="K19" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="L19" s="324" t="s">
-        <v>520</v>
-      </c>
-      <c r="M19" s="324" t="s">
+      <c r="U19" s="324" t="s">
         <v>531</v>
       </c>
-      <c r="N19" s="324" t="s">
+      <c r="V19" s="324" t="s">
         <v>532</v>
-      </c>
-      <c r="O19" s="324" t="s">
-        <v>521</v>
-      </c>
-      <c r="P19" s="324" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q19" s="324" t="s">
-        <v>523</v>
-      </c>
-      <c r="R19" s="324" t="s">
-        <v>524</v>
-      </c>
-      <c r="S19" s="324" t="s">
-        <v>525</v>
-      </c>
-      <c r="T19" s="324" t="s">
-        <v>533</v>
-      </c>
-      <c r="U19" s="324" t="s">
-        <v>534</v>
-      </c>
-      <c r="V19" s="324" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B20" s="244" t="s">
         <v>307</v>
@@ -12078,7 +12072,7 @@
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B21" s="244" t="s">
         <v>308</v>
@@ -12146,7 +12140,7 @@
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B22" s="244" t="s">
         <v>309</v>
@@ -12214,7 +12208,7 @@
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B23" s="244" t="s">
         <v>310</v>
@@ -12282,7 +12276,7 @@
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B24" s="244" t="s">
         <v>311</v>
@@ -12350,7 +12344,7 @@
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B25" s="244" t="s">
         <v>312</v>
@@ -12418,7 +12412,7 @@
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B26" s="244" t="s">
         <v>313</v>
@@ -12486,7 +12480,7 @@
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B27" s="244" t="s">
         <v>314</v>
@@ -12554,7 +12548,7 @@
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B28" s="244" t="s">
         <v>315</v>
@@ -12622,7 +12616,7 @@
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B29" s="244" t="s">
         <v>316</v>
@@ -12690,7 +12684,7 @@
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B30" s="244" t="s">
         <v>317</v>
@@ -12758,7 +12752,7 @@
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B31" s="244" t="s">
         <v>318</v>
@@ -12826,7 +12820,7 @@
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B32" s="244" t="s">
         <v>319</v>
@@ -12894,7 +12888,7 @@
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B33" s="244" t="s">
         <v>320</v>
@@ -12962,7 +12956,7 @@
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B34" s="244" t="s">
         <v>321</v>
@@ -13030,7 +13024,7 @@
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B35" s="244" t="s">
         <v>322</v>
@@ -13098,7 +13092,7 @@
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B36" s="244" t="s">
         <v>323</v>
@@ -13166,10 +13160,10 @@
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B37" s="244" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C37" s="293">
         <v>11.295999999999999</v>
@@ -13234,7 +13228,7 @@
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B38" s="244" t="s">
         <v>297</v>
@@ -13302,7 +13296,7 @@
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B39" s="244" t="s">
         <v>298</v>
@@ -13370,7 +13364,7 @@
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B40" s="244" t="s">
         <v>324</v>
@@ -13438,7 +13432,7 @@
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B41" s="244" t="s">
         <v>325</v>
@@ -13506,7 +13500,7 @@
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B42" s="244" t="s">
         <v>326</v>
@@ -13574,7 +13568,7 @@
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B43" s="244" t="s">
         <v>327</v>
@@ -13642,7 +13636,7 @@
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B44" s="244" t="s">
         <v>328</v>
@@ -13710,10 +13704,10 @@
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B45" s="244" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C45" s="293">
         <v>579.14</v>
@@ -13778,10 +13772,10 @@
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>538</v>
-      </c>
-      <c r="B46" s="472" t="s">
-        <v>643</v>
+        <v>535</v>
+      </c>
+      <c r="B46" s="409" t="s">
+        <v>640</v>
       </c>
       <c r="C46" s="293">
         <v>21.956650000000003</v>
@@ -13846,10 +13840,10 @@
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>538</v>
-      </c>
-      <c r="B47" s="472" t="s">
-        <v>644</v>
+        <v>535</v>
+      </c>
+      <c r="B47" s="409" t="s">
+        <v>641</v>
       </c>
       <c r="C47" s="293">
         <v>19.159500000000001</v>
@@ -13914,10 +13908,10 @@
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>538</v>
-      </c>
-      <c r="B48" s="472" t="s">
-        <v>645</v>
+        <v>535</v>
+      </c>
+      <c r="B48" s="409" t="s">
+        <v>642</v>
       </c>
       <c r="C48" s="293">
         <v>19.165749999999999</v>
@@ -13982,10 +13976,10 @@
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="472" t="s">
-        <v>646</v>
+        <v>535</v>
+      </c>
+      <c r="B49" s="409" t="s">
+        <v>643</v>
       </c>
       <c r="C49" s="293">
         <v>18.736750000000001</v>
@@ -14050,10 +14044,10 @@
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>538</v>
-      </c>
-      <c r="B50" s="472" t="s">
-        <v>647</v>
+        <v>535</v>
+      </c>
+      <c r="B50" s="409" t="s">
+        <v>644</v>
       </c>
       <c r="C50" s="293">
         <v>21.949775000000002</v>
@@ -14118,10 +14112,10 @@
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>538</v>
-      </c>
-      <c r="B51" s="472" t="s">
-        <v>648</v>
+        <v>535</v>
+      </c>
+      <c r="B51" s="409" t="s">
+        <v>645</v>
       </c>
       <c r="C51" s="293">
         <v>21.9529</v>
@@ -14186,10 +14180,10 @@
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>538</v>
-      </c>
-      <c r="B52" s="472" t="s">
-        <v>649</v>
+        <v>535</v>
+      </c>
+      <c r="B52" s="409" t="s">
+        <v>646</v>
       </c>
       <c r="C52" s="293">
         <v>21.956025</v>
@@ -14254,10 +14248,10 @@
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>538</v>
-      </c>
-      <c r="B53" s="472" t="s">
-        <v>650</v>
+        <v>535</v>
+      </c>
+      <c r="B53" s="409" t="s">
+        <v>647</v>
       </c>
       <c r="C53" s="293">
         <v>22.999299999999998</v>
@@ -14322,10 +14316,10 @@
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>538</v>
-      </c>
-      <c r="B54" s="472" t="s">
-        <v>651</v>
+        <v>535</v>
+      </c>
+      <c r="B54" s="409" t="s">
+        <v>648</v>
       </c>
       <c r="C54" s="293">
         <v>19.8201</v>
@@ -14390,10 +14384,10 @@
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>538</v>
-      </c>
-      <c r="B55" s="472" t="s">
-        <v>652</v>
+        <v>535</v>
+      </c>
+      <c r="B55" s="409" t="s">
+        <v>649</v>
       </c>
       <c r="C55" s="293">
         <v>19.244500000000002</v>
@@ -14458,10 +14452,10 @@
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>538</v>
-      </c>
-      <c r="B56" s="472" t="s">
-        <v>653</v>
+        <v>535</v>
+      </c>
+      <c r="B56" s="409" t="s">
+        <v>650</v>
       </c>
       <c r="C56" s="293">
         <v>18.977350000000001</v>
@@ -14526,10 +14520,10 @@
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B57" s="276" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C57" s="293">
         <v>27.958475</v>
@@ -14594,10 +14588,10 @@
     </row>
     <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B58" s="276" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C58" s="293">
         <v>27.615000000000002</v>
@@ -14662,10 +14656,10 @@
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>538</v>
-      </c>
-      <c r="B59" s="472" t="s">
-        <v>671</v>
+        <v>535</v>
+      </c>
+      <c r="B59" s="409" t="s">
+        <v>668</v>
       </c>
       <c r="C59" s="293">
         <v>19.828850000000003</v>
@@ -14730,10 +14724,10 @@
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B60" s="276" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C60" s="293">
         <v>27.956249999999997</v>
@@ -14798,10 +14792,10 @@
     </row>
     <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B61" s="276" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C61" s="293">
         <v>27.659999999999997</v>
@@ -14866,10 +14860,10 @@
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>538</v>
-      </c>
-      <c r="B62" s="472" t="s">
-        <v>672</v>
+        <v>535</v>
+      </c>
+      <c r="B62" s="409" t="s">
+        <v>669</v>
       </c>
       <c r="C62" s="293">
         <v>18.964500000000001</v>
@@ -14934,10 +14928,10 @@
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B63" s="276" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C63" s="293">
         <v>44.521700000000003</v>
@@ -15002,7 +14996,7 @@
     </row>
     <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B64" s="276" t="s">
         <v>329</v>
@@ -15070,7 +15064,7 @@
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B65" s="276" t="s">
         <v>330</v>
@@ -15138,10 +15132,10 @@
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>538</v>
-      </c>
-      <c r="B66" s="472" t="s">
-        <v>673</v>
+        <v>535</v>
+      </c>
+      <c r="B66" s="409" t="s">
+        <v>670</v>
       </c>
       <c r="C66" s="293">
         <v>23.0593</v>
@@ -15206,10 +15200,10 @@
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B67" s="276" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C67" s="293">
         <v>39.315449999999998</v>
@@ -15274,10 +15268,10 @@
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B68" s="276" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C68" s="293">
         <v>44.525449999999999</v>
@@ -15342,10 +15336,10 @@
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B69" s="276" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C69" s="293">
         <v>44.530325000000005</v>
@@ -15410,10 +15404,10 @@
     </row>
     <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B70" s="276" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C70" s="293">
         <v>44.524075000000003</v>
@@ -15478,10 +15472,10 @@
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B71" s="276" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C71" s="293">
         <v>45.802500000000002</v>
@@ -15546,10 +15540,10 @@
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B72" s="276" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C72" s="293">
         <v>28.049875</v>
@@ -15614,10 +15608,10 @@
     </row>
     <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B73" s="276" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C73" s="293">
         <v>27.643125000000001</v>
@@ -15682,10 +15676,10 @@
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B74" s="276" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C74" s="293">
         <v>44.885000000000005</v>
@@ -15773,11 +15767,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D12:E12"/>
@@ -15793,6 +15782,11 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -15838,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="319" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15846,7 +15840,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="319" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15856,7 +15850,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="319" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15864,7 +15858,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="319" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15877,7 +15871,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="319" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15929,13 +15923,13 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="399" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B15" s="400" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C15" s="399" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15963,7 +15957,7 @@
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B20" s="319" t="s">
         <v>74</v>
@@ -15971,7 +15965,7 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B21" s="319">
         <v>16</v>
@@ -15979,7 +15973,7 @@
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B22" s="319">
         <v>8371.4</v>
@@ -16039,7 +16033,7 @@
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="319" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B31" s="325">
         <v>45536</v>
@@ -16048,7 +16042,7 @@
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="319" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B32" s="319">
         <v>2340.48</v>
@@ -16057,7 +16051,7 @@
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="319" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16133,7 +16127,7 @@
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="319" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B41" s="319">
         <v>112119827.45695201</v>
@@ -16147,7 +16141,7 @@
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="319" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16196,7 +16190,7 @@
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="319" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16289,7 +16283,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="319" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16357,7 +16351,7 @@
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="319" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B72" s="319">
         <v>119786894.45695201</v>
@@ -16405,7 +16399,7 @@
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="319" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B78" s="319">
         <v>383470.5</v>
@@ -16413,7 +16407,7 @@
     </row>
     <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="319" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B79" s="319">
         <v>123019002.95695201</v>
@@ -16437,7 +16431,7 @@
     </row>
     <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="319" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B82" s="319">
         <v>147622803.54834241</v>
@@ -16445,7 +16439,7 @@
     </row>
     <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="319" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B83" s="319">
         <v>3081.5978501347681</v>
@@ -16562,7 +16556,7 @@
       <c r="M4" s="58"/>
       <c r="N4" s="101"/>
       <c r="O4" s="106" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16570,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
@@ -16578,7 +16572,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
@@ -16588,31 +16582,31 @@
       <c r="O5" s="102"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="410"/>
-      <c r="D6" s="410"/>
-      <c r="E6" s="410"/>
-      <c r="F6" s="410"/>
-      <c r="G6" s="411"/>
-      <c r="H6" s="409" t="s">
+      <c r="C6" s="425"/>
+      <c r="D6" s="425"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="425"/>
+      <c r="G6" s="426"/>
+      <c r="H6" s="424" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="410"/>
-      <c r="J6" s="410"/>
-      <c r="K6" s="410"/>
-      <c r="L6" s="410"/>
-      <c r="M6" s="410"/>
-      <c r="N6" s="410"/>
-      <c r="O6" s="437"/>
+      <c r="I6" s="425"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="425"/>
+      <c r="L6" s="425"/>
+      <c r="M6" s="425"/>
+      <c r="N6" s="425"/>
+      <c r="O6" s="443"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -16680,25 +16674,25 @@
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
-      <c r="C10" s="409" t="s">
+      <c r="C10" s="424" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="410"/>
-      <c r="E10" s="439"/>
-      <c r="F10" s="440" t="s">
+      <c r="D10" s="425"/>
+      <c r="E10" s="445"/>
+      <c r="F10" s="446" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="441"/>
-      <c r="H10" s="441"/>
-      <c r="I10" s="441"/>
-      <c r="J10" s="441"/>
-      <c r="K10" s="441"/>
-      <c r="L10" s="442"/>
-      <c r="M10" s="410" t="s">
+      <c r="G10" s="447"/>
+      <c r="H10" s="447"/>
+      <c r="I10" s="447"/>
+      <c r="J10" s="447"/>
+      <c r="K10" s="447"/>
+      <c r="L10" s="448"/>
+      <c r="M10" s="425" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="410"/>
-      <c r="O10" s="437"/>
+      <c r="N10" s="425"/>
+      <c r="O10" s="443"/>
     </row>
     <row r="11" spans="1:15" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
@@ -16729,10 +16723,10 @@
         <v>174</v>
       </c>
       <c r="K11" s="78" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L11" s="79" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M11" s="80" t="s">
         <v>177</v>
@@ -16830,54 +16824,54 @@
     </row>
     <row r="14" spans="1:15" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="328" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" s="328" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" s="328" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="328" t="s">
+        <v>541</v>
+      </c>
+      <c r="E14" s="328" t="s">
         <v>529</v>
       </c>
-      <c r="B14" s="328" t="s">
+      <c r="F14" s="328" t="s">
+        <v>542</v>
+      </c>
+      <c r="G14" s="328" t="s">
+        <v>543</v>
+      </c>
+      <c r="H14" s="328" t="s">
+        <v>544</v>
+      </c>
+      <c r="I14" s="328" t="s">
+        <v>545</v>
+      </c>
+      <c r="J14" s="328" t="s">
+        <v>546</v>
+      </c>
+      <c r="K14" s="328" t="s">
         <v>530</v>
       </c>
-      <c r="C14" s="328" t="s">
-        <v>534</v>
-      </c>
-      <c r="D14" s="328" t="s">
-        <v>544</v>
-      </c>
-      <c r="E14" s="328" t="s">
-        <v>532</v>
-      </c>
-      <c r="F14" s="328" t="s">
-        <v>545</v>
-      </c>
-      <c r="G14" s="328" t="s">
-        <v>546</v>
-      </c>
-      <c r="H14" s="328" t="s">
+      <c r="L14" s="328" t="s">
         <v>547</v>
       </c>
-      <c r="I14" s="328" t="s">
+      <c r="M14" s="328" t="s">
         <v>548</v>
       </c>
-      <c r="J14" s="328" t="s">
+      <c r="N14" s="328" t="s">
         <v>549</v>
       </c>
-      <c r="K14" s="328" t="s">
-        <v>533</v>
-      </c>
-      <c r="L14" s="328" t="s">
+      <c r="O14" s="328" t="s">
         <v>550</v>
-      </c>
-      <c r="M14" s="328" t="s">
-        <v>551</v>
-      </c>
-      <c r="N14" s="328" t="s">
-        <v>552</v>
-      </c>
-      <c r="O14" s="328" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B15" s="114" t="s">
         <v>307</v>
@@ -16924,7 +16918,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B16" s="114" t="s">
         <v>308</v>
@@ -16971,7 +16965,7 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B17" s="114" t="s">
         <v>309</v>
@@ -17018,7 +17012,7 @@
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B18" s="114" t="s">
         <v>310</v>
@@ -17065,7 +17059,7 @@
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B19" s="114" t="s">
         <v>311</v>
@@ -17112,7 +17106,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B20" s="114" t="s">
         <v>312</v>
@@ -17159,7 +17153,7 @@
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B21" s="114" t="s">
         <v>313</v>
@@ -17206,7 +17200,7 @@
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B22" s="114" t="s">
         <v>314</v>
@@ -17253,7 +17247,7 @@
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B23" s="114" t="s">
         <v>315</v>
@@ -17300,7 +17294,7 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B24" s="114" t="s">
         <v>316</v>
@@ -17347,7 +17341,7 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B25" s="114" t="s">
         <v>317</v>
@@ -17394,7 +17388,7 @@
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B26" s="114" t="s">
         <v>318</v>
@@ -17441,7 +17435,7 @@
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>319</v>
@@ -17488,7 +17482,7 @@
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B28" s="114" t="s">
         <v>320</v>
@@ -17535,7 +17529,7 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B29" s="114" t="s">
         <v>321</v>
@@ -17582,7 +17576,7 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B30" s="114" t="s">
         <v>322</v>
@@ -17629,7 +17623,7 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B31" s="114" t="s">
         <v>323</v>
@@ -17676,10 +17670,10 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C32" s="283">
         <v>57.694418000000006</v>
@@ -17723,7 +17717,7 @@
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B33" s="122" t="s">
         <v>297</v>
@@ -17770,7 +17764,7 @@
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B34" s="122" t="s">
         <v>298</v>
@@ -17817,7 +17811,7 @@
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>324</v>
@@ -17864,7 +17858,7 @@
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B36" s="114" t="s">
         <v>325</v>
@@ -17911,7 +17905,7 @@
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B37" s="114" t="s">
         <v>326</v>
@@ -17958,7 +17952,7 @@
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B38" s="114" t="s">
         <v>327</v>
@@ -18005,7 +17999,7 @@
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B39" s="114" t="s">
         <v>328</v>
@@ -18052,10 +18046,10 @@
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C40" s="283">
         <v>586.533816</v>
@@ -18099,10 +18093,10 @@
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>538</v>
-      </c>
-      <c r="B41" s="471" t="s">
-        <v>643</v>
+        <v>535</v>
+      </c>
+      <c r="B41" s="408" t="s">
+        <v>640</v>
       </c>
       <c r="C41" s="283">
         <v>39.987708500000004</v>
@@ -18146,10 +18140,10 @@
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>538</v>
-      </c>
-      <c r="B42" s="471" t="s">
-        <v>644</v>
+        <v>535</v>
+      </c>
+      <c r="B42" s="408" t="s">
+        <v>641</v>
       </c>
       <c r="C42" s="283">
         <v>35.698933000000004</v>
@@ -18193,10 +18187,10 @@
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>538</v>
-      </c>
-      <c r="B43" s="471" t="s">
-        <v>645</v>
+        <v>535</v>
+      </c>
+      <c r="B43" s="408" t="s">
+        <v>642</v>
       </c>
       <c r="C43" s="283">
         <v>35.445196499999994</v>
@@ -18240,10 +18234,10 @@
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>538</v>
-      </c>
-      <c r="B44" s="471" t="s">
-        <v>646</v>
+        <v>535</v>
+      </c>
+      <c r="B44" s="408" t="s">
+        <v>643</v>
       </c>
       <c r="C44" s="283">
         <v>35.018810500000001</v>
@@ -18287,10 +18281,10 @@
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>538</v>
-      </c>
-      <c r="B45" s="471" t="s">
-        <v>647</v>
+        <v>535</v>
+      </c>
+      <c r="B45" s="408" t="s">
+        <v>644</v>
       </c>
       <c r="C45" s="283">
         <v>40.10761625</v>
@@ -18334,10 +18328,10 @@
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>538</v>
-      </c>
-      <c r="B46" s="471" t="s">
-        <v>648</v>
+        <v>535</v>
+      </c>
+      <c r="B46" s="408" t="s">
+        <v>645</v>
       </c>
       <c r="C46" s="283">
         <v>39.719128499999997</v>
@@ -18381,10 +18375,10 @@
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>538</v>
-      </c>
-      <c r="B47" s="471" t="s">
-        <v>649</v>
+        <v>535</v>
+      </c>
+      <c r="B47" s="408" t="s">
+        <v>646</v>
       </c>
       <c r="C47" s="283">
         <v>39.853880250000003</v>
@@ -18428,10 +18422,10 @@
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>538</v>
-      </c>
-      <c r="B48" s="471" t="s">
-        <v>650</v>
+        <v>535</v>
+      </c>
+      <c r="B48" s="408" t="s">
+        <v>647</v>
       </c>
       <c r="C48" s="283">
         <v>40.7420075</v>
@@ -18475,10 +18469,10 @@
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="471" t="s">
-        <v>651</v>
+        <v>535</v>
+      </c>
+      <c r="B49" s="408" t="s">
+        <v>648</v>
       </c>
       <c r="C49" s="283">
         <v>35.810484500000001</v>
@@ -18522,10 +18516,10 @@
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>538</v>
-      </c>
-      <c r="B50" s="471" t="s">
-        <v>652</v>
+        <v>535</v>
+      </c>
+      <c r="B50" s="408" t="s">
+        <v>649</v>
       </c>
       <c r="C50" s="283">
         <v>34.672862000000009</v>
@@ -18569,10 +18563,10 @@
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>538</v>
-      </c>
-      <c r="B51" s="471" t="s">
-        <v>653</v>
+        <v>535</v>
+      </c>
+      <c r="B51" s="408" t="s">
+        <v>650</v>
       </c>
       <c r="C51" s="283">
         <v>34.072747000000007</v>
@@ -18616,10 +18610,10 @@
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="283">
         <v>52.546158750000004</v>
@@ -18663,10 +18657,10 @@
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C53" s="283">
         <v>51.594872000000009</v>
@@ -18710,10 +18704,10 @@
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>538</v>
-      </c>
-      <c r="B54" s="471" t="s">
-        <v>671</v>
+        <v>535</v>
+      </c>
+      <c r="B54" s="408" t="s">
+        <v>668</v>
       </c>
       <c r="C54" s="283">
         <v>35.602207</v>
@@ -18757,10 +18751,10 @@
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C55" s="283">
         <v>52.289281500000001</v>
@@ -18804,10 +18798,10 @@
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="283">
         <v>51.912159499999994</v>
@@ -18851,10 +18845,10 @@
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>538</v>
-      </c>
-      <c r="B57" s="471" t="s">
-        <v>672</v>
+        <v>535</v>
+      </c>
+      <c r="B57" s="408" t="s">
+        <v>669</v>
       </c>
       <c r="C57" s="283">
         <v>34.257235000000001</v>
@@ -18898,10 +18892,10 @@
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C58" s="283">
         <v>76.872484500000013</v>
@@ -18945,7 +18939,7 @@
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B59" s="114" t="s">
         <v>329</v>
@@ -18992,7 +18986,7 @@
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B60" s="114" t="s">
         <v>330</v>
@@ -19039,10 +19033,10 @@
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>538</v>
-      </c>
-      <c r="B61" s="471" t="s">
-        <v>673</v>
+        <v>535</v>
+      </c>
+      <c r="B61" s="408" t="s">
+        <v>670</v>
       </c>
       <c r="C61" s="283">
         <v>40.831069499999998</v>
@@ -19086,10 +19080,10 @@
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B62" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C62" s="283">
         <v>68.95104649999999</v>
@@ -19133,10 +19127,10 @@
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C63" s="283">
         <v>76.684619999999995</v>
@@ -19180,10 +19174,10 @@
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B64" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C64" s="283">
         <v>76.987012750000005</v>
@@ -19227,10 +19221,10 @@
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C65" s="283">
         <v>76.784303750000007</v>
@@ -19274,10 +19268,10 @@
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="283">
         <v>78.216138000000001</v>
@@ -19321,10 +19315,10 @@
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B67" s="114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" s="283">
         <v>52.68027275</v>
@@ -19368,10 +19362,10 @@
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B68" s="114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" s="283">
         <v>51.605309750000004</v>
@@ -19415,10 +19409,10 @@
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" s="283">
         <v>76.450660499999998</v>
@@ -19646,7 +19640,7 @@
       <c r="J3" s="105"/>
       <c r="K3" s="99"/>
       <c r="L3" s="246" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19661,7 +19655,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="101"/>
       <c r="L4" s="106" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19669,14 +19663,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -19684,28 +19678,28 @@
       <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="438" t="s">
+      <c r="B6" s="444" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="410"/>
-      <c r="D6" s="410"/>
-      <c r="E6" s="410"/>
-      <c r="F6" s="411"/>
-      <c r="G6" s="410" t="s">
+      <c r="C6" s="425"/>
+      <c r="D6" s="425"/>
+      <c r="E6" s="425"/>
+      <c r="F6" s="426"/>
+      <c r="G6" s="425" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="410"/>
-      <c r="I6" s="410"/>
-      <c r="J6" s="410"/>
-      <c r="K6" s="410"/>
-      <c r="L6" s="437"/>
+      <c r="H6" s="425"/>
+      <c r="I6" s="425"/>
+      <c r="J6" s="425"/>
+      <c r="K6" s="425"/>
+      <c r="L6" s="443"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -19764,22 +19758,22 @@
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
-      <c r="C10" s="455" t="s">
+      <c r="C10" s="461" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="456"/>
-      <c r="E10" s="456"/>
-      <c r="F10" s="456"/>
-      <c r="G10" s="457"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="463"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="458" t="s">
+      <c r="I10" s="464" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="446" t="s">
+      <c r="J10" s="452" t="s">
         <v>274</v>
       </c>
-      <c r="K10" s="447"/>
-      <c r="L10" s="448"/>
+      <c r="K10" s="453"/>
+      <c r="L10" s="454"/>
     </row>
     <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
@@ -19803,10 +19797,10 @@
       <c r="H11" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="459"/>
-      <c r="J11" s="449"/>
-      <c r="K11" s="450"/>
-      <c r="L11" s="451"/>
+      <c r="I11" s="465"/>
+      <c r="J11" s="455"/>
+      <c r="K11" s="456"/>
+      <c r="L11" s="457"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="88" t="s">
@@ -19830,63 +19824,63 @@
       <c r="H12" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="460"/>
-      <c r="J12" s="452"/>
-      <c r="K12" s="453"/>
-      <c r="L12" s="454"/>
+      <c r="I12" s="466"/>
+      <c r="J12" s="458"/>
+      <c r="K12" s="459"/>
+      <c r="L12" s="460"/>
     </row>
     <row r="13" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="443" t="s">
+      <c r="B13" s="449" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="444"/>
-      <c r="D13" s="444"/>
-      <c r="E13" s="444"/>
-      <c r="F13" s="444"/>
-      <c r="G13" s="444"/>
-      <c r="H13" s="444"/>
-      <c r="I13" s="444"/>
-      <c r="J13" s="444"/>
-      <c r="K13" s="444"/>
-      <c r="L13" s="445"/>
+      <c r="C13" s="450"/>
+      <c r="D13" s="450"/>
+      <c r="E13" s="450"/>
+      <c r="F13" s="450"/>
+      <c r="G13" s="450"/>
+      <c r="H13" s="450"/>
+      <c r="I13" s="450"/>
+      <c r="J13" s="450"/>
+      <c r="K13" s="450"/>
+      <c r="L13" s="451"/>
     </row>
     <row r="14" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="324" t="s">
+        <v>551</v>
+      </c>
+      <c r="B14" s="324" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" s="324" t="s">
+        <v>552</v>
+      </c>
+      <c r="D14" s="324" t="s">
+        <v>553</v>
+      </c>
+      <c r="E14" s="324" t="s">
         <v>554</v>
       </c>
-      <c r="B14" s="324" t="s">
-        <v>530</v>
-      </c>
-      <c r="C14" s="324" t="s">
+      <c r="F14" s="324" t="s">
         <v>555</v>
       </c>
-      <c r="D14" s="324" t="s">
+      <c r="G14" s="324" t="s">
         <v>556</v>
       </c>
-      <c r="E14" s="324" t="s">
+      <c r="H14" s="324" t="s">
         <v>557</v>
       </c>
-      <c r="F14" s="324" t="s">
+      <c r="I14" s="324" t="s">
+        <v>532</v>
+      </c>
+      <c r="J14" s="324" t="s">
         <v>558</v>
-      </c>
-      <c r="G14" s="324" t="s">
-        <v>559</v>
-      </c>
-      <c r="H14" s="324" t="s">
-        <v>560</v>
-      </c>
-      <c r="I14" s="324" t="s">
-        <v>535</v>
-      </c>
-      <c r="J14" s="324" t="s">
-        <v>561</v>
       </c>
       <c r="K14" s="326"/>
       <c r="L14" s="327"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B15" s="114" t="s">
         <v>307</v>
@@ -19918,7 +19912,7 @@
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B16" s="114" t="s">
         <v>308</v>
@@ -19950,7 +19944,7 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B17" s="114" t="s">
         <v>309</v>
@@ -19982,7 +19976,7 @@
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B18" s="114" t="s">
         <v>310</v>
@@ -20014,7 +20008,7 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B19" s="114" t="s">
         <v>311</v>
@@ -20046,7 +20040,7 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B20" s="114" t="s">
         <v>312</v>
@@ -20078,7 +20072,7 @@
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B21" s="114" t="s">
         <v>313</v>
@@ -20110,7 +20104,7 @@
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B22" s="114" t="s">
         <v>314</v>
@@ -20142,7 +20136,7 @@
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B23" s="114" t="s">
         <v>315</v>
@@ -20174,7 +20168,7 @@
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B24" s="114" t="s">
         <v>316</v>
@@ -20206,7 +20200,7 @@
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B25" s="114" t="s">
         <v>317</v>
@@ -20238,7 +20232,7 @@
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B26" s="114" t="s">
         <v>318</v>
@@ -20270,7 +20264,7 @@
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>319</v>
@@ -20302,7 +20296,7 @@
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B28" s="114" t="s">
         <v>320</v>
@@ -20334,7 +20328,7 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B29" s="114" t="s">
         <v>321</v>
@@ -20366,7 +20360,7 @@
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B30" s="114" t="s">
         <v>322</v>
@@ -20398,7 +20392,7 @@
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B31" s="114" t="s">
         <v>323</v>
@@ -20430,10 +20424,10 @@
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="114" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C32" s="288">
         <v>22.5</v>
@@ -20462,7 +20456,7 @@
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B33" s="270" t="s">
         <v>297</v>
@@ -20494,7 +20488,7 @@
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B34" s="114" t="s">
         <v>298</v>
@@ -20526,7 +20520,7 @@
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>324</v>
@@ -20558,7 +20552,7 @@
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B36" s="114" t="s">
         <v>325</v>
@@ -20590,7 +20584,7 @@
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B37" s="114" t="s">
         <v>326</v>
@@ -20622,7 +20616,7 @@
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B38" s="114" t="s">
         <v>327</v>
@@ -20654,7 +20648,7 @@
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B39" s="379" t="s">
         <v>328</v>
@@ -20686,10 +20680,10 @@
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B40" s="389" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C40" s="390">
         <v>579.14</v>
@@ -20718,10 +20712,10 @@
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B41" s="470" t="s">
-        <v>643</v>
+        <v>535</v>
+      </c>
+      <c r="B41" s="407" t="s">
+        <v>640</v>
       </c>
       <c r="C41" s="300">
         <v>28.6</v>
@@ -20750,10 +20744,10 @@
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B42" s="470" t="s">
-        <v>644</v>
+        <v>535</v>
+      </c>
+      <c r="B42" s="407" t="s">
+        <v>641</v>
       </c>
       <c r="C42" s="300">
         <v>25.68</v>
@@ -20782,10 +20776,10 @@
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B43" s="470" t="s">
-        <v>645</v>
+        <v>535</v>
+      </c>
+      <c r="B43" s="407" t="s">
+        <v>642</v>
       </c>
       <c r="C43" s="300">
         <v>25.45</v>
@@ -20814,10 +20808,10 @@
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B44" s="470" t="s">
-        <v>646</v>
+        <v>535</v>
+      </c>
+      <c r="B44" s="407" t="s">
+        <v>643</v>
       </c>
       <c r="C44" s="300">
         <v>25.21</v>
@@ -20846,10 +20840,10 @@
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B45" s="470" t="s">
-        <v>647</v>
+        <v>535</v>
+      </c>
+      <c r="B45" s="407" t="s">
+        <v>644</v>
       </c>
       <c r="C45" s="300">
         <v>28.71</v>
@@ -20878,10 +20872,10 @@
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B46" s="470" t="s">
-        <v>648</v>
+        <v>535</v>
+      </c>
+      <c r="B46" s="407" t="s">
+        <v>645</v>
       </c>
       <c r="C46" s="300">
         <v>28.36</v>
@@ -20910,10 +20904,10 @@
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B47" s="470" t="s">
-        <v>649</v>
+        <v>535</v>
+      </c>
+      <c r="B47" s="407" t="s">
+        <v>646</v>
       </c>
       <c r="C47" s="300">
         <v>28.48</v>
@@ -20942,10 +20936,10 @@
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B48" s="470" t="s">
-        <v>650</v>
+        <v>535</v>
+      </c>
+      <c r="B48" s="407" t="s">
+        <v>647</v>
       </c>
       <c r="C48" s="300">
         <v>28.93</v>
@@ -20974,10 +20968,10 @@
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="470" t="s">
-        <v>651</v>
+        <v>535</v>
+      </c>
+      <c r="B49" s="407" t="s">
+        <v>648</v>
       </c>
       <c r="C49" s="300">
         <v>25.56</v>
@@ -21006,10 +21000,10 @@
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B50" s="470" t="s">
-        <v>652</v>
+        <v>535</v>
+      </c>
+      <c r="B50" s="407" t="s">
+        <v>649</v>
       </c>
       <c r="C50" s="300">
         <v>24.730000000000004</v>
@@ -21038,10 +21032,10 @@
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B51" s="471" t="s">
-        <v>653</v>
+        <v>535</v>
+      </c>
+      <c r="B51" s="408" t="s">
+        <v>650</v>
       </c>
       <c r="C51" s="300">
         <v>24.28</v>
@@ -21070,10 +21064,10 @@
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="300">
         <v>37.880000000000003</v>
@@ -21102,10 +21096,10 @@
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C53" s="300">
         <v>37.14</v>
@@ -21134,10 +21128,10 @@
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B54" s="471" t="s">
-        <v>671</v>
+        <v>535</v>
+      </c>
+      <c r="B54" s="408" t="s">
+        <v>668</v>
       </c>
       <c r="C54" s="300">
         <v>25.370000000000005</v>
@@ -21166,10 +21160,10 @@
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C55" s="300">
         <v>37.65</v>
@@ -21198,10 +21192,10 @@
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="300">
         <v>37.409999999999997</v>
@@ -21230,10 +21224,10 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B57" s="471" t="s">
-        <v>672</v>
+        <v>535</v>
+      </c>
+      <c r="B57" s="408" t="s">
+        <v>669</v>
       </c>
       <c r="C57" s="300">
         <v>24.450000000000003</v>
@@ -21262,10 +21256,10 @@
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C58" s="300">
         <v>54.21</v>
@@ -21294,7 +21288,7 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B59" s="114" t="s">
         <v>329</v>
@@ -21326,7 +21320,7 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B60" s="114" t="s">
         <v>330</v>
@@ -21358,10 +21352,10 @@
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="114" t="s">
-        <v>538</v>
-      </c>
-      <c r="B61" s="471" t="s">
-        <v>673</v>
+        <v>535</v>
+      </c>
+      <c r="B61" s="408" t="s">
+        <v>670</v>
       </c>
       <c r="C61" s="300">
         <v>28.990000000000002</v>
@@ -21390,10 +21384,10 @@
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B62" s="114" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C62" s="300">
         <v>48.83</v>
@@ -21422,10 +21416,10 @@
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C63" s="300">
         <v>54.04</v>
@@ -21454,10 +21448,10 @@
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B64" s="114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C64" s="300">
         <v>54.31</v>
@@ -21486,10 +21480,10 @@
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C65" s="300">
         <v>54.13</v>
@@ -21518,10 +21512,10 @@
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="300">
         <v>54.99</v>
@@ -21550,10 +21544,10 @@
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B67" s="114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" s="300">
         <v>37.97</v>
@@ -21582,10 +21576,10 @@
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B68" s="114" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C68" s="300">
         <v>37.14</v>
@@ -21614,10 +21608,10 @@
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="114" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C69" s="300">
         <v>53.710000000000008</v>
@@ -21871,7 +21865,7 @@
       <c r="E4" s="331"/>
       <c r="F4" s="332"/>
       <c r="G4" s="339" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="H4" s="363"/>
       <c r="I4"/>
@@ -21899,10 +21893,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="347" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C5" s="340" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D5" s="340"/>
       <c r="E5" s="341"/>
@@ -21966,7 +21960,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="348" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C7" s="366" t="s">
         <v>2</v>
@@ -22118,94 +22112,94 @@
         <v>270</v>
       </c>
       <c r="G11" s="320" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H11" s="320" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="370" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="370" t="s">
+        <v>604</v>
+      </c>
+      <c r="C12" s="370" t="s">
+        <v>605</v>
+      </c>
+      <c r="D12" s="370" t="s">
         <v>606</v>
       </c>
-      <c r="B12" s="370" t="s">
+      <c r="E12" s="370" t="s">
         <v>607</v>
       </c>
-      <c r="C12" s="370" t="s">
+      <c r="F12" s="370" t="s">
         <v>608</v>
       </c>
-      <c r="D12" s="370" t="s">
+      <c r="G12" s="370" t="s">
         <v>609</v>
       </c>
-      <c r="E12" s="370" t="s">
+      <c r="H12" s="370" t="s">
         <v>610</v>
       </c>
-      <c r="F12" s="370" t="s">
-        <v>611</v>
-      </c>
-      <c r="G12" s="370" t="s">
-        <v>612</v>
-      </c>
-      <c r="H12" s="370" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="408" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:27" ht="156" x14ac:dyDescent="0.15">
       <c r="A13" s="320" t="s">
         <v>286</v>
       </c>
       <c r="B13" s="320" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C13" s="320" t="s">
+        <v>562</v>
+      </c>
+      <c r="D13" s="320" t="s">
         <v>565</v>
       </c>
-      <c r="D13" s="320" t="s">
-        <v>568</v>
-      </c>
       <c r="E13" s="320" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F13" s="320" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G13" s="320" t="s">
         <v>295</v>
       </c>
       <c r="H13" s="320" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="156" x14ac:dyDescent="0.15">
       <c r="C14" s="320" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="320" t="s">
         <v>566</v>
       </c>
-      <c r="D14" s="320" t="s">
-        <v>569</v>
-      </c>
       <c r="E14" s="320" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F14" s="320"/>
       <c r="G14" s="320"/>
       <c r="H14" s="320" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="C15" s="469" t="s">
+      <c r="C15" s="406" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="406" t="s">
         <v>567</v>
       </c>
-      <c r="D15" s="469" t="s">
-        <v>570</v>
-      </c>
       <c r="E15" s="320" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F15" s="320"/>
       <c r="G15" s="320"/>
       <c r="H15" s="320" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="288" x14ac:dyDescent="0.15">
@@ -22213,7 +22207,7 @@
       <c r="C16" s="320"/>
       <c r="D16" s="320"/>
       <c r="E16" s="320" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F16" s="320"/>
       <c r="G16" s="320"/>
@@ -22224,7 +22218,7 @@
       <c r="C17" s="320"/>
       <c r="D17" s="320"/>
       <c r="E17" s="320" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F17" s="320"/>
       <c r="G17" s="320"/>
@@ -22235,7 +22229,7 @@
       <c r="C18" s="320"/>
       <c r="D18" s="320"/>
       <c r="E18" s="320" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F18" s="320"/>
       <c r="G18" s="320"/>
@@ -22246,7 +22240,7 @@
       <c r="C19" s="320"/>
       <c r="D19" s="320"/>
       <c r="E19" s="320" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F19" s="320"/>
       <c r="G19" s="320"/>
@@ -22257,7 +22251,7 @@
       <c r="C20" s="320"/>
       <c r="D20" s="320"/>
       <c r="E20" s="320" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F20" s="320"/>
       <c r="G20" s="320"/>
@@ -22268,7 +22262,7 @@
       <c r="C21" s="320"/>
       <c r="D21" s="320"/>
       <c r="E21" s="320" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F21" s="320"/>
       <c r="G21" s="320"/>
@@ -22279,7 +22273,7 @@
       <c r="C22" s="320"/>
       <c r="D22" s="320"/>
       <c r="E22" s="320" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F22" s="320"/>
       <c r="G22" s="320"/>
@@ -22289,8 +22283,8 @@
       <c r="A23" s="320"/>
       <c r="C23" s="320"/>
       <c r="D23" s="320"/>
-      <c r="E23" s="469" t="s">
-        <v>668</v>
+      <c r="E23" s="406" t="s">
+        <v>665</v>
       </c>
       <c r="F23" s="320"/>
       <c r="G23" s="320"/>
@@ -22300,8 +22294,8 @@
       <c r="A24" s="320"/>
       <c r="C24" s="320"/>
       <c r="D24" s="320"/>
-      <c r="E24" s="469" t="s">
-        <v>669</v>
+      <c r="E24" s="406" t="s">
+        <v>666</v>
       </c>
       <c r="F24" s="320"/>
       <c r="G24" s="320"/>
@@ -22311,8 +22305,8 @@
       <c r="A25" s="320"/>
       <c r="C25" s="320"/>
       <c r="D25" s="320"/>
-      <c r="E25" s="469" t="s">
-        <v>670</v>
+      <c r="E25" s="406" t="s">
+        <v>667</v>
       </c>
       <c r="F25" s="320"/>
       <c r="G25" s="320"/>
@@ -22323,7 +22317,7 @@
       <c r="C26" s="320"/>
       <c r="D26" s="320"/>
       <c r="E26" s="320" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F26" s="320"/>
       <c r="G26" s="320"/>
@@ -22576,7 +22570,7 @@
       <c r="B3" s="378"/>
       <c r="C3" s="378"/>
       <c r="D3" s="378" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22584,7 +22578,7 @@
       <c r="B4" s="378"/>
       <c r="C4" s="378"/>
       <c r="D4" s="378" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22592,10 +22586,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="378" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C5" s="378" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D5" s="378"/>
     </row>
@@ -22614,7 +22608,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="378" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C7" s="378" t="s">
         <v>2</v>
@@ -22673,16 +22667,16 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="350" t="s">
+        <v>568</v>
+      </c>
+      <c r="B12" s="350" t="s">
+        <v>569</v>
+      </c>
+      <c r="C12" s="350" t="s">
+        <v>570</v>
+      </c>
+      <c r="D12" s="350" t="s">
         <v>571</v>
-      </c>
-      <c r="B12" s="350" t="s">
-        <v>572</v>
-      </c>
-      <c r="C12" s="350" t="s">
-        <v>573</v>
-      </c>
-      <c r="D12" s="350" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22692,135 +22686,135 @@
       <c r="B13" s="319"/>
       <c r="C13" s="319"/>
       <c r="D13" s="319" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B14" s="319" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C14" s="319"/>
       <c r="D14" s="319"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D15" s="319"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C16" s="319"/>
       <c r="D16" s="319"/>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C17" s="319"/>
       <c r="D17" s="319"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D18" s="319"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C19" s="319"/>
       <c r="D19" s="319"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D20" s="319"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B21" s="319" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C21" s="319"/>
       <c r="D21" s="319"/>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="319" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="319" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="319" t="s">
         <v>367</v>
-      </c>
-      <c r="B22" s="319" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="319" t="s">
-        <v>369</v>
-      </c>
-      <c r="D22" s="319" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" s="319" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" s="319" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" s="319" t="s">
         <v>371</v>
-      </c>
-      <c r="B23" s="319" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="319" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="319" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B24" s="319" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C24" s="319" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D24" s="319" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22828,13 +22822,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="319" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C25" s="319" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D25" s="319" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22842,7 +22836,7 @@
         <v>290</v>
       </c>
       <c r="B26" s="319" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C26" s="319"/>
       <c r="D26" s="351"/>
@@ -22852,20 +22846,20 @@
         <v>120</v>
       </c>
       <c r="B27" s="319" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C27" s="319"/>
       <c r="D27" s="351"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="319" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B28" s="319" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C28" s="319" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D28" s="351"/>
     </row>
@@ -22874,10 +22868,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="319" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C29" s="319" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D29" s="351"/>
     </row>
@@ -22969,7 +22963,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22979,11 +22973,11 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -23003,7 +22997,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -23069,76 +23063,76 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" s="352" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>574</v>
+      </c>
+      <c r="D12" s="352" t="s">
         <v>575</v>
       </c>
-      <c r="B12" s="352" t="s">
+      <c r="E12" s="352" t="s">
         <v>576</v>
       </c>
-      <c r="C12" s="352" t="s">
-        <v>577</v>
-      </c>
-      <c r="D12" s="352" t="s">
-        <v>578</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>579</v>
-      </c>
       <c r="F12" s="352" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="319" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="319" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="319" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="319" t="s">
         <v>387</v>
-      </c>
-      <c r="B13" s="319" t="s">
-        <v>388</v>
-      </c>
-      <c r="C13" s="319" t="s">
-        <v>389</v>
-      </c>
-      <c r="D13" s="319" t="s">
-        <v>390</v>
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="319" t="s">
+        <v>389</v>
+      </c>
+      <c r="C14" s="319" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="319" t="s">
         <v>391</v>
-      </c>
-      <c r="B14" s="319" t="s">
-        <v>392</v>
-      </c>
-      <c r="C14" s="319" t="s">
-        <v>393</v>
-      </c>
-      <c r="D14" s="319" t="s">
-        <v>394</v>
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B15" s="319" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C15" s="319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D15" s="319" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23146,35 +23140,35 @@
         <v>301</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C16" s="319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D16" s="319" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C17" s="319" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D17" s="319" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23182,53 +23176,53 @@
         <v>291</v>
       </c>
       <c r="B18" s="319" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="319" t="s">
         <v>397</v>
       </c>
-      <c r="C18" s="319" t="s">
-        <v>400</v>
-      </c>
       <c r="D18" s="319" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C19" s="319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D19" s="319" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D20" s="319" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/pre_cri/data/base_real_ajustada.xlsx
+++ b/pre_cri/data/base_real_ajustada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="886" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EADA1E-5C69-4A21-88CA-C4B9B09FF819}"/>
+  <xr:revisionPtr revIDLastSave="892" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{093C6961-12D4-4ECE-A419-AE3FD59A17C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="10" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="6" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="informacoes_preliminares" sheetId="11" r:id="rId1"/>
@@ -1514,9 +1514,6 @@
     <t>Subcondomínio Estacionamento: 208 (duzentos e oito) vagas</t>
   </si>
   <si>
-    <t>Subcondomínio Residencial: 882 (oitocentos e oitenta e dois) apartamentos</t>
-  </si>
-  <si>
     <t>Piscina coberta</t>
   </si>
   <si>
@@ -1775,333 +1772,337 @@
     <t>Subcondomínio Galeria: 08 (oito) lojas no térreo, sendo 04 (quatro) lojas com mezanino</t>
   </si>
   <si>
-    <t>Subcondomínio Residencial: 38 (trinta e oito) apartamentos no 3º, 4º, 5º, 15º e 16º pavimento, 36 (trinta e seis) apartamentos do 6º ao 14º e 17º pavimento, 24 (vinte e quatro) apartamentos do 18º ao 25º pavimento e 20 (vinte) apartamentos do 26º ao 32º pavimento</t>
-  </si>
-  <si>
     <t>Subcondomínio Estacionamento: vagas 01, 02, 03, 04, 05, 06, 07, 08, 09, 10, 11, 12, 13, 14, 15, 16, 18/17, 20/19, 22/21, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 80/79, 82/81, 84/83, 86/85, 88/87, 90/89, 92/91, 94/93, 95, 96, 97, 98, 99, 100, 101, 102/103, 104/105, 106/107, 108/109, 110/111, 113/112, 114/115, 116/117, 118/119, 120/121, 122, 123, 124, 125/126, 127/128, 129/130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146/147, 148/149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174/175, 176/177, 178/179, 180/181, 182/183, 184/185, 186/187, 188/189, 190, 191, 192, 193, 194, 195, 196, 197/198, 199/200, 201/202, 203/204, 205/206, 207/208, 209/210, 211/212, 213/214, 215/216, 217, 218, 219, 220/221, 222/223, 224/225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241/242, 243/244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256 e 257</t>
   </si>
   <si>
     <t>Subcondomínio Galeria: lojas 01, 02, 03, 04, 05, 06, 07 e 08</t>
   </si>
   <si>
-    <t xml:space="preserve">Subcondomínio Residencial: apartamentos 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 601, 602, 603, 604, 605, 606, 607, 608, 609, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 630, 631, 632, 633, 634, 635, 636, 637, 638, 701, 702, 703, 704, 705, 706, 707, 708, 709, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 730, 731, 732, 733, 734, 735, 736, 737, 738, 801, 802, 803, 804, 805, 806, 807, 808, 809, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 830, 831, 832, 833, 834, 835, 836, 837, 838, 901, 902, 903, 904, 905, 906, 907, 908, 909, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 930, 931, 932, 933, 934, 935, 936, 937, 938, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1801, 1803, 1806, 1807, 1808, 1809, 1811, 1812, 1813, 1814, 1816, 1819, 1820, 1822, 1825, 1826, 1827, 1828, 1830, 1831, 1832, 1833, 1835, 1838, 1901, 1903, 1906, 1907, 1908, 1909, 1911, 1912, 1913, 1914, 1916, 1919, 1920, 1922, 1925, 1926, 1927, 1928, 1930, 1931, 1932, 1933, 1935, 1938, 2001, 2003, 2006, 2007, 2008, 2009, 2011, 2012, 2013, 2014, 2016, 2019, 2020, 2022, 2025, 2026, 2027, 2028, 2030, 2031, 2032, 2033, 2035, 2038, 2101, 2103, 2106, 2107, 2108, 2109, 2111, 2112, 2113, 2114, 2116, 2119, 2120, 2122, 2125, 2126, 2127, 2128, 2130, 2131, 2132, 2133, 2135, 2138, 2201, 2203, 2206, 2207, 2208, 2209, 2211, 2212, 2213, 2214, 2216, 2219, 2220, 2222, 2225, 2226, 2227, 2228, 2230, 2231, 2232, 2233, 2235, 2238, 2301, 2303, 2306, 2307, 2308, 2309, 2311, 2312, 2313, 2314, 2316, 2319, 2320, 2322, 2325, 2326, 2327, 2328, 2330, 2331, 2332, 2333, 2335, 2338, 2401, 2403, 2406, 2407, 2408, 2409, 2411, 2412, 2413, 2414, 2416, 2419, 2420, 2422, 2425, 2426, 2427, 2428, 2430, 2431, 2432, 2433, 2435, 2438, 2501, 2503, 2506, 2507, 2508, 2509, 2511, 2512, 2513, 2514, 2516, 2519, 2520, 2522, 2525, 2526, 2527, 2528, 2530, 2531, 2532, 2533, 2535, 2538, 2601, 2603, 2606, 2607, 2609, 2611, 2613, 2614, 2616, 2619, 2620, 2622, 2625, 2626, 2628, 2630, 2632, 2633, 2635, 2638, 2701, 2703, 2706, 2707, 2709, 2711, 2713, 2714, 2716, 2719, 2720, 2722, 2725, 2726, 2728, 2730, 2732, 2733, 2735, 2738, 2801, 2803, 2806, 2807, 2809, 2811, 2813, 2814, 2816, 2819, 2820, 2822, 2825, 2826, 2828, 2830, 2832, 2833, 2835, 2838, 2901, 2903, 2906, 2907, 2909, 2911, 2913, 2914, 2916, 2919, 2920, 2922, 2925, 2926, 2928, 2930, 2932, 2933, 2935, 2938, 3001, 3003, 3006, 3007, 3009, 3011, 3013, 3014, 3016, 3019, 3020, 3022, 3025, 3026, 3028, 3030, 3032, 3033, 3035, 3038, 3101, 3103, 3106, 3107, 3109, 3111, 3113, 3114, 3116, 3119, 3120, 3122, 3125, 3126, 3128, 3130, 3132, 3133, 3135, 3138, 3201, 3203, 3206, 3207, 3209, 3211, 3213, 3214, 3216, 3219, 3220, 3222, 3225, 3226, 3228, 3230, 3232, 3233, 3235 e 3238
+    <t>equipamentos_genero</t>
+  </si>
+  <si>
+    <t>equipamentos_especie</t>
+  </si>
+  <si>
+    <t>equipamentos_acabamento</t>
+  </si>
+  <si>
+    <t>equipamentos_detalhes_gerais</t>
+  </si>
+  <si>
+    <t>dependencias</t>
+  </si>
+  <si>
+    <t>pisos</t>
+  </si>
+  <si>
+    <t>paredes</t>
+  </si>
+  <si>
+    <t>tetos</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>area_alvara_privativa</t>
+  </si>
+  <si>
+    <t>area_alvara_deposito_vinculado</t>
+  </si>
+  <si>
+    <t>area_alvara_comum</t>
+  </si>
+  <si>
+    <t>area_alvara_total</t>
+  </si>
+  <si>
+    <t>fracao_ideal_solo_subcondominio</t>
+  </si>
+  <si>
+    <t>area_comum_descoberta</t>
+  </si>
+  <si>
+    <t>area_total</t>
+  </si>
+  <si>
+    <t>quota_terreno</t>
+  </si>
+  <si>
+    <t>numeros_unidades</t>
+  </si>
+  <si>
+    <t>Vagas 01, 02, 03, 08, 10, 11, 13, 25, 28, 31, 32, 33, 38 a 43, 46, 47, 48, 55, 56, 68, 69, 70, 75, 77, 78, 133 a 138, 143, 144, 145, 152 a 157, 160, 161, 162, 172, 173, 228 a 233, 238, 239, 240, 247 a 252, 255, 256 e 257</t>
+  </si>
+  <si>
+    <t>Vagas 4, 5, 6, 7, 9, 12, 23, 24, 26, 27, 29, 30, 34, 35, 36, 37, 44, 45, 49, 50, 57, 58, 71 a 74, 76, 95 a 101, 131, 132, 139, 140, 141, 142, 150, 151, 158, 159, 163 a 171, 190 a 196, 226, 227, 234 a 237, 245, 246, 253 e 254</t>
+  </si>
+  <si>
+    <t>Vagas 80/79, 86/85, 116/117, 118/119, 174/175 e 180/181</t>
+  </si>
+  <si>
+    <t>Vagas 18/17, 20/19, 22/21, 92/91, 94/93, 110/111, 113/112, 114/115, 127/128, 129/130, 186/187, 188/189, 205/206, 207/208, 209/210, 211/212, 213/214, 222/223 e 224/225</t>
+  </si>
+  <si>
+    <t>Vagas 102/103, 104/105, 106/107, 108/109, 146/147, 148/149, 197/198, 199/200, 201/202, 203/204, 241/242 e 243/244</t>
+  </si>
+  <si>
+    <t>Vaga/dep 82/81 e 176/177</t>
+  </si>
+  <si>
+    <t>Vaga/dep 84/83 e 178/179</t>
+  </si>
+  <si>
+    <t>Vaga/dep 88/87 e 182/183</t>
+  </si>
+  <si>
+    <t>Vaga/dep 90/89 e 184/185</t>
+  </si>
+  <si>
+    <t>Vaga/dep 120/121</t>
+  </si>
+  <si>
+    <t>Vaga/dep 122 e 217</t>
+  </si>
+  <si>
+    <t>Vaga/dep 123 e 218</t>
+  </si>
+  <si>
+    <t>Vaga/dep 124 e 219</t>
+  </si>
+  <si>
+    <t>Vaga/dep 125/126 e 220/221</t>
+  </si>
+  <si>
+    <t>Vaga/dep 215/216</t>
+  </si>
+  <si>
+    <t>g) Outras indicações (numero de blocos):</t>
+  </si>
+  <si>
+    <t>g) Outras indicações (total de unidades autônomas):</t>
+  </si>
+  <si>
+    <t>edificacao_tipo</t>
+  </si>
+  <si>
+    <t>edificacao_pavimento</t>
+  </si>
+  <si>
+    <t>edificacao_quantidade_unidades_por_pavimentos</t>
+  </si>
+  <si>
+    <t>edificacao_indicacao_unidades_por_pavimento</t>
+  </si>
+  <si>
+    <t>edificacao_descricao_pavimentos</t>
+  </si>
+  <si>
+    <t>alvara_construcao_data_emissao</t>
+  </si>
+  <si>
+    <t>edificacao_blocos</t>
+  </si>
+  <si>
+    <t>edificacao_quantidade_unidades_por_subcondominio</t>
+  </si>
+  <si>
+    <t>Pavimento térreo: 04 (quatro) acessos de pedestres comercial/residencial, sendo um pela Rua Cruz Machado, 02 (dois) pela Rua Visconde de Nacar e um pela Alameda Doutor Carlos de Carvalho; acesso embarque e desembarque de passageiros e port cochére comercial/residencial, saída de veículos estacionamento (rampa que sobe do subsolo 1) pela Rua Cruz Machado; acesso de veículos estacionamento (rampa que desce para subsolo 1) pela Alameda Doutor Carlos de Carvalho; rampas e escadas de acessos de pedestres, plataforma PNE, calçadas, jardins, lixeiras, rampa/eclusa serviço, eclusa/lockers, portaria com I.S., depósito encomendas, hall delivery, hall residencial, 10 (dez) elevadores, 03 (três) escadas de emergência, antecâmara, área técnica, galeria comercial e 08 (oito) lojas sob nº 01, 02, 03, 04, 05, 06, 07 e 08</t>
+  </si>
+  <si>
+    <t>Garagens: Estacionamento residencial coberto no subsolo 1, subsolo 2  e subsolo 3</t>
+  </si>
+  <si>
+    <t>Pavimentos comunitários: 2º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, 02 (dois) I.S’s, DML, 02 (dois) hall’s, jogos adulto, coworking, 02 (dois) I.S.’s A., gourmet 1, gourmet 2, lavanderia, sala de reunião, copa festas, salão de festas com 02 (dois) I.S.’s A., churrasqueira 1, churrasqueira 2 e 02 (dois) terraços/recreações descobertos</t>
+  </si>
+  <si>
+    <t>Pavimentos comunitários: Piso técnico: 09 (nove) elevadores (sem parada), 02 (duas) escadas de emergência e área técnica</t>
+  </si>
+  <si>
+    <t>Pavimentos comunitários: 33º pavimento: 09 (nove) elevadores, hall elevador, 02 (duas) escadas de emergência, escada serviço cobertura, hall, wellnes, sauna, piscina coberta, academia e recreação/área descoberta de lazer</t>
+  </si>
+  <si>
+    <t>Pavimentos comunitários: Na parte superior do edifício situam-se, ainda, o barrilete 1, barrilete 2, casa de máquinas dos elevadores e caixa d’água com 02 (dois) reservatórios</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: Mezanino: 10 (dez) elevadores (sem parada), 02 (duas) escadas de emergência (sem acesso), 03 (três) espaços técnicos e mezaninos das lojas nº 01, 02, 07 e 08</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 26º ao 32º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 20 (vinte) apartamentos</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 7</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 8</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 1</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 2</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 3</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 4</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 5</t>
+  </si>
+  <si>
+    <t>LOJA TIPO 6</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>5.1. COMPOSIÇÃO DO CUSTO GLOBAL BÁSICO DA EDIFICAÇÃO</t>
+  </si>
+  <si>
+    <t>9.4. PROJETOS ESPECIAIS</t>
+  </si>
+  <si>
+    <t>6.4. "PLAYGROUND"</t>
+  </si>
+  <si>
+    <t>Área equivalente total do projeto-padrão adotado (m²)</t>
+  </si>
+  <si>
+    <t>6.   PARCELAS ADICIONAIS NÃO CONSIDERADAS NO PROJETO-PADRÃO (R$):</t>
+  </si>
+  <si>
+    <t>5.   CUSTO GLOBAL DA EDIFICAÇÃO (4.6 X CUSTO UNITÁRIO BÁSICO(3)) (R$):</t>
+  </si>
+  <si>
+    <t>7.   1º SUBTOTAL (R$):</t>
+  </si>
+  <si>
+    <t>10.  2º SUBTOTAL (R$):</t>
+  </si>
+  <si>
+    <t>13.  CUSTO GLOBAL DA CONSTRUÇÃO (R$):</t>
+  </si>
+  <si>
+    <t>14.  CUSTO UNITÁRIO DA OBRA EM CÁLCULO [CUSTO TOTAL/ÁREA EQUIVALENTE(13)/(4.6)] (R$):</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 1</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 2</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 3</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 4</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 5</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 6</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 7</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 8</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 9</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 10</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 11</t>
+  </si>
+  <si>
+    <t>Kitinetes 1807, 1813, 1826, 1832, 1907, 1913, 1926, 1932, 2007, 2013, 2026, 2032, 2107, 2113, 2126, 2132, 2207, 2213, 2226, 2232, 2307, 2313, 2326, 2332, 2407, 2413, 2426, 2432, 2507, 2513, 2526 e 2532</t>
+  </si>
+  <si>
+    <t>Kitinetes 912, 931, 1012, 1031, 1112, 1131, 1212, 1231, 1312, 1331, 1412, 1431, 1511, 1512, 1530, 1531, 1611, 1612, 1630, 1631, 1712, 1731, 1812, 1831, 1912, 1931, 2012 e 2031</t>
+  </si>
+  <si>
+    <t>Kitinetes  908, 927, 1008, 1027, 1108, 1127, 1208, 1227, 1308, 1327, 1408, 1427, 1508, 1509, 1527, 1528, 1608, 1609, 1627, 1628, 1708, 1727, 1808, 1827, 1908, 1927,  2008 e 2027</t>
+  </si>
+  <si>
+    <t>Kitinetes 301, 319, 401, 419, 501, 519, 619, 719, 819, 919, 1019, 1101, 1119, 1201, 1219, 1301, 1319, 1401, 1419, 1519, 1619 e 1719</t>
+  </si>
+  <si>
+    <t>Kitinetes 302, 303, 315, 316, 321, 322, 334, 335, 402, 403, 415, 416, 421, 422, 434, 435, 502, 503, 515, 516, 521, 522, 534, 535, 603, 615, 616, 622, 634, 635, 703, 715, 716, 722, 734, 735, 803, 815, 816, 822, 834, 835, 903, 915, 916, 922, 934, 935, 1003, 1015, 1016, 1022, 1034, 1035, 1102, 1103, 1117, 1118, 1121, 1122, 1136, 1137, 1202, 1203, 1217, 1218, 1221, 1222, 1236, 1237, 1302, 1303, 1317, 1318, 1321, 1322, 1336, 1337, 1402, 1403, 1417, 1418, 1421, 1422, 1436, 1437, 1503, 1504, 1505, 1517, 1518, 1522, 1523, 1524, 1536, 1537, 1603, 1604, 1605, 1617, 1618, 1622, 1623, 1624, 1636, 1637,  1703, 1704, 1705, 1717, 1718, 1722, 1723, 1724, 1736 e 1737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitinetes  320, 338, 420, 438, 520, 538, 638, 738, 838, 938, 1038, 1120, 1138, 1220, 1238, 1320, 1338, 1420, 1438, 1538, 1638 e 1738 </t>
+  </si>
+  <si>
+    <t>Kitinetes 304, 305, 317, 318, 323, 324, 336, 337, 404, 405, 417, 418, 423, 424, 436, 437, 504, 505, 517, 518, 523, 524, 536, 537, 602, 604, 605, 617, 618, 621, 623, 624, 636, 637, 702, 704, 705, 717, 718, 721, 723, 724, 736, 737, 802, 804, 805, 817, 818, 821, 823, 824, 836, 837, 902, 904, 905, 917, 918, 921, 923, 924, 936, 937, 1002, 1004, 1005, 1017, 1018, 1021, 1023, 1024, 1036, 1037, 1104, 1105, 1115, 1116, 1123, 1124, 1134, 1135, 1204, 1205, 1215, 1216, 1223, 1224, 1234, 1235, 1304, 1305, 1315, 1316, 1323, 1324, 1334, 1335, 1404, 1405, 1415, 1416, 1423, 1424, 1434, 1435, 1502, 1515, 1516, 1521, 1534, 1535, 1602, 1615, 1616, 1621, 1634, 1635, 1702, 1715, 1716, 1721, 1734 e 1735</t>
+  </si>
+  <si>
+    <t>Kitinetes  306, 314, 325, 333, 406, 414, 425, 433, 506, 514, 525, 533, 606, 614, 625, 633, 706, 714, 725, 733, 806, 814, 825, 833, 906, 914, 925, 933, 1006, 1014, 1025, 1033, 1106, 1114, 1125, 1133, 1206, 1214, 1225, 1233, 1306, 1314, 1325, 1333, 1406, 1414, 1425, 1433, 1506, 1514, 1525, 1533, 1606, 1614, 1625, 1633, 1706, 1714, 1725 e 1733</t>
+  </si>
+  <si>
+    <t>Kitinetes  601, 701, 801, 901, 1001, 1501, 1601 e 1701</t>
+  </si>
+  <si>
+    <t>Kitinetes  620, 720, 820, 920, 1020, 1520, 1620 e 1720</t>
+  </si>
+  <si>
+    <t>Kitinetes 307, 313, 326, 332, 407, 413, 426, 432, 507, 513, 526, 532, 607, 613, 626, 632, 707, 713, 726, 732, 807, 813, 826, 832, 907, 913, 926, 932, 1007, 1013, 1026, 1032, 1107, 1113, 1126, 1132, 1207, 1213, 1226, 1232, 1307, 1313, 1326, 1332, 1407, 1413, 1426, 1432, 1507, 1513, 1526, 1532, 1607, 1613, 1626, 1632, 1707, 1713, 1726 e 1732</t>
+  </si>
+  <si>
+    <t>Kitinetes  308, 309, 327, 328, 408, 409, 427, 428, 508, 509, 527, 528, 608, 627, 708, 727, 808, 827, 2108, 2127, 2208, 2227, 2308, 2327, 2408, 2427, 2508 e 2527</t>
+  </si>
+  <si>
+    <t>Kitinetes 310, 329, 410, 429, 510, 529, 1510, 1529, 1610 e 1629</t>
+  </si>
+  <si>
+    <t>Kitinetes  311, 312, 330, 331, 411, 412, 430, 431, 511, 512, 530, 531, 612, 631, 712, 731, 812, 831, 2112, 2131, 2212, 2231, 2312, 2331, 2412, 2431, 2512 e 2531</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 3º, 4º, 5º, 15º e 16º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 38 (trinta e oito) kitinetes</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 6º ao 14º e 17º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações, 32 (trinta e duas) kitinetes e 04 (quatro) apartamentos</t>
+  </si>
+  <si>
+    <t>Outros pavimentos: 18º ao 25º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações, 08 (oito) kitinetes e 16 (dezesseis) apartamentos</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 14</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 17</t>
+  </si>
+  <si>
+    <t>KITINETE TIPO 21</t>
+  </si>
+  <si>
+    <t>Subcondomínio Residencial: 38 (trinta e oito) kitinetes no 3º, 4º, 5º, 15º e 16º pavimento; 32 (trinta e duas) kitinetes e 04 (quatro) apartamentos do 6º ao 14º e 17º pavimento; 08 (oito) kitinetes e 16 (dezesseis) apartamentos do 18º ao 25º pavimento; 20 (vinte) apartamentos do 26º ao 32º pavimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcondomínio Residencial: kitinetes nº 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 601, 602, 603, 604, 605, 606, 607, 608, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 631, 632, 633, 634, 635, 636, 637, 638, 701, 702, 703, 704, 705, 706, 707, 708, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 731, 732, 733, 734, 735, 736, 737, 738, 801, 802, 803, 804, 805, 806, 807, 808, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 831, 832, 833, 834, 835, 836, 837, 838, 901, 902, 903, 904, 905, 906, 907, 908, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 931, 932, 933, 934, 935, 936, 937, 938, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727,1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1807, 1808, 1812, 1813, 1826, 1827, 1831, 1832, 1907, 1908, 1912, 1913, 1926, 1927, 1931, 1932, 2007, 2008, 2012, 2013, 2026, 2027, 2031, 2032, 2107, 2108, 2112, 2113, 2126, 2127, 2131, 2132, 2207, 2208, 2212, 2213, 2226, 2227, 2231, 2232, 2307, 2308, 2312, 2313, 2326, 2327, 2331, 2332, 2407, 2408, 2412, 2413, 2426, 2427, 2431, 2432, 2507, 2508, 2512, 2513, 2526, 2527, 2531, 2532; apartamentos nº 609, 611, 628, 630, 709, 711, 728, 730, 809, 811, 828, 830, 909, 911, 928, 930, 1009, 1011, 1028, 1030, 1109, 1111, 1128, 1130, 1209, 1211, 1228, 1230, 1309, 1311, 1328, 1330, 1409, 1411, 1428, 1430, 1709, 1711, 1728, 1730, 1801, 1803, 1806, 1809, 1811, 1814, 1816, 1819, 1820, 1822, 1825, 1828, 1830, 1833, 1835, 1838, 1901, 1903, 1906, 1909, 1911, 1914, 1916, 1919, 1920, 1922, 1925, 1928, 1930, 1933, 1935, 1938, 2001, 2003, 2006, 2009, 2011,  2014, 2016, 2019, 2020, 2022, 2025, 2028, 2030, 2033, 2035, 2038, 2101, 2103, 2106, 2109, 2111, 2114, 2116, 2119, 2120, 2122, 2125, 2128, 2130, 2133, 2135, 2138, 2201, 2203, 2206, 2209, 2211, 2214, 2216, 2219, 2220, 2222, 2225, 2228, 2230, 2233, 2235, 2238, 2301, 2303, 2306, 2309, 2311, 2314, 2316, 2319, 2320, 2322, 2325, 2328, 2330, 2333, 2335, 2338, 2401, 2403, 2406, 2409, 2411, 2414, 2416, 2419, 2420, 2422, 2425, 2428, 2430, 2433, 2435, 2438, 2501, 2503, 2506, 2509, 2511, 2514, 2516, 2519, 2520, 2522, 2525, 2528, 2530, 2533, 2535, 2538, 2601, 2603, 2606, 2607, 2609, 2611, 2613, 2614, 2616, 2619, 2620, 2622, 2625, 2626, 2628, 2630, 2632, 2633, 2635, 2638, 2701, 2703, 2706, 2707, 2709, 2711, 2713, 2714, 2716, 2719, 2720, 2722, 2725, 2726, 2728, 2730, 2732, 2733, 2735, 2738, 2801, 2803, 2806, 2807, 2809, 2811, 2813, 2814, 2816, 2819, 2820, 2822, 2825, 2826, 2828, 2830, 2832, 2833, 2835, 2838, 2901, 2903, 2906, 2907, 2909, 2911, 2913, 2914, 2916, 2919, 2920, 2922, 2925, 2926, 2928, 2930, 2932, 2933, 2935, 2938, 3001, 3003, 3006, 3007, 3009, 3011, 3013, 3014, 3016, 3019, 3020, 3022, 3025, 3026, 3028, 3030, 3032, 3033, 3035, 3038, 3101, 3103, 3106, 3107, 3109, 3111, 3113, 3114, 3116, 3119, 3120, 3122, 3125, 3126, 3128, 3130, 3132, 3133, 3135, 3138, 3201, 3203, 3206, 3207, 3209, 3211, 3213, 3214, 3216, 3219, 3220, 3222, 3225, 3226, 3228, 3230, 3232, 3233, 3235 e 3238
 </t>
   </si>
   <si>
-    <t>equipamentos_genero</t>
-  </si>
-  <si>
-    <t>equipamentos_especie</t>
-  </si>
-  <si>
-    <t>equipamentos_acabamento</t>
-  </si>
-  <si>
-    <t>equipamentos_detalhes_gerais</t>
-  </si>
-  <si>
-    <t>dependencias</t>
-  </si>
-  <si>
-    <t>pisos</t>
-  </si>
-  <si>
-    <t>paredes</t>
-  </si>
-  <si>
-    <t>tetos</t>
-  </si>
-  <si>
-    <t>outros</t>
-  </si>
-  <si>
-    <t>area_alvara_privativa</t>
-  </si>
-  <si>
-    <t>area_alvara_deposito_vinculado</t>
-  </si>
-  <si>
-    <t>area_alvara_comum</t>
-  </si>
-  <si>
-    <t>area_alvara_total</t>
-  </si>
-  <si>
-    <t>fracao_ideal_solo_subcondominio</t>
-  </si>
-  <si>
-    <t>area_comum_descoberta</t>
-  </si>
-  <si>
-    <t>area_total</t>
-  </si>
-  <si>
-    <t>quota_terreno</t>
-  </si>
-  <si>
-    <t>numeros_unidades</t>
-  </si>
-  <si>
-    <t>Vagas 01, 02, 03, 08, 10, 11, 13, 25, 28, 31, 32, 33, 38 a 43, 46, 47, 48, 55, 56, 68, 69, 70, 75, 77, 78, 133 a 138, 143, 144, 145, 152 a 157, 160, 161, 162, 172, 173, 228 a 233, 238, 239, 240, 247 a 252, 255, 256 e 257</t>
-  </si>
-  <si>
-    <t>Vagas 4, 5, 6, 7, 9, 12, 23, 24, 26, 27, 29, 30, 34, 35, 36, 37, 44, 45, 49, 50, 57, 58, 71 a 74, 76, 95 a 101, 131, 132, 139, 140, 141, 142, 150, 151, 158, 159, 163 a 171, 190 a 196, 226, 227, 234 a 237, 245, 246, 253 e 254</t>
-  </si>
-  <si>
-    <t>Vagas 80/79, 86/85, 116/117, 118/119, 174/175 e 180/181</t>
-  </si>
-  <si>
-    <t>Vagas 18/17, 20/19, 22/21, 92/91, 94/93, 110/111, 113/112, 114/115, 127/128, 129/130, 186/187, 188/189, 205/206, 207/208, 209/210, 211/212, 213/214, 222/223 e 224/225</t>
-  </si>
-  <si>
-    <t>Vagas 102/103, 104/105, 106/107, 108/109, 146/147, 148/149, 197/198, 199/200, 201/202, 203/204, 241/242 e 243/244</t>
-  </si>
-  <si>
-    <t>Vaga/dep 82/81 e 176/177</t>
-  </si>
-  <si>
-    <t>Vaga/dep 84/83 e 178/179</t>
-  </si>
-  <si>
-    <t>Vaga/dep 88/87 e 182/183</t>
-  </si>
-  <si>
-    <t>Vaga/dep 90/89 e 184/185</t>
-  </si>
-  <si>
-    <t>Vaga/dep 120/121</t>
-  </si>
-  <si>
-    <t>Vaga/dep 122 e 217</t>
-  </si>
-  <si>
-    <t>Vaga/dep 123 e 218</t>
-  </si>
-  <si>
-    <t>Vaga/dep 124 e 219</t>
-  </si>
-  <si>
-    <t>Vaga/dep 125/126 e 220/221</t>
-  </si>
-  <si>
-    <t>Vaga/dep 215/216</t>
-  </si>
-  <si>
-    <t>g) Outras indicações (numero de blocos):</t>
-  </si>
-  <si>
-    <t>g) Outras indicações (total de unidades autônomas):</t>
-  </si>
-  <si>
-    <t>edificacao_tipo</t>
-  </si>
-  <si>
-    <t>edificacao_pavimento</t>
-  </si>
-  <si>
-    <t>edificacao_quantidade_unidades_por_pavimentos</t>
-  </si>
-  <si>
-    <t>edificacao_indicacao_unidades_por_pavimento</t>
-  </si>
-  <si>
-    <t>edificacao_descricao_pavimentos</t>
-  </si>
-  <si>
-    <t>alvara_construcao_data_emissao</t>
-  </si>
-  <si>
-    <t>edificacao_blocos</t>
-  </si>
-  <si>
-    <t>edificacao_quantidade_unidades_por_subcondominio</t>
-  </si>
-  <si>
-    <t>Pavimento térreo: 04 (quatro) acessos de pedestres comercial/residencial, sendo um pela Rua Cruz Machado, 02 (dois) pela Rua Visconde de Nacar e um pela Alameda Doutor Carlos de Carvalho; acesso embarque e desembarque de passageiros e port cochére comercial/residencial, saída de veículos estacionamento (rampa que sobe do subsolo 1) pela Rua Cruz Machado; acesso de veículos estacionamento (rampa que desce para subsolo 1) pela Alameda Doutor Carlos de Carvalho; rampas e escadas de acessos de pedestres, plataforma PNE, calçadas, jardins, lixeiras, rampa/eclusa serviço, eclusa/lockers, portaria com I.S., depósito encomendas, hall delivery, hall residencial, 10 (dez) elevadores, 03 (três) escadas de emergência, antecâmara, área técnica, galeria comercial e 08 (oito) lojas sob nº 01, 02, 03, 04, 05, 06, 07 e 08</t>
-  </si>
-  <si>
-    <t>Garagens: Estacionamento residencial coberto no subsolo 1, subsolo 2  e subsolo 3</t>
-  </si>
-  <si>
-    <t>Pavimentos comunitários: 2º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, 02 (dois) I.S’s, DML, 02 (dois) hall’s, jogos adulto, coworking, 02 (dois) I.S.’s A., gourmet 1, gourmet 2, lavanderia, sala de reunião, copa festas, salão de festas com 02 (dois) I.S.’s A., churrasqueira 1, churrasqueira 2 e 02 (dois) terraços/recreações descobertos</t>
-  </si>
-  <si>
-    <t>Pavimentos comunitários: Piso técnico: 09 (nove) elevadores (sem parada), 02 (duas) escadas de emergência e área técnica</t>
-  </si>
-  <si>
-    <t>Pavimentos comunitários: 33º pavimento: 09 (nove) elevadores, hall elevador, 02 (duas) escadas de emergência, escada serviço cobertura, hall, wellnes, sauna, piscina coberta, academia e recreação/área descoberta de lazer</t>
-  </si>
-  <si>
-    <t>Pavimentos comunitários: Na parte superior do edifício situam-se, ainda, o barrilete 1, barrilete 2, casa de máquinas dos elevadores e caixa d’água com 02 (dois) reservatórios</t>
-  </si>
-  <si>
-    <t>Outros pavimentos: Mezanino: 10 (dez) elevadores (sem parada), 02 (duas) escadas de emergência (sem acesso), 03 (três) espaços técnicos e mezaninos das lojas nº 01, 02, 07 e 08</t>
-  </si>
-  <si>
-    <t>Outros pavimentos: 26º ao 32º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 20 (vinte) apartamentos</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 7</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 8</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 1</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 2</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 3</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 4</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 5</t>
-  </si>
-  <si>
-    <t>LOJA TIPO 6</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>5.1. COMPOSIÇÃO DO CUSTO GLOBAL BÁSICO DA EDIFICAÇÃO</t>
-  </si>
-  <si>
-    <t>9.4. PROJETOS ESPECIAIS</t>
-  </si>
-  <si>
-    <t>6.4. "PLAYGROUND"</t>
-  </si>
-  <si>
-    <t>Área equivalente total do projeto-padrão adotado (m²)</t>
-  </si>
-  <si>
-    <t>6.   PARCELAS ADICIONAIS NÃO CONSIDERADAS NO PROJETO-PADRÃO (R$):</t>
-  </si>
-  <si>
-    <t>5.   CUSTO GLOBAL DA EDIFICAÇÃO (4.6 X CUSTO UNITÁRIO BÁSICO(3)) (R$):</t>
-  </si>
-  <si>
-    <t>7.   1º SUBTOTAL (R$):</t>
-  </si>
-  <si>
-    <t>10.  2º SUBTOTAL (R$):</t>
-  </si>
-  <si>
-    <t>13.  CUSTO GLOBAL DA CONSTRUÇÃO (R$):</t>
-  </si>
-  <si>
-    <t>14.  CUSTO UNITÁRIO DA OBRA EM CÁLCULO [CUSTO TOTAL/ÁREA EQUIVALENTE(13)/(4.6)] (R$):</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 1</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 2</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 3</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 4</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 5</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 6</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 7</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 8</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 9</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 10</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 11</t>
-  </si>
-  <si>
-    <t>Kitinetes 1807, 1813, 1826, 1832, 1907, 1913, 1926, 1932, 2007, 2013, 2026, 2032, 2107, 2113, 2126, 2132, 2207, 2213, 2226, 2232, 2307, 2313, 2326, 2332, 2407, 2413, 2426, 2432, 2507, 2513, 2526 e 2532</t>
-  </si>
-  <si>
-    <t>Kitinetes 912, 931, 1012, 1031, 1112, 1131, 1212, 1231, 1312, 1331, 1412, 1431, 1511, 1512, 1530, 1531, 1611, 1612, 1630, 1631, 1712, 1731, 1812, 1831, 1912, 1931, 2012 e 2031</t>
-  </si>
-  <si>
-    <t>Kitinetes  908, 927, 1008, 1027, 1108, 1127, 1208, 1227, 1308, 1327, 1408, 1427, 1508, 1509, 1527, 1528, 1608, 1609, 1627, 1628, 1708, 1727, 1808, 1827, 1908, 1927,  2008 e 2027</t>
-  </si>
-  <si>
-    <t>Kitinetes 301, 319, 401, 419, 501, 519, 619, 719, 819, 919, 1019, 1101, 1119, 1201, 1219, 1301, 1319, 1401, 1419, 1519, 1619 e 1719</t>
-  </si>
-  <si>
-    <t>Kitinetes 302, 303, 315, 316, 321, 322, 334, 335, 402, 403, 415, 416, 421, 422, 434, 435, 502, 503, 515, 516, 521, 522, 534, 535, 603, 615, 616, 622, 634, 635, 703, 715, 716, 722, 734, 735, 803, 815, 816, 822, 834, 835, 903, 915, 916, 922, 934, 935, 1003, 1015, 1016, 1022, 1034, 1035, 1102, 1103, 1117, 1118, 1121, 1122, 1136, 1137, 1202, 1203, 1217, 1218, 1221, 1222, 1236, 1237, 1302, 1303, 1317, 1318, 1321, 1322, 1336, 1337, 1402, 1403, 1417, 1418, 1421, 1422, 1436, 1437, 1503, 1504, 1505, 1517, 1518, 1522, 1523, 1524, 1536, 1537, 1603, 1604, 1605, 1617, 1618, 1622, 1623, 1624, 1636, 1637,  1703, 1704, 1705, 1717, 1718, 1722, 1723, 1724, 1736 e 1737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitinetes  320, 338, 420, 438, 520, 538, 638, 738, 838, 938, 1038, 1120, 1138, 1220, 1238, 1320, 1338, 1420, 1438, 1538, 1638 e 1738 </t>
-  </si>
-  <si>
-    <t>Kitinetes 304, 305, 317, 318, 323, 324, 336, 337, 404, 405, 417, 418, 423, 424, 436, 437, 504, 505, 517, 518, 523, 524, 536, 537, 602, 604, 605, 617, 618, 621, 623, 624, 636, 637, 702, 704, 705, 717, 718, 721, 723, 724, 736, 737, 802, 804, 805, 817, 818, 821, 823, 824, 836, 837, 902, 904, 905, 917, 918, 921, 923, 924, 936, 937, 1002, 1004, 1005, 1017, 1018, 1021, 1023, 1024, 1036, 1037, 1104, 1105, 1115, 1116, 1123, 1124, 1134, 1135, 1204, 1205, 1215, 1216, 1223, 1224, 1234, 1235, 1304, 1305, 1315, 1316, 1323, 1324, 1334, 1335, 1404, 1405, 1415, 1416, 1423, 1424, 1434, 1435, 1502, 1515, 1516, 1521, 1534, 1535, 1602, 1615, 1616, 1621, 1634, 1635, 1702, 1715, 1716, 1721, 1734 e 1735</t>
-  </si>
-  <si>
-    <t>Kitinetes  306, 314, 325, 333, 406, 414, 425, 433, 506, 514, 525, 533, 606, 614, 625, 633, 706, 714, 725, 733, 806, 814, 825, 833, 906, 914, 925, 933, 1006, 1014, 1025, 1033, 1106, 1114, 1125, 1133, 1206, 1214, 1225, 1233, 1306, 1314, 1325, 1333, 1406, 1414, 1425, 1433, 1506, 1514, 1525, 1533, 1606, 1614, 1625, 1633, 1706, 1714, 1725 e 1733</t>
-  </si>
-  <si>
-    <t>Kitinetes  601, 701, 801, 901, 1001, 1501, 1601 e 1701</t>
-  </si>
-  <si>
-    <t>Kitinetes  620, 720, 820, 920, 1020, 1520, 1620 e 1720</t>
-  </si>
-  <si>
-    <t>Kitinetes 307, 313, 326, 332, 407, 413, 426, 432, 507, 513, 526, 532, 607, 613, 626, 632, 707, 713, 726, 732, 807, 813, 826, 832, 907, 913, 926, 932, 1007, 1013, 1026, 1032, 1107, 1113, 1126, 1132, 1207, 1213, 1226, 1232, 1307, 1313, 1326, 1332, 1407, 1413, 1426, 1432, 1507, 1513, 1526, 1532, 1607, 1613, 1626, 1632, 1707, 1713, 1726 e 1732</t>
-  </si>
-  <si>
-    <t>Kitinetes  308, 309, 327, 328, 408, 409, 427, 428, 508, 509, 527, 528, 608, 627, 708, 727, 808, 827, 2108, 2127, 2208, 2227, 2308, 2327, 2408, 2427, 2508 e 2527</t>
-  </si>
-  <si>
-    <t>Kitinetes 310, 329, 410, 429, 510, 529, 1510, 1529, 1610 e 1629</t>
-  </si>
-  <si>
-    <t>Kitinetes  311, 312, 330, 331, 411, 412, 430, 431, 511, 512, 530, 531, 612, 631, 712, 731, 812, 831, 2112, 2131, 2212, 2231, 2312, 2331, 2412, 2431, 2512 e 2531</t>
-  </si>
-  <si>
-    <t>Outros pavimentos: 3º, 4º, 5º, 15º e 16º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações e 38 (trinta e oito) kitinetes</t>
-  </si>
-  <si>
-    <t>Outros pavimentos: 6º ao 14º e 17º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações, 32 (trinta e duas) kitinetes e 04 (quatro) apartamentos</t>
-  </si>
-  <si>
-    <t>Outros pavimentos: 18º ao 25º pavimento: 09 (nove) elevadores, 02 (duas) escadas de emergência, hall/circulações, 08 (oito) kitinetes e 16 (dezesseis) apartamentos</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 14</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 17</t>
-  </si>
-  <si>
-    <t>KITINETE TIPO 21</t>
+    <t>Subcondomínio Residencial: 574 (quinhentos e setenta e quatro) kitinetes e 308 (trezentos e oito) apartamentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="16">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="General_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.000000_);\(#,##0.000000\)"/>
@@ -2116,6 +2117,7 @@
     <numFmt numFmtId="175" formatCode="0.0000%"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.0000000000"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;R$&quot;\ * #,##0.00_);_(&quot;R$&quot;\ * \(#,##0.00\);_(&quot;R$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -3577,7 +3579,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
@@ -3586,8 +3588,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="475">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4454,6 +4458,33 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4481,28 +4512,40 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4511,42 +4554,6 @@
     <xf numFmtId="165" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" textRotation="180"/>
     </xf>
@@ -4643,11 +4650,10 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
+    <cellStyle name="Moeda 2" xfId="8" xr:uid="{88AC8E69-2FA8-44A3-96EA-2F0D4F23816F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{E91BFD61-3072-4928-8964-45366F7428EF}"/>
     <cellStyle name="Normal_QUADRO5" xfId="2" xr:uid="{F8622D1E-628C-4F21-9AC0-E5C3008697FC}"/>
@@ -4656,6 +4662,7 @@
     <cellStyle name="Normal_QUADRO8" xfId="5" xr:uid="{51EEC045-BB7B-4BF0-A81A-9C0FB2E7DC4A}"/>
     <cellStyle name="Porcentagem" xfId="6" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="7" builtinId="3"/>
+    <cellStyle name="Vírgula 2" xfId="9" xr:uid="{115E5672-B159-4596-8491-3861B1F777F3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4985,7 +4992,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="320" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5009,7 +5016,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="320" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5038,7 +5045,7 @@
         <v>210</v>
       </c>
       <c r="B8" s="320" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -5046,7 +5053,7 @@
         <v>211</v>
       </c>
       <c r="B9" s="320" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -5059,7 +5066,7 @@
         <v>213</v>
       </c>
       <c r="B11" s="320" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.15">
@@ -5067,7 +5074,7 @@
         <v>214</v>
       </c>
       <c r="B12" s="320" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -5080,7 +5087,7 @@
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="320" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B14" s="320" t="s">
         <v>287</v>
@@ -5147,7 +5154,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="320" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B22" s="320">
         <v>3231.16</v>
@@ -5176,7 +5183,7 @@
     </row>
     <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A26" s="320" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5230,10 +5237,10 @@
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A37" s="320" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37" s="320" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5318,12 +5325,12 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -5408,22 +5415,22 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="352" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" s="352" t="s">
         <v>572</v>
       </c>
-      <c r="B12" s="352" t="s">
+      <c r="E12" s="352" t="s">
         <v>573</v>
       </c>
-      <c r="C12" s="352" t="s">
-        <v>574</v>
-      </c>
-      <c r="D12" s="352" t="s">
-        <v>575</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>576</v>
-      </c>
       <c r="F12" s="352" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5441,7 +5448,7 @@
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -5466,7 +5473,7 @@
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5491,7 +5498,7 @@
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -5516,7 +5523,7 @@
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -5541,7 +5548,7 @@
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -5553,7 +5560,7 @@
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B18" s="319" t="s">
         <v>385</v>
@@ -5566,7 +5573,7 @@
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -5591,7 +5598,7 @@
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -5614,7 +5621,7 @@
       <c r="D20" s="319"/>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5639,7 +5646,7 @@
       </c>
       <c r="E21" s="319"/>
       <c r="F21" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -5654,13 +5661,13 @@
         <v>414</v>
       </c>
       <c r="B22" s="319" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C22" s="319"/>
       <c r="D22" s="319"/>
       <c r="E22" s="319"/>
       <c r="F22" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -5672,23 +5679,23 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B23" s="319" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C23" s="319" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D23" s="319"/>
       <c r="E23" s="319"/>
       <c r="F23" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B24" s="319" t="s">
         <v>394</v>
@@ -5701,7 +5708,7 @@
       </c>
       <c r="E24" s="319"/>
       <c r="F24" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -5716,17 +5723,17 @@
         <v>415</v>
       </c>
       <c r="B25" s="319" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C25" s="319" t="s">
         <v>413</v>
       </c>
       <c r="D25" s="319" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E25" s="319"/>
       <c r="F25" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -5849,7 +5856,7 @@
   </sheetPr>
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -5925,7 +5932,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
@@ -5934,7 +5941,7 @@
       <c r="H4" s="141"/>
       <c r="I4" s="141"/>
       <c r="J4" s="141" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K4" s="141"/>
       <c r="L4" s="142"/>
@@ -5950,11 +5957,11 @@
       <c r="F5" s="146"/>
       <c r="G5" s="127"/>
       <c r="H5" s="127"/>
-      <c r="I5" s="467"/>
-      <c r="J5" s="468"/>
-      <c r="K5" s="468"/>
-      <c r="L5" s="468"/>
-      <c r="M5" s="469"/>
+      <c r="I5" s="468"/>
+      <c r="J5" s="469"/>
+      <c r="K5" s="469"/>
+      <c r="L5" s="469"/>
+      <c r="M5" s="470"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="147" t="s">
@@ -6025,13 +6032,13 @@
     <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="158"/>
       <c r="C9" s="159"/>
-      <c r="D9" s="470" t="s">
+      <c r="D9" s="471" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="471"/>
-      <c r="F9" s="471"/>
-      <c r="G9" s="471"/>
-      <c r="H9" s="472"/>
+      <c r="E9" s="472"/>
+      <c r="F9" s="472"/>
+      <c r="G9" s="472"/>
+      <c r="H9" s="473"/>
       <c r="I9" s="268" t="s">
         <v>450</v>
       </c>
@@ -6122,48 +6129,48 @@
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="324" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="324" t="s">
         <v>526</v>
       </c>
-      <c r="B12" s="324" t="s">
-        <v>527</v>
-      </c>
       <c r="C12" s="324" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D12" s="324" t="s">
+        <v>574</v>
+      </c>
+      <c r="E12" s="324" t="s">
+        <v>575</v>
+      </c>
+      <c r="F12" s="324" t="s">
+        <v>576</v>
+      </c>
+      <c r="G12" s="324" t="s">
         <v>577</v>
       </c>
-      <c r="E12" s="324" t="s">
+      <c r="H12" s="324" t="s">
         <v>578</v>
       </c>
-      <c r="F12" s="324" t="s">
+      <c r="I12" s="324" t="s">
         <v>579</v>
       </c>
-      <c r="G12" s="324" t="s">
+      <c r="J12" s="324" t="s">
         <v>580</v>
       </c>
-      <c r="H12" s="324" t="s">
+      <c r="K12" s="324" t="s">
+        <v>528</v>
+      </c>
+      <c r="L12" s="324" t="s">
         <v>581</v>
       </c>
-      <c r="I12" s="324" t="s">
+      <c r="M12" s="324" t="s">
         <v>582</v>
-      </c>
-      <c r="J12" s="324" t="s">
-        <v>583</v>
-      </c>
-      <c r="K12" s="324" t="s">
-        <v>529</v>
-      </c>
-      <c r="L12" s="324" t="s">
-        <v>584</v>
-      </c>
-      <c r="M12" s="324" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B13" s="353" t="s">
         <v>307</v>
@@ -6204,7 +6211,7 @@
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B14" s="353" t="s">
         <v>308</v>
@@ -6245,7 +6252,7 @@
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B15" s="353" t="s">
         <v>309</v>
@@ -6281,14 +6288,14 @@
         <v>1.0356190000000001</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N15" s="356"/>
       <c r="O15" s="269"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B16" s="353" t="s">
         <v>310</v>
@@ -6324,7 +6331,7 @@
         <v>1.0787549999999999</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="N16" s="356"/>
       <c r="O16" s="269"/>
@@ -6332,7 +6339,7 @@
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" s="353" t="s">
         <v>311</v>
@@ -6368,14 +6375,14 @@
         <v>1.8640890000000001</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N17" s="356"/>
       <c r="O17" s="269"/>
     </row>
     <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B18" s="353" t="s">
         <v>312</v>
@@ -6411,7 +6418,7 @@
         <v>1.9417650000000002</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="N18" s="356"/>
       <c r="O18" s="269"/>
@@ -6419,7 +6426,7 @@
     </row>
     <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B19" s="353" t="s">
         <v>313</v>
@@ -6455,14 +6462,14 @@
         <v>2.1574769999999996</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N19" s="356"/>
       <c r="O19" s="269"/>
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B20" s="353" t="s">
         <v>314</v>
@@ -6503,7 +6510,7 @@
     </row>
     <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="353" t="s">
         <v>315</v>
@@ -6539,14 +6546,14 @@
         <v>3.7818459999999998</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="N21" s="356"/>
       <c r="O21" s="269"/>
     </row>
     <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B22" s="353" t="s">
         <v>316</v>
@@ -6582,14 +6589,14 @@
         <v>3.7945769999999999</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="N22" s="356"/>
       <c r="O22" s="269"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" s="353" t="s">
         <v>317</v>
@@ -6625,14 +6632,14 @@
         <v>3.804465</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N23" s="356"/>
       <c r="O23" s="269"/>
     </row>
     <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B24" s="353" t="s">
         <v>318</v>
@@ -6668,14 +6675,14 @@
         <v>3.8850180000000001</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N24" s="356"/>
       <c r="O24" s="269"/>
     </row>
     <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" s="353" t="s">
         <v>319</v>
@@ -6711,13 +6718,13 @@
         <v>3.8138030000000001</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="O25" s="269"/>
     </row>
     <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" s="353" t="s">
         <v>320</v>
@@ -6753,14 +6760,14 @@
         <v>4.4356400000000002</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N26" s="356"/>
       <c r="O26" s="269"/>
     </row>
     <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B27" s="353" t="s">
         <v>321</v>
@@ -6796,14 +6803,14 @@
         <v>2.5300310000000001</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="N27" s="356"/>
       <c r="O27" s="269"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B28" s="353" t="s">
         <v>322</v>
@@ -6839,14 +6846,14 @@
         <v>4.4023589999999997</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="N28" s="356"/>
       <c r="O28" s="269"/>
     </row>
     <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B29" s="353" t="s">
         <v>323</v>
@@ -6882,14 +6889,14 @@
         <v>3.8588450000000001</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="N29" s="356"/>
       <c r="O29" s="269"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="353" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B30" s="353" t="s">
         <v>344</v>
@@ -6925,16 +6932,16 @@
         <v>3.8914800000000001</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="N30" s="356"/>
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C31" s="403">
         <v>1</v>
@@ -6972,10 +6979,10 @@
     </row>
     <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C32" s="403">
         <v>1</v>
@@ -7013,10 +7020,10 @@
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C33" s="403">
         <v>1</v>
@@ -7054,10 +7061,10 @@
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C34" s="403">
         <v>1</v>
@@ -7095,10 +7102,10 @@
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C35" s="403">
         <v>1</v>
@@ -7136,10 +7143,10 @@
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C36" s="403">
         <v>1</v>
@@ -7178,10 +7185,10 @@
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C37" s="403">
         <v>1</v>
@@ -7219,10 +7226,10 @@
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C38" s="403">
         <v>1</v>
@@ -7260,10 +7267,10 @@
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B39" s="404" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C39" s="403">
         <v>22</v>
@@ -7296,16 +7303,16 @@
         <v>2.6971780000000001</v>
       </c>
       <c r="M39" s="405" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N39" s="359"/>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B40" s="404" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C40" s="403">
         <v>116</v>
@@ -7338,16 +7345,16 @@
         <v>2.4078930000000001</v>
       </c>
       <c r="M40" s="405" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N40" s="359"/>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" s="404" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C41" s="403">
         <v>124</v>
@@ -7380,16 +7387,16 @@
         <v>2.390768</v>
       </c>
       <c r="M41" s="405" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N41" s="359"/>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" s="404" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C42" s="403">
         <v>60</v>
@@ -7422,16 +7429,16 @@
         <v>2.3620100000000002</v>
       </c>
       <c r="M42" s="405" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="N42" s="359"/>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B43" s="404" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C43" s="403">
         <v>22</v>
@@ -7464,16 +7471,16 @@
         <v>2.7052559999999999</v>
       </c>
       <c r="M43" s="405" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N43" s="359"/>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44" s="404" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C44" s="403">
         <v>8</v>
@@ -7506,16 +7513,16 @@
         <v>2.679052</v>
       </c>
       <c r="M44" s="405" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N44" s="359"/>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B45" s="404" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C45" s="403">
         <v>8</v>
@@ -7548,16 +7555,16 @@
         <v>2.6881309999999998</v>
       </c>
       <c r="M45" s="405" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="N45" s="359"/>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" s="404" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C46" s="403">
         <v>60</v>
@@ -7590,16 +7597,16 @@
         <v>2.7480370000000001</v>
       </c>
       <c r="M46" s="405" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="N46" s="359"/>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B47" s="404" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C47" s="403">
         <v>28</v>
@@ -7632,16 +7639,16 @@
         <v>2.4154209999999998</v>
       </c>
       <c r="M47" s="405" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="N47" s="359"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="404" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C48" s="403">
         <v>10</v>
@@ -7674,16 +7681,16 @@
         <v>2.3386809999999998</v>
       </c>
       <c r="M48" s="405" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="N48" s="359"/>
     </row>
     <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B49" s="404" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C49" s="403">
         <v>28</v>
@@ -7716,13 +7723,13 @@
         <v>2.2981950000000002</v>
       </c>
       <c r="M49" s="405" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N49" s="359"/>
     </row>
     <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B50" s="353" t="s">
         <v>339</v>
@@ -7764,7 +7771,7 @@
     </row>
     <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" s="353" t="s">
         <v>340</v>
@@ -7806,10 +7813,10 @@
     </row>
     <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B52" s="473" t="s">
-        <v>668</v>
+        <v>534</v>
+      </c>
+      <c r="B52" s="410" t="s">
+        <v>665</v>
       </c>
       <c r="C52" s="403">
         <v>28</v>
@@ -7842,13 +7849,13 @@
         <v>2.4013659999999999</v>
       </c>
       <c r="M52" s="405" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N52" s="359"/>
     </row>
     <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B53" s="353" t="s">
         <v>341</v>
@@ -7890,7 +7897,7 @@
     </row>
     <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B54" s="353" t="s">
         <v>343</v>
@@ -7932,10 +7939,10 @@
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B55" s="473" t="s">
-        <v>669</v>
+        <v>534</v>
+      </c>
+      <c r="B55" s="410" t="s">
+        <v>666</v>
       </c>
       <c r="C55" s="403">
         <v>28</v>
@@ -7968,13 +7975,13 @@
         <v>2.310635</v>
       </c>
       <c r="M55" s="405" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="N55" s="359"/>
     </row>
     <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B56" s="353" t="s">
         <v>342</v>
@@ -8016,7 +8023,7 @@
     </row>
     <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="353" t="s">
         <v>329</v>
@@ -8058,7 +8065,7 @@
     </row>
     <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B58" s="353" t="s">
         <v>330</v>
@@ -8094,16 +8101,16 @@
         <v>4.6370699999999996</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N58" s="359"/>
     </row>
     <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B59" s="473" t="s">
-        <v>670</v>
+        <v>534</v>
+      </c>
+      <c r="B59" s="410" t="s">
+        <v>667</v>
       </c>
       <c r="C59" s="403">
         <v>32</v>
@@ -8136,13 +8143,13 @@
         <v>2.7540469999999999</v>
       </c>
       <c r="M59" s="405" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N59" s="359"/>
     </row>
     <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" s="353" t="s">
         <v>331</v>
@@ -8184,7 +8191,7 @@
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B61" s="353" t="s">
         <v>332</v>
@@ -8226,7 +8233,7 @@
     </row>
     <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" s="353" t="s">
         <v>333</v>
@@ -8268,7 +8275,7 @@
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B63" s="353" t="s">
         <v>334</v>
@@ -8310,7 +8317,7 @@
     </row>
     <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B64" s="353" t="s">
         <v>335</v>
@@ -8352,7 +8359,7 @@
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" s="353" t="s">
         <v>336</v>
@@ -8394,7 +8401,7 @@
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B66" s="353" t="s">
         <v>337</v>
@@ -8436,7 +8443,7 @@
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B67" s="353" t="s">
         <v>338</v>
@@ -8834,7 +8841,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="97"/>
       <c r="S4" s="106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8842,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -8852,7 +8859,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -8865,29 +8872,29 @@
       <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="422" t="s">
+      <c r="A6" s="414" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="420"/>
-      <c r="C6" s="420"/>
-      <c r="D6" s="420"/>
-      <c r="E6" s="420"/>
-      <c r="F6" s="420"/>
-      <c r="G6" s="420"/>
-      <c r="H6" s="420"/>
-      <c r="I6" s="420"/>
-      <c r="J6" s="420"/>
-      <c r="K6" s="423"/>
-      <c r="L6" s="419" t="s">
+      <c r="B6" s="412"/>
+      <c r="C6" s="412"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="412"/>
+      <c r="F6" s="412"/>
+      <c r="G6" s="412"/>
+      <c r="H6" s="412"/>
+      <c r="I6" s="412"/>
+      <c r="J6" s="412"/>
+      <c r="K6" s="415"/>
+      <c r="L6" s="411" t="s">
         <v>241</v>
       </c>
-      <c r="M6" s="420"/>
-      <c r="N6" s="420"/>
-      <c r="O6" s="420"/>
-      <c r="P6" s="420"/>
-      <c r="Q6" s="420"/>
-      <c r="R6" s="420"/>
-      <c r="S6" s="421"/>
+      <c r="M6" s="412"/>
+      <c r="N6" s="412"/>
+      <c r="O6" s="412"/>
+      <c r="P6" s="412"/>
+      <c r="Q6" s="412"/>
+      <c r="R6" s="412"/>
+      <c r="S6" s="413"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
@@ -8972,18 +8979,18 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="45"/>
-      <c r="B10" s="424" t="s">
+      <c r="B10" s="416" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="425"/>
-      <c r="D10" s="425"/>
-      <c r="E10" s="425"/>
-      <c r="F10" s="425"/>
-      <c r="G10" s="425"/>
-      <c r="H10" s="425"/>
-      <c r="I10" s="425"/>
-      <c r="J10" s="425"/>
-      <c r="K10" s="426"/>
+      <c r="C10" s="417"/>
+      <c r="D10" s="417"/>
+      <c r="E10" s="417"/>
+      <c r="F10" s="417"/>
+      <c r="G10" s="417"/>
+      <c r="H10" s="417"/>
+      <c r="I10" s="417"/>
+      <c r="J10" s="417"/>
+      <c r="K10" s="418"/>
       <c r="L10" s="48" t="s">
         <v>114</v>
       </c>
@@ -8993,7 +9000,7 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="93"/>
       <c r="R10" s="52"/>
-      <c r="S10" s="414" t="s">
+      <c r="S10" s="423" t="s">
         <v>236</v>
       </c>
     </row>
@@ -9001,20 +9008,20 @@
       <c r="A11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="424" t="s">
+      <c r="B11" s="416" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="425"/>
-      <c r="D11" s="425"/>
-      <c r="E11" s="425"/>
-      <c r="F11" s="426"/>
-      <c r="G11" s="424" t="s">
+      <c r="C11" s="417"/>
+      <c r="D11" s="417"/>
+      <c r="E11" s="417"/>
+      <c r="F11" s="418"/>
+      <c r="G11" s="416" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="425"/>
-      <c r="I11" s="425"/>
-      <c r="J11" s="425"/>
-      <c r="K11" s="426"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="417"/>
+      <c r="J11" s="417"/>
+      <c r="K11" s="418"/>
       <c r="L11" s="49" t="s">
         <v>7</v>
       </c>
@@ -9022,11 +9029,11 @@
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="50"/>
-      <c r="Q11" s="410" t="s">
+      <c r="Q11" s="419" t="s">
         <v>98</v>
       </c>
-      <c r="R11" s="411"/>
-      <c r="S11" s="415"/>
+      <c r="R11" s="420"/>
+      <c r="S11" s="424"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
@@ -9035,72 +9042,72 @@
       <c r="B12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="412" t="s">
+      <c r="C12" s="421" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="413"/>
+      <c r="D12" s="422"/>
       <c r="E12" s="48"/>
       <c r="F12" s="50"/>
       <c r="G12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="412" t="s">
+      <c r="H12" s="421" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="413"/>
+      <c r="I12" s="422"/>
       <c r="J12" s="44"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="412" t="s">
+      <c r="M12" s="421" t="s">
         <v>231</v>
       </c>
-      <c r="N12" s="413"/>
+      <c r="N12" s="422"/>
       <c r="O12" s="44"/>
       <c r="P12" s="52"/>
-      <c r="Q12" s="410" t="s">
+      <c r="Q12" s="419" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="411"/>
-      <c r="S12" s="415"/>
+      <c r="R12" s="420"/>
+      <c r="S12" s="424"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="410" t="s">
+      <c r="C13" s="419" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="411"/>
+      <c r="D13" s="420"/>
       <c r="E13" s="29" t="s">
         <v>103</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="410" t="s">
+      <c r="H13" s="419" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="411"/>
-      <c r="J13" s="410" t="s">
+      <c r="I13" s="420"/>
+      <c r="J13" s="419" t="s">
         <v>103</v>
       </c>
-      <c r="K13" s="411"/>
+      <c r="K13" s="420"/>
       <c r="L13" s="25"/>
-      <c r="M13" s="410" t="s">
+      <c r="M13" s="419" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="411"/>
-      <c r="O13" s="410" t="s">
+      <c r="N13" s="420"/>
+      <c r="O13" s="419" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="411"/>
-      <c r="Q13" s="410" t="s">
+      <c r="P13" s="420"/>
+      <c r="Q13" s="419" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="411"/>
-      <c r="S13" s="415"/>
+      <c r="R13" s="420"/>
+      <c r="S13" s="424"/>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
@@ -9109,33 +9116,33 @@
       <c r="B14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="417" t="s">
+      <c r="C14" s="426" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="418"/>
+      <c r="D14" s="427"/>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
       <c r="G14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="417" t="s">
+      <c r="H14" s="426" t="s">
         <v>118</v>
       </c>
-      <c r="I14" s="418"/>
+      <c r="I14" s="427"/>
       <c r="J14" s="1"/>
       <c r="K14" s="27"/>
       <c r="L14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="417" t="s">
+      <c r="M14" s="426" t="s">
         <v>118</v>
       </c>
-      <c r="N14" s="418"/>
+      <c r="N14" s="427"/>
       <c r="O14" s="1"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="94"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="415"/>
+      <c r="S14" s="424"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
@@ -9186,7 +9193,7 @@
       <c r="R15" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="S15" s="415"/>
+      <c r="S15" s="424"/>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
@@ -9217,7 +9224,7 @@
       <c r="R16" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="S16" s="415"/>
+      <c r="S16" s="424"/>
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
@@ -9254,7 +9261,7 @@
       <c r="R17" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="415"/>
+      <c r="S17" s="424"/>
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
@@ -9311,65 +9318,65 @@
       <c r="R18" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="416"/>
+      <c r="S18" s="425"/>
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
+        <v>506</v>
+      </c>
+      <c r="B19" s="324" t="s">
         <v>507</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="C19" s="324" t="s">
         <v>508</v>
       </c>
-      <c r="C19" s="324" t="s">
+      <c r="D19" s="324" t="s">
         <v>509</v>
       </c>
-      <c r="D19" s="324" t="s">
+      <c r="E19" s="324" t="s">
         <v>510</v>
       </c>
-      <c r="E19" s="324" t="s">
+      <c r="F19" s="324" t="s">
         <v>511</v>
       </c>
-      <c r="F19" s="324" t="s">
+      <c r="G19" s="324" t="s">
         <v>512</v>
       </c>
-      <c r="G19" s="324" t="s">
+      <c r="H19" s="324" t="s">
         <v>513</v>
       </c>
-      <c r="H19" s="324" t="s">
+      <c r="I19" s="324" t="s">
         <v>514</v>
       </c>
-      <c r="I19" s="324" t="s">
+      <c r="J19" s="324" t="s">
         <v>515</v>
       </c>
-      <c r="J19" s="324" t="s">
+      <c r="K19" s="324" t="s">
         <v>516</v>
       </c>
-      <c r="K19" s="324" t="s">
+      <c r="L19" s="324" t="s">
         <v>517</v>
       </c>
-      <c r="L19" s="324" t="s">
+      <c r="M19" s="324" t="s">
         <v>518</v>
       </c>
-      <c r="M19" s="324" t="s">
+      <c r="N19" s="324" t="s">
         <v>519</v>
       </c>
-      <c r="N19" s="324" t="s">
+      <c r="O19" s="324" t="s">
         <v>520</v>
       </c>
-      <c r="O19" s="324" t="s">
+      <c r="P19" s="324" t="s">
         <v>521</v>
       </c>
-      <c r="P19" s="324" t="s">
+      <c r="Q19" s="324" t="s">
         <v>522</v>
       </c>
-      <c r="Q19" s="324" t="s">
+      <c r="R19" s="324" t="s">
         <v>523</v>
       </c>
-      <c r="R19" s="324" t="s">
+      <c r="S19" s="324" t="s">
         <v>524</v>
-      </c>
-      <c r="S19" s="324" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -11224,11 +11231,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B11:F11"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -11244,6 +11246,11 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -11391,7 +11398,7 @@
       <c r="T4" s="201"/>
       <c r="U4" s="202"/>
       <c r="V4" s="106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11399,7 +11406,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="204" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="205"/>
@@ -11410,7 +11417,7 @@
       <c r="J5" s="205"/>
       <c r="K5" s="205"/>
       <c r="L5" s="205" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M5" s="205"/>
       <c r="N5" s="205"/>
@@ -11424,31 +11431,31 @@
       <c r="V5" s="206"/>
     </row>
     <row r="6" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="436" t="s">
+      <c r="B6" s="435" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="434"/>
-      <c r="D6" s="434"/>
-      <c r="E6" s="434"/>
-      <c r="F6" s="434"/>
-      <c r="G6" s="434"/>
-      <c r="H6" s="434"/>
-      <c r="I6" s="434"/>
-      <c r="J6" s="434"/>
-      <c r="K6" s="434"/>
-      <c r="L6" s="434"/>
-      <c r="M6" s="437"/>
-      <c r="N6" s="433" t="s">
+      <c r="C6" s="433"/>
+      <c r="D6" s="433"/>
+      <c r="E6" s="433"/>
+      <c r="F6" s="433"/>
+      <c r="G6" s="433"/>
+      <c r="H6" s="433"/>
+      <c r="I6" s="433"/>
+      <c r="J6" s="433"/>
+      <c r="K6" s="433"/>
+      <c r="L6" s="433"/>
+      <c r="M6" s="436"/>
+      <c r="N6" s="432" t="s">
         <v>241</v>
       </c>
-      <c r="O6" s="434"/>
-      <c r="P6" s="434"/>
-      <c r="Q6" s="434"/>
-      <c r="R6" s="434"/>
-      <c r="S6" s="434"/>
-      <c r="T6" s="434"/>
-      <c r="U6" s="434"/>
-      <c r="V6" s="435"/>
+      <c r="O6" s="433"/>
+      <c r="P6" s="433"/>
+      <c r="Q6" s="433"/>
+      <c r="R6" s="433"/>
+      <c r="S6" s="433"/>
+      <c r="T6" s="433"/>
+      <c r="U6" s="433"/>
+      <c r="V6" s="434"/>
     </row>
     <row r="7" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="207" t="s">
@@ -11537,19 +11544,19 @@
       <c r="B10" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="438" t="s">
+      <c r="C10" s="437" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="439"/>
-      <c r="E10" s="439"/>
-      <c r="F10" s="439"/>
-      <c r="G10" s="439"/>
-      <c r="H10" s="439"/>
-      <c r="I10" s="439"/>
-      <c r="J10" s="439"/>
-      <c r="K10" s="439"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="439"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="438"/>
+      <c r="F10" s="438"/>
+      <c r="G10" s="438"/>
+      <c r="H10" s="438"/>
+      <c r="I10" s="438"/>
+      <c r="J10" s="438"/>
+      <c r="K10" s="438"/>
+      <c r="L10" s="438"/>
+      <c r="M10" s="438"/>
       <c r="N10" s="220" t="s">
         <v>259</v>
       </c>
@@ -11562,7 +11569,7 @@
       <c r="S10" s="223"/>
       <c r="T10" s="224"/>
       <c r="U10" s="225"/>
-      <c r="V10" s="441" t="s">
+      <c r="V10" s="442" t="s">
         <v>261</v>
       </c>
     </row>
@@ -11570,13 +11577,13 @@
       <c r="B11" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="438" t="s">
+      <c r="C11" s="437" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="439"/>
-      <c r="E11" s="439"/>
-      <c r="F11" s="439"/>
-      <c r="G11" s="440"/>
+      <c r="D11" s="438"/>
+      <c r="E11" s="438"/>
+      <c r="F11" s="438"/>
+      <c r="G11" s="439"/>
       <c r="H11" s="222" t="s">
         <v>7</v>
       </c>
@@ -11597,11 +11604,11 @@
       <c r="Q11" s="222"/>
       <c r="R11" s="222"/>
       <c r="S11" s="223"/>
-      <c r="T11" s="427" t="s">
+      <c r="T11" s="440" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="428"/>
-      <c r="V11" s="442"/>
+      <c r="U11" s="441"/>
+      <c r="V11" s="443"/>
     </row>
     <row r="12" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="226" t="s">
@@ -11610,19 +11617,19 @@
       <c r="C12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="431" t="s">
+      <c r="D12" s="430" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="432"/>
+      <c r="E12" s="431"/>
       <c r="F12" s="224"/>
       <c r="G12" s="225"/>
       <c r="H12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="431" t="s">
+      <c r="I12" s="430" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="432"/>
+      <c r="J12" s="431"/>
       <c r="K12" s="224"/>
       <c r="L12" s="225"/>
       <c r="M12" s="230" t="s">
@@ -11634,40 +11641,40 @@
       <c r="O12" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="431" t="s">
+      <c r="P12" s="430" t="s">
         <v>231</v>
       </c>
-      <c r="Q12" s="432"/>
+      <c r="Q12" s="431"/>
       <c r="R12" s="232"/>
       <c r="S12" s="225"/>
-      <c r="T12" s="427" t="s">
+      <c r="T12" s="440" t="s">
         <v>109</v>
       </c>
-      <c r="U12" s="428"/>
-      <c r="V12" s="442"/>
+      <c r="U12" s="441"/>
+      <c r="V12" s="443"/>
     </row>
     <row r="13" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="226" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="229"/>
-      <c r="D13" s="427" t="s">
+      <c r="D13" s="440" t="s">
         <v>232</v>
       </c>
-      <c r="E13" s="428"/>
-      <c r="F13" s="427" t="s">
+      <c r="E13" s="441"/>
+      <c r="F13" s="440" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="428"/>
+      <c r="G13" s="441"/>
       <c r="H13" s="229"/>
-      <c r="I13" s="427" t="s">
+      <c r="I13" s="440" t="s">
         <v>232</v>
       </c>
-      <c r="J13" s="428"/>
-      <c r="K13" s="427" t="s">
+      <c r="J13" s="441"/>
+      <c r="K13" s="440" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="428"/>
+      <c r="L13" s="441"/>
       <c r="M13" s="230" t="s">
         <v>256</v>
       </c>
@@ -11675,19 +11682,19 @@
         <v>260</v>
       </c>
       <c r="O13" s="233"/>
-      <c r="P13" s="427" t="s">
+      <c r="P13" s="440" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="428"/>
-      <c r="R13" s="427" t="s">
+      <c r="Q13" s="441"/>
+      <c r="R13" s="440" t="s">
         <v>103</v>
       </c>
-      <c r="S13" s="428"/>
-      <c r="T13" s="427" t="s">
+      <c r="S13" s="441"/>
+      <c r="T13" s="440" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="428"/>
-      <c r="V13" s="442"/>
+      <c r="U13" s="441"/>
+      <c r="V13" s="443"/>
     </row>
     <row r="14" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="226" t="s">
@@ -11696,19 +11703,19 @@
       <c r="C14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="429" t="s">
+      <c r="D14" s="428" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="430"/>
+      <c r="E14" s="429"/>
       <c r="F14" s="234"/>
       <c r="G14" s="235"/>
       <c r="H14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="429" t="s">
+      <c r="I14" s="428" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="430"/>
+      <c r="J14" s="429"/>
       <c r="K14" s="234"/>
       <c r="L14" s="235"/>
       <c r="M14" s="230" t="s">
@@ -11718,15 +11725,15 @@
       <c r="O14" s="229" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="429" t="s">
+      <c r="P14" s="428" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" s="430"/>
+      <c r="Q14" s="429"/>
       <c r="R14" s="209"/>
       <c r="S14" s="236"/>
       <c r="T14" s="237"/>
       <c r="U14" s="236"/>
-      <c r="V14" s="442"/>
+      <c r="V14" s="443"/>
     </row>
     <row r="15" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="226" t="s">
@@ -11783,7 +11790,7 @@
       <c r="U15" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="V15" s="442"/>
+      <c r="V15" s="443"/>
     </row>
     <row r="16" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="226" t="s">
@@ -11818,7 +11825,7 @@
       <c r="U16" s="229" t="s">
         <v>237</v>
       </c>
-      <c r="V16" s="442"/>
+      <c r="V16" s="443"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="226"/>
@@ -11867,7 +11874,7 @@
       <c r="U17" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="V17" s="442"/>
+      <c r="V17" s="443"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="239" t="s">
@@ -11931,80 +11938,80 @@
         <v>68</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="241" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="324" t="s">
         <v>526</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="C19" s="324" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="324" t="s">
+        <v>508</v>
+      </c>
+      <c r="E19" s="324" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" s="324" t="s">
+        <v>510</v>
+      </c>
+      <c r="G19" s="324" t="s">
+        <v>511</v>
+      </c>
+      <c r="H19" s="324" t="s">
+        <v>512</v>
+      </c>
+      <c r="I19" s="324" t="s">
+        <v>513</v>
+      </c>
+      <c r="J19" s="324" t="s">
+        <v>514</v>
+      </c>
+      <c r="K19" s="324" t="s">
+        <v>515</v>
+      </c>
+      <c r="L19" s="324" t="s">
+        <v>516</v>
+      </c>
+      <c r="M19" s="324" t="s">
         <v>527</v>
       </c>
-      <c r="C19" s="324" t="s">
-        <v>508</v>
-      </c>
-      <c r="D19" s="324" t="s">
-        <v>509</v>
-      </c>
-      <c r="E19" s="324" t="s">
-        <v>510</v>
-      </c>
-      <c r="F19" s="324" t="s">
-        <v>511</v>
-      </c>
-      <c r="G19" s="324" t="s">
-        <v>512</v>
-      </c>
-      <c r="H19" s="324" t="s">
-        <v>513</v>
-      </c>
-      <c r="I19" s="324" t="s">
-        <v>514</v>
-      </c>
-      <c r="J19" s="324" t="s">
-        <v>515</v>
-      </c>
-      <c r="K19" s="324" t="s">
-        <v>516</v>
-      </c>
-      <c r="L19" s="324" t="s">
+      <c r="N19" s="324" t="s">
+        <v>528</v>
+      </c>
+      <c r="O19" s="324" t="s">
         <v>517</v>
       </c>
-      <c r="M19" s="324" t="s">
-        <v>528</v>
-      </c>
-      <c r="N19" s="324" t="s">
+      <c r="P19" s="324" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q19" s="324" t="s">
+        <v>519</v>
+      </c>
+      <c r="R19" s="324" t="s">
+        <v>520</v>
+      </c>
+      <c r="S19" s="324" t="s">
+        <v>521</v>
+      </c>
+      <c r="T19" s="324" t="s">
         <v>529</v>
       </c>
-      <c r="O19" s="324" t="s">
-        <v>518</v>
-      </c>
-      <c r="P19" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q19" s="324" t="s">
-        <v>520</v>
-      </c>
-      <c r="R19" s="324" t="s">
-        <v>521</v>
-      </c>
-      <c r="S19" s="324" t="s">
-        <v>522</v>
-      </c>
-      <c r="T19" s="324" t="s">
+      <c r="U19" s="324" t="s">
         <v>530</v>
       </c>
-      <c r="U19" s="324" t="s">
+      <c r="V19" s="324" t="s">
         <v>531</v>
-      </c>
-      <c r="V19" s="324" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B20" s="244" t="s">
         <v>307</v>
@@ -12072,7 +12079,7 @@
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="244" t="s">
         <v>308</v>
@@ -12140,7 +12147,7 @@
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B22" s="244" t="s">
         <v>309</v>
@@ -12208,7 +12215,7 @@
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" s="244" t="s">
         <v>310</v>
@@ -12276,7 +12283,7 @@
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B24" s="244" t="s">
         <v>311</v>
@@ -12344,7 +12351,7 @@
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" s="244" t="s">
         <v>312</v>
@@ -12412,7 +12419,7 @@
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" s="244" t="s">
         <v>313</v>
@@ -12480,7 +12487,7 @@
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B27" s="244" t="s">
         <v>314</v>
@@ -12548,7 +12555,7 @@
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B28" s="244" t="s">
         <v>315</v>
@@ -12616,7 +12623,7 @@
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B29" s="244" t="s">
         <v>316</v>
@@ -12684,7 +12691,7 @@
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B30" s="244" t="s">
         <v>317</v>
@@ -12752,7 +12759,7 @@
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B31" s="244" t="s">
         <v>318</v>
@@ -12820,7 +12827,7 @@
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B32" s="244" t="s">
         <v>319</v>
@@ -12888,7 +12895,7 @@
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B33" s="244" t="s">
         <v>320</v>
@@ -12956,7 +12963,7 @@
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B34" s="244" t="s">
         <v>321</v>
@@ -13024,7 +13031,7 @@
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B35" s="244" t="s">
         <v>322</v>
@@ -13092,7 +13099,7 @@
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B36" s="244" t="s">
         <v>323</v>
@@ -13160,7 +13167,7 @@
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B37" s="244" t="s">
         <v>344</v>
@@ -13228,7 +13235,7 @@
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B38" s="244" t="s">
         <v>297</v>
@@ -13296,7 +13303,7 @@
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B39" s="244" t="s">
         <v>298</v>
@@ -13364,7 +13371,7 @@
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B40" s="244" t="s">
         <v>324</v>
@@ -13432,7 +13439,7 @@
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41" s="244" t="s">
         <v>325</v>
@@ -13500,7 +13507,7 @@
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B42" s="244" t="s">
         <v>326</v>
@@ -13568,7 +13575,7 @@
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B43" s="244" t="s">
         <v>327</v>
@@ -13636,7 +13643,7 @@
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B44" s="244" t="s">
         <v>328</v>
@@ -13704,7 +13711,7 @@
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B45" s="244" t="s">
         <v>446</v>
@@ -13772,10 +13779,10 @@
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" s="409" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C46" s="293">
         <v>21.956650000000003</v>
@@ -13840,10 +13847,10 @@
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B47" s="409" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C47" s="293">
         <v>19.159500000000001</v>
@@ -13908,10 +13915,10 @@
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="409" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C48" s="293">
         <v>19.165749999999999</v>
@@ -13976,10 +13983,10 @@
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B49" s="409" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C49" s="293">
         <v>18.736750000000001</v>
@@ -14044,10 +14051,10 @@
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B50" s="409" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C50" s="293">
         <v>21.949775000000002</v>
@@ -14112,10 +14119,10 @@
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" s="409" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C51" s="293">
         <v>21.9529</v>
@@ -14180,10 +14187,10 @@
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B52" s="409" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C52" s="293">
         <v>21.956025</v>
@@ -14248,10 +14255,10 @@
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B53" s="409" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C53" s="293">
         <v>22.999299999999998</v>
@@ -14316,10 +14323,10 @@
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B54" s="409" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C54" s="293">
         <v>19.8201</v>
@@ -14384,10 +14391,10 @@
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B55" s="409" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C55" s="293">
         <v>19.244500000000002</v>
@@ -14452,10 +14459,10 @@
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B56" s="409" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C56" s="293">
         <v>18.977350000000001</v>
@@ -14520,7 +14527,7 @@
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="276" t="s">
         <v>339</v>
@@ -14588,7 +14595,7 @@
     </row>
     <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B58" s="276" t="s">
         <v>340</v>
@@ -14656,10 +14663,10 @@
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="409" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C59" s="293">
         <v>19.828850000000003</v>
@@ -14724,7 +14731,7 @@
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" s="276" t="s">
         <v>341</v>
@@ -14792,7 +14799,7 @@
     </row>
     <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B61" s="276" t="s">
         <v>343</v>
@@ -14860,10 +14867,10 @@
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" s="409" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C62" s="293">
         <v>18.964500000000001</v>
@@ -14928,7 +14935,7 @@
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B63" s="276" t="s">
         <v>342</v>
@@ -14996,7 +15003,7 @@
     </row>
     <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B64" s="276" t="s">
         <v>329</v>
@@ -15064,7 +15071,7 @@
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" s="276" t="s">
         <v>330</v>
@@ -15132,10 +15139,10 @@
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B66" s="409" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C66" s="293">
         <v>23.0593</v>
@@ -15200,7 +15207,7 @@
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B67" s="276" t="s">
         <v>331</v>
@@ -15268,7 +15275,7 @@
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="276" t="s">
         <v>332</v>
@@ -15336,7 +15343,7 @@
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B69" s="276" t="s">
         <v>333</v>
@@ -15404,7 +15411,7 @@
     </row>
     <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B70" s="276" t="s">
         <v>334</v>
@@ -15472,7 +15479,7 @@
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B71" s="276" t="s">
         <v>335</v>
@@ -15540,7 +15547,7 @@
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B72" s="276" t="s">
         <v>336</v>
@@ -15608,7 +15615,7 @@
     </row>
     <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B73" s="276" t="s">
         <v>337</v>
@@ -15676,7 +15683,7 @@
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B74" s="276" t="s">
         <v>338</v>
@@ -15767,6 +15774,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D12:E12"/>
@@ -15783,10 +15794,6 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -15832,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="319" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15840,7 +15847,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="319" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15850,7 +15857,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="319" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15858,7 +15865,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="319" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15923,13 +15930,13 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="399" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B15" s="400" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C15" s="399" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15957,7 +15964,7 @@
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B20" s="319" t="s">
         <v>74</v>
@@ -15965,7 +15972,7 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B21" s="319">
         <v>16</v>
@@ -15973,7 +15980,7 @@
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B22" s="319">
         <v>8371.4</v>
@@ -16033,7 +16040,7 @@
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="319" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B31" s="325">
         <v>45536</v>
@@ -16042,7 +16049,7 @@
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="319" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B32" s="319">
         <v>2340.48</v>
@@ -16051,7 +16058,7 @@
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="319" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16127,7 +16134,7 @@
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="319" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B41" s="319">
         <v>112119827.45695201</v>
@@ -16141,7 +16148,7 @@
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="319" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16190,7 +16197,7 @@
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="319" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16283,7 +16290,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="319" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16351,7 +16358,7 @@
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="319" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B72" s="319">
         <v>119786894.45695201</v>
@@ -16399,7 +16406,7 @@
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="319" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B78" s="319">
         <v>383470.5</v>
@@ -16407,7 +16414,7 @@
     </row>
     <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="319" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B79" s="319">
         <v>123019002.95695201</v>
@@ -16431,7 +16438,7 @@
     </row>
     <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="319" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B82" s="319">
         <v>147622803.54834241</v>
@@ -16439,7 +16446,7 @@
     </row>
     <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="319" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B83" s="319">
         <v>3081.5978501347681</v>
@@ -16556,7 +16563,7 @@
       <c r="M4" s="58"/>
       <c r="N4" s="101"/>
       <c r="O4" s="106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16564,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
@@ -16572,7 +16579,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
@@ -16582,24 +16589,24 @@
       <c r="O5" s="102"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="444" t="s">
+      <c r="B6" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="425"/>
-      <c r="D6" s="425"/>
-      <c r="E6" s="425"/>
-      <c r="F6" s="425"/>
-      <c r="G6" s="426"/>
-      <c r="H6" s="424" t="s">
+      <c r="C6" s="417"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="417"/>
+      <c r="F6" s="417"/>
+      <c r="G6" s="418"/>
+      <c r="H6" s="416" t="s">
         <v>241</v>
       </c>
-      <c r="I6" s="425"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="425"/>
-      <c r="L6" s="425"/>
-      <c r="M6" s="425"/>
-      <c r="N6" s="425"/>
-      <c r="O6" s="443"/>
+      <c r="I6" s="417"/>
+      <c r="J6" s="417"/>
+      <c r="K6" s="417"/>
+      <c r="L6" s="417"/>
+      <c r="M6" s="417"/>
+      <c r="N6" s="417"/>
+      <c r="O6" s="444"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -16674,25 +16681,25 @@
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
-      <c r="C10" s="424" t="s">
+      <c r="C10" s="416" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="425"/>
-      <c r="E10" s="445"/>
-      <c r="F10" s="446" t="s">
+      <c r="D10" s="417"/>
+      <c r="E10" s="446"/>
+      <c r="F10" s="447" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="447"/>
-      <c r="H10" s="447"/>
-      <c r="I10" s="447"/>
-      <c r="J10" s="447"/>
-      <c r="K10" s="447"/>
-      <c r="L10" s="448"/>
-      <c r="M10" s="425" t="s">
+      <c r="G10" s="448"/>
+      <c r="H10" s="448"/>
+      <c r="I10" s="448"/>
+      <c r="J10" s="448"/>
+      <c r="K10" s="448"/>
+      <c r="L10" s="449"/>
+      <c r="M10" s="417" t="s">
         <v>176</v>
       </c>
-      <c r="N10" s="425"/>
-      <c r="O10" s="443"/>
+      <c r="N10" s="417"/>
+      <c r="O10" s="444"/>
     </row>
     <row r="11" spans="1:15" ht="123" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
@@ -16723,10 +16730,10 @@
         <v>174</v>
       </c>
       <c r="K11" s="78" t="s">
+        <v>486</v>
+      </c>
+      <c r="L11" s="79" t="s">
         <v>487</v>
-      </c>
-      <c r="L11" s="79" t="s">
-        <v>488</v>
       </c>
       <c r="M11" s="80" t="s">
         <v>177</v>
@@ -16824,54 +16831,54 @@
     </row>
     <row r="14" spans="1:15" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="328" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" s="328" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="328" t="s">
-        <v>527</v>
-      </c>
       <c r="C14" s="328" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D14" s="328" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="328" t="s">
+        <v>528</v>
+      </c>
+      <c r="F14" s="328" t="s">
         <v>541</v>
       </c>
-      <c r="E14" s="328" t="s">
+      <c r="G14" s="328" t="s">
+        <v>542</v>
+      </c>
+      <c r="H14" s="328" t="s">
+        <v>543</v>
+      </c>
+      <c r="I14" s="328" t="s">
+        <v>544</v>
+      </c>
+      <c r="J14" s="328" t="s">
+        <v>545</v>
+      </c>
+      <c r="K14" s="328" t="s">
         <v>529</v>
       </c>
-      <c r="F14" s="328" t="s">
-        <v>542</v>
-      </c>
-      <c r="G14" s="328" t="s">
-        <v>543</v>
-      </c>
-      <c r="H14" s="328" t="s">
-        <v>544</v>
-      </c>
-      <c r="I14" s="328" t="s">
-        <v>545</v>
-      </c>
-      <c r="J14" s="328" t="s">
+      <c r="L14" s="328" t="s">
         <v>546</v>
       </c>
-      <c r="K14" s="328" t="s">
-        <v>530</v>
-      </c>
-      <c r="L14" s="328" t="s">
+      <c r="M14" s="328" t="s">
         <v>547</v>
       </c>
-      <c r="M14" s="328" t="s">
+      <c r="N14" s="328" t="s">
         <v>548</v>
       </c>
-      <c r="N14" s="328" t="s">
+      <c r="O14" s="328" t="s">
         <v>549</v>
-      </c>
-      <c r="O14" s="328" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B15" s="114" t="s">
         <v>307</v>
@@ -16918,7 +16925,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B16" s="114" t="s">
         <v>308</v>
@@ -16965,7 +16972,7 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" s="114" t="s">
         <v>309</v>
@@ -17012,7 +17019,7 @@
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B18" s="114" t="s">
         <v>310</v>
@@ -17059,7 +17066,7 @@
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B19" s="114" t="s">
         <v>311</v>
@@ -17106,7 +17113,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B20" s="114" t="s">
         <v>312</v>
@@ -17153,7 +17160,7 @@
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="114" t="s">
         <v>313</v>
@@ -17200,7 +17207,7 @@
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B22" s="114" t="s">
         <v>314</v>
@@ -17247,7 +17254,7 @@
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" s="114" t="s">
         <v>315</v>
@@ -17294,7 +17301,7 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B24" s="114" t="s">
         <v>316</v>
@@ -17341,7 +17348,7 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" s="114" t="s">
         <v>317</v>
@@ -17388,7 +17395,7 @@
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" s="114" t="s">
         <v>318</v>
@@ -17435,7 +17442,7 @@
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>319</v>
@@ -17482,7 +17489,7 @@
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B28" s="114" t="s">
         <v>320</v>
@@ -17529,7 +17536,7 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B29" s="114" t="s">
         <v>321</v>
@@ -17576,7 +17583,7 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B30" s="114" t="s">
         <v>322</v>
@@ -17623,7 +17630,7 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B31" s="114" t="s">
         <v>323</v>
@@ -17670,7 +17677,7 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B32" s="114" t="s">
         <v>344</v>
@@ -17717,7 +17724,7 @@
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B33" s="122" t="s">
         <v>297</v>
@@ -17764,7 +17771,7 @@
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B34" s="122" t="s">
         <v>298</v>
@@ -17811,7 +17818,7 @@
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>324</v>
@@ -17858,7 +17865,7 @@
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B36" s="114" t="s">
         <v>325</v>
@@ -17905,7 +17912,7 @@
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B37" s="114" t="s">
         <v>326</v>
@@ -17952,7 +17959,7 @@
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B38" s="114" t="s">
         <v>327</v>
@@ -17999,7 +18006,7 @@
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B39" s="114" t="s">
         <v>328</v>
@@ -18046,7 +18053,7 @@
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B40" s="114" t="s">
         <v>446</v>
@@ -18093,10 +18100,10 @@
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" s="408" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C41" s="283">
         <v>39.987708500000004</v>
@@ -18140,10 +18147,10 @@
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" s="408" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C42" s="283">
         <v>35.698933000000004</v>
@@ -18187,10 +18194,10 @@
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B43" s="408" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C43" s="283">
         <v>35.445196499999994</v>
@@ -18234,10 +18241,10 @@
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44" s="408" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C44" s="283">
         <v>35.018810500000001</v>
@@ -18281,10 +18288,10 @@
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B45" s="408" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C45" s="283">
         <v>40.10761625</v>
@@ -18328,10 +18335,10 @@
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" s="408" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C46" s="283">
         <v>39.719128499999997</v>
@@ -18375,10 +18382,10 @@
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B47" s="408" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C47" s="283">
         <v>39.853880250000003</v>
@@ -18422,10 +18429,10 @@
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="408" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C48" s="283">
         <v>40.7420075</v>
@@ -18469,10 +18476,10 @@
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B49" s="408" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C49" s="283">
         <v>35.810484500000001</v>
@@ -18516,10 +18523,10 @@
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B50" s="408" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C50" s="283">
         <v>34.672862000000009</v>
@@ -18563,10 +18570,10 @@
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" s="408" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C51" s="283">
         <v>34.072747000000007</v>
@@ -18610,7 +18617,7 @@
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B52" s="114" t="s">
         <v>339</v>
@@ -18657,7 +18664,7 @@
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B53" s="114" t="s">
         <v>340</v>
@@ -18704,10 +18711,10 @@
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B54" s="408" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C54" s="283">
         <v>35.602207</v>
@@ -18751,7 +18758,7 @@
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B55" s="114" t="s">
         <v>341</v>
@@ -18798,7 +18805,7 @@
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B56" s="114" t="s">
         <v>343</v>
@@ -18845,10 +18852,10 @@
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="408" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C57" s="283">
         <v>34.257235000000001</v>
@@ -18892,7 +18899,7 @@
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B58" s="114" t="s">
         <v>342</v>
@@ -18939,7 +18946,7 @@
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="114" t="s">
         <v>329</v>
@@ -18986,7 +18993,7 @@
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" s="114" t="s">
         <v>330</v>
@@ -19033,10 +19040,10 @@
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B61" s="408" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C61" s="283">
         <v>40.831069499999998</v>
@@ -19080,7 +19087,7 @@
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" s="114" t="s">
         <v>331</v>
@@ -19127,7 +19134,7 @@
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B63" s="114" t="s">
         <v>332</v>
@@ -19174,7 +19181,7 @@
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B64" s="114" t="s">
         <v>333</v>
@@ -19221,7 +19228,7 @@
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" s="114" t="s">
         <v>334</v>
@@ -19268,7 +19275,7 @@
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B66" s="114" t="s">
         <v>335</v>
@@ -19315,7 +19322,7 @@
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B67" s="114" t="s">
         <v>336</v>
@@ -19362,7 +19369,7 @@
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="114" t="s">
         <v>337</v>
@@ -19409,7 +19416,7 @@
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B69" s="114" t="s">
         <v>338</v>
@@ -19640,7 +19647,7 @@
       <c r="J3" s="105"/>
       <c r="K3" s="99"/>
       <c r="L3" s="246" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19655,7 +19662,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="101"/>
       <c r="L4" s="106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19663,14 +19670,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -19678,21 +19685,21 @@
       <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="444" t="s">
+      <c r="B6" s="445" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="425"/>
-      <c r="D6" s="425"/>
-      <c r="E6" s="425"/>
-      <c r="F6" s="426"/>
-      <c r="G6" s="425" t="s">
+      <c r="C6" s="417"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="417"/>
+      <c r="F6" s="418"/>
+      <c r="G6" s="417" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="425"/>
-      <c r="I6" s="425"/>
-      <c r="J6" s="425"/>
-      <c r="K6" s="425"/>
-      <c r="L6" s="443"/>
+      <c r="H6" s="417"/>
+      <c r="I6" s="417"/>
+      <c r="J6" s="417"/>
+      <c r="K6" s="417"/>
+      <c r="L6" s="444"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
@@ -19758,22 +19765,22 @@
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
-      <c r="C10" s="461" t="s">
+      <c r="C10" s="462" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
-      <c r="F10" s="462"/>
-      <c r="G10" s="463"/>
+      <c r="D10" s="463"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="463"/>
+      <c r="G10" s="464"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="464" t="s">
+      <c r="I10" s="465" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="452" t="s">
+      <c r="J10" s="453" t="s">
         <v>274</v>
       </c>
-      <c r="K10" s="453"/>
-      <c r="L10" s="454"/>
+      <c r="K10" s="454"/>
+      <c r="L10" s="455"/>
     </row>
     <row r="11" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="74" t="s">
@@ -19797,10 +19804,10 @@
       <c r="H11" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="465"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="456"/>
-      <c r="L11" s="457"/>
+      <c r="I11" s="466"/>
+      <c r="J11" s="456"/>
+      <c r="K11" s="457"/>
+      <c r="L11" s="458"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="88" t="s">
@@ -19824,63 +19831,63 @@
       <c r="H12" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="466"/>
-      <c r="J12" s="458"/>
-      <c r="K12" s="459"/>
-      <c r="L12" s="460"/>
+      <c r="I12" s="467"/>
+      <c r="J12" s="459"/>
+      <c r="K12" s="460"/>
+      <c r="L12" s="461"/>
     </row>
     <row r="13" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="449" t="s">
+      <c r="B13" s="450" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="450"/>
-      <c r="D13" s="450"/>
-      <c r="E13" s="450"/>
-      <c r="F13" s="450"/>
-      <c r="G13" s="450"/>
-      <c r="H13" s="450"/>
-      <c r="I13" s="450"/>
-      <c r="J13" s="450"/>
-      <c r="K13" s="450"/>
-      <c r="L13" s="451"/>
+      <c r="C13" s="451"/>
+      <c r="D13" s="451"/>
+      <c r="E13" s="451"/>
+      <c r="F13" s="451"/>
+      <c r="G13" s="451"/>
+      <c r="H13" s="451"/>
+      <c r="I13" s="451"/>
+      <c r="J13" s="451"/>
+      <c r="K13" s="451"/>
+      <c r="L13" s="452"/>
     </row>
     <row r="14" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="324" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="324" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" s="324" t="s">
         <v>551</v>
       </c>
-      <c r="B14" s="324" t="s">
-        <v>527</v>
-      </c>
-      <c r="C14" s="324" t="s">
+      <c r="D14" s="324" t="s">
         <v>552</v>
       </c>
-      <c r="D14" s="324" t="s">
+      <c r="E14" s="324" t="s">
         <v>553</v>
       </c>
-      <c r="E14" s="324" t="s">
+      <c r="F14" s="324" t="s">
         <v>554</v>
       </c>
-      <c r="F14" s="324" t="s">
+      <c r="G14" s="324" t="s">
         <v>555</v>
       </c>
-      <c r="G14" s="324" t="s">
+      <c r="H14" s="324" t="s">
         <v>556</v>
       </c>
-      <c r="H14" s="324" t="s">
+      <c r="I14" s="324" t="s">
+        <v>531</v>
+      </c>
+      <c r="J14" s="324" t="s">
         <v>557</v>
-      </c>
-      <c r="I14" s="324" t="s">
-        <v>532</v>
-      </c>
-      <c r="J14" s="324" t="s">
-        <v>558</v>
       </c>
       <c r="K14" s="326"/>
       <c r="L14" s="327"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B15" s="114" t="s">
         <v>307</v>
@@ -19912,7 +19919,7 @@
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B16" s="114" t="s">
         <v>308</v>
@@ -19944,7 +19951,7 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" s="114" t="s">
         <v>309</v>
@@ -19976,7 +19983,7 @@
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B18" s="114" t="s">
         <v>310</v>
@@ -20008,7 +20015,7 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B19" s="114" t="s">
         <v>311</v>
@@ -20040,7 +20047,7 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B20" s="114" t="s">
         <v>312</v>
@@ -20072,7 +20079,7 @@
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="114" t="s">
         <v>313</v>
@@ -20104,7 +20111,7 @@
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B22" s="114" t="s">
         <v>314</v>
@@ -20136,7 +20143,7 @@
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B23" s="114" t="s">
         <v>315</v>
@@ -20168,7 +20175,7 @@
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B24" s="114" t="s">
         <v>316</v>
@@ -20200,7 +20207,7 @@
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" s="114" t="s">
         <v>317</v>
@@ -20232,7 +20239,7 @@
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B26" s="114" t="s">
         <v>318</v>
@@ -20264,7 +20271,7 @@
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B27" s="114" t="s">
         <v>319</v>
@@ -20296,7 +20303,7 @@
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B28" s="114" t="s">
         <v>320</v>
@@ -20328,7 +20335,7 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B29" s="114" t="s">
         <v>321</v>
@@ -20360,7 +20367,7 @@
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B30" s="114" t="s">
         <v>322</v>
@@ -20392,7 +20399,7 @@
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B31" s="114" t="s">
         <v>323</v>
@@ -20424,7 +20431,7 @@
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B32" s="304" t="s">
         <v>344</v>
@@ -20456,7 +20463,7 @@
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B33" s="270" t="s">
         <v>297</v>
@@ -20488,7 +20495,7 @@
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B34" s="114" t="s">
         <v>298</v>
@@ -20520,7 +20527,7 @@
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B35" s="114" t="s">
         <v>324</v>
@@ -20552,7 +20559,7 @@
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B36" s="114" t="s">
         <v>325</v>
@@ -20584,7 +20591,7 @@
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B37" s="114" t="s">
         <v>326</v>
@@ -20616,7 +20623,7 @@
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B38" s="114" t="s">
         <v>327</v>
@@ -20648,7 +20655,7 @@
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B39" s="379" t="s">
         <v>328</v>
@@ -20680,7 +20687,7 @@
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B40" s="389" t="s">
         <v>446</v>
@@ -20712,10 +20719,10 @@
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" s="407" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C41" s="300">
         <v>28.6</v>
@@ -20744,10 +20751,10 @@
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" s="407" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C42" s="300">
         <v>25.68</v>
@@ -20776,10 +20783,10 @@
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B43" s="407" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C43" s="300">
         <v>25.45</v>
@@ -20808,10 +20815,10 @@
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B44" s="407" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C44" s="300">
         <v>25.21</v>
@@ -20840,10 +20847,10 @@
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B45" s="407" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C45" s="300">
         <v>28.71</v>
@@ -20872,10 +20879,10 @@
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" s="407" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C46" s="300">
         <v>28.36</v>
@@ -20904,10 +20911,10 @@
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B47" s="407" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C47" s="300">
         <v>28.48</v>
@@ -20936,10 +20943,10 @@
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B48" s="407" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C48" s="300">
         <v>28.93</v>
@@ -20968,10 +20975,10 @@
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B49" s="407" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C49" s="300">
         <v>25.56</v>
@@ -21000,10 +21007,10 @@
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B50" s="407" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C50" s="300">
         <v>24.730000000000004</v>
@@ -21032,10 +21039,10 @@
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B51" s="408" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C51" s="300">
         <v>24.28</v>
@@ -21064,7 +21071,7 @@
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B52" s="114" t="s">
         <v>339</v>
@@ -21096,7 +21103,7 @@
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B53" s="114" t="s">
         <v>340</v>
@@ -21128,10 +21135,10 @@
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B54" s="408" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C54" s="300">
         <v>25.370000000000005</v>
@@ -21160,7 +21167,7 @@
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B55" s="114" t="s">
         <v>341</v>
@@ -21192,7 +21199,7 @@
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B56" s="114" t="s">
         <v>343</v>
@@ -21224,10 +21231,10 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B57" s="408" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C57" s="300">
         <v>24.450000000000003</v>
@@ -21256,7 +21263,7 @@
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B58" s="114" t="s">
         <v>342</v>
@@ -21288,7 +21295,7 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B59" s="114" t="s">
         <v>329</v>
@@ -21320,7 +21327,7 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B60" s="114" t="s">
         <v>330</v>
@@ -21352,10 +21359,10 @@
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B61" s="408" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C61" s="300">
         <v>28.990000000000002</v>
@@ -21384,7 +21391,7 @@
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B62" s="114" t="s">
         <v>331</v>
@@ -21416,7 +21423,7 @@
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B63" s="114" t="s">
         <v>332</v>
@@ -21448,7 +21455,7 @@
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B64" s="114" t="s">
         <v>333</v>
@@ -21480,7 +21487,7 @@
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" s="114" t="s">
         <v>334</v>
@@ -21512,7 +21519,7 @@
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B66" s="114" t="s">
         <v>335</v>
@@ -21544,7 +21551,7 @@
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B67" s="114" t="s">
         <v>336</v>
@@ -21576,7 +21583,7 @@
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B68" s="114" t="s">
         <v>337</v>
@@ -21608,7 +21615,7 @@
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="114" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B69" s="114" t="s">
         <v>338</v>
@@ -21735,14 +21742,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C9C16D-1FC7-45E0-9D2B-A6A3C9E6DA49}">
-  <sheetPr syncVertical="1" syncRef="D20" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="D13" transitionEvaluation="1">
     <tabColor theme="6" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.796875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -21865,7 +21872,7 @@
       <c r="E4" s="331"/>
       <c r="F4" s="332"/>
       <c r="G4" s="339" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H4" s="363"/>
       <c r="I4"/>
@@ -21893,10 +21900,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="347" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5" s="340" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D5" s="340"/>
       <c r="E5" s="341"/>
@@ -22112,36 +22119,36 @@
         <v>270</v>
       </c>
       <c r="G11" s="320" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H11" s="320" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="370" t="s">
+        <v>600</v>
+      </c>
+      <c r="B12" s="370" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="370" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" s="370" t="s">
         <v>603</v>
       </c>
-      <c r="B12" s="370" t="s">
+      <c r="E12" s="370" t="s">
         <v>604</v>
       </c>
-      <c r="C12" s="370" t="s">
+      <c r="F12" s="370" t="s">
         <v>605</v>
       </c>
-      <c r="D12" s="370" t="s">
+      <c r="G12" s="370" t="s">
         <v>606</v>
       </c>
-      <c r="E12" s="370" t="s">
+      <c r="H12" s="370" t="s">
         <v>607</v>
-      </c>
-      <c r="F12" s="370" t="s">
-        <v>608</v>
-      </c>
-      <c r="G12" s="370" t="s">
-        <v>609</v>
-      </c>
-      <c r="H12" s="370" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="156" x14ac:dyDescent="0.15">
@@ -22152,16 +22159,16 @@
         <v>474</v>
       </c>
       <c r="C13" s="320" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D13" s="320" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E13" s="320" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F13" s="320" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G13" s="320" t="s">
         <v>295</v>
@@ -22172,13 +22179,13 @@
     </row>
     <row r="14" spans="1:27" ht="156" x14ac:dyDescent="0.15">
       <c r="C14" s="320" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D14" s="320" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E14" s="320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F14" s="320"/>
       <c r="G14" s="320"/>
@@ -22188,26 +22195,29 @@
     </row>
     <row r="15" spans="1:27" ht="409.5" x14ac:dyDescent="0.15">
       <c r="C15" s="406" t="s">
-        <v>564</v>
+        <v>668</v>
       </c>
       <c r="D15" s="406" t="s">
-        <v>567</v>
+        <v>669</v>
       </c>
       <c r="E15" s="320" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F15" s="320"/>
       <c r="G15" s="320"/>
-      <c r="H15" s="320" t="s">
-        <v>477</v>
-      </c>
+      <c r="H15" s="406" t="s">
+        <v>670</v>
+      </c>
+      <c r="I15" s="474"/>
+      <c r="J15" s="474"/>
+      <c r="K15" s="474"/>
     </row>
     <row r="16" spans="1:27" ht="288" x14ac:dyDescent="0.15">
       <c r="A16" s="320"/>
       <c r="C16" s="320"/>
       <c r="D16" s="320"/>
       <c r="E16" s="320" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F16" s="320"/>
       <c r="G16" s="320"/>
@@ -22218,7 +22228,7 @@
       <c r="C17" s="320"/>
       <c r="D17" s="320"/>
       <c r="E17" s="320" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F17" s="320"/>
       <c r="G17" s="320"/>
@@ -22229,7 +22239,7 @@
       <c r="C18" s="320"/>
       <c r="D18" s="320"/>
       <c r="E18" s="320" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F18" s="320"/>
       <c r="G18" s="320"/>
@@ -22240,7 +22250,7 @@
       <c r="C19" s="320"/>
       <c r="D19" s="320"/>
       <c r="E19" s="320" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F19" s="320"/>
       <c r="G19" s="320"/>
@@ -22251,7 +22261,7 @@
       <c r="C20" s="320"/>
       <c r="D20" s="320"/>
       <c r="E20" s="320" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F20" s="320"/>
       <c r="G20" s="320"/>
@@ -22262,7 +22272,7 @@
       <c r="C21" s="320"/>
       <c r="D21" s="320"/>
       <c r="E21" s="320" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F21" s="320"/>
       <c r="G21" s="320"/>
@@ -22273,7 +22283,7 @@
       <c r="C22" s="320"/>
       <c r="D22" s="320"/>
       <c r="E22" s="320" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F22" s="320"/>
       <c r="G22" s="320"/>
@@ -22284,7 +22294,7 @@
       <c r="C23" s="320"/>
       <c r="D23" s="320"/>
       <c r="E23" s="406" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F23" s="320"/>
       <c r="G23" s="320"/>
@@ -22295,7 +22305,7 @@
       <c r="C24" s="320"/>
       <c r="D24" s="320"/>
       <c r="E24" s="406" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F24" s="320"/>
       <c r="G24" s="320"/>
@@ -22306,7 +22316,7 @@
       <c r="C25" s="320"/>
       <c r="D25" s="320"/>
       <c r="E25" s="406" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F25" s="320"/>
       <c r="G25" s="320"/>
@@ -22317,7 +22327,7 @@
       <c r="C26" s="320"/>
       <c r="D26" s="320"/>
       <c r="E26" s="320" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F26" s="320"/>
       <c r="G26" s="320"/>
@@ -22570,7 +22580,7 @@
       <c r="B3" s="378"/>
       <c r="C3" s="378"/>
       <c r="D3" s="378" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22578,7 +22588,7 @@
       <c r="B4" s="378"/>
       <c r="C4" s="378"/>
       <c r="D4" s="378" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22586,10 +22596,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="378" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5" s="378" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D5" s="378"/>
     </row>
@@ -22667,16 +22677,16 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="350" t="s">
+        <v>565</v>
+      </c>
+      <c r="B12" s="350" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="350" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="350" t="s">
         <v>568</v>
-      </c>
-      <c r="B12" s="350" t="s">
-        <v>569</v>
-      </c>
-      <c r="C12" s="350" t="s">
-        <v>570</v>
-      </c>
-      <c r="D12" s="350" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22963,7 +22973,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22973,11 +22983,11 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -23063,22 +23073,22 @@
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="352" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" s="352" t="s">
         <v>572</v>
       </c>
-      <c r="B12" s="352" t="s">
+      <c r="E12" s="352" t="s">
         <v>573</v>
       </c>
-      <c r="C12" s="352" t="s">
-        <v>574</v>
-      </c>
-      <c r="D12" s="352" t="s">
-        <v>575</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>576</v>
-      </c>
       <c r="F12" s="352" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23096,7 +23106,7 @@
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23114,7 +23124,7 @@
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23132,7 +23142,7 @@
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23150,7 +23160,7 @@
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -23164,11 +23174,11 @@
         <v>395</v>
       </c>
       <c r="D17" s="319" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23182,11 +23192,11 @@
         <v>397</v>
       </c>
       <c r="D18" s="319" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23204,7 +23214,7 @@
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -23222,7 +23232,7 @@
       </c>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/pre_cri/data/base_real_ajustada.xlsx
+++ b/pre_cri/data/base_real_ajustada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{093C6961-12D4-4ECE-A419-AE3FD59A17C6}"/>
+  <xr:revisionPtr revIDLastSave="897" documentId="8_{39095ADD-2E94-4460-A91D-036EA19ADC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0FEFE0-4F35-4248-94FD-D3054691B552}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="763" firstSheet="2" activeTab="6" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="763" xr2:uid="{DEC415BF-915D-46F4-8521-7D4ACD64AA48}"/>
   </bookViews>
   <sheets>
     <sheet name="informacoes_preliminares" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="670">
   <si>
     <t>INFORMAÇÕES PARA ARQUIVO NO REGISTRO DE IMÓVEIS</t>
   </si>
@@ -710,9 +710,6 @@
     <t>2.2 Número do registro profissional no CREA:</t>
   </si>
   <si>
-    <t>24.075-D/PR</t>
-  </si>
-  <si>
     <t>2.3 Anotação de Responsabilidade Técnica (ART):</t>
   </si>
   <si>
@@ -767,9 +764,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Ana Lucia Bajerski - CREA 24.075-D/PR</t>
-  </si>
-  <si>
     <t>QUADRO I  -  CALCULO DAS ÁREAS NOS PAVIMENTO E DAS ÁREAS GLOBAIS - COLUNAS 1 A 18</t>
   </si>
   <si>
@@ -1574,13 +1568,7 @@
     <t>23 de outubro de 2024, Prefeitura Municipal de Curitiba</t>
   </si>
   <si>
-    <t>1720246147770</t>
-  </si>
-  <si>
     <t>Rua Kalil Elias Warde, 219, Campina do Siqueira, Curitiba, PR</t>
-  </si>
-  <si>
-    <t>Rua Emiliano Perneta, 725, conj. 502, Centro, Curitiba, PR</t>
   </si>
   <si>
     <t>3.4 Designação Projeto-padrão da NBR 12.721 mais semelhante ao imóvel</t>
@@ -2095,6 +2083,15 @@
   </si>
   <si>
     <t>Subcondomínio Residencial: 574 (quinhentos e setenta e quatro) kitinetes e 308 (trezentos e oito) apartamentos</t>
+  </si>
+  <si>
+    <t>Luiz Augusto Brenner Rose</t>
+  </si>
+  <si>
+    <t>21.070-D/PR</t>
+  </si>
+  <si>
+    <t>Luiz Augusto Brenner Rose - CREA 21.070-D/PR</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2114,7 @@
     <numFmt numFmtId="175" formatCode="0.0000%"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00000000_);_(* \(#,##0.00000000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.0000000000"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;R$&quot;\ * #,##0.00_);_(&quot;R$&quot;\ * \(#,##0.00\);_(&quot;R$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;R$&quot;\ * #,##0.00_);_(&quot;R$&quot;\ * \(#,##0.00\);_(&quot;R$&quot;\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -3588,10 +3585,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="475">
+  <cellXfs count="474">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4650,7 +4647,6 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Moeda 2" xfId="8" xr:uid="{88AC8E69-2FA8-44A3-96EA-2F0D4F23816F}"/>
@@ -4964,14 +4960,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA7278A-8AAC-4F45-AE9A-F49BF73D287E}">
-  <sheetPr syncVertical="1" syncRef="A14" transitionEvaluation="1">
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1">
     <tabColor theme="6" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4992,7 +4988,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="320" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5000,7 +4996,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="320" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5008,7 +5004,7 @@
         <v>204</v>
       </c>
       <c r="B3" s="320" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.15">
@@ -5016,7 +5012,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="320" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5029,7 +5025,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="320" t="s">
-        <v>164</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5037,65 +5033,65 @@
         <v>208</v>
       </c>
       <c r="B7" s="320" t="s">
-        <v>209</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="320" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="320">
+        <v>1715946243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A9" s="320" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="320" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="320" t="s">
-        <v>211</v>
-      </c>
       <c r="B9" s="320" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="320" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="320" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="320" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="320" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="320" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="320" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="320" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A14" s="320" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B14" s="320" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="320" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="320">
         <v>890</v>
@@ -5103,15 +5099,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="320" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="320" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="320" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="320">
         <v>33</v>
@@ -5119,7 +5115,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="320" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="320">
         <v>257</v>
@@ -5127,7 +5123,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="320" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="320">
         <v>208</v>
@@ -5135,18 +5131,18 @@
     </row>
     <row r="20" spans="1:3" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="320" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="320">
         <v>49</v>
       </c>
       <c r="C20" s="321" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="320" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="320">
         <v>0</v>
@@ -5154,7 +5150,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="320" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B22" s="320">
         <v>3231.16</v>
@@ -5162,7 +5158,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="320" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" s="323">
         <v>45588</v>
@@ -5170,7 +5166,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="320" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" s="320">
         <v>405847</v>
@@ -5178,17 +5174,17 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="320" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A26" s="320" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="320" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -5201,7 +5197,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="320" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -5209,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="320" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5219,7 +5215,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="320" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -5227,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="320" t="s">
-        <v>228</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -5237,10 +5233,10 @@
     </row>
     <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.15">
       <c r="A37" s="320" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B37" s="320" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5325,21 +5321,21 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -5349,7 +5345,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -5410,45 +5406,45 @@
         <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
+        <v>565</v>
+      </c>
+      <c r="B12" s="352" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="352" t="s">
+        <v>568</v>
+      </c>
+      <c r="E12" s="352" t="s">
         <v>569</v>
       </c>
-      <c r="B12" s="352" t="s">
-        <v>570</v>
-      </c>
-      <c r="C12" s="352" t="s">
-        <v>571</v>
-      </c>
-      <c r="D12" s="352" t="s">
-        <v>572</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>573</v>
-      </c>
       <c r="F12" s="352" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="319" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B13" s="319" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="319" t="s">
+        <v>384</v>
+      </c>
+      <c r="D13" s="319" t="s">
         <v>385</v>
-      </c>
-      <c r="C13" s="319" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="319" t="s">
-        <v>387</v>
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -5460,20 +5456,20 @@
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" s="319" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="319" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="319" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="319" t="s">
-        <v>403</v>
-      </c>
       <c r="D14" s="319" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
@@ -5485,20 +5481,20 @@
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B15" s="319" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="319" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="319" t="s">
         <v>385</v>
-      </c>
-      <c r="C15" s="319" t="s">
-        <v>386</v>
-      </c>
-      <c r="D15" s="319" t="s">
-        <v>387</v>
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -5510,20 +5506,20 @@
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D16" s="319" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -5535,20 +5531,20 @@
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" s="319" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D17" s="319" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -5560,20 +5556,20 @@
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B18" s="319" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="319" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="319" t="s">
         <v>385</v>
-      </c>
-      <c r="C18" s="319" t="s">
-        <v>409</v>
-      </c>
-      <c r="D18" s="319" t="s">
-        <v>387</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
@@ -5585,20 +5581,20 @@
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C19" s="319" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="319" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -5610,18 +5606,18 @@
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D20" s="319"/>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -5633,20 +5629,20 @@
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B21" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C21" s="319" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D21" s="319" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E21" s="319"/>
       <c r="F21" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -5658,16 +5654,16 @@
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B22" s="319" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C22" s="319"/>
       <c r="D22" s="319"/>
       <c r="E22" s="319"/>
       <c r="F22" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -5679,36 +5675,36 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B23" s="319" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C23" s="319" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D23" s="319"/>
       <c r="E23" s="319"/>
       <c r="F23" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B24" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24" s="319" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D24" s="319" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E24" s="319"/>
       <c r="F24" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -5720,20 +5716,20 @@
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="319" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B25" s="319" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C25" s="319" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D25" s="319" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E25" s="319"/>
       <c r="F25" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -5924,7 +5920,7 @@
       <c r="K3" s="138"/>
       <c r="L3" s="139"/>
       <c r="M3" s="247" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="144" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5932,7 +5928,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" s="141"/>
       <c r="E4" s="141"/>
@@ -5941,7 +5937,7 @@
       <c r="H4" s="141"/>
       <c r="I4" s="141"/>
       <c r="J4" s="141" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K4" s="141"/>
       <c r="L4" s="142"/>
@@ -5949,7 +5945,7 @@
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="145" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="146"/>
       <c r="D5" s="146"/>
@@ -5968,7 +5964,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D6" s="149"/>
       <c r="E6" s="149"/>
@@ -6040,7 +6036,7 @@
       <c r="G9" s="472"/>
       <c r="H9" s="473"/>
       <c r="I9" s="268" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J9" s="160" t="s">
         <v>98</v>
@@ -6049,10 +6045,10 @@
         <v>97</v>
       </c>
       <c r="L9" s="161" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M9" s="162" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6066,7 +6062,7 @@
         <v>98</v>
       </c>
       <c r="E10" s="259" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F10" s="166" t="s">
         <v>98</v>
@@ -6084,13 +6080,13 @@
         <v>36</v>
       </c>
       <c r="K10" s="262" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L10" s="170" t="s">
         <v>37</v>
       </c>
       <c r="M10" s="171" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6100,80 +6096,80 @@
         <v>115</v>
       </c>
       <c r="E11" s="260" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F11" s="175" t="s">
         <v>116</v>
       </c>
       <c r="G11" s="176" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H11" s="177" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I11" s="267" t="s">
         <v>118</v>
       </c>
       <c r="J11" s="178" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K11" s="174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L11" s="179" t="s">
         <v>102</v>
       </c>
       <c r="M11" s="180" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="324" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B12" s="324" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C12" s="324" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12" s="324" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12" s="324" t="s">
+        <v>571</v>
+      </c>
+      <c r="F12" s="324" t="s">
+        <v>572</v>
+      </c>
+      <c r="G12" s="324" t="s">
+        <v>573</v>
+      </c>
+      <c r="H12" s="324" t="s">
+        <v>574</v>
+      </c>
+      <c r="I12" s="324" t="s">
+        <v>575</v>
+      </c>
+      <c r="J12" s="324" t="s">
+        <v>576</v>
+      </c>
+      <c r="K12" s="324" t="s">
         <v>524</v>
       </c>
-      <c r="D12" s="324" t="s">
-        <v>574</v>
-      </c>
-      <c r="E12" s="324" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" s="324" t="s">
-        <v>576</v>
-      </c>
-      <c r="G12" s="324" t="s">
+      <c r="L12" s="324" t="s">
         <v>577</v>
       </c>
-      <c r="H12" s="324" t="s">
+      <c r="M12" s="324" t="s">
         <v>578</v>
-      </c>
-      <c r="I12" s="324" t="s">
-        <v>579</v>
-      </c>
-      <c r="J12" s="324" t="s">
-        <v>580</v>
-      </c>
-      <c r="K12" s="324" t="s">
-        <v>528</v>
-      </c>
-      <c r="L12" s="324" t="s">
-        <v>581</v>
-      </c>
-      <c r="M12" s="324" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B13" s="353" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="403">
         <v>11</v>
@@ -6206,15 +6202,15 @@
         <v>0.93206</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B14" s="353" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C14" s="403">
         <v>4</v>
@@ -6247,15 +6243,15 @@
         <v>0.97089899999999996</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B15" s="353" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="403">
         <v>67</v>
@@ -6288,17 +6284,17 @@
         <v>1.0356190000000001</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N15" s="356"/>
       <c r="O15" s="269"/>
     </row>
     <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B16" s="353" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C16" s="403">
         <v>70</v>
@@ -6331,7 +6327,7 @@
         <v>1.0787549999999999</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N16" s="356"/>
       <c r="O16" s="269"/>
@@ -6339,10 +6335,10 @@
     </row>
     <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B17" s="353" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C17" s="403">
         <v>6</v>
@@ -6375,17 +6371,17 @@
         <v>1.8640890000000001</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N17" s="356"/>
       <c r="O17" s="269"/>
     </row>
     <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B18" s="353" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C18" s="403">
         <v>19</v>
@@ -6418,7 +6414,7 @@
         <v>1.9417650000000002</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N18" s="356"/>
       <c r="O18" s="269"/>
@@ -6426,10 +6422,10 @@
     </row>
     <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B19" s="353" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C19" s="403">
         <v>12</v>
@@ -6462,17 +6458,17 @@
         <v>2.1574769999999996</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N19" s="356"/>
       <c r="O19" s="269"/>
     </row>
     <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B20" s="353" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C20" s="403">
         <v>1</v>
@@ -6505,15 +6501,15 @@
         <v>1.9798929999999999</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B21" s="353" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="403">
         <v>2</v>
@@ -6546,17 +6542,17 @@
         <v>3.7818459999999998</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N21" s="356"/>
       <c r="O21" s="269"/>
     </row>
     <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B22" s="353" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C22" s="403">
         <v>2</v>
@@ -6589,17 +6585,17 @@
         <v>3.7945769999999999</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N22" s="356"/>
       <c r="O22" s="269"/>
     </row>
     <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B23" s="353" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C23" s="403">
         <v>2</v>
@@ -6632,17 +6628,17 @@
         <v>3.804465</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N23" s="356"/>
       <c r="O23" s="269"/>
     </row>
     <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B24" s="353" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C24" s="403">
         <v>2</v>
@@ -6675,17 +6671,17 @@
         <v>3.8850180000000001</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N24" s="356"/>
       <c r="O24" s="269"/>
     </row>
     <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B25" s="353" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C25" s="403">
         <v>1</v>
@@ -6718,16 +6714,16 @@
         <v>3.8138030000000001</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="O25" s="269"/>
     </row>
     <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B26" s="353" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C26" s="403">
         <v>2</v>
@@ -6760,17 +6756,17 @@
         <v>4.4356400000000002</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N26" s="356"/>
       <c r="O26" s="269"/>
     </row>
     <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B27" s="353" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C27" s="403">
         <v>2</v>
@@ -6803,17 +6799,17 @@
         <v>2.5300310000000001</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N27" s="356"/>
       <c r="O27" s="269"/>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B28" s="353" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C28" s="403">
         <v>2</v>
@@ -6846,17 +6842,17 @@
         <v>4.4023589999999997</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N28" s="356"/>
       <c r="O28" s="269"/>
     </row>
     <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B29" s="353" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C29" s="403">
         <v>2</v>
@@ -6889,17 +6885,17 @@
         <v>3.8588450000000001</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N29" s="356"/>
       <c r="O29" s="269"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="353" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B30" s="353" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C30" s="403">
         <v>1</v>
@@ -6932,16 +6928,16 @@
         <v>3.8914800000000001</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N30" s="356"/>
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C31" s="403">
         <v>1</v>
@@ -6974,15 +6970,15 @@
         <v>28.932421000000001</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C32" s="403">
         <v>1</v>
@@ -7015,15 +7011,15 @@
         <v>23.824149999999999</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C33" s="403">
         <v>1</v>
@@ -7056,15 +7052,15 @@
         <v>4.5945799999999997</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C34" s="403">
         <v>1</v>
@@ -7097,15 +7093,15 @@
         <v>1.8505499999999999</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C35" s="403">
         <v>1</v>
@@ -7138,15 +7134,15 @@
         <v>2.6081279999999998</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C36" s="403">
         <v>1</v>
@@ -7179,16 +7175,16 @@
         <v>1.962574</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N36" s="359"/>
     </row>
     <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C37" s="403">
         <v>1</v>
@@ -7221,15 +7217,15 @@
         <v>35.781962999999998</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C38" s="403">
         <v>1</v>
@@ -7262,15 +7258,15 @@
         <v>39.561611999999997</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B39" s="404" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C39" s="403">
         <v>22</v>
@@ -7303,16 +7299,16 @@
         <v>2.6971780000000001</v>
       </c>
       <c r="M39" s="405" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="N39" s="359"/>
     </row>
     <row r="40" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B40" s="404" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C40" s="403">
         <v>116</v>
@@ -7345,16 +7341,16 @@
         <v>2.4078930000000001</v>
       </c>
       <c r="M40" s="405" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="N40" s="359"/>
     </row>
     <row r="41" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B41" s="404" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C41" s="403">
         <v>124</v>
@@ -7387,16 +7383,16 @@
         <v>2.390768</v>
       </c>
       <c r="M41" s="405" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="N41" s="359"/>
     </row>
     <row r="42" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B42" s="404" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C42" s="403">
         <v>60</v>
@@ -7429,16 +7425,16 @@
         <v>2.3620100000000002</v>
       </c>
       <c r="M42" s="405" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="N42" s="359"/>
     </row>
     <row r="43" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B43" s="404" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C43" s="403">
         <v>22</v>
@@ -7471,16 +7467,16 @@
         <v>2.7052559999999999</v>
       </c>
       <c r="M43" s="405" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="N43" s="359"/>
     </row>
     <row r="44" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B44" s="404" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C44" s="403">
         <v>8</v>
@@ -7513,16 +7509,16 @@
         <v>2.679052</v>
       </c>
       <c r="M44" s="405" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="N44" s="359"/>
     </row>
     <row r="45" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B45" s="404" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C45" s="403">
         <v>8</v>
@@ -7555,16 +7551,16 @@
         <v>2.6881309999999998</v>
       </c>
       <c r="M45" s="405" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="N45" s="359"/>
     </row>
     <row r="46" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B46" s="404" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C46" s="403">
         <v>60</v>
@@ -7597,16 +7593,16 @@
         <v>2.7480370000000001</v>
       </c>
       <c r="M46" s="405" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="N46" s="359"/>
     </row>
     <row r="47" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B47" s="404" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C47" s="403">
         <v>28</v>
@@ -7639,16 +7635,16 @@
         <v>2.4154209999999998</v>
       </c>
       <c r="M47" s="405" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="N47" s="359"/>
     </row>
     <row r="48" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B48" s="404" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C48" s="403">
         <v>10</v>
@@ -7681,16 +7677,16 @@
         <v>2.3386809999999998</v>
       </c>
       <c r="M48" s="405" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="N48" s="359"/>
     </row>
     <row r="49" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B49" s="404" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C49" s="403">
         <v>28</v>
@@ -7723,16 +7719,16 @@
         <v>2.2981950000000002</v>
       </c>
       <c r="M49" s="405" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="N49" s="359"/>
     </row>
     <row r="50" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B50" s="353" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C50" s="403">
         <v>16</v>
@@ -7765,16 +7761,16 @@
         <v>3.5442269999999998</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N50" s="359"/>
     </row>
     <row r="51" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B51" s="353" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="403">
         <v>16</v>
@@ -7807,16 +7803,16 @@
         <v>3.4800559999999998</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="N51" s="359"/>
     </row>
     <row r="52" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B52" s="410" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C52" s="403">
         <v>28</v>
@@ -7849,16 +7845,16 @@
         <v>2.4013659999999999</v>
       </c>
       <c r="M52" s="405" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="N52" s="359"/>
     </row>
     <row r="53" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B53" s="353" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C53" s="403">
         <v>20</v>
@@ -7891,16 +7887,16 @@
         <v>3.5269080000000002</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N53" s="359"/>
     </row>
     <row r="54" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B54" s="353" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C54" s="403">
         <v>20</v>
@@ -7933,16 +7929,16 @@
         <v>3.5014789999999998</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="N54" s="359"/>
     </row>
     <row r="55" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B55" s="410" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C55" s="403">
         <v>28</v>
@@ -7975,16 +7971,16 @@
         <v>2.310635</v>
       </c>
       <c r="M55" s="405" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="N55" s="359"/>
     </row>
     <row r="56" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B56" s="353" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C56" s="403">
         <v>15</v>
@@ -8017,16 +8013,16 @@
         <v>5.1850420000000002</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="N56" s="359"/>
     </row>
     <row r="57" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B57" s="353" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C57" s="403">
         <v>60</v>
@@ -8059,16 +8055,16 @@
         <v>4.6952309999999997</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N57" s="359"/>
     </row>
     <row r="58" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B58" s="353" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C58" s="403">
         <v>30</v>
@@ -8101,16 +8097,16 @@
         <v>4.6370699999999996</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N58" s="359"/>
     </row>
     <row r="59" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B59" s="410" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C59" s="403">
         <v>32</v>
@@ -8143,16 +8139,16 @@
         <v>2.7540469999999999</v>
       </c>
       <c r="M59" s="405" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="N59" s="359"/>
     </row>
     <row r="60" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B60" s="353" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C60" s="403">
         <v>30</v>
@@ -8185,16 +8181,16 @@
         <v>4.6507379999999996</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N60" s="359"/>
     </row>
     <row r="61" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B61" s="353" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C61" s="403">
         <v>15</v>
@@ -8227,16 +8223,16 @@
         <v>5.1723759999999999</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N61" s="359"/>
     </row>
     <row r="62" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B62" s="353" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C62" s="403">
         <v>15</v>
@@ -8269,16 +8265,16 @@
         <v>5.1927649999999996</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="N62" s="359"/>
     </row>
     <row r="63" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B63" s="353" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C63" s="403">
         <v>15</v>
@@ -8311,16 +8307,16 @@
         <v>5.1790969999999996</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N63" s="359"/>
     </row>
     <row r="64" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B64" s="353" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" s="403">
         <v>14</v>
@@ -8353,16 +8349,16 @@
         <v>5.2756759999999998</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N64" s="359"/>
     </row>
     <row r="65" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B65" s="353" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C65" s="403">
         <v>14</v>
@@ -8395,16 +8391,16 @@
         <v>3.553274</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N65" s="359"/>
     </row>
     <row r="66" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="353" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C66" s="403">
         <v>14</v>
@@ -8437,16 +8433,16 @@
         <v>3.4807670000000002</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N66" s="359"/>
     </row>
     <row r="67" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B67" s="353" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C67" s="403">
         <v>14</v>
@@ -8479,7 +8475,7 @@
         <v>5.1565760000000003</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="N67" s="359"/>
     </row>
@@ -8798,7 +8794,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="63"/>
       <c r="C3" s="63"/>
@@ -8818,7 +8814,7 @@
       <c r="Q3" s="63"/>
       <c r="R3" s="98"/>
       <c r="S3" s="96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8841,7 +8837,7 @@
       <c r="Q4" s="58"/>
       <c r="R4" s="97"/>
       <c r="S4" s="106" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8849,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -8859,7 +8855,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -8873,7 +8869,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="414" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="412"/>
       <c r="C6" s="412"/>
@@ -8886,7 +8882,7 @@
       <c r="J6" s="412"/>
       <c r="K6" s="415"/>
       <c r="L6" s="411" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M6" s="412"/>
       <c r="N6" s="412"/>
@@ -8901,7 +8897,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -9001,7 +8997,7 @@
       <c r="Q10" s="93"/>
       <c r="R10" s="52"/>
       <c r="S10" s="423" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9043,7 +9039,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="421" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D12" s="422"/>
       <c r="E12" s="48"/>
@@ -9052,7 +9048,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="421" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I12" s="422"/>
       <c r="J12" s="44"/>
@@ -9061,7 +9057,7 @@
         <v>9</v>
       </c>
       <c r="M12" s="421" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N12" s="422"/>
       <c r="O12" s="44"/>
@@ -9078,7 +9074,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="419" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D13" s="420"/>
       <c r="E13" s="29" t="s">
@@ -9087,7 +9083,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="25"/>
       <c r="H13" s="419" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I13" s="420"/>
       <c r="J13" s="419" t="s">
@@ -9096,7 +9092,7 @@
       <c r="K13" s="420"/>
       <c r="L13" s="25"/>
       <c r="M13" s="419" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="N13" s="420"/>
       <c r="O13" s="419" t="s">
@@ -9146,52 +9142,52 @@
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N15" s="34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S15" s="424"/>
     </row>
@@ -9204,25 +9200,25 @@
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="28"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="S16" s="424"/>
     </row>
@@ -9232,34 +9228,34 @@
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="26"/>
       <c r="I17" s="26"/>
       <c r="J17" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L17" s="26"/>
       <c r="M17" s="26"/>
       <c r="N17" s="27"/>
       <c r="O17" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q17" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="R17" s="28" t="s">
         <v>248</v>
-      </c>
-      <c r="Q17" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>250</v>
       </c>
       <c r="S17" s="424"/>
     </row>
@@ -9322,66 +9318,66 @@
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="324" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="324" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="324" t="s">
+        <v>505</v>
+      </c>
+      <c r="E19" s="324" t="s">
         <v>506</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="F19" s="324" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="324" t="s">
+      <c r="G19" s="324" t="s">
         <v>508</v>
       </c>
-      <c r="D19" s="324" t="s">
+      <c r="H19" s="324" t="s">
         <v>509</v>
       </c>
-      <c r="E19" s="324" t="s">
+      <c r="I19" s="324" t="s">
         <v>510</v>
       </c>
-      <c r="F19" s="324" t="s">
+      <c r="J19" s="324" t="s">
         <v>511</v>
       </c>
-      <c r="G19" s="324" t="s">
+      <c r="K19" s="324" t="s">
         <v>512</v>
       </c>
-      <c r="H19" s="324" t="s">
+      <c r="L19" s="324" t="s">
         <v>513</v>
       </c>
-      <c r="I19" s="324" t="s">
+      <c r="M19" s="324" t="s">
         <v>514</v>
       </c>
-      <c r="J19" s="324" t="s">
+      <c r="N19" s="324" t="s">
         <v>515</v>
       </c>
-      <c r="K19" s="324" t="s">
+      <c r="O19" s="324" t="s">
         <v>516</v>
       </c>
-      <c r="L19" s="324" t="s">
+      <c r="P19" s="324" t="s">
         <v>517</v>
       </c>
-      <c r="M19" s="324" t="s">
+      <c r="Q19" s="324" t="s">
         <v>518</v>
       </c>
-      <c r="N19" s="324" t="s">
+      <c r="R19" s="324" t="s">
         <v>519</v>
       </c>
-      <c r="O19" s="324" t="s">
+      <c r="S19" s="324" t="s">
         <v>520</v>
-      </c>
-      <c r="P19" s="324" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q19" s="324" t="s">
-        <v>522</v>
-      </c>
-      <c r="R19" s="324" t="s">
-        <v>523</v>
-      </c>
-      <c r="S19" s="324" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="281" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B20" s="283">
         <v>115.061925</v>
@@ -9440,7 +9436,7 @@
     </row>
     <row r="21" spans="1:19" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="281" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B21" s="283">
         <v>115.061925</v>
@@ -9499,7 +9495,7 @@
     </row>
     <row r="22" spans="1:19" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="281" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B22" s="283">
         <v>6.0709999999999997</v>
@@ -9558,7 +9554,7 @@
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="281" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B23" s="283">
         <v>1360</v>
@@ -9617,7 +9613,7 @@
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="281" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" s="283">
         <v>676.51</v>
@@ -9676,7 +9672,7 @@
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="281" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B25" s="283">
         <v>0</v>
@@ -9735,7 +9731,7 @@
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="281" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B26" s="283">
         <v>755.03784999999993</v>
@@ -9794,7 +9790,7 @@
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="281" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B27" s="283">
         <v>755.03784999999993</v>
@@ -9853,7 +9849,7 @@
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="281" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B28" s="283">
         <v>750.11590000000001</v>
@@ -9912,7 +9908,7 @@
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="281" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B29" s="283">
         <v>750.11590000000001</v>
@@ -9971,7 +9967,7 @@
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="281" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B30" s="283">
         <v>750.19324999999992</v>
@@ -10030,7 +10026,7 @@
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="281" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B31" s="283">
         <v>750.19324999999992</v>
@@ -10089,7 +10085,7 @@
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="281" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B32" s="283">
         <v>750.17824999999993</v>
@@ -10148,7 +10144,7 @@
     </row>
     <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="281" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B33" s="283">
         <v>750.17824999999993</v>
@@ -10207,7 +10203,7 @@
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="281" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B34" s="283">
         <v>750.17824999999993</v>
@@ -10266,7 +10262,7 @@
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="281" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B35" s="283">
         <v>755.01144999999997</v>
@@ -10325,7 +10321,7 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="281" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B36" s="283">
         <v>755.01144999999997</v>
@@ -10384,7 +10380,7 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="281" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B37" s="283">
         <v>750.16825000000006</v>
@@ -10443,7 +10439,7 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="281" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B38" s="283">
         <v>775.73824999999999</v>
@@ -10502,7 +10498,7 @@
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="281" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B39" s="283">
         <v>775.73824999999999</v>
@@ -10561,7 +10557,7 @@
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="281" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B40" s="283">
         <v>775.66090000000008</v>
@@ -10620,7 +10616,7 @@
     </row>
     <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="281" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B41" s="283">
         <v>775.66090000000008</v>
@@ -10679,7 +10675,7 @@
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="281" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B42" s="283">
         <v>775.67090000000007</v>
@@ -10738,7 +10734,7 @@
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="281" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B43" s="283">
         <v>787.45285000000001</v>
@@ -10797,7 +10793,7 @@
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="281" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B44" s="283">
         <v>787.43285000000003</v>
@@ -10856,7 +10852,7 @@
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="281" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B45" s="283">
         <v>787.43285000000003</v>
@@ -10915,7 +10911,7 @@
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="281" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B46" s="283">
         <v>787.43285000000003</v>
@@ -10974,7 +10970,7 @@
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="281" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B47" s="283">
         <v>0</v>
@@ -11033,7 +11029,7 @@
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="281" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B48" s="283">
         <v>0</v>
@@ -11092,7 +11088,7 @@
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="281" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B49" s="283">
         <v>0</v>
@@ -11151,7 +11147,7 @@
     </row>
     <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="282" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B50" s="287">
         <v>0</v>
@@ -11351,7 +11347,7 @@
     </row>
     <row r="3" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="196" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3" s="197"/>
       <c r="D3" s="197"/>
@@ -11373,7 +11369,7 @@
       <c r="T3" s="197"/>
       <c r="U3" s="198"/>
       <c r="V3" s="199" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -11398,7 +11394,7 @@
       <c r="T4" s="201"/>
       <c r="U4" s="202"/>
       <c r="V4" s="106" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11406,7 +11402,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="204" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D5" s="204"/>
       <c r="E5" s="205"/>
@@ -11417,7 +11413,7 @@
       <c r="J5" s="205"/>
       <c r="K5" s="205"/>
       <c r="L5" s="205" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M5" s="205"/>
       <c r="N5" s="205"/>
@@ -11432,7 +11428,7 @@
     </row>
     <row r="6" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="435" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="433"/>
       <c r="D6" s="433"/>
@@ -11446,7 +11442,7 @@
       <c r="L6" s="433"/>
       <c r="M6" s="436"/>
       <c r="N6" s="432" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O6" s="433"/>
       <c r="P6" s="433"/>
@@ -11462,7 +11458,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="208" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D7" s="209"/>
       <c r="E7" s="209"/>
@@ -11558,7 +11554,7 @@
       <c r="L10" s="438"/>
       <c r="M10" s="438"/>
       <c r="N10" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O10" s="221" t="s">
         <v>114</v>
@@ -11570,7 +11566,7 @@
       <c r="T10" s="224"/>
       <c r="U10" s="225"/>
       <c r="V10" s="442" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -11592,7 +11588,7 @@
       <c r="K11" s="222"/>
       <c r="L11" s="222"/>
       <c r="M11" s="228" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N11" s="229" t="s">
         <v>37</v>
@@ -11618,7 +11614,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="430" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E12" s="431"/>
       <c r="F12" s="224"/>
@@ -11627,13 +11623,13 @@
         <v>9</v>
       </c>
       <c r="I12" s="430" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J12" s="431"/>
       <c r="K12" s="224"/>
       <c r="L12" s="225"/>
       <c r="M12" s="230" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N12" s="229" t="s">
         <v>38</v>
@@ -11642,7 +11638,7 @@
         <v>9</v>
       </c>
       <c r="P12" s="430" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="431"/>
       <c r="R12" s="232"/>
@@ -11659,7 +11655,7 @@
       </c>
       <c r="C13" s="229"/>
       <c r="D13" s="440" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="441"/>
       <c r="F13" s="440" t="s">
@@ -11668,7 +11664,7 @@
       <c r="G13" s="441"/>
       <c r="H13" s="229"/>
       <c r="I13" s="440" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J13" s="441"/>
       <c r="K13" s="440" t="s">
@@ -11676,14 +11672,14 @@
       </c>
       <c r="L13" s="441"/>
       <c r="M13" s="230" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N13" s="229" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O13" s="233"/>
       <c r="P13" s="440" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="441"/>
       <c r="R13" s="440" t="s">
@@ -11741,29 +11737,29 @@
       </c>
       <c r="C15" s="229"/>
       <c r="D15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E15" s="220" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G15" s="220" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H15" s="229"/>
       <c r="I15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J15" s="220" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L15" s="220" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M15" s="230" t="s">
         <v>12</v>
@@ -11773,22 +11769,22 @@
       </c>
       <c r="O15" s="229"/>
       <c r="P15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q15" s="220" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="S15" s="220" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T15" s="220" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U15" s="220" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V15" s="443"/>
     </row>
@@ -11801,14 +11797,14 @@
       <c r="E16" s="229"/>
       <c r="F16" s="229"/>
       <c r="G16" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H16" s="229"/>
       <c r="I16" s="229"/>
       <c r="J16" s="229"/>
       <c r="K16" s="229"/>
       <c r="L16" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M16" s="230"/>
       <c r="N16" s="229" t="s">
@@ -11819,11 +11815,11 @@
       <c r="Q16" s="229"/>
       <c r="R16" s="229"/>
       <c r="S16" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T16" s="229"/>
       <c r="U16" s="229" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="V16" s="443"/>
     </row>
@@ -11833,25 +11829,25 @@
       <c r="D17" s="233"/>
       <c r="E17" s="233"/>
       <c r="F17" s="229" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G17" s="229" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H17" s="233"/>
       <c r="I17" s="233"/>
       <c r="J17" s="233"/>
       <c r="K17" s="229" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L17" s="231" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M17" s="230" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N17" s="238" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O17" s="229" t="s">
         <v>42</v>
@@ -11938,83 +11934,83 @@
         <v>68</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="241" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="324" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="324" t="s">
+        <v>522</v>
+      </c>
+      <c r="C19" s="324" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" s="324" t="s">
+        <v>504</v>
+      </c>
+      <c r="E19" s="324" t="s">
+        <v>505</v>
+      </c>
+      <c r="F19" s="324" t="s">
+        <v>506</v>
+      </c>
+      <c r="G19" s="324" t="s">
+        <v>507</v>
+      </c>
+      <c r="H19" s="324" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" s="324" t="s">
+        <v>509</v>
+      </c>
+      <c r="J19" s="324" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" s="324" t="s">
+        <v>511</v>
+      </c>
+      <c r="L19" s="324" t="s">
+        <v>512</v>
+      </c>
+      <c r="M19" s="324" t="s">
+        <v>523</v>
+      </c>
+      <c r="N19" s="324" t="s">
+        <v>524</v>
+      </c>
+      <c r="O19" s="324" t="s">
+        <v>513</v>
+      </c>
+      <c r="P19" s="324" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q19" s="324" t="s">
+        <v>515</v>
+      </c>
+      <c r="R19" s="324" t="s">
+        <v>516</v>
+      </c>
+      <c r="S19" s="324" t="s">
+        <v>517</v>
+      </c>
+      <c r="T19" s="324" t="s">
         <v>525</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="U19" s="324" t="s">
         <v>526</v>
       </c>
-      <c r="C19" s="324" t="s">
-        <v>507</v>
-      </c>
-      <c r="D19" s="324" t="s">
-        <v>508</v>
-      </c>
-      <c r="E19" s="324" t="s">
-        <v>509</v>
-      </c>
-      <c r="F19" s="324" t="s">
-        <v>510</v>
-      </c>
-      <c r="G19" s="324" t="s">
-        <v>511</v>
-      </c>
-      <c r="H19" s="324" t="s">
-        <v>512</v>
-      </c>
-      <c r="I19" s="324" t="s">
-        <v>513</v>
-      </c>
-      <c r="J19" s="324" t="s">
-        <v>514</v>
-      </c>
-      <c r="K19" s="324" t="s">
-        <v>515</v>
-      </c>
-      <c r="L19" s="324" t="s">
-        <v>516</v>
-      </c>
-      <c r="M19" s="324" t="s">
+      <c r="V19" s="324" t="s">
         <v>527</v>
-      </c>
-      <c r="N19" s="324" t="s">
-        <v>528</v>
-      </c>
-      <c r="O19" s="324" t="s">
-        <v>517</v>
-      </c>
-      <c r="P19" s="324" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q19" s="324" t="s">
-        <v>519</v>
-      </c>
-      <c r="R19" s="324" t="s">
-        <v>520</v>
-      </c>
-      <c r="S19" s="324" t="s">
-        <v>521</v>
-      </c>
-      <c r="T19" s="324" t="s">
-        <v>529</v>
-      </c>
-      <c r="U19" s="324" t="s">
-        <v>530</v>
-      </c>
-      <c r="V19" s="324" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B20" s="244" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C20" s="290">
         <v>0</v>
@@ -12079,10 +12075,10 @@
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B21" s="244" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C21" s="293">
         <v>0</v>
@@ -12147,10 +12143,10 @@
     </row>
     <row r="22" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B22" s="244" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C22" s="293">
         <v>0</v>
@@ -12215,10 +12211,10 @@
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B23" s="244" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C23" s="293">
         <v>0</v>
@@ -12283,10 +12279,10 @@
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B24" s="244" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C24" s="293">
         <v>0</v>
@@ -12351,10 +12347,10 @@
     </row>
     <row r="25" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B25" s="244" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C25" s="293">
         <v>0</v>
@@ -12419,10 +12415,10 @@
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B26" s="244" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C26" s="293">
         <v>0</v>
@@ -12487,10 +12483,10 @@
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B27" s="244" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C27" s="293">
         <v>6.0709999999999997</v>
@@ -12555,10 +12551,10 @@
     </row>
     <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B28" s="244" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C28" s="293">
         <v>11.111000000000001</v>
@@ -12623,10 +12619,10 @@
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B29" s="244" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C29" s="293">
         <v>11.184799999999999</v>
@@ -12691,10 +12687,10 @@
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B30" s="244" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C30" s="293">
         <v>11.241925</v>
@@ -12759,10 +12755,10 @@
     </row>
     <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B31" s="244" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C31" s="293">
         <v>11.258599999999999</v>
@@ -12827,10 +12823,10 @@
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B32" s="244" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C32" s="293">
         <v>11.295999999999999</v>
@@ -12895,10 +12891,10 @@
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B33" s="244" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C33" s="293">
         <v>19.698675000000001</v>
@@ -12963,10 +12959,10 @@
     </row>
     <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B34" s="244" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C34" s="293">
         <v>8.6581250000000001</v>
@@ -13031,10 +13027,10 @@
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B35" s="244" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C35" s="293">
         <v>19.5059</v>
@@ -13099,10 +13095,10 @@
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B36" s="244" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="293">
         <v>11.1069</v>
@@ -13167,10 +13163,10 @@
     </row>
     <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B37" s="244" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C37" s="293">
         <v>11.295999999999999</v>
@@ -13235,10 +13231,10 @@
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B38" s="244" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C38" s="293">
         <v>423.53999999999996</v>
@@ -13303,10 +13299,10 @@
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B39" s="244" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" s="293">
         <v>348.76</v>
@@ -13371,10 +13367,10 @@
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B40" s="244" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C40" s="293">
         <v>67.260000000000005</v>
@@ -13439,10 +13435,10 @@
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B41" s="244" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C41" s="293">
         <v>27.09</v>
@@ -13507,10 +13503,10 @@
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B42" s="244" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C42" s="297">
         <v>38.18</v>
@@ -13575,10 +13571,10 @@
     </row>
     <row r="43" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B43" s="244" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C43" s="297">
         <v>28.73</v>
@@ -13643,10 +13639,10 @@
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B44" s="244" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C44" s="293">
         <v>523.80999999999995</v>
@@ -13711,10 +13707,10 @@
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B45" s="244" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C45" s="293">
         <v>579.14</v>
@@ -13779,10 +13775,10 @@
     </row>
     <row r="46" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B46" s="409" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C46" s="293">
         <v>21.956650000000003</v>
@@ -13847,10 +13843,10 @@
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B47" s="409" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C47" s="293">
         <v>19.159500000000001</v>
@@ -13915,10 +13911,10 @@
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B48" s="409" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C48" s="293">
         <v>19.165749999999999</v>
@@ -13983,10 +13979,10 @@
     </row>
     <row r="49" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B49" s="409" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C49" s="293">
         <v>18.736750000000001</v>
@@ -14051,10 +14047,10 @@
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B50" s="409" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C50" s="293">
         <v>21.949775000000002</v>
@@ -14119,10 +14115,10 @@
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B51" s="409" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C51" s="293">
         <v>21.9529</v>
@@ -14187,10 +14183,10 @@
     </row>
     <row r="52" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B52" s="409" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C52" s="293">
         <v>21.956025</v>
@@ -14255,10 +14251,10 @@
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B53" s="409" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C53" s="293">
         <v>22.999299999999998</v>
@@ -14323,10 +14319,10 @@
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B54" s="409" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C54" s="293">
         <v>19.8201</v>
@@ -14391,10 +14387,10 @@
     </row>
     <row r="55" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B55" s="409" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C55" s="293">
         <v>19.244500000000002</v>
@@ -14459,10 +14455,10 @@
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B56" s="409" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C56" s="293">
         <v>18.977350000000001</v>
@@ -14527,10 +14523,10 @@
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B57" s="276" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C57" s="293">
         <v>27.958475</v>
@@ -14595,10 +14591,10 @@
     </row>
     <row r="58" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B58" s="276" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C58" s="293">
         <v>27.615000000000002</v>
@@ -14663,10 +14659,10 @@
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B59" s="409" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C59" s="293">
         <v>19.828850000000003</v>
@@ -14731,10 +14727,10 @@
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B60" s="276" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C60" s="293">
         <v>27.956249999999997</v>
@@ -14799,10 +14795,10 @@
     </row>
     <row r="61" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B61" s="276" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C61" s="293">
         <v>27.659999999999997</v>
@@ -14867,10 +14863,10 @@
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B62" s="409" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C62" s="293">
         <v>18.964500000000001</v>
@@ -14935,10 +14931,10 @@
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B63" s="276" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C63" s="293">
         <v>44.521700000000003</v>
@@ -15003,10 +14999,10 @@
     </row>
     <row r="64" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B64" s="276" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C64" s="293">
         <v>39.832750000000004</v>
@@ -15071,10 +15067,10 @@
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B65" s="276" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C65" s="293">
         <v>39.309199999999997</v>
@@ -15139,10 +15135,10 @@
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="409" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C66" s="293">
         <v>23.0593</v>
@@ -15207,10 +15203,10 @@
     </row>
     <row r="67" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B67" s="276" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C67" s="293">
         <v>39.315449999999998</v>
@@ -15275,10 +15271,10 @@
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B68" s="276" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C68" s="293">
         <v>44.525449999999999</v>
@@ -15343,10 +15339,10 @@
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B69" s="276" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C69" s="293">
         <v>44.530325000000005</v>
@@ -15411,10 +15407,10 @@
     </row>
     <row r="70" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B70" s="276" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C70" s="293">
         <v>44.524075000000003</v>
@@ -15479,10 +15475,10 @@
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B71" s="276" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C71" s="293">
         <v>45.802500000000002</v>
@@ -15547,10 +15543,10 @@
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B72" s="276" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C72" s="293">
         <v>28.049875</v>
@@ -15615,10 +15611,10 @@
     </row>
     <row r="73" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B73" s="276" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C73" s="293">
         <v>27.643125000000001</v>
@@ -15683,10 +15679,10 @@
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B74" s="276" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C74" s="293">
         <v>44.885000000000005</v>
@@ -15774,7 +15770,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R13:S13"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:J13"/>
@@ -15794,6 +15789,7 @@
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R13:S13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
@@ -15839,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="319" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15847,7 +15843,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="319" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15857,7 +15853,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="319" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15865,12 +15861,12 @@
         <v>32</v>
       </c>
       <c r="B5" s="319" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="319" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15878,7 +15874,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="319" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15896,7 +15892,7 @@
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="319" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15930,13 +15926,13 @@
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="399" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B15" s="400" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C15" s="399" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -15959,12 +15955,12 @@
         <v>124</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B20" s="319" t="s">
         <v>74</v>
@@ -15972,7 +15968,7 @@
     </row>
     <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B21" s="319">
         <v>16</v>
@@ -15980,7 +15976,7 @@
     </row>
     <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B22" s="319">
         <v>8371.4</v>
@@ -15988,7 +15984,7 @@
     </row>
     <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16030,7 +16026,7 @@
         <v>75</v>
       </c>
       <c r="B29" s="319" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16040,7 +16036,7 @@
     </row>
     <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="319" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B31" s="325">
         <v>45536</v>
@@ -16049,7 +16045,7 @@
     </row>
     <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="319" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B32" s="319">
         <v>2340.48</v>
@@ -16058,7 +16054,7 @@
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="319" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16134,7 +16130,7 @@
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="319" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B41" s="319">
         <v>112119827.45695201</v>
@@ -16148,7 +16144,7 @@
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="319" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16197,7 +16193,7 @@
     </row>
     <row r="47" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="319" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16290,7 +16286,7 @@
     </row>
     <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="319" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -16358,7 +16354,7 @@
     </row>
     <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="319" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B72" s="319">
         <v>119786894.45695201</v>
@@ -16406,7 +16402,7 @@
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="319" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B78" s="319">
         <v>383470.5</v>
@@ -16414,7 +16410,7 @@
     </row>
     <row r="79" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="319" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B79" s="319">
         <v>123019002.95695201</v>
@@ -16438,7 +16434,7 @@
     </row>
     <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="319" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B82" s="319">
         <v>147622803.54834241</v>
@@ -16446,7 +16442,7 @@
     </row>
     <row r="83" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="319" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B83" s="319">
         <v>3081.5978501347681</v>
@@ -16530,7 +16526,7 @@
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -16545,7 +16541,7 @@
       <c r="M3" s="105"/>
       <c r="N3" s="99"/>
       <c r="O3" s="246" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16563,7 +16559,7 @@
       <c r="M4" s="58"/>
       <c r="N4" s="101"/>
       <c r="O4" s="106" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16571,7 +16567,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
@@ -16579,7 +16575,7 @@
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J5" s="68"/>
       <c r="K5" s="68"/>
@@ -16590,7 +16586,7 @@
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="445" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="417"/>
       <c r="D6" s="417"/>
@@ -16598,7 +16594,7 @@
       <c r="F6" s="417"/>
       <c r="G6" s="418"/>
       <c r="H6" s="416" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I6" s="417"/>
       <c r="J6" s="417"/>
@@ -16613,7 +16609,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -16730,10 +16726,10 @@
         <v>174</v>
       </c>
       <c r="K11" s="78" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L11" s="79" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M11" s="80" t="s">
         <v>177</v>
@@ -16831,57 +16827,57 @@
     </row>
     <row r="14" spans="1:15" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="328" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" s="328" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" s="328" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="328" t="s">
+        <v>536</v>
+      </c>
+      <c r="E14" s="328" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" s="328" t="s">
+        <v>537</v>
+      </c>
+      <c r="G14" s="328" t="s">
+        <v>538</v>
+      </c>
+      <c r="H14" s="328" t="s">
+        <v>539</v>
+      </c>
+      <c r="I14" s="328" t="s">
+        <v>540</v>
+      </c>
+      <c r="J14" s="328" t="s">
+        <v>541</v>
+      </c>
+      <c r="K14" s="328" t="s">
         <v>525</v>
       </c>
-      <c r="B14" s="328" t="s">
-        <v>526</v>
-      </c>
-      <c r="C14" s="328" t="s">
-        <v>530</v>
-      </c>
-      <c r="D14" s="328" t="s">
-        <v>540</v>
-      </c>
-      <c r="E14" s="328" t="s">
-        <v>528</v>
-      </c>
-      <c r="F14" s="328" t="s">
-        <v>541</v>
-      </c>
-      <c r="G14" s="328" t="s">
+      <c r="L14" s="328" t="s">
         <v>542</v>
       </c>
-      <c r="H14" s="328" t="s">
+      <c r="M14" s="328" t="s">
         <v>543</v>
       </c>
-      <c r="I14" s="328" t="s">
+      <c r="N14" s="328" t="s">
         <v>544</v>
       </c>
-      <c r="J14" s="328" t="s">
+      <c r="O14" s="328" t="s">
         <v>545</v>
-      </c>
-      <c r="K14" s="328" t="s">
-        <v>529</v>
-      </c>
-      <c r="L14" s="328" t="s">
-        <v>546</v>
-      </c>
-      <c r="M14" s="328" t="s">
-        <v>547</v>
-      </c>
-      <c r="N14" s="328" t="s">
-        <v>548</v>
-      </c>
-      <c r="O14" s="328" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="283">
         <v>13.818411500000002</v>
@@ -16925,10 +16921,10 @@
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C16" s="283">
         <v>14.394178999999999</v>
@@ -16972,10 +16968,10 @@
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C17" s="283">
         <v>15.35379</v>
@@ -17019,10 +17015,10 @@
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C18" s="283">
         <v>15.993528</v>
@@ -17066,10 +17062,10 @@
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C19" s="283">
         <v>27.636816</v>
@@ -17113,10 +17109,10 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B20" s="114" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C20" s="283">
         <v>28.788352</v>
@@ -17160,10 +17156,10 @@
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C21" s="283">
         <v>31.987050500000002</v>
@@ -17207,10 +17203,10 @@
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C22" s="283">
         <v>29.35388</v>
@@ -17254,10 +17250,10 @@
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="283">
         <v>56.069470000000003</v>
@@ -17301,10 +17297,10 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B24" s="114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C24" s="283">
         <v>56.258319500000006</v>
@@ -17348,10 +17344,10 @@
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C25" s="283">
         <v>56.404505999999991</v>
@@ -17395,10 +17391,10 @@
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B26" s="114" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="283">
         <v>57.598711000000009</v>
@@ -17442,10 +17438,10 @@
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C27" s="283">
         <v>56.542882999999996</v>
@@ -17489,10 +17485,10 @@
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B28" s="114" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="283">
         <v>65.762001999999995</v>
@@ -17536,10 +17532,10 @@
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="283">
         <v>37.509625999999997</v>
@@ -17583,10 +17579,10 @@
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C30" s="283">
         <v>65.268696500000004</v>
@@ -17630,10 +17626,10 @@
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="283">
         <v>57.210517999999993</v>
@@ -17677,10 +17673,10 @@
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" s="283">
         <v>57.694418000000006</v>
@@ -17724,10 +17720,10 @@
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B33" s="122" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C33" s="300">
         <v>428.94728699999996</v>
@@ -17771,10 +17767,10 @@
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B34" s="122" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" s="300">
         <v>353.21258349999999</v>
@@ -17818,10 +17814,10 @@
     </row>
     <row r="35" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C35" s="283">
         <v>68.118698000000009</v>
@@ -17865,10 +17861,10 @@
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B36" s="114" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36" s="283">
         <v>27.435856000000001</v>
@@ -17912,10 +17908,10 @@
     </row>
     <row r="37" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B37" s="114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C37" s="283">
         <v>38.6674425</v>
@@ -17959,10 +17955,10 @@
     </row>
     <row r="38" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C38" s="283">
         <v>29.096793000000002</v>
@@ -18006,10 +18002,10 @@
     </row>
     <row r="39" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B39" s="114" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C39" s="283">
         <v>530.49742349999997</v>
@@ -18053,10 +18049,10 @@
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C40" s="283">
         <v>586.533816</v>
@@ -18100,10 +18096,10 @@
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B41" s="408" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C41" s="283">
         <v>39.987708500000004</v>
@@ -18147,10 +18143,10 @@
     </row>
     <row r="42" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B42" s="408" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C42" s="283">
         <v>35.698933000000004</v>
@@ -18194,10 +18190,10 @@
     </row>
     <row r="43" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B43" s="408" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C43" s="283">
         <v>35.445196499999994</v>
@@ -18241,10 +18237,10 @@
     </row>
     <row r="44" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B44" s="408" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C44" s="283">
         <v>35.018810500000001</v>
@@ -18288,10 +18284,10 @@
     </row>
     <row r="45" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B45" s="408" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C45" s="283">
         <v>40.10761625</v>
@@ -18335,10 +18331,10 @@
     </row>
     <row r="46" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B46" s="408" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C46" s="283">
         <v>39.719128499999997</v>
@@ -18382,10 +18378,10 @@
     </row>
     <row r="47" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B47" s="408" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C47" s="283">
         <v>39.853880250000003</v>
@@ -18429,10 +18425,10 @@
     </row>
     <row r="48" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B48" s="408" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C48" s="283">
         <v>40.7420075</v>
@@ -18476,10 +18472,10 @@
     </row>
     <row r="49" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B49" s="408" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C49" s="283">
         <v>35.810484500000001</v>
@@ -18523,10 +18519,10 @@
     </row>
     <row r="50" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B50" s="408" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C50" s="283">
         <v>34.672862000000009</v>
@@ -18570,10 +18566,10 @@
     </row>
     <row r="51" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B51" s="408" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C51" s="283">
         <v>34.072747000000007</v>
@@ -18617,10 +18613,10 @@
     </row>
     <row r="52" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C52" s="283">
         <v>52.546158750000004</v>
@@ -18664,10 +18660,10 @@
     </row>
     <row r="53" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C53" s="283">
         <v>51.594872000000009</v>
@@ -18711,10 +18707,10 @@
     </row>
     <row r="54" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B54" s="408" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C54" s="283">
         <v>35.602207</v>
@@ -18758,10 +18754,10 @@
     </row>
     <row r="55" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C55" s="283">
         <v>52.289281500000001</v>
@@ -18805,10 +18801,10 @@
     </row>
     <row r="56" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" s="283">
         <v>51.912159499999994</v>
@@ -18852,10 +18848,10 @@
     </row>
     <row r="57" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B57" s="408" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C57" s="283">
         <v>34.257235000000001</v>
@@ -18899,10 +18895,10 @@
     </row>
     <row r="58" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C58" s="283">
         <v>76.872484500000013</v>
@@ -18946,10 +18942,10 @@
     </row>
     <row r="59" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C59" s="283">
         <v>69.610590500000001</v>
@@ -18993,10 +18989,10 @@
     </row>
     <row r="60" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B60" s="114" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C60" s="283">
         <v>68.748337000000006</v>
@@ -19040,10 +19036,10 @@
     </row>
     <row r="61" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B61" s="408" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C61" s="283">
         <v>40.831069499999998</v>
@@ -19087,10 +19083,10 @@
     </row>
     <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B62" s="114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C62" s="283">
         <v>68.95104649999999</v>
@@ -19134,10 +19130,10 @@
     </row>
     <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C63" s="283">
         <v>76.684619999999995</v>
@@ -19181,10 +19177,10 @@
     </row>
     <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B64" s="114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C64" s="283">
         <v>76.987012750000005</v>
@@ -19228,10 +19224,10 @@
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C65" s="283">
         <v>76.784303750000007</v>
@@ -19275,10 +19271,10 @@
     </row>
     <row r="66" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" s="283">
         <v>78.216138000000001</v>
@@ -19322,10 +19318,10 @@
     </row>
     <row r="67" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B67" s="114" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C67" s="283">
         <v>52.68027275</v>
@@ -19369,10 +19365,10 @@
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B68" s="114" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C68" s="283">
         <v>51.605309750000004</v>
@@ -19416,10 +19412,10 @@
     </row>
     <row r="69" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C69" s="283">
         <v>76.450660499999998</v>
@@ -19635,7 +19631,7 @@
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="95" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -19647,7 +19643,7 @@
       <c r="J3" s="105"/>
       <c r="K3" s="99"/>
       <c r="L3" s="246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19662,7 +19658,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="101"/>
       <c r="L4" s="106" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -19670,14 +19666,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
@@ -19686,14 +19682,14 @@
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="445" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" s="417"/>
       <c r="D6" s="417"/>
       <c r="E6" s="417"/>
       <c r="F6" s="418"/>
       <c r="G6" s="417" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H6" s="417"/>
       <c r="I6" s="417"/>
@@ -19706,7 +19702,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -19777,7 +19773,7 @@
         <v>201</v>
       </c>
       <c r="J10" s="453" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K10" s="454"/>
       <c r="L10" s="455"/>
@@ -19838,7 +19834,7 @@
     </row>
     <row r="13" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="450" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C13" s="451"/>
       <c r="D13" s="451"/>
@@ -19853,44 +19849,44 @@
     </row>
     <row r="14" spans="1:12" s="113" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="324" t="s">
+        <v>546</v>
+      </c>
+      <c r="B14" s="324" t="s">
+        <v>522</v>
+      </c>
+      <c r="C14" s="324" t="s">
+        <v>547</v>
+      </c>
+      <c r="D14" s="324" t="s">
+        <v>548</v>
+      </c>
+      <c r="E14" s="324" t="s">
+        <v>549</v>
+      </c>
+      <c r="F14" s="324" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="324" t="s">
-        <v>526</v>
-      </c>
-      <c r="C14" s="324" t="s">
+      <c r="G14" s="324" t="s">
         <v>551</v>
       </c>
-      <c r="D14" s="324" t="s">
+      <c r="H14" s="324" t="s">
         <v>552</v>
       </c>
-      <c r="E14" s="324" t="s">
+      <c r="I14" s="324" t="s">
+        <v>527</v>
+      </c>
+      <c r="J14" s="324" t="s">
         <v>553</v>
-      </c>
-      <c r="F14" s="324" t="s">
-        <v>554</v>
-      </c>
-      <c r="G14" s="324" t="s">
-        <v>555</v>
-      </c>
-      <c r="H14" s="324" t="s">
-        <v>556</v>
-      </c>
-      <c r="I14" s="324" t="s">
-        <v>531</v>
-      </c>
-      <c r="J14" s="324" t="s">
-        <v>557</v>
       </c>
       <c r="K14" s="326"/>
       <c r="L14" s="327"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B15" s="114" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="283">
         <v>10.799999999999999</v>
@@ -19919,10 +19915,10 @@
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B16" s="114" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C16" s="283">
         <v>11.25</v>
@@ -19951,10 +19947,10 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B17" s="114" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C17" s="283">
         <v>12</v>
@@ -19983,10 +19979,10 @@
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B18" s="114" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C18" s="283">
         <v>12.5</v>
@@ -20015,10 +20011,10 @@
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B19" s="114" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C19" s="283">
         <v>21.599999999999998</v>
@@ -20047,10 +20043,10 @@
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B20" s="114" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C20" s="283">
         <v>22.5</v>
@@ -20079,10 +20075,10 @@
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B21" s="114" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C21" s="283">
         <v>25</v>
@@ -20111,10 +20107,10 @@
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B22" s="114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C22" s="283">
         <v>10.799999999999999</v>
@@ -20143,10 +20139,10 @@
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B23" s="114" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="283">
         <v>21.599999999999998</v>
@@ -20175,10 +20171,10 @@
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B24" s="114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C24" s="283">
         <v>21.599999999999998</v>
@@ -20207,10 +20203,10 @@
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B25" s="114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C25" s="283">
         <v>21.599999999999994</v>
@@ -20239,10 +20235,10 @@
     </row>
     <row r="26" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B26" s="114" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C26" s="283">
         <v>22.5</v>
@@ -20271,10 +20267,10 @@
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B27" s="114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C27" s="283">
         <v>21.6</v>
@@ -20303,10 +20299,10 @@
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B28" s="114" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C28" s="283">
         <v>12</v>
@@ -20335,10 +20331,10 @@
     </row>
     <row r="29" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B29" s="114" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C29" s="283">
         <v>11.999999999999998</v>
@@ -20367,10 +20363,10 @@
     </row>
     <row r="30" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B30" s="114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C30" s="283">
         <v>12</v>
@@ -20399,10 +20395,10 @@
     </row>
     <row r="31" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B31" s="114" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C31" s="283">
         <v>22.499999999999996</v>
@@ -20431,10 +20427,10 @@
     </row>
     <row r="32" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="114" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B32" s="304" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" s="288">
         <v>22.5</v>
@@ -20463,10 +20459,10 @@
     </row>
     <row r="33" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B33" s="270" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C33" s="313">
         <v>423.53999999999996</v>
@@ -20495,10 +20491,10 @@
     </row>
     <row r="34" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B34" s="114" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" s="283">
         <v>348.76</v>
@@ -20527,10 +20523,10 @@
     </row>
     <row r="35" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B35" s="114" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C35" s="283">
         <v>67.260000000000005</v>
@@ -20559,10 +20555,10 @@
     </row>
     <row r="36" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B36" s="114" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36" s="283">
         <v>27.09</v>
@@ -20591,10 +20587,10 @@
     </row>
     <row r="37" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B37" s="114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C37" s="283">
         <v>38.18</v>
@@ -20623,10 +20619,10 @@
     </row>
     <row r="38" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C38" s="283">
         <v>28.73</v>
@@ -20655,10 +20651,10 @@
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B39" s="379" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C39" s="380">
         <v>523.80999999999995</v>
@@ -20687,10 +20683,10 @@
     </row>
     <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="114" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B40" s="389" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C40" s="390">
         <v>579.14</v>
@@ -20719,10 +20715,10 @@
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B41" s="407" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C41" s="300">
         <v>28.6</v>
@@ -20751,10 +20747,10 @@
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B42" s="407" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C42" s="300">
         <v>25.68</v>
@@ -20783,10 +20779,10 @@
     </row>
     <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B43" s="407" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C43" s="300">
         <v>25.45</v>
@@ -20815,10 +20811,10 @@
     </row>
     <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B44" s="407" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C44" s="300">
         <v>25.21</v>
@@ -20847,10 +20843,10 @@
     </row>
     <row r="45" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B45" s="407" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C45" s="300">
         <v>28.71</v>
@@ -20879,10 +20875,10 @@
     </row>
     <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B46" s="407" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C46" s="300">
         <v>28.36</v>
@@ -20911,10 +20907,10 @@
     </row>
     <row r="47" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B47" s="407" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C47" s="300">
         <v>28.48</v>
@@ -20943,10 +20939,10 @@
     </row>
     <row r="48" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B48" s="407" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C48" s="300">
         <v>28.93</v>
@@ -20975,10 +20971,10 @@
     </row>
     <row r="49" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B49" s="407" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C49" s="300">
         <v>25.56</v>
@@ -21007,10 +21003,10 @@
     </row>
     <row r="50" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B50" s="407" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C50" s="300">
         <v>24.730000000000004</v>
@@ -21039,10 +21035,10 @@
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B51" s="408" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C51" s="300">
         <v>24.28</v>
@@ -21071,10 +21067,10 @@
     </row>
     <row r="52" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B52" s="114" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C52" s="300">
         <v>37.880000000000003</v>
@@ -21103,10 +21099,10 @@
     </row>
     <row r="53" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B53" s="114" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C53" s="300">
         <v>37.14</v>
@@ -21135,10 +21131,10 @@
     </row>
     <row r="54" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B54" s="408" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C54" s="300">
         <v>25.370000000000005</v>
@@ -21167,10 +21163,10 @@
     </row>
     <row r="55" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B55" s="114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C55" s="300">
         <v>37.65</v>
@@ -21199,10 +21195,10 @@
     </row>
     <row r="56" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B56" s="114" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C56" s="300">
         <v>37.409999999999997</v>
@@ -21231,10 +21227,10 @@
     </row>
     <row r="57" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B57" s="408" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C57" s="300">
         <v>24.450000000000003</v>
@@ -21263,10 +21259,10 @@
     </row>
     <row r="58" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B58" s="114" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C58" s="300">
         <v>54.21</v>
@@ -21295,10 +21291,10 @@
     </row>
     <row r="59" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B59" s="114" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C59" s="300">
         <v>49.25</v>
@@ -21327,10 +21323,10 @@
     </row>
     <row r="60" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B60" s="114" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C60" s="300">
         <v>48.65</v>
@@ -21359,10 +21355,10 @@
     </row>
     <row r="61" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B61" s="408" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C61" s="300">
         <v>28.990000000000002</v>
@@ -21391,10 +21387,10 @@
     </row>
     <row r="62" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B62" s="114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C62" s="300">
         <v>48.83</v>
@@ -21423,10 +21419,10 @@
     </row>
     <row r="63" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B63" s="114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C63" s="300">
         <v>54.04</v>
@@ -21455,10 +21451,10 @@
     </row>
     <row r="64" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B64" s="114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C64" s="300">
         <v>54.31</v>
@@ -21487,10 +21483,10 @@
     </row>
     <row r="65" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B65" s="114" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C65" s="300">
         <v>54.13</v>
@@ -21519,10 +21515,10 @@
     </row>
     <row r="66" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="114" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" s="300">
         <v>54.99</v>
@@ -21551,10 +21547,10 @@
     </row>
     <row r="67" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B67" s="114" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C67" s="300">
         <v>37.97</v>
@@ -21583,10 +21579,10 @@
     </row>
     <row r="68" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B68" s="114" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C68" s="300">
         <v>37.14</v>
@@ -21615,10 +21611,10 @@
     </row>
     <row r="69" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="114" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B69" s="114" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C69" s="300">
         <v>53.710000000000008</v>
@@ -21748,7 +21744,7 @@
   </sheetPr>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -21839,7 +21835,7 @@
       <c r="E3" s="334"/>
       <c r="F3" s="336"/>
       <c r="G3" s="337" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H3" s="361" t="s">
         <v>86</v>
@@ -21872,7 +21868,7 @@
       <c r="E4" s="331"/>
       <c r="F4" s="332"/>
       <c r="G4" s="339" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H4" s="363"/>
       <c r="I4"/>
@@ -21900,10 +21896,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="347" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C5" s="340" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D5" s="340"/>
       <c r="E5" s="341"/>
@@ -21932,11 +21928,11 @@
     </row>
     <row r="6" spans="1:27" s="333" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="375" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="345"/>
       <c r="C6" s="376" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" s="377"/>
       <c r="E6" s="377"/>
@@ -21967,7 +21963,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="348" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" s="366" t="s">
         <v>2</v>
@@ -22101,123 +22097,120 @@
     </row>
     <row r="11" spans="1:27" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="320" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="320" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="320" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="320" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="320" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="320" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="320" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="320" t="s">
+      <c r="F11" s="320" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="320" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="320" t="s">
-        <v>270</v>
-      </c>
       <c r="G11" s="320" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H11" s="320" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="370" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" s="370" t="s">
+        <v>597</v>
+      </c>
+      <c r="C12" s="370" t="s">
+        <v>598</v>
+      </c>
+      <c r="D12" s="370" t="s">
+        <v>599</v>
+      </c>
+      <c r="E12" s="370" t="s">
         <v>600</v>
       </c>
-      <c r="B12" s="370" t="s">
+      <c r="F12" s="370" t="s">
         <v>601</v>
       </c>
-      <c r="C12" s="370" t="s">
+      <c r="G12" s="370" t="s">
         <v>602</v>
       </c>
-      <c r="D12" s="370" t="s">
+      <c r="H12" s="370" t="s">
         <v>603</v>
-      </c>
-      <c r="E12" s="370" t="s">
-        <v>604</v>
-      </c>
-      <c r="F12" s="370" t="s">
-        <v>605</v>
-      </c>
-      <c r="G12" s="370" t="s">
-        <v>606</v>
-      </c>
-      <c r="H12" s="370" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="156" x14ac:dyDescent="0.15">
       <c r="A13" s="320" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13" s="320" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C13" s="320" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D13" s="320" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E13" s="320" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F13" s="320" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G13" s="320" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H13" s="320" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="156" x14ac:dyDescent="0.15">
       <c r="C14" s="320" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D14" s="320" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E14" s="320" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F14" s="320"/>
       <c r="G14" s="320"/>
       <c r="H14" s="320" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="409.5" x14ac:dyDescent="0.15">
       <c r="C15" s="406" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D15" s="406" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E15" s="320" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F15" s="320"/>
       <c r="G15" s="320"/>
       <c r="H15" s="406" t="s">
-        <v>670</v>
-      </c>
-      <c r="I15" s="474"/>
-      <c r="J15" s="474"/>
-      <c r="K15" s="474"/>
+        <v>666</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="288" x14ac:dyDescent="0.15">
       <c r="A16" s="320"/>
       <c r="C16" s="320"/>
       <c r="D16" s="320"/>
       <c r="E16" s="320" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F16" s="320"/>
       <c r="G16" s="320"/>
@@ -22228,7 +22221,7 @@
       <c r="C17" s="320"/>
       <c r="D17" s="320"/>
       <c r="E17" s="320" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F17" s="320"/>
       <c r="G17" s="320"/>
@@ -22239,7 +22232,7 @@
       <c r="C18" s="320"/>
       <c r="D18" s="320"/>
       <c r="E18" s="320" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F18" s="320"/>
       <c r="G18" s="320"/>
@@ -22250,7 +22243,7 @@
       <c r="C19" s="320"/>
       <c r="D19" s="320"/>
       <c r="E19" s="320" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F19" s="320"/>
       <c r="G19" s="320"/>
@@ -22261,7 +22254,7 @@
       <c r="C20" s="320"/>
       <c r="D20" s="320"/>
       <c r="E20" s="320" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F20" s="320"/>
       <c r="G20" s="320"/>
@@ -22272,7 +22265,7 @@
       <c r="C21" s="320"/>
       <c r="D21" s="320"/>
       <c r="E21" s="320" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F21" s="320"/>
       <c r="G21" s="320"/>
@@ -22283,7 +22276,7 @@
       <c r="C22" s="320"/>
       <c r="D22" s="320"/>
       <c r="E22" s="320" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F22" s="320"/>
       <c r="G22" s="320"/>
@@ -22294,7 +22287,7 @@
       <c r="C23" s="320"/>
       <c r="D23" s="320"/>
       <c r="E23" s="406" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F23" s="320"/>
       <c r="G23" s="320"/>
@@ -22305,7 +22298,7 @@
       <c r="C24" s="320"/>
       <c r="D24" s="320"/>
       <c r="E24" s="406" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F24" s="320"/>
       <c r="G24" s="320"/>
@@ -22316,7 +22309,7 @@
       <c r="C25" s="320"/>
       <c r="D25" s="320"/>
       <c r="E25" s="406" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F25" s="320"/>
       <c r="G25" s="320"/>
@@ -22327,7 +22320,7 @@
       <c r="C26" s="320"/>
       <c r="D26" s="320"/>
       <c r="E26" s="320" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F26" s="320"/>
       <c r="G26" s="320"/>
@@ -22580,7 +22573,7 @@
       <c r="B3" s="378"/>
       <c r="C3" s="378"/>
       <c r="D3" s="378" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22588,7 +22581,7 @@
       <c r="B4" s="378"/>
       <c r="C4" s="378"/>
       <c r="D4" s="378" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22596,20 +22589,20 @@
         <v>1</v>
       </c>
       <c r="B5" s="378" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C5" s="378" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D5" s="378"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="378" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="378"/>
       <c r="C6" s="378" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" s="378"/>
     </row>
@@ -22618,7 +22611,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="378" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" s="378" t="s">
         <v>2</v>
@@ -22666,10 +22659,10 @@
         <v>90</v>
       </c>
       <c r="B11" s="378" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C11" s="378" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D11" s="378" t="s">
         <v>110</v>
@@ -22677,16 +22670,16 @@
     </row>
     <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="350" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B12" s="350" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C12" s="350" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D12" s="350" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22696,135 +22689,135 @@
       <c r="B13" s="319"/>
       <c r="C13" s="319"/>
       <c r="D13" s="319" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B14" s="319" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C14" s="319"/>
       <c r="D14" s="319"/>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="319" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="319" t="s">
         <v>348</v>
-      </c>
-      <c r="B15" s="319" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="319" t="s">
-        <v>350</v>
       </c>
       <c r="D15" s="319"/>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B16" s="319" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C16" s="319"/>
       <c r="D16" s="319"/>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B17" s="319" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C17" s="319"/>
       <c r="D17" s="319"/>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="319" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="319" t="s">
         <v>355</v>
-      </c>
-      <c r="B18" s="319" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="319" t="s">
-        <v>357</v>
       </c>
       <c r="D18" s="319"/>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C19" s="319"/>
       <c r="D19" s="319"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B20" s="319" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C20" s="319" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D20" s="319"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="319" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B21" s="319" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C21" s="319"/>
       <c r="D21" s="319"/>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="319" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="319" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="319" t="s">
         <v>364</v>
       </c>
-      <c r="B22" s="319" t="s">
+      <c r="D22" s="319" t="s">
         <v>365</v>
-      </c>
-      <c r="C22" s="319" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" s="319" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="319" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" s="319" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="319" t="s">
         <v>368</v>
       </c>
-      <c r="B23" s="319" t="s">
+      <c r="D23" s="319" t="s">
         <v>369</v>
-      </c>
-      <c r="C23" s="319" t="s">
-        <v>370</v>
-      </c>
-      <c r="D23" s="319" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="319" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B24" s="319" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C24" s="319" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D24" s="319" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -22832,21 +22825,21 @@
         <v>91</v>
       </c>
       <c r="B25" s="319" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="319" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="319" t="s">
         <v>374</v>
-      </c>
-      <c r="C25" s="319" t="s">
-        <v>375</v>
-      </c>
-      <c r="D25" s="319" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="319" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B26" s="319" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C26" s="319"/>
       <c r="D26" s="351"/>
@@ -22856,20 +22849,20 @@
         <v>120</v>
       </c>
       <c r="B27" s="319" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C27" s="319"/>
       <c r="D27" s="351"/>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="319" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="319" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="319" t="s">
         <v>379</v>
-      </c>
-      <c r="B28" s="319" t="s">
-        <v>380</v>
-      </c>
-      <c r="C28" s="319" t="s">
-        <v>381</v>
       </c>
       <c r="D28" s="351"/>
     </row>
@@ -22878,10 +22871,10 @@
         <v>92</v>
       </c>
       <c r="B29" s="319" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C29" s="319" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D29" s="351"/>
     </row>
@@ -22963,7 +22956,7 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -22973,7 +22966,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -22983,22 +22976,22 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6"/>
     </row>
@@ -23007,7 +23000,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -23068,171 +23061,171 @@
         <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="352" t="s">
+        <v>565</v>
+      </c>
+      <c r="B12" s="352" t="s">
+        <v>566</v>
+      </c>
+      <c r="C12" s="352" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="352" t="s">
+        <v>568</v>
+      </c>
+      <c r="E12" s="352" t="s">
         <v>569</v>
       </c>
-      <c r="B12" s="352" t="s">
-        <v>570</v>
-      </c>
-      <c r="C12" s="352" t="s">
-        <v>571</v>
-      </c>
-      <c r="D12" s="352" t="s">
-        <v>572</v>
-      </c>
-      <c r="E12" s="352" t="s">
-        <v>573</v>
-      </c>
       <c r="F12" s="352" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="319" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="319" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="319" t="s">
         <v>384</v>
       </c>
-      <c r="B13" s="319" t="s">
+      <c r="D13" s="319" t="s">
         <v>385</v>
-      </c>
-      <c r="C13" s="319" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="319" t="s">
-        <v>387</v>
       </c>
       <c r="E13" s="319"/>
       <c r="F13" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="319" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" s="319" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="319" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="319" t="s">
+      <c r="D14" s="319" t="s">
         <v>389</v>
-      </c>
-      <c r="C14" s="319" t="s">
-        <v>390</v>
-      </c>
-      <c r="D14" s="319" t="s">
-        <v>391</v>
       </c>
       <c r="E14" s="319"/>
       <c r="F14" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="319" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B15" s="319" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="319" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="319" t="s">
         <v>389</v>
-      </c>
-      <c r="C15" s="319" t="s">
-        <v>390</v>
-      </c>
-      <c r="D15" s="319" t="s">
-        <v>391</v>
       </c>
       <c r="E15" s="319"/>
       <c r="F15" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="319" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B16" s="319" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="319" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" s="319" t="s">
         <v>389</v>
-      </c>
-      <c r="C16" s="319" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="319" t="s">
-        <v>391</v>
       </c>
       <c r="E16" s="319"/>
       <c r="F16" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="319" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="319" t="s">
+        <v>392</v>
+      </c>
+      <c r="C17" s="319" t="s">
         <v>393</v>
       </c>
-      <c r="B17" s="319" t="s">
-        <v>394</v>
-      </c>
-      <c r="C17" s="319" t="s">
-        <v>395</v>
-      </c>
       <c r="D17" s="319" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E17" s="319"/>
       <c r="F17" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="319" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B18" s="319" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C18" s="319" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D18" s="319" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E18" s="319"/>
       <c r="F18" s="4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="319" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B19" s="319" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C19" s="319" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="319" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E19" s="319"/>
       <c r="F19" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="319" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B20" s="319" t="s">
+        <v>392</v>
+      </c>
+      <c r="C20" s="319" t="s">
+        <v>388</v>
+      </c>
+      <c r="D20" s="319" t="s">
         <v>394</v>
-      </c>
-      <c r="C20" s="319" t="s">
-        <v>390</v>
-      </c>
-      <c r="D20" s="319" t="s">
-        <v>396</v>
       </c>
       <c r="E20" s="319"/>
       <c r="F20" s="4" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
